--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,81 @@
   </si>
   <si>
     <t>samhitA</t>
+  </si>
+  <si>
+    <t>1.2.11.1</t>
+  </si>
+  <si>
+    <t>1.2.12.1</t>
+  </si>
+  <si>
+    <t>1.2.13.1</t>
+  </si>
+  <si>
+    <t>1.2.14.6</t>
+  </si>
+  <si>
+    <t>13/07/2020</t>
+  </si>
+  <si>
+    <t>1.2.14.7</t>
+  </si>
+  <si>
+    <t>1.3.1.1</t>
+  </si>
+  <si>
+    <t>1.3.2.1</t>
+  </si>
+  <si>
+    <t>1.3.3.1</t>
+  </si>
+  <si>
+    <t>1.3.4.1</t>
+  </si>
+  <si>
+    <t>1.3.5.1</t>
+  </si>
+  <si>
+    <t>1.3.6.1</t>
+  </si>
+  <si>
+    <t>1.3.7.1</t>
+  </si>
+  <si>
+    <t>14/07/2020</t>
+  </si>
+  <si>
+    <t>1.3.8.1</t>
+  </si>
+  <si>
+    <t>1.3.9.1</t>
+  </si>
+  <si>
+    <t>1.3.10.1</t>
+  </si>
+  <si>
+    <t>1.3.11.1</t>
+  </si>
+  <si>
+    <t>1.3.12.1</t>
+  </si>
+  <si>
+    <t>1.3.13.1</t>
+  </si>
+  <si>
+    <t>1.3.14.1</t>
+  </si>
+  <si>
+    <t>upto 1.3.14.4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hPGh9CKobF8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4CipAIdR0nU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LT9kGdY_iUo</t>
   </si>
 </sst>
 </file>
@@ -200,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -212,6 +287,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,8 +598,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -527,9 +609,9 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="42.33203125" customWidth="1"/>
   </cols>
@@ -540,16 +622,16 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -571,16 +653,16 @@
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="3"/>
@@ -604,10 +686,10 @@
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>5.0199999999999996</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <v>8.44</v>
       </c>
       <c r="H7" s="1"/>
@@ -628,10 +710,10 @@
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>8.44</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <v>14.48</v>
       </c>
       <c r="H8" s="1"/>
@@ -650,10 +732,10 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>14.48</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <v>19.16</v>
       </c>
       <c r="H9" s="1"/>
@@ -672,10 +754,10 @@
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>19.16</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="6">
         <v>26.04</v>
       </c>
       <c r="H10" s="1"/>
@@ -694,10 +776,10 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>26.04</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <v>33.380000000000003</v>
       </c>
       <c r="H11" s="1"/>
@@ -712,8 +794,8 @@
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -740,7 +822,7 @@
       <c r="F13" s="6">
         <v>2.5</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <v>7.39</v>
       </c>
       <c r="H13" s="1"/>
@@ -761,7 +843,7 @@
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <v>7.39</v>
       </c>
       <c r="G14" s="6">
@@ -786,7 +868,7 @@
       <c r="F15" s="6">
         <v>14.3</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="6">
         <v>19.52</v>
       </c>
       <c r="H15" s="1"/>
@@ -805,10 +887,10 @@
       <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>19.52</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="6">
         <v>30.56</v>
       </c>
       <c r="H16" s="1"/>
@@ -827,10 +909,10 @@
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6">
         <v>30.56</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="6">
         <v>43.12</v>
       </c>
       <c r="H17" s="1"/>
@@ -849,10 +931,10 @@
       <c r="E18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="6">
         <v>43.12</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="6">
         <v>52.12</v>
       </c>
       <c r="H18" s="1"/>
@@ -865,10 +947,10 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -892,10 +974,10 @@
       <c r="E20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6">
         <v>1.36</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="6">
         <v>6.06</v>
       </c>
       <c r="H20" s="1"/>
@@ -916,11 +998,11 @@
       <c r="E21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6">
         <f>+G20</f>
         <v>6.06</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="6">
         <v>16.29</v>
       </c>
       <c r="H21" s="1"/>
@@ -939,11 +1021,11 @@
       <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6">
         <f t="shared" ref="F22:F25" si="0">+G21</f>
         <v>16.29</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="6">
         <v>29.49</v>
       </c>
       <c r="H22" s="1"/>
@@ -962,11 +1044,11 @@
       <c r="E23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>29.49</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="6">
         <v>36.57</v>
       </c>
       <c r="H23" s="1"/>
@@ -985,11 +1067,11 @@
       <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>36.57</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="6">
         <v>45.53</v>
       </c>
       <c r="H24" s="1"/>
@@ -1008,11 +1090,11 @@
       <c r="E25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>45.53</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="6">
         <v>49.18</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1027,10 +1109,10 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1055,7 +1137,7 @@
       <c r="F27" s="6">
         <v>5</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="6">
         <v>12.23</v>
       </c>
       <c r="H27" s="1"/>
@@ -1077,11 +1159,11 @@
       <c r="E28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="6">
         <f>+G27</f>
         <v>12.23</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="6">
         <v>18.510000000000002</v>
       </c>
       <c r="H28" s="1"/>
@@ -1101,11 +1183,11 @@
       <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="6">
         <f t="shared" ref="F29:F34" si="2">+G28</f>
         <v>18.510000000000002</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="6">
         <v>23.47</v>
       </c>
       <c r="H29" s="1"/>
@@ -1125,11 +1207,11 @@
       <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="6">
         <f t="shared" si="2"/>
         <v>23.47</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="6">
         <v>27.34</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -1151,10 +1233,10 @@
       <c r="E31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="6">
         <v>28.52</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="6">
         <v>34.01</v>
       </c>
       <c r="I31" s="1"/>
@@ -1173,11 +1255,11 @@
       <c r="E32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="6">
         <f t="shared" si="2"/>
         <v>34.01</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="6">
         <v>39.36</v>
       </c>
       <c r="H32" s="1"/>
@@ -1187,7 +1269,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="4">
@@ -1197,11 +1279,11 @@
       <c r="E33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="6">
         <f t="shared" si="2"/>
         <v>39.36</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="6">
         <v>44.39</v>
       </c>
       <c r="H33" s="1"/>
@@ -1211,7 +1293,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="4">
@@ -1221,11 +1303,11 @@
       <c r="E34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="6">
         <f t="shared" si="2"/>
         <v>44.39</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="6">
         <v>51.52</v>
       </c>
       <c r="H34" s="1"/>
@@ -1235,13 +1317,13 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1249,27 +1331,54 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44172</v>
+      </c>
+      <c r="C36" s="1">
+        <v>55.25</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="6">
+        <v>7.33</v>
+      </c>
+      <c r="G36" s="6">
+        <v>13.1</v>
+      </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="D37" s="4">
+        <f>+D36+1</f>
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="6">
+        <f>+G36</f>
+        <v>13.1</v>
+      </c>
+      <c r="G37" s="6">
+        <v>23.04</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1277,13 +1386,23 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="D38" s="4">
+        <f t="shared" ref="D38:D40" si="3">+D37+1</f>
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" ref="F38:F40" si="4">+G37</f>
+        <v>23.04</v>
+      </c>
+      <c r="G38" s="6">
+        <v>32.42</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1291,13 +1410,23 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="D39" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="4"/>
+        <v>32.42</v>
+      </c>
+      <c r="G39" s="6">
+        <v>51.4</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1305,13 +1434,13 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1319,27 +1448,54 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1">
+        <v>58.07</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="6">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="G41" s="6">
+        <v>7.05</v>
+      </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="D42" s="4">
+        <f>+D41+1</f>
+        <v>2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="6">
+        <f>+G41</f>
+        <v>7.05</v>
+      </c>
+      <c r="G42" s="6">
+        <v>15.42</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1347,13 +1503,23 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="D43" s="4">
+        <f t="shared" ref="D43:D48" si="5">+D42+1</f>
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" ref="F43:F48" si="6">+G42</f>
+        <v>15.42</v>
+      </c>
+      <c r="G43" s="6">
+        <v>24.17</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1361,13 +1527,23 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="D44" s="4">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="6"/>
+        <v>24.17</v>
+      </c>
+      <c r="G44" s="6">
+        <v>27.47</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1375,13 +1551,23 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="D45" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="6"/>
+        <v>27.47</v>
+      </c>
+      <c r="G45" s="6">
+        <v>37.08</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1389,13 +1575,23 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="D46" s="4">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="6"/>
+        <v>37.08</v>
+      </c>
+      <c r="G46" s="6">
+        <v>41.1</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1403,13 +1599,23 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="D47" s="4">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="6"/>
+        <v>41.1</v>
+      </c>
+      <c r="G47" s="6">
+        <v>49.11</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1417,13 +1623,23 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="D48" s="4">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="6"/>
+        <v>49.11</v>
+      </c>
+      <c r="G48" s="6">
+        <v>54.26</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1431,13 +1647,13 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -1445,27 +1661,54 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1">
+        <v>56.28</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="6">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="G50" s="6">
+        <v>11.48</v>
+      </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="D51" s="4">
+        <f>+D50+1</f>
+        <v>2</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" ref="F51:F56" si="7">+G50</f>
+        <v>11.48</v>
+      </c>
+      <c r="G51" s="6">
+        <v>18.12</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -1473,13 +1716,23 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="D52" s="4">
+        <f t="shared" ref="D52:D56" si="8">+D51+1</f>
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="7"/>
+        <v>18.12</v>
+      </c>
+      <c r="G52" s="6">
+        <v>24.08</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -1487,13 +1740,23 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="D53" s="4">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="7"/>
+        <v>24.08</v>
+      </c>
+      <c r="G53" s="6">
+        <v>29.13</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -1501,13 +1764,23 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="D54" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="7"/>
+        <v>29.13</v>
+      </c>
+      <c r="G54" s="6">
+        <v>32.14</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -1515,13 +1788,23 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="D55" s="4">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="7"/>
+        <v>32.14</v>
+      </c>
+      <c r="G55" s="6">
+        <v>39.090000000000003</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -1529,27 +1812,39 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="D56" s="4">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="7"/>
+        <v>39.090000000000003</v>
+      </c>
+      <c r="G56" s="6">
+        <v>50.43</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -1557,13 +1852,13 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -1571,13 +1866,13 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -1585,13 +1880,13 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -1599,13 +1894,13 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -1613,13 +1908,13 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -1627,13 +1922,13 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -1641,13 +1936,13 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -1658,10 +1953,10 @@
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -1672,10 +1967,10 @@
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -1686,10 +1981,10 @@
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -1700,10 +1995,10 @@
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -1714,10 +2009,10 @@
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -1728,10 +2023,10 @@
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -1742,10 +2037,10 @@
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -1756,10 +2051,10 @@
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -1770,10 +2065,10 @@
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -1784,10 +2079,10 @@
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -1798,10 +2093,10 @@
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -1812,10 +2107,10 @@
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -1826,10 +2121,10 @@
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -1840,10 +2135,10 @@
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -1854,10 +2149,10 @@
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="4"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -1868,10 +2163,10 @@
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -1882,10 +2177,10 @@
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="4"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -1896,10 +2191,10 @@
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="4"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -1910,10 +2205,10 @@
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -1924,10 +2219,10 @@
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=LT9kGdY_iUo</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Archieve.org =52.08</t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -292,6 +304,7 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +614,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -782,8 +795,12 @@
       <c r="G11" s="6">
         <v>33.380000000000003</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1390,14 +1407,14 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="4">
-        <f t="shared" ref="D38:D40" si="3">+D37+1</f>
+        <f t="shared" ref="D38:D39" si="3">+D37+1</f>
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" ref="F38:F40" si="4">+G37</f>
+        <f t="shared" ref="F38:F39" si="4">+G37</f>
         <v>23.04</v>
       </c>
       <c r="G38" s="6">

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -227,6 +227,48 @@
   </si>
   <si>
     <t>Archieve.org =52.08</t>
+  </si>
+  <si>
+    <t>15/07/2020</t>
+  </si>
+  <si>
+    <t>1.3.14.5</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>1.4.2.1</t>
+  </si>
+  <si>
+    <t>1.4.3.1</t>
+  </si>
+  <si>
+    <t>1.4.4.1</t>
+  </si>
+  <si>
+    <t>1.4.5.1</t>
+  </si>
+  <si>
+    <t>1.4.6.1</t>
+  </si>
+  <si>
+    <t>1.4.7.1</t>
+  </si>
+  <si>
+    <t>1.4.8.1</t>
+  </si>
+  <si>
+    <t>1.4.9.1</t>
+  </si>
+  <si>
+    <t>1.4.10.1</t>
+  </si>
+  <si>
+    <t>1.4.11.1</t>
+  </si>
+  <si>
+    <t>55.3.1</t>
   </si>
 </sst>
 </file>
@@ -612,15 +654,15 @@
   <dimension ref="A4:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
@@ -1870,12 +1912,27 @@
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="A58" s="1">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="6">
+        <v>5.05</v>
+      </c>
+      <c r="G58" s="6">
+        <v>19.57</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -1886,10 +1943,20 @@
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="D59" s="4">
+        <f t="shared" ref="D59:D69" si="9">+D58+1</f>
+        <v>2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="6">
+        <f>+G58</f>
+        <v>19.57</v>
+      </c>
+      <c r="G59" s="6">
+        <v>28.14</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -1900,10 +1967,20 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="D60" s="4">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" ref="F60:F69" si="10">+G59</f>
+        <v>28.14</v>
+      </c>
+      <c r="G60" s="6">
+        <v>31.45</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -1914,10 +1991,20 @@
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="D61" s="4">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="10"/>
+        <v>31.45</v>
+      </c>
+      <c r="G61" s="6">
+        <v>36.06</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -1928,10 +2015,20 @@
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="D62" s="4">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="10"/>
+        <v>36.06</v>
+      </c>
+      <c r="G62" s="6">
+        <v>39.119999999999997</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -1942,10 +2039,20 @@
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="D63" s="4">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="6">
+        <f t="shared" si="10"/>
+        <v>39.119999999999997</v>
+      </c>
+      <c r="G63" s="6">
+        <v>40.42</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -1956,10 +2063,20 @@
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="D64" s="4">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="6">
+        <f t="shared" si="10"/>
+        <v>40.42</v>
+      </c>
+      <c r="G64" s="6">
+        <v>42.04</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -1970,10 +2087,20 @@
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="D65" s="4">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="6">
+        <f t="shared" si="10"/>
+        <v>42.04</v>
+      </c>
+      <c r="G65" s="6">
+        <v>43.23</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -1984,10 +2111,20 @@
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="D66" s="4">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="6">
+        <f t="shared" si="10"/>
+        <v>43.23</v>
+      </c>
+      <c r="G66" s="6">
+        <v>45.19</v>
+      </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -1998,10 +2135,20 @@
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="D67" s="4">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="10"/>
+        <v>45.19</v>
+      </c>
+      <c r="G67" s="6">
+        <v>47.22</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -2012,10 +2159,20 @@
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="D68" s="4">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68" s="6">
+        <f t="shared" si="10"/>
+        <v>47.22</v>
+      </c>
+      <c r="G68" s="6">
+        <v>50.19</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -2026,10 +2183,20 @@
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="D69" s="4">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" s="6">
+        <f t="shared" si="10"/>
+        <v>50.19</v>
+      </c>
+      <c r="G69" s="6">
+        <v>53.12</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -654,9 +654,9 @@
   <dimension ref="A4:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>Date</t>
   </si>
@@ -268,7 +268,130 @@
     <t>1.4.11.1</t>
   </si>
   <si>
-    <t>55.3.1</t>
+    <t>16/07/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LuXq5_W4nfw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-4tnrZNPY58</t>
+  </si>
+  <si>
+    <t>1.4.12.1</t>
+  </si>
+  <si>
+    <t>1.4.13.1</t>
+  </si>
+  <si>
+    <t>1.4.14.1</t>
+  </si>
+  <si>
+    <t>1.4.16.1</t>
+  </si>
+  <si>
+    <t>1.4.17.1</t>
+  </si>
+  <si>
+    <t>1.4.15.1</t>
+  </si>
+  <si>
+    <t>1.4.18.1</t>
+  </si>
+  <si>
+    <t>1.4.19.1</t>
+  </si>
+  <si>
+    <t>1.4.20.1</t>
+  </si>
+  <si>
+    <t>1.4.21.1</t>
+  </si>
+  <si>
+    <t>1.4.22.1</t>
+  </si>
+  <si>
+    <t>1.4.23.1</t>
+  </si>
+  <si>
+    <t>1.4.24.1</t>
+  </si>
+  <si>
+    <t>1.4.25.1</t>
+  </si>
+  <si>
+    <t>1.4.26.1</t>
+  </si>
+  <si>
+    <t>1.4.27.1</t>
+  </si>
+  <si>
+    <t>1.4.28.1</t>
+  </si>
+  <si>
+    <t>1.4.29.1</t>
+  </si>
+  <si>
+    <t>1.4.30.1</t>
+  </si>
+  <si>
+    <t>1.4.31.1</t>
+  </si>
+  <si>
+    <t>1.4.32.1</t>
+  </si>
+  <si>
+    <t>1.4.33.1</t>
+  </si>
+  <si>
+    <t>1.4.34.1</t>
+  </si>
+  <si>
+    <t>1.4.35.1</t>
+  </si>
+  <si>
+    <t>1.4.36.1</t>
+  </si>
+  <si>
+    <t>1.4.37.1</t>
+  </si>
+  <si>
+    <t>1.4.38.1</t>
+  </si>
+  <si>
+    <t>1.4.39.1</t>
+  </si>
+  <si>
+    <t>17/07/2020</t>
+  </si>
+  <si>
+    <t>1.4.40.1</t>
+  </si>
+  <si>
+    <t>1.4.41.1</t>
+  </si>
+  <si>
+    <t>1.4.42.1</t>
+  </si>
+  <si>
+    <t>1.4.43.1</t>
+  </si>
+  <si>
+    <t>1.4.44.1</t>
+  </si>
+  <si>
+    <t>1.4.45.1</t>
+  </si>
+  <si>
+    <t>1.4.46.1</t>
+  </si>
+  <si>
+    <t>cut 1 jatai</t>
+  </si>
+  <si>
+    <t>18/07/2020</t>
+  </si>
+  <si>
+    <t>TTD</t>
   </si>
 </sst>
 </file>
@@ -297,7 +420,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +439,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -329,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -347,6 +476,7 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,12 +781,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M84"/>
+  <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -974,7 +1104,9 @@
       <c r="G17" s="6">
         <v>43.12</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1918,8 +2050,8 @@
       <c r="B58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>84</v>
+      <c r="C58" s="1">
+        <v>55.31</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1934,7 +2066,9 @@
         <v>19.57</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -2084,7 +2218,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4">
@@ -2108,7 +2242,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4">
@@ -2132,7 +2266,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4">
@@ -2156,7 +2290,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4">
@@ -2180,7 +2314,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4">
@@ -2204,7 +2338,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
@@ -2218,27 +2352,54 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="1">
+        <v>56.28</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" s="6">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G71" s="6">
+        <v>5.59</v>
+      </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="D72" s="4">
+        <f>+D71+1</f>
+        <v>2</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="6">
+        <f>+G71</f>
+        <v>5.59</v>
+      </c>
+      <c r="G72" s="6">
+        <v>9.0399999999999991</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2246,13 +2407,23 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="D73" s="4">
+        <f t="shared" ref="D73:D106" si="11">+D72+1</f>
+        <v>3</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" ref="F73:F106" si="12">+G72</f>
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G73" s="6">
+        <v>10.5</v>
+      </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2260,13 +2431,23 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="D74" s="4">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="6">
+        <f t="shared" si="12"/>
+        <v>10.5</v>
+      </c>
+      <c r="G74" s="6">
+        <v>12.28</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2274,13 +2455,23 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="D75" s="4">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="6">
+        <f t="shared" si="12"/>
+        <v>12.28</v>
+      </c>
+      <c r="G75" s="6">
+        <v>14.01</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2288,13 +2479,23 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="D76" s="4">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="6">
+        <f t="shared" si="12"/>
+        <v>14.01</v>
+      </c>
+      <c r="G76" s="6">
+        <v>15.53</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -2302,13 +2503,23 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="D77" s="4">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="6">
+        <f t="shared" si="12"/>
+        <v>15.53</v>
+      </c>
+      <c r="G77" s="6">
+        <v>17.46</v>
+      </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2316,13 +2527,23 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="D78" s="4">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F78" s="6">
+        <f t="shared" si="12"/>
+        <v>17.46</v>
+      </c>
+      <c r="G78" s="6">
+        <v>19.41</v>
+      </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -2330,13 +2551,23 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="D79" s="4">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="6">
+        <f t="shared" si="12"/>
+        <v>19.41</v>
+      </c>
+      <c r="G79" s="6">
+        <v>21.08</v>
+      </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -2344,13 +2575,23 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="D80" s="4">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F80" s="6">
+        <f t="shared" si="12"/>
+        <v>21.08</v>
+      </c>
+      <c r="G80" s="6">
+        <v>23.18</v>
+      </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -2361,10 +2602,20 @@
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+      <c r="D81" s="4">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81" s="6">
+        <f t="shared" si="12"/>
+        <v>23.18</v>
+      </c>
+      <c r="G81" s="6">
+        <v>27.5</v>
+      </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -2375,10 +2626,20 @@
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="D82" s="4">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="6">
+        <f t="shared" si="12"/>
+        <v>27.5</v>
+      </c>
+      <c r="G82" s="6">
+        <v>29.24</v>
+      </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -2389,10 +2650,20 @@
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+      <c r="D83" s="4">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83" s="6">
+        <f t="shared" si="12"/>
+        <v>29.24</v>
+      </c>
+      <c r="G83" s="6">
+        <v>30.55</v>
+      </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -2403,10 +2674,20 @@
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="D84" s="4">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="12"/>
+        <v>30.55</v>
+      </c>
+      <c r="G84" s="6">
+        <v>31.52</v>
+      </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -2414,6 +2695,2092 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D85" s="4">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" s="6">
+        <f t="shared" si="12"/>
+        <v>31.52</v>
+      </c>
+      <c r="G85" s="6">
+        <v>32.44</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D86" s="4">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F86" s="6">
+        <f t="shared" si="12"/>
+        <v>32.44</v>
+      </c>
+      <c r="G86" s="6">
+        <v>34.42</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D87" s="4">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F87" s="6">
+        <f t="shared" si="12"/>
+        <v>34.42</v>
+      </c>
+      <c r="G87" s="6">
+        <v>37.020000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D88" s="4">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F88" s="6">
+        <f t="shared" si="12"/>
+        <v>37.020000000000003</v>
+      </c>
+      <c r="G88" s="6">
+        <v>38.24</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D89" s="4">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F89" s="6">
+        <f t="shared" si="12"/>
+        <v>38.24</v>
+      </c>
+      <c r="G89" s="6">
+        <v>39.479999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D90" s="4">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F90" s="6">
+        <f t="shared" si="12"/>
+        <v>39.479999999999997</v>
+      </c>
+      <c r="G90" s="6">
+        <v>41.14</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D91" s="4">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="6">
+        <f t="shared" si="12"/>
+        <v>41.14</v>
+      </c>
+      <c r="G91" s="6">
+        <v>41.49</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D92" s="4">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" s="6">
+        <f t="shared" si="12"/>
+        <v>41.49</v>
+      </c>
+      <c r="G92" s="6">
+        <v>43.08</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D93" s="4">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F93" s="6">
+        <f t="shared" si="12"/>
+        <v>43.08</v>
+      </c>
+      <c r="G93" s="6">
+        <v>46.09</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D94" s="4">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94" s="6">
+        <f t="shared" si="12"/>
+        <v>46.09</v>
+      </c>
+      <c r="G94" s="6">
+        <v>48.37</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D95" s="4">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F95" s="6">
+        <f t="shared" si="12"/>
+        <v>48.37</v>
+      </c>
+      <c r="G95" s="6">
+        <v>50.39</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D96" s="4">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F96" s="6">
+        <f t="shared" si="12"/>
+        <v>50.39</v>
+      </c>
+      <c r="G96" s="6">
+        <v>52.16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>7</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="1">
+        <v>50.24</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F98" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G98" s="6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="4">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F99" s="6">
+        <f t="shared" si="12"/>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G99" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="4">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F100" s="6">
+        <f t="shared" si="12"/>
+        <v>3.52</v>
+      </c>
+      <c r="G100" s="6">
+        <v>5.56</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="4">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101" s="6">
+        <f t="shared" si="12"/>
+        <v>5.56</v>
+      </c>
+      <c r="G101" s="6">
+        <v>7.56</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="4">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F102" s="6">
+        <f t="shared" si="12"/>
+        <v>7.56</v>
+      </c>
+      <c r="G102" s="6">
+        <v>10.06</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="4">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F103" s="6">
+        <f t="shared" si="12"/>
+        <v>10.06</v>
+      </c>
+      <c r="G103" s="6">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="4">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F104" s="6">
+        <f t="shared" si="12"/>
+        <v>18.149999999999999</v>
+      </c>
+      <c r="G104" s="6">
+        <v>27.26</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="4">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F105" s="6">
+        <f t="shared" si="12"/>
+        <v>27.26</v>
+      </c>
+      <c r="G105" s="6">
+        <v>37.22</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="4">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F106" s="6">
+        <f t="shared" si="12"/>
+        <v>37.22</v>
+      </c>
+      <c r="G106" s="6">
+        <v>47.51</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="4">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+    </row>
+    <row r="271" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+    </row>
+    <row r="273" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+    </row>
+    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+    </row>
+    <row r="275" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -458,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -477,6 +477,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,9 +785,9 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1104,9 +1105,6 @@
       <c r="G17" s="6">
         <v>43.12</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1128,7 +1126,7 @@
       <c r="G18" s="6">
         <v>52.12</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1196,7 +1194,6 @@
       <c r="G21" s="6">
         <v>16.29</v>
       </c>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1219,7 +1216,9 @@
       <c r="G22" s="6">
         <v>29.49</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
   <si>
     <t>Date</t>
   </si>
@@ -392,6 +392,87 @@
   </si>
   <si>
     <t>TTD</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Sc37wXohjcA</t>
+  </si>
+  <si>
+    <t>1.5.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0f6d52ip9Ug</t>
+  </si>
+  <si>
+    <t>19/07/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UVVuZUv2OTE</t>
+  </si>
+  <si>
+    <t>1.5.2.1</t>
+  </si>
+  <si>
+    <t>1.5.3.1</t>
+  </si>
+  <si>
+    <t>1.5.4.1</t>
+  </si>
+  <si>
+    <t>1.5.5.1</t>
+  </si>
+  <si>
+    <t>1.5.6.1</t>
+  </si>
+  <si>
+    <t>1.5.7.1</t>
+  </si>
+  <si>
+    <t>1.5.8.1</t>
+  </si>
+  <si>
+    <t>upto P33</t>
+  </si>
+  <si>
+    <t>20/07/2020</t>
+  </si>
+  <si>
+    <t>1.5.8.4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o71Tr1zdJA8</t>
+  </si>
+  <si>
+    <t>1.5.9.1</t>
+  </si>
+  <si>
+    <t>1.5.10.1</t>
+  </si>
+  <si>
+    <t>1.5.11.1</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>upto P 50</t>
+  </si>
+  <si>
+    <t>21/07/2020</t>
+  </si>
+  <si>
+    <t>1.5.11.5</t>
+  </si>
+  <si>
+    <t>1.6.1.1</t>
+  </si>
+  <si>
+    <t>1.6.2.1</t>
+  </si>
+  <si>
+    <t>1.6.3.1</t>
+  </si>
+  <si>
+    <t>1.6.4.1</t>
   </si>
 </sst>
 </file>
@@ -785,9 +866,9 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -2921,7 +3002,9 @@
       <c r="H98" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I98" s="1"/>
+      <c r="I98" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
@@ -3100,43 +3183,83 @@
       <c r="B108" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C108" s="1"/>
+      <c r="C108" s="1">
+        <v>53.53</v>
+      </c>
       <c r="D108" s="4">
         <v>1</v>
       </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
+      <c r="E108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1.46</v>
+      </c>
+      <c r="G108" s="6">
+        <v>16.07</v>
+      </c>
       <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="I108" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
+      <c r="D109" s="4">
+        <f t="shared" ref="D109:D116" si="13">+D108+1</f>
+        <v>2</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F109" s="6">
+        <f>+G108</f>
+        <v>16.07</v>
+      </c>
+      <c r="G109" s="6">
+        <v>31.32</v>
+      </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
+      <c r="D110" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F110" s="6">
+        <f t="shared" ref="F110:F111" si="14">+G109</f>
+        <v>31.32</v>
+      </c>
+      <c r="G110" s="6">
+        <v>40.15</v>
+      </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
+      <c r="D111" s="4">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F111" s="6">
+        <f t="shared" si="14"/>
+        <v>40.15</v>
+      </c>
+      <c r="G111" s="6">
+        <v>53.04</v>
+      </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
@@ -3150,47 +3273,94 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B113" s="1"/>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C113" s="1"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
+      <c r="D113" s="4">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F113" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="G113" s="6">
+        <v>14.51</v>
+      </c>
       <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I113" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
+      <c r="D114" s="4">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F114" s="6">
+        <f>+G113</f>
+        <v>14.51</v>
+      </c>
+      <c r="G114" s="6">
+        <v>28.29</v>
+      </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
+      <c r="D115" s="4">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F115" s="6">
+        <f t="shared" ref="F115:F116" si="15">+G114</f>
+        <v>28.29</v>
+      </c>
+      <c r="G115" s="6">
+        <v>47.08</v>
+      </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="1"/>
+      <c r="D116" s="4">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F116" s="6">
+        <f t="shared" si="15"/>
+        <v>47.08</v>
+      </c>
+      <c r="G116" s="6">
+        <v>55.39</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="4"/>
@@ -3200,47 +3370,95 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B118" s="1"/>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>10</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C118" s="1"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F118" s="6">
+        <v>1.07</v>
+      </c>
+      <c r="G118" s="6">
+        <v>9.09</v>
+      </c>
       <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I118" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="1"/>
+      <c r="D119" s="4">
+        <f t="shared" ref="D119:D121" si="16">+D118+1</f>
+        <v>2</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F119" s="6">
+        <f>+G118</f>
+        <v>9.09</v>
+      </c>
+      <c r="G119" s="6">
+        <v>31.36</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
+      <c r="D120" s="4">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F120" s="6">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="G120" s="6">
+        <v>47.24</v>
+      </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="1"/>
+      <c r="D121" s="4">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F121" s="6">
+        <f t="shared" ref="F121" si="17">+G120</f>
+        <v>47.24</v>
+      </c>
+      <c r="G121" s="6">
+        <v>59.38</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
@@ -3250,57 +3468,110 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B123" s="1"/>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>11</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="C123" s="1"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
+      <c r="D123" s="4">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F123" s="6">
+        <v>1.07</v>
+      </c>
+      <c r="G123" s="6">
+        <v>5.59</v>
+      </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
+      <c r="D124" s="4">
+        <f t="shared" ref="D124:D127" si="18">+D123+1</f>
+        <v>2</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F124" s="6">
+        <f>+G123</f>
+        <v>5.59</v>
+      </c>
+      <c r="G124" s="6">
+        <v>15.35</v>
+      </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
+      <c r="D125" s="4">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F125" s="6">
+        <f t="shared" ref="F125:F127" si="19">+G124</f>
+        <v>15.35</v>
+      </c>
+      <c r="G125" s="6">
+        <v>34.299999999999997</v>
+      </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
+      <c r="D126" s="4">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F126" s="6">
+        <f t="shared" si="19"/>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G126" s="6">
+        <v>43.32</v>
+      </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
+      <c r="D127" s="4">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F127" s="6">
+        <f t="shared" si="19"/>
+        <v>43.32</v>
+      </c>
+      <c r="G127" s="6">
+        <v>56.45</v>
+      </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="4"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -391,9 +391,6 @@
     <t>18/07/2020</t>
   </si>
   <si>
-    <t>TTD</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Sc37wXohjcA</t>
   </si>
   <si>
@@ -473,6 +470,9 @@
   </si>
   <si>
     <t>1.6.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First round </t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,12 +520,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -539,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -557,7 +551,6 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -868,7 +861,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1207,7 +1200,7 @@
       <c r="G18" s="6">
         <v>52.12</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1297,8 +1290,8 @@
       <c r="G22" s="6">
         <v>29.49</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>125</v>
+      <c r="H22" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3003,7 +2996,7 @@
         <v>123</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -3190,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F108" s="6">
         <v>1.46</v>
@@ -3200,7 +3193,7 @@
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -3211,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F109" s="6">
         <f>+G108</f>
@@ -3231,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F110" s="6">
         <f t="shared" ref="F110:F111" si="14">+G109</f>
@@ -3251,7 +3244,7 @@
         <v>4</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F111" s="6">
         <f t="shared" si="14"/>
@@ -3278,14 +3271,14 @@
         <v>9</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="4">
         <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F113" s="6">
         <v>1.25</v>
@@ -3295,7 +3288,7 @@
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -3306,7 +3299,7 @@
         <v>2</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F114" s="6">
         <f>+G113</f>
@@ -3326,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F115" s="6">
         <f t="shared" ref="F115:F116" si="15">+G114</f>
@@ -3346,7 +3339,7 @@
         <v>4</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F116" s="6">
         <f t="shared" si="15"/>
@@ -3356,7 +3349,7 @@
         <v>55.39</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I116" s="1"/>
     </row>
@@ -3375,14 +3368,14 @@
         <v>10</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="4">
         <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F118" s="6">
         <v>1.07</v>
@@ -3392,7 +3385,7 @@
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -3403,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F119" s="6">
         <f>+G118</f>
@@ -3413,7 +3406,7 @@
         <v>31.36</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I119" s="1"/>
     </row>
@@ -3425,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F120" s="6">
         <v>35.130000000000003</v>
@@ -3444,7 +3437,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F121" s="6">
         <f t="shared" ref="F121" si="17">+G120</f>
@@ -3454,7 +3447,7 @@
         <v>59.38</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I121" s="1"/>
     </row>
@@ -3473,14 +3466,14 @@
         <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="4">
         <v>1</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F123" s="6">
         <v>1.07</v>
@@ -3499,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F124" s="6">
         <f>+G123</f>
@@ -3519,7 +3512,7 @@
         <v>3</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F125" s="6">
         <f t="shared" ref="F125:F127" si="19">+G124</f>
@@ -3539,7 +3532,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F126" s="6">
         <f t="shared" si="19"/>
@@ -3559,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F127" s="6">
         <f t="shared" si="19"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -473,19 +473,109 @@
   </si>
   <si>
     <t xml:space="preserve">First round </t>
+  </si>
+  <si>
+    <t>22/07/2020</t>
+  </si>
+  <si>
+    <t>1.6.5.1</t>
+  </si>
+  <si>
+    <t>1.00.02</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=muDPB_WlRUY</t>
+  </si>
+  <si>
+    <t>1.6.6.1</t>
+  </si>
+  <si>
+    <t>Speech</t>
+  </si>
+  <si>
+    <t>1.6.7.1</t>
+  </si>
+  <si>
+    <t>1.6.8.1</t>
+  </si>
+  <si>
+    <t>1.6.9.1</t>
+  </si>
+  <si>
+    <t>23/07/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MBWldLzIEq4</t>
+  </si>
+  <si>
+    <t>1.6.9.2</t>
+  </si>
+  <si>
+    <t>1.6.10.1</t>
+  </si>
+  <si>
+    <t>1.6.11.5</t>
+  </si>
+  <si>
+    <t>24/07/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hXiQbjWFzLM</t>
+  </si>
+  <si>
+    <t>1.6.11.6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ghDems5CmHo</t>
+  </si>
+  <si>
+    <t>1.6.12.1</t>
+  </si>
+  <si>
+    <t>25/07/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6H33Rf5PGE8</t>
+  </si>
+  <si>
+    <t>1.7.1.1</t>
+  </si>
+  <si>
+    <t>1.7.2.1</t>
+  </si>
+  <si>
+    <t>1.7.2.2</t>
+  </si>
+  <si>
+    <t>1.7.3.1</t>
+  </si>
+  <si>
+    <t>1.7.4.1</t>
+  </si>
+  <si>
+    <t>26/07/2020</t>
+  </si>
+  <si>
+    <t>1.7.4.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -533,25 +623,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,24 +950,24 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="7" width="10.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -903,7 +994,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -930,7 +1021,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -961,7 +1052,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4">
@@ -983,7 +1074,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="4">
@@ -1005,7 +1096,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="4">
@@ -1027,7 +1118,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="4">
@@ -1053,7 +1144,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
@@ -1067,7 +1158,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1098,7 +1189,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4">
@@ -1120,7 +1211,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4">
@@ -1142,7 +1233,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4">
@@ -1164,7 +1255,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4">
@@ -1185,7 +1276,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4">
@@ -1207,7 +1298,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
@@ -1221,7 +1312,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -1252,7 +1343,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4">
@@ -1274,7 +1365,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4">
@@ -1299,7 +1390,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4">
@@ -1322,7 +1413,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4">
@@ -1345,7 +1436,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="4">
@@ -1370,7 +1461,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="4"/>
@@ -1384,7 +1475,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1413,7 +1504,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="4">
@@ -1437,7 +1528,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="4">
@@ -1461,7 +1552,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="4">
@@ -1487,7 +1578,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="4">
@@ -1509,7 +1600,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="4">
@@ -1533,7 +1624,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="4">
@@ -1557,7 +1648,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="4">
@@ -1581,7 +1672,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="4"/>
@@ -1595,7 +1686,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -1626,7 +1717,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="4">
@@ -1650,7 +1741,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="4">
@@ -1674,7 +1765,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="4">
@@ -1698,7 +1789,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
@@ -1712,7 +1803,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -1743,7 +1834,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="4">
@@ -1767,7 +1858,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4">
@@ -1791,7 +1882,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4">
@@ -1815,7 +1906,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4">
@@ -1839,7 +1930,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4">
@@ -1863,7 +1954,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4">
@@ -1887,7 +1978,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="4">
@@ -1911,7 +2002,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
@@ -1925,7 +2016,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>6</v>
       </c>
@@ -1956,7 +2047,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4">
@@ -1980,7 +2071,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4">
@@ -2004,7 +2095,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4">
@@ -2028,7 +2119,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4">
@@ -2052,7 +2143,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4">
@@ -2076,7 +2167,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4">
@@ -2102,7 +2193,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -2116,7 +2207,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -2147,7 +2238,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4">
@@ -2171,7 +2262,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4">
@@ -2195,7 +2286,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="4">
@@ -2219,7 +2310,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4">
@@ -2243,7 +2334,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4">
@@ -2267,7 +2358,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4">
@@ -2291,7 +2382,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4">
@@ -2315,7 +2406,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4">
@@ -2339,7 +2430,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4">
@@ -2363,7 +2454,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4">
@@ -2387,7 +2478,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4">
@@ -2411,7 +2502,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
@@ -2425,7 +2516,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>6</v>
       </c>
@@ -2456,7 +2547,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4">
@@ -2480,7 +2571,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4">
@@ -2504,7 +2595,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4">
@@ -2528,7 +2619,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4">
@@ -2552,7 +2643,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4">
@@ -2576,7 +2667,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4">
@@ -2600,7 +2691,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4">
@@ -2624,7 +2715,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4">
@@ -2648,7 +2739,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4">
@@ -2672,7 +2763,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="4">
@@ -2696,7 +2787,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="4">
@@ -2720,7 +2811,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="4">
@@ -2744,7 +2835,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="4">
@@ -2768,7 +2859,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D85" s="4">
         <f t="shared" si="11"/>
         <v>15</v>
@@ -2784,7 +2875,7 @@
         <v>32.44</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D86" s="4">
         <f t="shared" si="11"/>
         <v>16</v>
@@ -2800,7 +2891,7 @@
         <v>34.42</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D87" s="4">
         <f t="shared" si="11"/>
         <v>17</v>
@@ -2816,7 +2907,7 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D88" s="4">
         <f t="shared" si="11"/>
         <v>18</v>
@@ -2832,7 +2923,7 @@
         <v>38.24</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D89" s="4">
         <f t="shared" si="11"/>
         <v>19</v>
@@ -2848,7 +2939,7 @@
         <v>39.479999999999997</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D90" s="4">
         <f t="shared" si="11"/>
         <v>20</v>
@@ -2864,7 +2955,7 @@
         <v>41.14</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D91" s="4">
         <f t="shared" si="11"/>
         <v>21</v>
@@ -2880,7 +2971,7 @@
         <v>41.49</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D92" s="4">
         <f t="shared" si="11"/>
         <v>22</v>
@@ -2896,7 +2987,7 @@
         <v>43.08</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D93" s="4">
         <f t="shared" si="11"/>
         <v>23</v>
@@ -2912,7 +3003,7 @@
         <v>46.09</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D94" s="4">
         <f t="shared" si="11"/>
         <v>24</v>
@@ -2928,7 +3019,7 @@
         <v>48.37</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D95" s="4">
         <f t="shared" si="11"/>
         <v>25</v>
@@ -2944,7 +3035,7 @@
         <v>50.39</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D96" s="4">
         <f t="shared" si="11"/>
         <v>26</v>
@@ -2960,7 +3051,7 @@
         <v>52.16</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="4"/>
@@ -2970,7 +3061,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>7</v>
       </c>
@@ -2999,7 +3090,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4">
@@ -3019,7 +3110,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4">
@@ -3039,7 +3130,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4">
@@ -3059,7 +3150,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4">
@@ -3079,7 +3170,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="4">
@@ -3099,7 +3190,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4">
@@ -3119,7 +3210,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="4">
@@ -3139,7 +3230,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="4">
@@ -3159,7 +3250,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="4"/>
@@ -3169,7 +3260,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>8</v>
       </c>
@@ -3196,7 +3287,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="4">
@@ -3216,7 +3307,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4">
@@ -3236,7 +3327,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4">
@@ -3256,7 +3347,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="4"/>
@@ -3266,7 +3357,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>9</v>
       </c>
@@ -3291,7 +3382,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4">
@@ -3311,7 +3402,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="4">
@@ -3331,7 +3422,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4">
@@ -3353,7 +3444,7 @@
       </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="4"/>
@@ -3363,7 +3454,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>10</v>
       </c>
@@ -3388,7 +3479,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="4">
@@ -3410,7 +3501,7 @@
       </c>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="4">
@@ -3429,7 +3520,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="4">
@@ -3451,7 +3542,7 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
@@ -3461,7 +3552,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>11</v>
       </c>
@@ -3482,9 +3573,11 @@
         <v>5.59</v>
       </c>
       <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I123" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="4">
@@ -3504,7 +3597,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="4">
@@ -3524,7 +3617,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="4">
@@ -3544,7 +3637,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="4">
@@ -3564,7 +3657,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="4"/>
@@ -3574,57 +3667,115 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>12</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D129" s="4">
+        <v>1</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F129" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="G129" s="6">
+        <v>13.13</v>
+      </c>
       <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I129" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="1"/>
+      <c r="D130" s="4">
+        <f t="shared" ref="D130:D133" si="20">+D129+1</f>
+        <v>2</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F130" s="6">
+        <f>+G129</f>
+        <v>13.13</v>
+      </c>
+      <c r="G130" s="6">
+        <v>25</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
+      <c r="D131" s="4">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F131" s="6">
+        <v>29</v>
+      </c>
+      <c r="G131" s="6">
+        <v>42.37</v>
+      </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
+      <c r="D132" s="4">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F132" s="6">
+        <f t="shared" ref="F131:F133" si="21">+G131</f>
+        <v>42.37</v>
+      </c>
+      <c r="G132" s="6">
+        <v>55.03</v>
+      </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
+      <c r="D133" s="4">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F133" s="6">
+        <f t="shared" si="21"/>
+        <v>55.03</v>
+      </c>
+      <c r="G133" s="6">
+        <v>59.01</v>
+      </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="4"/>
@@ -3634,37 +3785,73 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>13</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C135" s="1">
+        <v>55.29</v>
+      </c>
+      <c r="D135" s="4">
+        <v>1</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F135" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="G135" s="6">
+        <v>12.19</v>
+      </c>
       <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I135" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
+      <c r="D136" s="4">
+        <f t="shared" ref="D136:D141" si="22">+D135+1</f>
+        <v>2</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F136" s="6">
+        <f>+G135</f>
+        <v>12.19</v>
+      </c>
+      <c r="G136" s="6">
+        <v>33.57</v>
+      </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
+      <c r="D137" s="4">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F137" s="6">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="G137" s="6">
+        <v>54.17</v>
+      </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="4"/>
@@ -3674,47 +3861,94 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>14</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" s="1">
+        <v>52.45</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F139" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="G139" s="6">
+        <v>8.07</v>
+      </c>
       <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I139" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="1"/>
+      <c r="D140" s="4">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F140" s="6">
+        <f>+G139</f>
+        <v>8.07</v>
+      </c>
+      <c r="G140" s="6">
+        <v>26.55</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
+      <c r="D141" s="4">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F141" s="6">
+        <v>28.53</v>
+      </c>
+      <c r="G141" s="6">
+        <v>48.25</v>
+      </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
+      <c r="D142" s="4">
+        <v>4</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F142" s="6">
+        <f t="shared" ref="F141:F142" si="23">+G141</f>
+        <v>48.25</v>
+      </c>
+      <c r="G142" s="6">
+        <v>51.34</v>
+      </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="4"/>
@@ -3724,37 +3958,73 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>15</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C144" s="1">
+        <v>59.01</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F144" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="G144" s="6">
+        <v>18.02</v>
+      </c>
       <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I144" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
+      <c r="D145" s="4">
+        <f t="shared" ref="D145" si="24">+D144+1</f>
+        <v>2</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F145" s="6">
+        <f>+G144</f>
+        <v>18.02</v>
+      </c>
+      <c r="G145" s="6">
+        <v>36.36</v>
+      </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
+      <c r="D146" s="4">
+        <v>3</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F146" s="6">
+        <f>+G145</f>
+        <v>36.36</v>
+      </c>
+      <c r="G146" s="6">
+        <v>57.03</v>
+      </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="4"/>
@@ -3764,17 +4034,26 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B148" s="1"/>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>16</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="C148" s="1"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="1"/>
+      <c r="D148" s="4">
+        <v>1</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="4"/>
@@ -3784,7 +4063,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="4"/>
@@ -3794,7 +4073,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="4"/>
@@ -3804,7 +4083,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="4"/>
@@ -3814,7 +4093,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="4"/>
@@ -3824,7 +4103,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="4"/>
@@ -3834,7 +4113,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="4"/>
@@ -3844,7 +4123,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="4"/>
@@ -3854,7 +4133,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="4"/>
@@ -3864,7 +4143,7 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="4"/>
@@ -3874,7 +4153,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="4"/>
@@ -3884,7 +4163,7 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="4"/>
@@ -3894,7 +4173,7 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="4"/>
@@ -3904,7 +4183,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="4"/>
@@ -3914,7 +4193,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="4"/>
@@ -3924,7 +4203,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="4"/>
@@ -3934,7 +4213,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="4"/>
@@ -3944,7 +4223,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="4"/>
@@ -3954,7 +4233,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="4"/>
@@ -3964,7 +4243,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="4"/>
@@ -3974,7 +4253,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="4"/>
@@ -3984,7 +4263,7 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="4"/>
@@ -3994,7 +4273,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="4"/>
@@ -4004,7 +4283,7 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="4"/>
@@ -4014,7 +4293,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="4"/>
@@ -4024,7 +4303,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="4"/>
@@ -4034,7 +4313,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="4"/>
@@ -4044,7 +4323,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="4"/>
@@ -4054,7 +4333,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="4"/>
@@ -4064,7 +4343,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="4"/>
@@ -4074,7 +4353,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="4"/>
@@ -4084,7 +4363,7 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="4"/>
@@ -4094,7 +4373,7 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="4"/>
@@ -4104,7 +4383,7 @@
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="4"/>
@@ -4114,7 +4393,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="4"/>
@@ -4124,7 +4403,7 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="4"/>
@@ -4134,7 +4413,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="4"/>
@@ -4144,7 +4423,7 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="4"/>
@@ -4154,7 +4433,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="4"/>
@@ -4164,7 +4443,7 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="4"/>
@@ -4174,7 +4453,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="4"/>
@@ -4184,7 +4463,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="4"/>
@@ -4194,7 +4473,7 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="4"/>
@@ -4204,7 +4483,7 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="4"/>
@@ -4214,7 +4493,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="4"/>
@@ -4224,7 +4503,7 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="4"/>
@@ -4234,7 +4513,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="4"/>
@@ -4244,7 +4523,7 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="4"/>
@@ -4254,7 +4533,7 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="4"/>
@@ -4264,7 +4543,7 @@
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="4"/>
@@ -4274,7 +4553,7 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="4"/>
@@ -4284,7 +4563,7 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="4"/>
@@ -4294,7 +4573,7 @@
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="4"/>
@@ -4304,7 +4583,7 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="4"/>
@@ -4314,7 +4593,7 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="4"/>
@@ -4324,7 +4603,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="4"/>
@@ -4334,7 +4613,7 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="4"/>
@@ -4344,7 +4623,7 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="4"/>
@@ -4354,7 +4633,7 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="4"/>
@@ -4364,7 +4643,7 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="4"/>
@@ -4374,7 +4653,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="4"/>
@@ -4384,7 +4663,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="4"/>
@@ -4394,7 +4673,7 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="4"/>
@@ -4404,7 +4683,7 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="4"/>
@@ -4414,7 +4693,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="4"/>
@@ -4424,7 +4703,7 @@
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="4"/>
@@ -4434,7 +4713,7 @@
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="4"/>
@@ -4444,7 +4723,7 @@
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="4"/>
@@ -4454,7 +4733,7 @@
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="4"/>
@@ -4464,7 +4743,7 @@
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="4"/>
@@ -4474,7 +4753,7 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="4"/>
@@ -4484,7 +4763,7 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="4"/>
@@ -4494,7 +4773,7 @@
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="4"/>
@@ -4504,7 +4783,7 @@
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="4"/>
@@ -4514,7 +4793,7 @@
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="4"/>
@@ -4524,7 +4803,7 @@
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="4"/>
@@ -4534,7 +4813,7 @@
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="4"/>
@@ -4544,7 +4823,7 @@
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="4"/>
@@ -4554,7 +4833,7 @@
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="4"/>
@@ -4564,7 +4843,7 @@
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="4"/>
@@ -4574,7 +4853,7 @@
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="4"/>
@@ -4584,7 +4863,7 @@
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="4"/>
@@ -4594,7 +4873,7 @@
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="4"/>
@@ -4604,7 +4883,7 @@
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="4"/>
@@ -4614,7 +4893,7 @@
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="4"/>
@@ -4624,7 +4903,7 @@
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="4"/>
@@ -4634,7 +4913,7 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="4"/>
@@ -4644,7 +4923,7 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="4"/>
@@ -4654,7 +4933,7 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="4"/>
@@ -4664,7 +4943,7 @@
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="4"/>
@@ -4674,7 +4953,7 @@
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="4"/>
@@ -4684,7 +4963,7 @@
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="4"/>
@@ -4694,7 +4973,7 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="4"/>
@@ -4704,7 +4983,7 @@
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="4"/>
@@ -4714,7 +4993,7 @@
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="4"/>
@@ -4724,7 +5003,7 @@
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="4"/>
@@ -4734,7 +5013,7 @@
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="4"/>
@@ -4744,7 +5023,7 @@
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="4"/>
@@ -4754,7 +5033,7 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="4"/>
@@ -4764,7 +5043,7 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="4"/>
@@ -4774,7 +5053,7 @@
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="4"/>
@@ -4784,7 +5063,7 @@
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="4"/>
@@ -4794,7 +5073,7 @@
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="4"/>
@@ -4804,7 +5083,7 @@
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="4"/>
@@ -4814,7 +5093,7 @@
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="4"/>
@@ -4824,7 +5103,7 @@
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="4"/>
@@ -4834,7 +5113,7 @@
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="4"/>
@@ -4844,7 +5123,7 @@
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="4"/>
@@ -4854,7 +5133,7 @@
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="4"/>
@@ -4864,7 +5143,7 @@
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="4"/>
@@ -4874,7 +5153,7 @@
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="4"/>
@@ -4884,7 +5163,7 @@
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="4"/>
@@ -4894,7 +5173,7 @@
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="4"/>
@@ -4904,7 +5183,7 @@
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="4"/>
@@ -4914,7 +5193,7 @@
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="4"/>
@@ -4924,7 +5203,7 @@
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="4"/>
@@ -4934,7 +5213,7 @@
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="4"/>
@@ -4944,7 +5223,7 @@
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="4"/>
@@ -4954,7 +5233,7 @@
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="4"/>
@@ -4964,7 +5243,7 @@
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="4"/>
@@ -4974,7 +5253,7 @@
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="4"/>
@@ -4984,7 +5263,7 @@
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="4"/>
@@ -4994,7 +5273,7 @@
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="4"/>
@@ -5004,7 +5283,7 @@
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="4"/>
@@ -5014,7 +5293,7 @@
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="4"/>
@@ -5024,7 +5303,7 @@
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="4"/>
@@ -5034,7 +5313,7 @@
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="4"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="212">
   <si>
     <t>Date</t>
   </si>
@@ -557,19 +557,118 @@
   </si>
   <si>
     <t>1.7.4.6</t>
+  </si>
+  <si>
+    <t>1.7.5.1</t>
+  </si>
+  <si>
+    <t>1.7.6.1</t>
+  </si>
+  <si>
+    <t>1.7.7.1</t>
+  </si>
+  <si>
+    <t>1.7.8.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e2nHk8rAanY</t>
+  </si>
+  <si>
+    <t>27/07/2020</t>
+  </si>
+  <si>
+    <t>1.7.8.2</t>
+  </si>
+  <si>
+    <t>1.7.9.1</t>
+  </si>
+  <si>
+    <t>1.7.10.1</t>
+  </si>
+  <si>
+    <t>1.7.11.1</t>
+  </si>
+  <si>
+    <t>1.7.12.1</t>
+  </si>
+  <si>
+    <t>1.7.13.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vahJu-fNCds</t>
+  </si>
+  <si>
+    <t>28/07/2020</t>
+  </si>
+  <si>
+    <t>1.7.13.3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-gsoch55Jfw</t>
+  </si>
+  <si>
+    <t>1.8.1.1</t>
+  </si>
+  <si>
+    <t>1.8.2.1</t>
+  </si>
+  <si>
+    <t>1.8.3.1</t>
+  </si>
+  <si>
+    <t>1.8.4.1</t>
+  </si>
+  <si>
+    <t>1.8.5.1</t>
+  </si>
+  <si>
+    <t>1.8.6.1</t>
+  </si>
+  <si>
+    <t>29/07/2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BXod63nkYIQ</t>
+  </si>
+  <si>
+    <t>1.8.7.1</t>
+  </si>
+  <si>
+    <t>1.8.8.1</t>
+  </si>
+  <si>
+    <t>1.8.9.1</t>
+  </si>
+  <si>
+    <t>1.8.10.1</t>
+  </si>
+  <si>
+    <t>1.8.11.1</t>
+  </si>
+  <si>
+    <t>1.8.12.1</t>
+  </si>
+  <si>
+    <t>18.12.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -623,25 +722,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -950,9 +1050,9 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
+      <selection pane="bottomLeft" activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3746,7 +3846,7 @@
         <v>160</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" ref="F131:F133" si="21">+G131</f>
+        <f t="shared" ref="F132:F133" si="21">+G131</f>
         <v>42.37</v>
       </c>
       <c r="G132" s="6">
@@ -3939,7 +4039,7 @@
         <v>175</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" ref="F141:F142" si="23">+G141</f>
+        <f t="shared" ref="F142" si="23">+G141</f>
         <v>48.25</v>
       </c>
       <c r="G142" s="6">
@@ -4041,55 +4141,103 @@
       <c r="B148" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C148" s="1"/>
+      <c r="C148" s="1">
+        <v>57.51</v>
+      </c>
       <c r="D148" s="4">
         <v>1</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
+      <c r="F148" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="G148" s="6">
+        <v>8.2200000000000006</v>
+      </c>
       <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
+      <c r="I148" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
+      <c r="D149" s="4">
+        <f t="shared" ref="D149:D152" si="25">+D148+1</f>
+        <v>2</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F149" s="6">
+        <f>+G148</f>
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="G149" s="6">
+        <v>22.09</v>
+      </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
+      <c r="D150" s="4">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F150" s="6">
+        <f t="shared" ref="F150:F152" si="26">+G149</f>
+        <v>22.09</v>
+      </c>
+      <c r="G150" s="6">
+        <v>45.27</v>
+      </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
+      <c r="D151" s="4">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F151" s="6">
+        <f t="shared" si="26"/>
+        <v>45.27</v>
+      </c>
+      <c r="G151" s="6">
+        <v>52.3</v>
+      </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
+      <c r="D152" s="4">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F152" s="6">
+        <f t="shared" si="26"/>
+        <v>52.3</v>
+      </c>
+      <c r="G152" s="6">
+        <v>55.39</v>
+      </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
@@ -4104,62 +4252,129 @@
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
+      <c r="A154" s="1">
+        <v>17</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C154" s="1">
+        <v>54.58</v>
+      </c>
+      <c r="D154" s="4">
+        <v>1</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F154" s="6">
+        <v>4.45</v>
+      </c>
+      <c r="G154" s="6">
+        <v>15.14</v>
+      </c>
       <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
+      <c r="I154" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
+      <c r="D155" s="4">
+        <f>+D154+1</f>
+        <v>2</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F155" s="6">
+        <f>+G154</f>
+        <v>15.14</v>
+      </c>
+      <c r="G155" s="6">
+        <v>22.28</v>
+      </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
+      <c r="D156" s="4">
+        <f t="shared" ref="D156:D159" si="27">+D155+1</f>
+        <v>3</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F156" s="6">
+        <f t="shared" ref="F156:F159" si="28">+G155</f>
+        <v>22.28</v>
+      </c>
+      <c r="G156" s="6">
+        <v>31.35</v>
+      </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
+      <c r="D157" s="4">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F157" s="6">
+        <f t="shared" si="28"/>
+        <v>31.35</v>
+      </c>
+      <c r="G157" s="6">
+        <v>39.4</v>
+      </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
+      <c r="D158" s="4">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F158" s="6">
+        <f t="shared" si="28"/>
+        <v>39.4</v>
+      </c>
+      <c r="G158" s="6">
+        <v>47.26</v>
+      </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
+      <c r="D159" s="4">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F159" s="6">
+        <f t="shared" si="28"/>
+        <v>47.26</v>
+      </c>
+      <c r="G159" s="6">
+        <v>53.04</v>
+      </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
@@ -4173,77 +4388,154 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>18</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C161" s="1">
+        <v>53.44</v>
+      </c>
+      <c r="D161" s="4">
+        <v>1</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F161" s="6">
+        <v>5.18</v>
+      </c>
+      <c r="G161" s="6">
+        <v>15.05</v>
+      </c>
       <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I161" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
+      <c r="D162" s="4">
+        <f>+D161+1</f>
+        <v>2</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F162" s="6">
+        <f>+G161</f>
+        <v>15.05</v>
+      </c>
+      <c r="G162" s="6">
+        <v>21.48</v>
+      </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
+      <c r="D163" s="4">
+        <f t="shared" ref="D163:D167" si="29">+D162+1</f>
+        <v>3</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F163" s="6">
+        <f t="shared" ref="F163:F167" si="30">+G162</f>
+        <v>21.48</v>
+      </c>
+      <c r="G163" s="6">
+        <v>23.36</v>
+      </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
+      <c r="D164" s="4">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F164" s="6">
+        <f t="shared" si="30"/>
+        <v>23.36</v>
+      </c>
+      <c r="G164" s="6">
+        <v>28.1</v>
+      </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
+      <c r="D165" s="4">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="E165" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F165" s="6">
+        <f t="shared" si="30"/>
+        <v>28.1</v>
+      </c>
+      <c r="G165" s="6">
+        <v>34.01</v>
+      </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
+      <c r="D166" s="4">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F166" s="6">
+        <f t="shared" si="30"/>
+        <v>34.01</v>
+      </c>
+      <c r="G166" s="6">
+        <v>42.59</v>
+      </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
+      <c r="D167" s="4">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F167" s="6">
+        <f t="shared" si="30"/>
+        <v>42.59</v>
+      </c>
+      <c r="G167" s="6">
+        <v>49.25</v>
+      </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="4"/>
@@ -4253,67 +4545,136 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>19</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="6">
+        <v>58.4</v>
+      </c>
+      <c r="D169" s="4">
+        <v>1</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F169" s="6">
+        <v>6.21</v>
+      </c>
+      <c r="G169" s="6">
+        <v>15.15</v>
+      </c>
       <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I169" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
+      <c r="D170" s="4">
+        <f>+D169+1</f>
+        <v>2</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F170" s="6">
+        <f>+G169</f>
+        <v>15.15</v>
+      </c>
+      <c r="G170" s="6">
+        <v>20.38</v>
+      </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
+      <c r="D171" s="4">
+        <f t="shared" ref="D171:D174" si="31">+D170+1</f>
+        <v>3</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F171" s="6">
+        <f t="shared" ref="F171:F174" si="32">+G170</f>
+        <v>20.38</v>
+      </c>
+      <c r="G171" s="6">
+        <v>32.21</v>
+      </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
+      <c r="D172" s="4">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F172" s="6">
+        <f t="shared" si="32"/>
+        <v>32.21</v>
+      </c>
+      <c r="G172" s="6">
+        <v>42.34</v>
+      </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
+      <c r="D173" s="4">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F173" s="6">
+        <f t="shared" si="32"/>
+        <v>42.34</v>
+      </c>
+      <c r="G173" s="6">
+        <v>47.05</v>
+      </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="1"/>
+      <c r="D174" s="4">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F174" s="6">
+        <f t="shared" si="32"/>
+        <v>47.05</v>
+      </c>
+      <c r="G174" s="6">
+        <v>55.13</v>
+      </c>
+      <c r="H174" s="13" t="s">
+        <v>211</v>
+      </c>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="4"/>
@@ -4323,7 +4684,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="4"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="221">
   <si>
     <t>Date</t>
   </si>
@@ -103,9 +103,6 @@
     <t>1.2.3.1</t>
   </si>
   <si>
-    <t>Panchati 6</t>
-  </si>
-  <si>
     <t>1.2.3.2</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>1.3.14.1</t>
   </si>
   <si>
-    <t>upto 1.3.14.4</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=hPGh9CKobF8</t>
   </si>
   <si>
@@ -427,9 +421,6 @@
     <t>1.5.8.1</t>
   </si>
   <si>
-    <t>upto P33</t>
-  </si>
-  <si>
     <t>20/07/2020</t>
   </si>
   <si>
@@ -451,9 +442,6 @@
     <t>talk</t>
   </si>
   <si>
-    <t>upto P 50</t>
-  </si>
-  <si>
     <t>21/07/2020</t>
   </si>
   <si>
@@ -650,19 +638,70 @@
   </si>
   <si>
     <t>18.12.2</t>
+  </si>
+  <si>
+    <t>1.7.13.2</t>
+  </si>
+  <si>
+    <t>1.6.11.1</t>
+  </si>
+  <si>
+    <t>1.5.11.4</t>
+  </si>
+  <si>
+    <t>1.5.8.3</t>
+  </si>
+  <si>
+    <t>1.3.14.4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2aerAxZ9ZeE</t>
+  </si>
+  <si>
+    <t>1.8.12.3</t>
+  </si>
+  <si>
+    <t>1.8.13.1</t>
+  </si>
+  <si>
+    <t>1.8.14.1</t>
+  </si>
+  <si>
+    <t>1.8.15.1</t>
+  </si>
+  <si>
+    <t>1.8.16.1</t>
+  </si>
+  <si>
+    <t>1.8.17.1</t>
+  </si>
+  <si>
+    <t>1.8.18.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -722,25 +761,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1050,15 +1091,15 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H174" sqref="H174"/>
+      <selection pane="bottomLeft" activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
@@ -1077,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>3</v>
@@ -1126,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>44050</v>
+        <v>44020</v>
       </c>
       <c r="C7" s="1">
         <v>34.270000000000003</v>
@@ -1145,7 +1186,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1234,10 +1275,10 @@
         <v>33.380000000000003</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1263,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>44081</v>
+        <v>44021</v>
       </c>
       <c r="C13" s="1">
         <v>56.45</v>
@@ -1282,7 +1323,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1417,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2">
-        <v>44111</v>
+        <v>44022</v>
       </c>
       <c r="C20" s="1">
         <v>50.05</v>
@@ -1436,7 +1477,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1482,7 +1523,7 @@
         <v>29.49</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1552,8 +1593,8 @@
       <c r="G25" s="6">
         <v>49.18</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>29</v>
+      <c r="H25" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1580,14 +1621,14 @@
         <v>3</v>
       </c>
       <c r="B27" s="2">
-        <v>44142</v>
+        <v>44023</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="6">
         <v>5</v>
@@ -1597,7 +1638,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1612,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="6">
         <f>+G27</f>
@@ -1636,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" ref="F29:F34" si="2">+G28</f>
@@ -1660,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="2"/>
@@ -1670,7 +1711,7 @@
         <v>27.34</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1686,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="6">
         <v>28.52</v>
@@ -1708,7 +1749,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="2"/>
@@ -1732,7 +1773,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="2"/>
@@ -1756,7 +1797,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="2"/>
@@ -1791,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>44172</v>
+        <v>44024</v>
       </c>
       <c r="C36" s="1">
         <v>55.25</v>
@@ -1800,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="6">
         <v>7.33</v>
@@ -1810,7 +1851,7 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -1825,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="6">
         <f>+G36</f>
@@ -1849,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" ref="F38:F39" si="4">+G37</f>
@@ -1873,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="4"/>
@@ -1907,8 +1948,8 @@
       <c r="A41" s="1">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>48</v>
+      <c r="B41" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C41" s="1">
         <v>58.07</v>
@@ -1917,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="6">
         <v>4.1100000000000003</v>
@@ -1927,7 +1968,7 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -1942,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" s="6">
         <f>+G41</f>
@@ -1966,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" ref="F43:F48" si="6">+G42</f>
@@ -1990,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="6"/>
@@ -2014,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="6"/>
@@ -2038,7 +2079,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="6"/>
@@ -2062,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="6"/>
@@ -2086,7 +2127,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="6"/>
@@ -2121,7 +2162,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1">
         <v>56.28</v>
@@ -2130,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50" s="6">
         <v>4.3600000000000003</v>
@@ -2140,7 +2181,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2155,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" s="6">
         <f t="shared" ref="F51:F56" si="7">+G50</f>
@@ -2179,7 +2220,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" s="6">
         <f t="shared" si="7"/>
@@ -2203,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" si="7"/>
@@ -2227,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" si="7"/>
@@ -2251,7 +2292,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" si="7"/>
@@ -2275,7 +2316,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" si="7"/>
@@ -2284,8 +2325,8 @@
       <c r="G56" s="6">
         <v>50.43</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>65</v>
+      <c r="H56" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2312,7 +2353,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="1">
         <v>55.31</v>
@@ -2321,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="6">
         <v>5.05</v>
@@ -2331,7 +2372,7 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -2346,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="6">
         <f>+G58</f>
@@ -2370,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" ref="F60:F69" si="10">+G59</f>
@@ -2394,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" si="10"/>
@@ -2418,7 +2459,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="6">
         <f t="shared" si="10"/>
@@ -2442,7 +2483,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="6">
         <f t="shared" si="10"/>
@@ -2466,7 +2507,7 @@
         <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="6">
         <f t="shared" si="10"/>
@@ -2490,7 +2531,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="6">
         <f t="shared" si="10"/>
@@ -2514,7 +2555,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="6">
         <f t="shared" si="10"/>
@@ -2538,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="6">
         <f t="shared" si="10"/>
@@ -2562,7 +2603,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F68" s="6">
         <f t="shared" si="10"/>
@@ -2586,7 +2627,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F69" s="6">
         <f t="shared" si="10"/>
@@ -2621,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C71" s="1">
         <v>56.28</v>
@@ -2630,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F71" s="6">
         <v>4.2300000000000004</v>
@@ -2640,7 +2681,7 @@
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -2655,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F72" s="6">
         <f>+G71</f>
@@ -2679,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F73" s="6">
         <f t="shared" ref="F73:F106" si="12">+G72</f>
@@ -2703,7 +2744,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F74" s="6">
         <f t="shared" si="12"/>
@@ -2727,7 +2768,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F75" s="6">
         <f t="shared" si="12"/>
@@ -2751,7 +2792,7 @@
         <v>6</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F76" s="6">
         <f t="shared" si="12"/>
@@ -2775,7 +2816,7 @@
         <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F77" s="6">
         <f t="shared" si="12"/>
@@ -2799,7 +2840,7 @@
         <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F78" s="6">
         <f t="shared" si="12"/>
@@ -2823,7 +2864,7 @@
         <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F79" s="6">
         <f t="shared" si="12"/>
@@ -2847,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F80" s="6">
         <f t="shared" si="12"/>
@@ -2871,7 +2912,7 @@
         <v>11</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F81" s="6">
         <f t="shared" si="12"/>
@@ -2895,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F82" s="6">
         <f t="shared" si="12"/>
@@ -2919,7 +2960,7 @@
         <v>13</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F83" s="6">
         <f t="shared" si="12"/>
@@ -2943,7 +2984,7 @@
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F84" s="6">
         <f t="shared" si="12"/>
@@ -2965,7 +3006,7 @@
         <v>15</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F85" s="6">
         <f t="shared" si="12"/>
@@ -2981,7 +3022,7 @@
         <v>16</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F86" s="6">
         <f t="shared" si="12"/>
@@ -2997,7 +3038,7 @@
         <v>17</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F87" s="6">
         <f t="shared" si="12"/>
@@ -3013,7 +3054,7 @@
         <v>18</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F88" s="6">
         <f t="shared" si="12"/>
@@ -3029,7 +3070,7 @@
         <v>19</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F89" s="6">
         <f t="shared" si="12"/>
@@ -3045,7 +3086,7 @@
         <v>20</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F90" s="6">
         <f t="shared" si="12"/>
@@ -3061,7 +3102,7 @@
         <v>21</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F91" s="6">
         <f t="shared" si="12"/>
@@ -3077,7 +3118,7 @@
         <v>22</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F92" s="6">
         <f t="shared" si="12"/>
@@ -3093,7 +3134,7 @@
         <v>23</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F93" s="6">
         <f t="shared" si="12"/>
@@ -3109,7 +3150,7 @@
         <v>24</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F94" s="6">
         <f t="shared" si="12"/>
@@ -3125,7 +3166,7 @@
         <v>25</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F95" s="6">
         <f t="shared" si="12"/>
@@ -3141,7 +3182,7 @@
         <v>26</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F96" s="6">
         <f t="shared" si="12"/>
@@ -3166,7 +3207,7 @@
         <v>7</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C98" s="1">
         <v>50.24</v>
@@ -3175,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F98" s="6">
         <v>0.28999999999999998</v>
@@ -3184,10 +3225,10 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="H98" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3198,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F99" s="6">
         <f t="shared" si="12"/>
@@ -3218,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F100" s="6">
         <f t="shared" si="12"/>
@@ -3238,7 +3279,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F101" s="6">
         <f t="shared" si="12"/>
@@ -3258,7 +3299,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F102" s="6">
         <f t="shared" si="12"/>
@@ -3278,7 +3319,7 @@
         <v>6</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F103" s="6">
         <f t="shared" si="12"/>
@@ -3298,7 +3339,7 @@
         <v>7</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F104" s="6">
         <f t="shared" si="12"/>
@@ -3318,7 +3359,7 @@
         <v>8</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F105" s="6">
         <f t="shared" si="12"/>
@@ -3338,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F106" s="6">
         <f t="shared" si="12"/>
@@ -3365,7 +3406,7 @@
         <v>8</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C108" s="1">
         <v>53.53</v>
@@ -3374,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F108" s="6">
         <v>1.46</v>
@@ -3384,7 +3425,7 @@
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3395,7 +3436,7 @@
         <v>2</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F109" s="6">
         <f>+G108</f>
@@ -3415,7 +3456,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F110" s="6">
         <f t="shared" ref="F110:F111" si="14">+G109</f>
@@ -3435,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F111" s="6">
         <f t="shared" si="14"/>
@@ -3462,14 +3503,14 @@
         <v>9</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="4">
         <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F113" s="6">
         <v>1.25</v>
@@ -3479,7 +3520,7 @@
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3490,7 +3531,7 @@
         <v>2</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F114" s="6">
         <f>+G113</f>
@@ -3510,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F115" s="6">
         <f t="shared" ref="F115:F116" si="15">+G114</f>
@@ -3530,7 +3571,7 @@
         <v>4</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F116" s="6">
         <f t="shared" si="15"/>
@@ -3539,8 +3580,8 @@
       <c r="G116" s="6">
         <v>55.39</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>137</v>
+      <c r="H116" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="I116" s="1"/>
     </row>
@@ -3559,14 +3600,14 @@
         <v>10</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="4">
         <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F118" s="6">
         <v>1.07</v>
@@ -3576,7 +3617,7 @@
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3587,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F119" s="6">
         <f>+G118</f>
@@ -3597,7 +3638,7 @@
         <v>31.36</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I119" s="1"/>
     </row>
@@ -3609,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F120" s="6">
         <v>35.130000000000003</v>
@@ -3628,7 +3669,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F121" s="6">
         <f t="shared" ref="F121" si="17">+G120</f>
@@ -3637,8 +3678,8 @@
       <c r="G121" s="6">
         <v>59.38</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>145</v>
+      <c r="H121" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="I121" s="1"/>
     </row>
@@ -3657,14 +3698,14 @@
         <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="4">
         <v>1</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F123" s="6">
         <v>1.07</v>
@@ -3674,7 +3715,7 @@
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3685,7 +3726,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F124" s="6">
         <f>+G123</f>
@@ -3705,7 +3746,7 @@
         <v>3</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F125" s="6">
         <f t="shared" ref="F125:F127" si="19">+G124</f>
@@ -3725,7 +3766,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F126" s="6">
         <f t="shared" si="19"/>
@@ -3745,7 +3786,7 @@
         <v>5</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F127" s="6">
         <f t="shared" si="19"/>
@@ -3772,16 +3813,16 @@
         <v>12</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F129" s="6">
         <v>4.1900000000000004</v>
@@ -3791,7 +3832,7 @@
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3802,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F130" s="6">
         <f>+G129</f>
@@ -3812,7 +3853,7 @@
         <v>25</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I130" s="1"/>
     </row>
@@ -3824,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F131" s="6">
         <v>29</v>
@@ -3843,7 +3884,7 @@
         <v>4</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F132" s="6">
         <f t="shared" ref="F132:F133" si="21">+G131</f>
@@ -3863,7 +3904,7 @@
         <v>5</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F133" s="6">
         <f t="shared" si="21"/>
@@ -3872,7 +3913,9 @@
       <c r="G133" s="6">
         <v>59.01</v>
       </c>
-      <c r="H133" s="1"/>
+      <c r="H133" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -3890,7 +3933,7 @@
         <v>13</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C135" s="1">
         <v>55.29</v>
@@ -3899,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F135" s="6">
         <v>1.03</v>
@@ -3909,7 +3952,7 @@
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3920,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F136" s="6">
         <f>+G135</f>
@@ -3939,8 +3982,8 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="E137" s="12" t="s">
-        <v>166</v>
+      <c r="E137" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="F137" s="6">
         <v>37.549999999999997</v>
@@ -3948,7 +3991,9 @@
       <c r="G137" s="6">
         <v>54.17</v>
       </c>
-      <c r="H137" s="1"/>
+      <c r="H137" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -3966,7 +4011,7 @@
         <v>14</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C139" s="1">
         <v>52.45</v>
@@ -3975,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F139" s="6">
         <v>1.05</v>
@@ -3985,7 +4030,7 @@
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -3996,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F140" s="6">
         <f>+G139</f>
@@ -4006,7 +4051,7 @@
         <v>26.55</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I140" s="1"/>
     </row>
@@ -4018,7 +4063,7 @@
         <v>3</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F141" s="6">
         <v>28.53</v>
@@ -4036,7 +4081,7 @@
         <v>4</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F142" s="6">
         <f t="shared" ref="F142" si="23">+G141</f>
@@ -4045,7 +4090,9 @@
       <c r="G142" s="6">
         <v>51.34</v>
       </c>
-      <c r="H142" s="1"/>
+      <c r="H142" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4063,7 +4110,7 @@
         <v>15</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C144" s="1">
         <v>59.01</v>
@@ -4072,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F144" s="6">
         <v>6.1</v>
@@ -4082,7 +4129,7 @@
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4093,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F145" s="6">
         <f>+G144</f>
@@ -4112,7 +4159,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F146" s="6">
         <f>+G145</f>
@@ -4139,7 +4186,7 @@
         <v>16</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C148" s="1">
         <v>57.51</v>
@@ -4148,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F148" s="6">
         <v>4.5</v>
@@ -4158,7 +4205,7 @@
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4169,7 +4216,7 @@
         <v>2</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F149" s="6">
         <f>+G148</f>
@@ -4189,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F150" s="6">
         <f t="shared" ref="F150:F152" si="26">+G149</f>
@@ -4209,7 +4256,7 @@
         <v>4</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F151" s="6">
         <f t="shared" si="26"/>
@@ -4229,7 +4276,7 @@
         <v>5</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F152" s="6">
         <f t="shared" si="26"/>
@@ -4238,7 +4285,9 @@
       <c r="G152" s="6">
         <v>55.39</v>
       </c>
-      <c r="H152" s="1"/>
+      <c r="H152" s="14" t="s">
+        <v>180</v>
+      </c>
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -4256,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C154" s="1">
         <v>54.58</v>
@@ -4265,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F154" s="6">
         <v>4.45</v>
@@ -4275,7 +4324,7 @@
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -4286,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F155" s="6">
         <f>+G154</f>
@@ -4306,7 +4355,7 @@
         <v>3</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F156" s="6">
         <f t="shared" ref="F156:F159" si="28">+G155</f>
@@ -4326,7 +4375,7 @@
         <v>4</v>
       </c>
       <c r="E157" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F157" s="6">
         <f t="shared" si="28"/>
@@ -4346,7 +4395,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F158" s="6">
         <f t="shared" si="28"/>
@@ -4366,7 +4415,7 @@
         <v>6</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F159" s="6">
         <f t="shared" si="28"/>
@@ -4375,7 +4424,9 @@
       <c r="G159" s="6">
         <v>53.04</v>
       </c>
-      <c r="H159" s="1"/>
+      <c r="H159" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -4393,7 +4444,7 @@
         <v>18</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C161" s="1">
         <v>53.44</v>
@@ -4402,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F161" s="6">
         <v>5.18</v>
@@ -4412,7 +4463,7 @@
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -4423,7 +4474,7 @@
         <v>2</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F162" s="6">
         <f>+G161</f>
@@ -4443,7 +4494,7 @@
         <v>3</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F163" s="6">
         <f t="shared" ref="F163:F167" si="30">+G162</f>
@@ -4463,7 +4514,7 @@
         <v>4</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F164" s="6">
         <f t="shared" si="30"/>
@@ -4483,7 +4534,7 @@
         <v>5</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F165" s="6">
         <f t="shared" si="30"/>
@@ -4503,7 +4554,7 @@
         <v>6</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F166" s="6">
         <f t="shared" si="30"/>
@@ -4523,7 +4574,7 @@
         <v>7</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F167" s="6">
         <f t="shared" si="30"/>
@@ -4550,7 +4601,7 @@
         <v>19</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C169" s="6">
         <v>58.4</v>
@@ -4559,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F169" s="6">
         <v>6.21</v>
@@ -4569,7 +4620,7 @@
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4580,7 +4631,7 @@
         <v>2</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F170" s="6">
         <f>+G169</f>
@@ -4600,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F171" s="6">
         <f t="shared" ref="F171:F174" si="32">+G170</f>
@@ -4620,7 +4671,7 @@
         <v>4</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F172" s="6">
         <f t="shared" si="32"/>
@@ -4640,7 +4691,7 @@
         <v>5</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F173" s="6">
         <f t="shared" si="32"/>
@@ -4660,7 +4711,7 @@
         <v>6</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F174" s="6">
         <f t="shared" si="32"/>
@@ -4670,7 +4721,7 @@
         <v>55.13</v>
       </c>
       <c r="H174" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I174" s="1"/>
     </row>
@@ -4685,72 +4736,149 @@
       <c r="I175" s="1"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
+      <c r="A176" s="1">
+        <v>20</v>
+      </c>
+      <c r="B176" s="2">
+        <v>44042</v>
+      </c>
+      <c r="C176" s="1">
+        <v>57.06</v>
+      </c>
+      <c r="D176" s="4">
+        <v>1</v>
+      </c>
+      <c r="E176" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F176" s="6">
+        <v>7.48</v>
+      </c>
+      <c r="G176" s="6">
+        <v>11.1</v>
+      </c>
       <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
+      <c r="I176" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
+      <c r="D177" s="4">
+        <f>+D176+1</f>
+        <v>2</v>
+      </c>
+      <c r="E177" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F177" s="6">
+        <f>+G176</f>
+        <v>11.1</v>
+      </c>
+      <c r="G177" s="6">
+        <v>22.42</v>
+      </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
+      <c r="D178" s="4">
+        <f t="shared" ref="D178:D182" si="33">+D177+1</f>
+        <v>3</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F178" s="6">
+        <f t="shared" ref="F178:F182" si="34">+G177</f>
+        <v>22.42</v>
+      </c>
+      <c r="G178" s="6">
+        <v>29.52</v>
+      </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
+      <c r="D179" s="4">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="E179" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F179" s="6">
+        <f t="shared" si="34"/>
+        <v>29.52</v>
+      </c>
+      <c r="G179" s="6">
+        <v>37.020000000000003</v>
+      </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
+      <c r="D180" s="4">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="E180" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F180" s="6">
+        <f t="shared" si="34"/>
+        <v>37.020000000000003</v>
+      </c>
+      <c r="G180" s="6">
+        <v>45.22</v>
+      </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
+      <c r="D181" s="4">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="E181" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F181" s="6">
+        <f t="shared" si="34"/>
+        <v>45.22</v>
+      </c>
+      <c r="G181" s="6">
+        <v>48.55</v>
+      </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
+      <c r="D182" s="4">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+      <c r="E182" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F182" s="6">
+        <f t="shared" si="34"/>
+        <v>48.55</v>
+      </c>
+      <c r="G182" s="6">
+        <v>54.4</v>
+      </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="221">
   <si>
     <t>Date</t>
   </si>
@@ -217,9 +217,6 @@
     <t>https://www.youtube.com/watch?v=LT9kGdY_iUo</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
     <t>Archieve.org =52.08</t>
   </si>
   <si>
@@ -677,19 +674,34 @@
   </si>
   <si>
     <t>1.8.18.1</t>
+  </si>
+  <si>
+    <t>H2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -729,7 +741,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +760,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -761,29 +785,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,9 +1117,9 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E183" sqref="E183"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1274,11 +1300,11 @@
       <c r="G11" s="6">
         <v>33.380000000000003</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1389,7 +1415,9 @@
       <c r="G16" s="6">
         <v>30.56</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="17" t="s">
+        <v>220</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1523,7 +1551,7 @@
         <v>29.49</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2326,7 +2354,7 @@
         <v>50.43</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2353,7 +2381,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="1">
         <v>55.31</v>
@@ -2362,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F58" s="6">
         <v>5.05</v>
@@ -2372,7 +2400,7 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -2387,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F59" s="6">
         <f>+G58</f>
@@ -2411,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" ref="F60:F69" si="10">+G59</f>
@@ -2435,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" si="10"/>
@@ -2459,7 +2487,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F62" s="6">
         <f t="shared" si="10"/>
@@ -2483,7 +2511,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F63" s="6">
         <f t="shared" si="10"/>
@@ -2507,7 +2535,7 @@
         <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F64" s="6">
         <f t="shared" si="10"/>
@@ -2531,7 +2559,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F65" s="6">
         <f t="shared" si="10"/>
@@ -2555,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F66" s="6">
         <f t="shared" si="10"/>
@@ -2579,7 +2607,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F67" s="6">
         <f t="shared" si="10"/>
@@ -2603,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F68" s="6">
         <f t="shared" si="10"/>
@@ -2627,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F69" s="6">
         <f t="shared" si="10"/>
@@ -2662,7 +2690,7 @@
         <v>6</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71" s="1">
         <v>56.28</v>
@@ -2671,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" s="6">
         <v>4.2300000000000004</v>
@@ -2681,7 +2709,7 @@
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -2696,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F72" s="6">
         <f>+G71</f>
@@ -2720,7 +2748,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F73" s="6">
         <f t="shared" ref="F73:F106" si="12">+G72</f>
@@ -2744,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F74" s="6">
         <f t="shared" si="12"/>
@@ -2768,7 +2796,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F75" s="6">
         <f t="shared" si="12"/>
@@ -2792,7 +2820,7 @@
         <v>6</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F76" s="6">
         <f t="shared" si="12"/>
@@ -2816,7 +2844,7 @@
         <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F77" s="6">
         <f t="shared" si="12"/>
@@ -2840,7 +2868,7 @@
         <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="6">
         <f t="shared" si="12"/>
@@ -2864,7 +2892,7 @@
         <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F79" s="6">
         <f t="shared" si="12"/>
@@ -2888,7 +2916,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F80" s="6">
         <f t="shared" si="12"/>
@@ -2912,7 +2940,7 @@
         <v>11</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F81" s="6">
         <f t="shared" si="12"/>
@@ -2936,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F82" s="6">
         <f t="shared" si="12"/>
@@ -2960,7 +2988,7 @@
         <v>13</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F83" s="6">
         <f t="shared" si="12"/>
@@ -2984,7 +3012,7 @@
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F84" s="6">
         <f t="shared" si="12"/>
@@ -3006,7 +3034,7 @@
         <v>15</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F85" s="6">
         <f t="shared" si="12"/>
@@ -3022,7 +3050,7 @@
         <v>16</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F86" s="6">
         <f t="shared" si="12"/>
@@ -3038,7 +3066,7 @@
         <v>17</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F87" s="6">
         <f t="shared" si="12"/>
@@ -3054,7 +3082,7 @@
         <v>18</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F88" s="6">
         <f t="shared" si="12"/>
@@ -3070,7 +3098,7 @@
         <v>19</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F89" s="6">
         <f t="shared" si="12"/>
@@ -3086,7 +3114,7 @@
         <v>20</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F90" s="6">
         <f t="shared" si="12"/>
@@ -3102,7 +3130,7 @@
         <v>21</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F91" s="6">
         <f t="shared" si="12"/>
@@ -3118,7 +3146,7 @@
         <v>22</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F92" s="6">
         <f t="shared" si="12"/>
@@ -3134,7 +3162,7 @@
         <v>23</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F93" s="6">
         <f t="shared" si="12"/>
@@ -3150,7 +3178,7 @@
         <v>24</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F94" s="6">
         <f t="shared" si="12"/>
@@ -3166,7 +3194,7 @@
         <v>25</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F95" s="6">
         <f t="shared" si="12"/>
@@ -3182,7 +3210,7 @@
         <v>26</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F96" s="6">
         <f t="shared" si="12"/>
@@ -3207,7 +3235,7 @@
         <v>7</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C98" s="1">
         <v>50.24</v>
@@ -3216,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F98" s="6">
         <v>0.28999999999999998</v>
@@ -3225,10 +3253,10 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3239,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F99" s="6">
         <f t="shared" si="12"/>
@@ -3259,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F100" s="6">
         <f t="shared" si="12"/>
@@ -3279,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F101" s="6">
         <f t="shared" si="12"/>
@@ -3299,7 +3327,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F102" s="6">
         <f t="shared" si="12"/>
@@ -3319,7 +3347,7 @@
         <v>6</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F103" s="6">
         <f t="shared" si="12"/>
@@ -3339,7 +3367,7 @@
         <v>7</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F104" s="6">
         <f t="shared" si="12"/>
@@ -3359,7 +3387,7 @@
         <v>8</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F105" s="6">
         <f t="shared" si="12"/>
@@ -3379,7 +3407,7 @@
         <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F106" s="6">
         <f t="shared" si="12"/>
@@ -3406,7 +3434,7 @@
         <v>8</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C108" s="1">
         <v>53.53</v>
@@ -3415,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F108" s="6">
         <v>1.46</v>
@@ -3425,7 +3453,7 @@
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3436,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F109" s="6">
         <f>+G108</f>
@@ -3456,7 +3484,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F110" s="6">
         <f t="shared" ref="F110:F111" si="14">+G109</f>
@@ -3476,7 +3504,7 @@
         <v>4</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F111" s="6">
         <f t="shared" si="14"/>
@@ -3503,14 +3531,14 @@
         <v>9</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="4">
         <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F113" s="6">
         <v>1.25</v>
@@ -3520,7 +3548,7 @@
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3531,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F114" s="6">
         <f>+G113</f>
@@ -3551,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F115" s="6">
         <f t="shared" ref="F115:F116" si="15">+G114</f>
@@ -3571,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F116" s="6">
         <f t="shared" si="15"/>
@@ -3581,7 +3609,7 @@
         <v>55.39</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I116" s="1"/>
     </row>
@@ -3600,14 +3628,14 @@
         <v>10</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="4">
         <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F118" s="6">
         <v>1.07</v>
@@ -3617,7 +3645,7 @@
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3628,7 +3656,7 @@
         <v>2</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F119" s="6">
         <f>+G118</f>
@@ -3638,7 +3666,7 @@
         <v>31.36</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I119" s="1"/>
     </row>
@@ -3650,7 +3678,7 @@
         <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F120" s="6">
         <v>35.130000000000003</v>
@@ -3669,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F121" s="6">
         <f t="shared" ref="F121" si="17">+G120</f>
@@ -3679,7 +3707,7 @@
         <v>59.38</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I121" s="1"/>
     </row>
@@ -3698,14 +3726,14 @@
         <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="4">
         <v>1</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F123" s="6">
         <v>1.07</v>
@@ -3715,7 +3743,7 @@
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3726,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F124" s="6">
         <f>+G123</f>
@@ -3746,7 +3774,7 @@
         <v>3</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F125" s="6">
         <f t="shared" ref="F125:F127" si="19">+G124</f>
@@ -3766,7 +3794,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F126" s="6">
         <f t="shared" si="19"/>
@@ -3786,7 +3814,7 @@
         <v>5</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F127" s="6">
         <f t="shared" si="19"/>
@@ -3813,16 +3841,16 @@
         <v>12</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F129" s="6">
         <v>4.1900000000000004</v>
@@ -3832,7 +3860,7 @@
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3843,7 +3871,7 @@
         <v>2</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F130" s="6">
         <f>+G129</f>
@@ -3853,7 +3881,7 @@
         <v>25</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I130" s="1"/>
     </row>
@@ -3865,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F131" s="6">
         <v>29</v>
@@ -3884,7 +3912,7 @@
         <v>4</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F132" s="6">
         <f t="shared" ref="F132:F133" si="21">+G131</f>
@@ -3904,7 +3932,7 @@
         <v>5</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F133" s="6">
         <f t="shared" si="21"/>
@@ -3914,7 +3942,7 @@
         <v>59.01</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I133" s="1"/>
     </row>
@@ -3933,7 +3961,7 @@
         <v>13</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C135" s="1">
         <v>55.29</v>
@@ -3942,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F135" s="6">
         <v>1.03</v>
@@ -3952,7 +3980,7 @@
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3963,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F136" s="6">
         <f>+G135</f>
@@ -3983,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F137" s="6">
         <v>37.549999999999997</v>
@@ -3992,7 +4020,7 @@
         <v>54.17</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I137" s="1"/>
     </row>
@@ -4011,7 +4039,7 @@
         <v>14</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C139" s="1">
         <v>52.45</v>
@@ -4020,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F139" s="6">
         <v>1.05</v>
@@ -4030,7 +4058,7 @@
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4041,7 +4069,7 @@
         <v>2</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F140" s="6">
         <f>+G139</f>
@@ -4051,7 +4079,7 @@
         <v>26.55</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I140" s="1"/>
     </row>
@@ -4063,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F141" s="6">
         <v>28.53</v>
@@ -4081,7 +4109,7 @@
         <v>4</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F142" s="6">
         <f t="shared" ref="F142" si="23">+G141</f>
@@ -4091,7 +4119,7 @@
         <v>51.34</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I142" s="1"/>
     </row>
@@ -4110,7 +4138,7 @@
         <v>15</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C144" s="1">
         <v>59.01</v>
@@ -4119,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F144" s="6">
         <v>6.1</v>
@@ -4129,7 +4157,7 @@
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4140,7 +4168,7 @@
         <v>2</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F145" s="6">
         <f>+G144</f>
@@ -4159,7 +4187,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F146" s="6">
         <f>+G145</f>
@@ -4186,7 +4214,7 @@
         <v>16</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C148" s="1">
         <v>57.51</v>
@@ -4195,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F148" s="6">
         <v>4.5</v>
@@ -4205,7 +4233,7 @@
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4216,7 +4244,7 @@
         <v>2</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F149" s="6">
         <f>+G148</f>
@@ -4236,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F150" s="6">
         <f t="shared" ref="F150:F152" si="26">+G149</f>
@@ -4256,7 +4284,7 @@
         <v>4</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F151" s="6">
         <f t="shared" si="26"/>
@@ -4276,7 +4304,7 @@
         <v>5</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F152" s="6">
         <f t="shared" si="26"/>
@@ -4286,7 +4314,7 @@
         <v>55.39</v>
       </c>
       <c r="H152" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I152" s="1"/>
     </row>
@@ -4305,7 +4333,7 @@
         <v>17</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C154" s="1">
         <v>54.58</v>
@@ -4314,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F154" s="6">
         <v>4.45</v>
@@ -4324,7 +4352,7 @@
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -4335,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F155" s="6">
         <f>+G154</f>
@@ -4355,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F156" s="6">
         <f t="shared" ref="F156:F159" si="28">+G155</f>
@@ -4375,7 +4403,7 @@
         <v>4</v>
       </c>
       <c r="E157" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F157" s="6">
         <f t="shared" si="28"/>
@@ -4395,7 +4423,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F158" s="6">
         <f t="shared" si="28"/>
@@ -4415,7 +4443,7 @@
         <v>6</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F159" s="6">
         <f t="shared" si="28"/>
@@ -4425,7 +4453,7 @@
         <v>53.04</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I159" s="1"/>
     </row>
@@ -4444,7 +4472,7 @@
         <v>18</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C161" s="1">
         <v>53.44</v>
@@ -4453,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F161" s="6">
         <v>5.18</v>
@@ -4463,7 +4491,7 @@
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -4474,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F162" s="6">
         <f>+G161</f>
@@ -4494,7 +4522,7 @@
         <v>3</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F163" s="6">
         <f t="shared" ref="F163:F167" si="30">+G162</f>
@@ -4514,7 +4542,7 @@
         <v>4</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F164" s="6">
         <f t="shared" si="30"/>
@@ -4534,7 +4562,7 @@
         <v>5</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F165" s="6">
         <f t="shared" si="30"/>
@@ -4554,7 +4582,7 @@
         <v>6</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F166" s="6">
         <f t="shared" si="30"/>
@@ -4574,7 +4602,7 @@
         <v>7</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F167" s="6">
         <f t="shared" si="30"/>
@@ -4601,7 +4629,7 @@
         <v>19</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C169" s="6">
         <v>58.4</v>
@@ -4610,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F169" s="6">
         <v>6.21</v>
@@ -4620,7 +4648,7 @@
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4631,7 +4659,7 @@
         <v>2</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F170" s="6">
         <f>+G169</f>
@@ -4651,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F171" s="6">
         <f t="shared" ref="F171:F174" si="32">+G170</f>
@@ -4671,7 +4699,7 @@
         <v>4</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F172" s="6">
         <f t="shared" si="32"/>
@@ -4691,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F173" s="6">
         <f t="shared" si="32"/>
@@ -4711,7 +4739,7 @@
         <v>6</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F174" s="6">
         <f t="shared" si="32"/>
@@ -4721,7 +4749,7 @@
         <v>55.13</v>
       </c>
       <c r="H174" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I174" s="1"/>
     </row>
@@ -4749,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F176" s="6">
         <v>7.48</v>
@@ -4759,7 +4787,7 @@
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
@@ -4770,7 +4798,7 @@
         <v>2</v>
       </c>
       <c r="E177" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F177" s="6">
         <f>+G176</f>
@@ -4790,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="E178" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F178" s="6">
         <f t="shared" ref="F178:F182" si="34">+G177</f>
@@ -4810,7 +4838,7 @@
         <v>4</v>
       </c>
       <c r="E179" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F179" s="6">
         <f t="shared" si="34"/>
@@ -4830,7 +4858,7 @@
         <v>5</v>
       </c>
       <c r="E180" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F180" s="6">
         <f t="shared" si="34"/>
@@ -4850,7 +4878,7 @@
         <v>6</v>
       </c>
       <c r="E181" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F181" s="6">
         <f t="shared" si="34"/>
@@ -4870,7 +4898,7 @@
         <v>7</v>
       </c>
       <c r="E182" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F182" s="6">
         <f t="shared" si="34"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kandam2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="229">
   <si>
     <t>Date</t>
   </si>
@@ -457,9 +458,6 @@
     <t>1.6.4.1</t>
   </si>
   <si>
-    <t xml:space="preserve">First round </t>
-  </si>
-  <si>
     <t>22/07/2020</t>
   </si>
   <si>
@@ -677,19 +675,52 @@
   </si>
   <si>
     <t>H2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Dvb7hq_Z4ng</t>
+  </si>
+  <si>
+    <t>1.8.19.1</t>
+  </si>
+  <si>
+    <t>1.8.20.1</t>
+  </si>
+  <si>
+    <t>1.8.21.1</t>
+  </si>
+  <si>
+    <t>1.8.22.1</t>
+  </si>
+  <si>
+    <t>2.1.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fwQugM1P_7c</t>
+  </si>
+  <si>
+    <t>2.1.2.1</t>
+  </si>
+  <si>
+    <t>2.1.3.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -741,7 +772,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,12 +782,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,31 +810,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1116,10 +1142,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1300,8 +1326,8 @@
       <c r="G11" s="6">
         <v>33.380000000000003</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>220</v>
+      <c r="H11" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>67</v>
@@ -1415,8 +1441,8 @@
       <c r="G16" s="6">
         <v>30.56</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>220</v>
+      <c r="H16" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1460,7 +1486,7 @@
       <c r="G18" s="6">
         <v>52.12</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1550,8 +1576,8 @@
       <c r="G22" s="6">
         <v>29.49</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>147</v>
+      <c r="H22" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1621,7 +1647,7 @@
       <c r="G25" s="6">
         <v>49.18</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="1"/>
@@ -2353,8 +2379,8 @@
       <c r="G56" s="6">
         <v>50.43</v>
       </c>
-      <c r="H56" s="14" t="s">
-        <v>211</v>
+      <c r="H56" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -3608,8 +3634,8 @@
       <c r="G116" s="6">
         <v>55.39</v>
       </c>
-      <c r="H116" s="14" t="s">
-        <v>210</v>
+      <c r="H116" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="I116" s="1"/>
     </row>
@@ -3706,8 +3732,8 @@
       <c r="G121" s="6">
         <v>59.38</v>
       </c>
-      <c r="H121" s="14" t="s">
-        <v>209</v>
+      <c r="H121" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="I121" s="1"/>
     </row>
@@ -3743,7 +3769,7 @@
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3840,17 +3866,17 @@
       <c r="A129" s="1">
         <v>12</v>
       </c>
-      <c r="B129" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>150</v>
+      <c r="B129" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
       </c>
-      <c r="E129" s="12" t="s">
-        <v>149</v>
+      <c r="E129" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="F129" s="6">
         <v>4.1900000000000004</v>
@@ -3860,7 +3886,7 @@
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3870,8 +3896,8 @@
         <f t="shared" ref="D130:D133" si="20">+D129+1</f>
         <v>2</v>
       </c>
-      <c r="E130" s="12" t="s">
-        <v>152</v>
+      <c r="E130" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="F130" s="6">
         <f>+G129</f>
@@ -3880,8 +3906,8 @@
       <c r="G130" s="6">
         <v>25</v>
       </c>
-      <c r="H130" s="12" t="s">
-        <v>153</v>
+      <c r="H130" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="I130" s="1"/>
     </row>
@@ -3892,8 +3918,8 @@
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="E131" s="12" t="s">
-        <v>154</v>
+      <c r="E131" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="F131" s="6">
         <v>29</v>
@@ -3911,8 +3937,8 @@
         <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="E132" s="12" t="s">
-        <v>155</v>
+      <c r="E132" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="F132" s="6">
         <f t="shared" ref="F132:F133" si="21">+G131</f>
@@ -3931,8 +3957,8 @@
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="E133" s="12" t="s">
-        <v>156</v>
+      <c r="E133" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="F133" s="6">
         <f t="shared" si="21"/>
@@ -3941,8 +3967,8 @@
       <c r="G133" s="6">
         <v>59.01</v>
       </c>
-      <c r="H133" s="14" t="s">
-        <v>156</v>
+      <c r="H133" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="I133" s="1"/>
     </row>
@@ -3960,8 +3986,8 @@
       <c r="A135" s="1">
         <v>13</v>
       </c>
-      <c r="B135" s="12" t="s">
-        <v>157</v>
+      <c r="B135" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="C135" s="1">
         <v>55.29</v>
@@ -3969,8 +3995,8 @@
       <c r="D135" s="4">
         <v>1</v>
       </c>
-      <c r="E135" s="12" t="s">
-        <v>159</v>
+      <c r="E135" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="F135" s="6">
         <v>1.03</v>
@@ -3980,7 +4006,7 @@
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3990,8 +4016,8 @@
         <f t="shared" ref="D136:D141" si="22">+D135+1</f>
         <v>2</v>
       </c>
-      <c r="E136" s="12" t="s">
-        <v>160</v>
+      <c r="E136" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="F136" s="6">
         <f>+G135</f>
@@ -4010,8 +4036,8 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="E137" s="14" t="s">
-        <v>208</v>
+      <c r="E137" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="F137" s="6">
         <v>37.549999999999997</v>
@@ -4019,8 +4045,8 @@
       <c r="G137" s="6">
         <v>54.17</v>
       </c>
-      <c r="H137" s="14" t="s">
-        <v>161</v>
+      <c r="H137" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="I137" s="1"/>
     </row>
@@ -4038,8 +4064,8 @@
       <c r="A139" s="1">
         <v>14</v>
       </c>
-      <c r="B139" s="12" t="s">
-        <v>162</v>
+      <c r="B139" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C139" s="1">
         <v>52.45</v>
@@ -4047,8 +4073,8 @@
       <c r="D139" s="4">
         <v>1</v>
       </c>
-      <c r="E139" s="12" t="s">
-        <v>164</v>
+      <c r="E139" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="F139" s="6">
         <v>1.05</v>
@@ -4058,7 +4084,7 @@
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4068,8 +4094,8 @@
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="E140" s="12" t="s">
-        <v>166</v>
+      <c r="E140" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="F140" s="6">
         <f>+G139</f>
@@ -4078,8 +4104,8 @@
       <c r="G140" s="6">
         <v>26.55</v>
       </c>
-      <c r="H140" s="12" t="s">
-        <v>153</v>
+      <c r="H140" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="I140" s="1"/>
     </row>
@@ -4090,8 +4116,8 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="E141" s="12" t="s">
-        <v>169</v>
+      <c r="E141" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F141" s="6">
         <v>28.53</v>
@@ -4108,8 +4134,8 @@
       <c r="D142" s="4">
         <v>4</v>
       </c>
-      <c r="E142" s="12" t="s">
-        <v>170</v>
+      <c r="E142" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="F142" s="6">
         <f t="shared" ref="F142" si="23">+G141</f>
@@ -4118,8 +4144,8 @@
       <c r="G142" s="6">
         <v>51.34</v>
       </c>
-      <c r="H142" s="14" t="s">
-        <v>170</v>
+      <c r="H142" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="I142" s="1"/>
     </row>
@@ -4137,8 +4163,8 @@
       <c r="A144" s="1">
         <v>15</v>
       </c>
-      <c r="B144" s="12" t="s">
-        <v>167</v>
+      <c r="B144" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C144" s="1">
         <v>59.01</v>
@@ -4146,8 +4172,8 @@
       <c r="D144" s="4">
         <v>1</v>
       </c>
-      <c r="E144" s="12" t="s">
-        <v>171</v>
+      <c r="E144" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="F144" s="6">
         <v>6.1</v>
@@ -4157,7 +4183,7 @@
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4167,8 +4193,8 @@
         <f t="shared" ref="D145" si="24">+D144+1</f>
         <v>2</v>
       </c>
-      <c r="E145" s="12" t="s">
-        <v>172</v>
+      <c r="E145" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="F145" s="6">
         <f>+G144</f>
@@ -4186,8 +4212,8 @@
       <c r="D146" s="4">
         <v>3</v>
       </c>
-      <c r="E146" s="12" t="s">
-        <v>173</v>
+      <c r="E146" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="F146" s="6">
         <f>+G145</f>
@@ -4213,8 +4239,8 @@
       <c r="A148" s="1">
         <v>16</v>
       </c>
-      <c r="B148" s="12" t="s">
-        <v>174</v>
+      <c r="B148" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="C148" s="1">
         <v>57.51</v>
@@ -4222,8 +4248,8 @@
       <c r="D148" s="4">
         <v>1</v>
       </c>
-      <c r="E148" s="12" t="s">
-        <v>175</v>
+      <c r="E148" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="F148" s="6">
         <v>4.5</v>
@@ -4233,7 +4259,7 @@
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4243,8 +4269,8 @@
         <f t="shared" ref="D149:D152" si="25">+D148+1</f>
         <v>2</v>
       </c>
-      <c r="E149" s="13" t="s">
-        <v>176</v>
+      <c r="E149" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="F149" s="6">
         <f>+G148</f>
@@ -4263,8 +4289,8 @@
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="E150" s="13" t="s">
-        <v>177</v>
+      <c r="E150" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="F150" s="6">
         <f t="shared" ref="F150:F152" si="26">+G149</f>
@@ -4283,8 +4309,8 @@
         <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="E151" s="13" t="s">
-        <v>178</v>
+      <c r="E151" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="F151" s="6">
         <f t="shared" si="26"/>
@@ -4303,8 +4329,8 @@
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="E152" s="13" t="s">
-        <v>179</v>
+      <c r="E152" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="F152" s="6">
         <f t="shared" si="26"/>
@@ -4313,8 +4339,8 @@
       <c r="G152" s="6">
         <v>55.39</v>
       </c>
-      <c r="H152" s="14" t="s">
-        <v>179</v>
+      <c r="H152" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="I152" s="1"/>
     </row>
@@ -4332,8 +4358,8 @@
       <c r="A154" s="1">
         <v>17</v>
       </c>
-      <c r="B154" s="13" t="s">
-        <v>181</v>
+      <c r="B154" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C154" s="1">
         <v>54.58</v>
@@ -4341,8 +4367,8 @@
       <c r="D154" s="4">
         <v>1</v>
       </c>
-      <c r="E154" s="13" t="s">
-        <v>182</v>
+      <c r="E154" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="F154" s="6">
         <v>4.45</v>
@@ -4352,7 +4378,7 @@
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -4362,8 +4388,8 @@
         <f>+D154+1</f>
         <v>2</v>
       </c>
-      <c r="E155" s="13" t="s">
-        <v>183</v>
+      <c r="E155" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="F155" s="6">
         <f>+G154</f>
@@ -4382,8 +4408,8 @@
         <f t="shared" ref="D156:D159" si="27">+D155+1</f>
         <v>3</v>
       </c>
-      <c r="E156" s="13" t="s">
-        <v>184</v>
+      <c r="E156" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="F156" s="6">
         <f t="shared" ref="F156:F159" si="28">+G155</f>
@@ -4402,8 +4428,8 @@
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
-      <c r="E157" s="13" t="s">
-        <v>185</v>
+      <c r="E157" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="F157" s="6">
         <f t="shared" si="28"/>
@@ -4422,8 +4448,8 @@
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="E158" s="13" t="s">
-        <v>186</v>
+      <c r="E158" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="F158" s="6">
         <f t="shared" si="28"/>
@@ -4442,8 +4468,8 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
-      <c r="E159" s="13" t="s">
-        <v>187</v>
+      <c r="E159" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="F159" s="6">
         <f t="shared" si="28"/>
@@ -4452,8 +4478,8 @@
       <c r="G159" s="6">
         <v>53.04</v>
       </c>
-      <c r="H159" s="14" t="s">
-        <v>207</v>
+      <c r="H159" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="I159" s="1"/>
     </row>
@@ -4471,8 +4497,8 @@
       <c r="A161" s="1">
         <v>18</v>
       </c>
-      <c r="B161" s="13" t="s">
-        <v>189</v>
+      <c r="B161" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="C161" s="1">
         <v>53.44</v>
@@ -4480,8 +4506,8 @@
       <c r="D161" s="4">
         <v>1</v>
       </c>
-      <c r="E161" s="13" t="s">
-        <v>190</v>
+      <c r="E161" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="F161" s="6">
         <v>5.18</v>
@@ -4491,7 +4517,7 @@
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -4501,8 +4527,8 @@
         <f>+D161+1</f>
         <v>2</v>
       </c>
-      <c r="E162" s="13" t="s">
-        <v>192</v>
+      <c r="E162" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="F162" s="6">
         <f>+G161</f>
@@ -4521,8 +4547,8 @@
         <f t="shared" ref="D163:D167" si="29">+D162+1</f>
         <v>3</v>
       </c>
-      <c r="E163" s="13" t="s">
-        <v>193</v>
+      <c r="E163" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="F163" s="6">
         <f t="shared" ref="F163:F167" si="30">+G162</f>
@@ -4541,8 +4567,8 @@
         <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="E164" s="13" t="s">
-        <v>194</v>
+      <c r="E164" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="F164" s="6">
         <f t="shared" si="30"/>
@@ -4561,8 +4587,8 @@
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="E165" s="13" t="s">
-        <v>195</v>
+      <c r="E165" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="F165" s="6">
         <f t="shared" si="30"/>
@@ -4581,8 +4607,8 @@
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="E166" s="13" t="s">
-        <v>196</v>
+      <c r="E166" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="F166" s="6">
         <f t="shared" si="30"/>
@@ -4601,8 +4627,8 @@
         <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="E167" s="13" t="s">
-        <v>197</v>
+      <c r="E167" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="F167" s="6">
         <f t="shared" si="30"/>
@@ -4628,8 +4654,8 @@
       <c r="A169" s="1">
         <v>19</v>
       </c>
-      <c r="B169" s="13" t="s">
-        <v>198</v>
+      <c r="B169" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="C169" s="6">
         <v>58.4</v>
@@ -4637,8 +4663,8 @@
       <c r="D169" s="4">
         <v>1</v>
       </c>
-      <c r="E169" s="13" t="s">
-        <v>200</v>
+      <c r="E169" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="F169" s="6">
         <v>6.21</v>
@@ -4648,7 +4674,7 @@
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4658,8 +4684,8 @@
         <f>+D169+1</f>
         <v>2</v>
       </c>
-      <c r="E170" s="13" t="s">
-        <v>201</v>
+      <c r="E170" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="F170" s="6">
         <f>+G169</f>
@@ -4678,8 +4704,8 @@
         <f t="shared" ref="D171:D174" si="31">+D170+1</f>
         <v>3</v>
       </c>
-      <c r="E171" s="13" t="s">
-        <v>202</v>
+      <c r="E171" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="F171" s="6">
         <f t="shared" ref="F171:F174" si="32">+G170</f>
@@ -4698,8 +4724,8 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="E172" s="13" t="s">
-        <v>203</v>
+      <c r="E172" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="F172" s="6">
         <f t="shared" si="32"/>
@@ -4718,8 +4744,8 @@
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="E173" s="13" t="s">
-        <v>204</v>
+      <c r="E173" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="F173" s="6">
         <f t="shared" si="32"/>
@@ -4738,8 +4764,8 @@
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="E174" s="13" t="s">
-        <v>205</v>
+      <c r="E174" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="F174" s="6">
         <f t="shared" si="32"/>
@@ -4748,8 +4774,8 @@
       <c r="G174" s="6">
         <v>55.13</v>
       </c>
-      <c r="H174" s="13" t="s">
-        <v>206</v>
+      <c r="H174" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="I174" s="1"/>
     </row>
@@ -4776,8 +4802,8 @@
       <c r="D176" s="4">
         <v>1</v>
       </c>
-      <c r="E176" s="15" t="s">
-        <v>213</v>
+      <c r="E176" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="F176" s="6">
         <v>7.48</v>
@@ -4787,18 +4813,18 @@
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="4">
         <f>+D176+1</f>
         <v>2</v>
       </c>
-      <c r="E177" s="15" t="s">
-        <v>214</v>
+      <c r="E177" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="F177" s="6">
         <f>+G176</f>
@@ -4810,15 +4836,15 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="4">
         <f t="shared" ref="D178:D182" si="33">+D177+1</f>
         <v>3</v>
       </c>
-      <c r="E178" s="15" t="s">
-        <v>215</v>
+      <c r="E178" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="F178" s="6">
         <f t="shared" ref="F178:F182" si="34">+G177</f>
@@ -4830,15 +4856,15 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="4">
         <f t="shared" si="33"/>
         <v>4</v>
       </c>
-      <c r="E179" s="15" t="s">
-        <v>216</v>
+      <c r="E179" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="F179" s="6">
         <f t="shared" si="34"/>
@@ -4850,15 +4876,15 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="4">
         <f t="shared" si="33"/>
         <v>5</v>
       </c>
-      <c r="E180" s="15" t="s">
-        <v>217</v>
+      <c r="E180" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="F180" s="6">
         <f t="shared" si="34"/>
@@ -4870,15 +4896,15 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="4">
         <f t="shared" si="33"/>
         <v>6</v>
       </c>
-      <c r="E181" s="15" t="s">
-        <v>218</v>
+      <c r="E181" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="F181" s="6">
         <f t="shared" si="34"/>
@@ -4890,15 +4916,15 @@
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="4">
         <f t="shared" si="33"/>
         <v>7</v>
       </c>
-      <c r="E182" s="15" t="s">
-        <v>219</v>
+      <c r="E182" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="F182" s="6">
         <f t="shared" si="34"/>
@@ -4910,7 +4936,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="4"/>
@@ -4920,57 +4946,100 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>21</v>
+      </c>
+      <c r="B184" s="2">
+        <v>44043</v>
+      </c>
+      <c r="C184" s="1">
+        <v>39.44</v>
+      </c>
+      <c r="D184" s="4">
+        <v>1</v>
+      </c>
+      <c r="E184" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F184" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="G184" s="6">
+        <v>6.33</v>
+      </c>
       <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I184" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
+      <c r="D185" s="4">
+        <f>+D184+1</f>
+        <v>2</v>
+      </c>
+      <c r="E185" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F185" s="6">
+        <f>+G184</f>
+        <v>6.33</v>
+      </c>
+      <c r="G185" s="6">
+        <v>9.34</v>
+      </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="6"/>
+      <c r="D186" s="4">
+        <f t="shared" ref="D186:D188" si="35">+D185+1</f>
+        <v>3</v>
+      </c>
+      <c r="E186" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F186" s="6">
+        <f t="shared" ref="F186:F187" si="36">+G185</f>
+        <v>9.34</v>
+      </c>
       <c r="G186" s="6"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="6"/>
+      <c r="D187" s="4">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="E187" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F187" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
       <c r="G187" s="6"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="1"/>
+      <c r="E188" s="17"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="4"/>
@@ -4980,7 +5049,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="4"/>
@@ -4990,7 +5059,7 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="4"/>
@@ -5000,7 +5069,7 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="4"/>
@@ -5844,4 +5913,524 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44044</v>
+      </c>
+      <c r="C4" s="1">
+        <v>57.23</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>22.28</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4">
+        <f>+D4+1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="6">
+        <f>+G4</f>
+        <v>22.28</v>
+      </c>
+      <c r="G5" s="18">
+        <v>53.37</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4">
+        <f>+D5+1</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="6">
+        <f>+G5</f>
+        <v>53.37</v>
+      </c>
+      <c r="G6" s="18">
+        <v>56.43</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="238">
   <si>
     <t>Date</t>
   </si>
@@ -702,19 +702,58 @@
   </si>
   <si>
     <t>2.1.3.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hwx-JaRX2Yk</t>
+  </si>
+  <si>
+    <t>2.1.3.2</t>
+  </si>
+  <si>
+    <t>2.1.4.1</t>
+  </si>
+  <si>
+    <t>2.1.5.1</t>
+  </si>
+  <si>
+    <t>2.1.5.4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RJ0rC1roGYE</t>
+  </si>
+  <si>
+    <t>2.1.5.5</t>
+  </si>
+  <si>
+    <t>2.1.6.1</t>
+  </si>
+  <si>
+    <t>2.1.7.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -810,32 +849,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1145,7 +1186,7 @@
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4997,7 +5038,7 @@
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="4">
-        <f t="shared" ref="D186:D188" si="35">+D185+1</f>
+        <f t="shared" ref="D186:D187" si="35">+D185+1</f>
         <v>3</v>
       </c>
       <c r="E186" s="17" t="s">
@@ -5920,7 +5961,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6078,36 +6119,75 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="18"/>
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44045</v>
+      </c>
+      <c r="C8" s="1">
+        <v>59.23</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="G8" s="18">
+        <v>16.13</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="1"/>
+      <c r="D9" s="4">
+        <f>+D8+1</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="6">
+        <f>+G8</f>
+        <v>16.13</v>
+      </c>
+      <c r="G9" s="18">
+        <v>43.12</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="1"/>
+      <c r="D10" s="4">
+        <f>+D9+1</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45.55</v>
+      </c>
+      <c r="G10" s="18">
+        <v>58.23</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -6122,24 +6202,50 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="18"/>
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44046</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44.33</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.22</v>
+      </c>
+      <c r="G12" s="18">
+        <v>13.19</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="4">
+        <f>+D12+1</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="6">
+        <f>+G12</f>
+        <v>13.19</v>
+      </c>
+      <c r="G13" s="18">
+        <v>30.39</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
@@ -6147,10 +6253,20 @@
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="4">
+        <f>+D13+1</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="6">
+        <f>+G13</f>
+        <v>30.39</v>
+      </c>
+      <c r="G14" s="18">
+        <v>43.54</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="249">
   <si>
     <t>Date</t>
   </si>
@@ -729,19 +729,58 @@
   </si>
   <si>
     <t>2.1.7.1</t>
+  </si>
+  <si>
+    <t>1.02.20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mIeanN8xfH4</t>
+  </si>
+  <si>
+    <t>2.1.7.4</t>
+  </si>
+  <si>
+    <t>2.1.7.5</t>
+  </si>
+  <si>
+    <t>2.1.8.1</t>
+  </si>
+  <si>
+    <t>2.1.9.1</t>
+  </si>
+  <si>
+    <t>2.1.10.1</t>
+  </si>
+  <si>
+    <t>2.1.11.1</t>
+  </si>
+  <si>
+    <t>1.01.14</t>
+  </si>
+  <si>
+    <t>2.1.11.3</t>
+  </si>
+  <si>
+    <t>middle of panchati 63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -849,34 +888,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M275"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="G186" sqref="G186"/>
@@ -5960,13 +6001,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -6267,7 +6309,9 @@
       <c r="G14" s="18">
         <v>43.54</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -6282,24 +6326,50 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="18"/>
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44047</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1.45</v>
+      </c>
+      <c r="G16" s="18">
+        <v>12.42</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="4">
+        <f>+D16+1</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="6">
+        <f>+G16</f>
+        <v>12.42</v>
+      </c>
+      <c r="G17" s="18">
+        <v>28.52</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -6307,10 +6377,20 @@
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="4">
+        <f>+D17+1</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F20" si="0">+G17</f>
+        <v>28.52</v>
+      </c>
+      <c r="G18" s="18">
+        <v>40.450000000000003</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -6318,10 +6398,20 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:D20" si="1">+D18+1</f>
+        <v>4</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>40.450000000000003</v>
+      </c>
+      <c r="G19" s="18">
+        <v>50.25</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
@@ -6329,12 +6419,26 @@
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="D20" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>50.25</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="263">
   <si>
     <t>Date</t>
   </si>
@@ -762,19 +762,79 @@
   </si>
   <si>
     <t>middle of panchati 63</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0OzeWqF-AhY</t>
+  </si>
+  <si>
+    <t>2.2.1.1</t>
+  </si>
+  <si>
+    <t>2.2.2.1</t>
+  </si>
+  <si>
+    <t>2.2.2.4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lD0HsYpJSPM</t>
+  </si>
+  <si>
+    <t>2.2.2.5</t>
+  </si>
+  <si>
+    <t>2.2.3.1</t>
+  </si>
+  <si>
+    <t>2.2.4.1</t>
+  </si>
+  <si>
+    <t>2.2.5.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Zn56LE65b8w</t>
+  </si>
+  <si>
+    <t>2.2.5.2</t>
+  </si>
+  <si>
+    <t>2.2.6.1</t>
+  </si>
+  <si>
+    <t>2.2.7.1</t>
+  </si>
+  <si>
+    <t>2.2.7.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -888,36 +948,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,10 +1288,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G186" sqref="G186"/>
+      <selection pane="bottomLeft" activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6001,8 +6065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6011,7 +6075,7 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -6073,8 +6137,6 @@
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="7"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -6452,24 +6514,51 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44048</v>
+      </c>
+      <c r="C22" s="1">
+        <v>50.27</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="G22" s="18">
+        <v>10.19</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="4">
+        <f>+D22+1</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="6">
+        <v>15.48</v>
+      </c>
+      <c r="G23" s="18">
+        <v>33.479999999999997</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -6477,11 +6566,23 @@
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="1"/>
+      <c r="D24" s="4">
+        <f>+D23+1</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" s="6">
+        <f>+G23</f>
+        <v>33.479999999999997</v>
+      </c>
+      <c r="G24" s="18">
+        <v>49.18</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>252</v>
+      </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -6490,30 +6591,56 @@
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="A26" s="17">
+        <v>6</v>
+      </c>
+      <c r="B26" s="24">
+        <v>44049</v>
+      </c>
+      <c r="C26" s="17">
+        <v>57.35</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="18">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G26" s="18">
+        <v>6.08</v>
+      </c>
       <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="I26" s="17" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="D27" s="4">
+        <f>+D26+1</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="18">
+        <f>+G26</f>
+        <v>6.08</v>
+      </c>
+      <c r="G27" s="18">
+        <v>19.2</v>
+      </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
     </row>
@@ -6521,22 +6648,45 @@
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="D28" s="4">
+        <f t="shared" ref="D28:D29" si="2">+D27+1</f>
+        <v>3</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="F28" s="18">
+        <f>+G27</f>
+        <v>19.2</v>
+      </c>
+      <c r="G28" s="18">
+        <v>47.36</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>152</v>
+      </c>
       <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="D29" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="18">
+        <v>52.45</v>
+      </c>
+      <c r="G29" s="18">
+        <v>56.36</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>257</v>
+      </c>
       <c r="I29" s="17"/>
     </row>
     <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -6545,30 +6695,57 @@
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="A31" s="17">
+        <v>7</v>
+      </c>
+      <c r="B31" s="24">
+        <v>44050</v>
+      </c>
+      <c r="C31" s="17">
+        <v>57.27</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="18">
+        <v>2.41</v>
+      </c>
+      <c r="G31" s="18">
+        <v>26.29</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="D32" s="4">
+        <f>+D31+1</f>
+        <v>2</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" s="18">
+        <v>30.36</v>
+      </c>
+      <c r="G32" s="18">
+        <v>49.1</v>
+      </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
@@ -6576,21 +6753,36 @@
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="D33" s="4">
+        <f t="shared" ref="D33:D34" si="3">+D32+1</f>
+        <v>3</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="18">
+        <f>+G32</f>
+        <v>49.1</v>
+      </c>
+      <c r="G33" s="18">
+        <v>56.31</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>262</v>
+      </c>
       <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
     </row>
@@ -6600,8 +6792,8 @@
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
     </row>
@@ -6611,8 +6803,8 @@
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
     </row>
@@ -6622,8 +6814,8 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
     </row>
@@ -6633,8 +6825,8 @@
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
     </row>
@@ -6644,8 +6836,8 @@
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="267">
   <si>
     <t>Date</t>
   </si>
@@ -804,19 +804,37 @@
   </si>
   <si>
     <t>2.2.7.2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wz1EkrYf3Fs</t>
+  </si>
+  <si>
+    <t>2.2.7.3</t>
+  </si>
+  <si>
+    <t>2.2.8.1</t>
+  </si>
+  <si>
+    <t>2.2.9.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -948,38 +966,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -6063,10 +6082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6798,24 +6817,50 @@
       <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="17">
+        <v>8</v>
+      </c>
+      <c r="B36" s="24">
+        <v>44051</v>
+      </c>
+      <c r="C36" s="17">
+        <v>59.01</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="18">
+        <v>4.07</v>
+      </c>
+      <c r="G36" s="18">
+        <v>15.48</v>
+      </c>
       <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="I36" s="17" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="D37" s="4">
+        <f>+D36+1</f>
+        <v>2</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="18">
+        <f>+G36</f>
+        <v>15.48</v>
+      </c>
+      <c r="G37" s="18">
+        <v>38.090000000000003</v>
+      </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
     </row>
@@ -6823,23 +6868,518 @@
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="D38" s="4">
+        <f t="shared" ref="D38:D39" si="4">+D37+1</f>
+        <v>3</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="18">
+        <f>+G37</f>
+        <v>38.090000000000003</v>
+      </c>
+      <c r="G38" s="18">
+        <v>55.36</v>
+      </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>9</v>
+      </c>
+      <c r="B40" s="24">
+        <v>44052</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="4">
+        <f>+D40+1</f>
+        <v>2</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="4">
+        <f t="shared" ref="D42" si="5">+D41+1</f>
+        <v>3</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+    </row>
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="273">
   <si>
     <t>Date</t>
   </si>
@@ -674,9 +674,6 @@
     <t>1.8.18.1</t>
   </si>
   <si>
-    <t>H2</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Dvb7hq_Z4ng</t>
   </si>
   <si>
@@ -816,19 +813,52 @@
   </si>
   <si>
     <t>2.2.9.1</t>
+  </si>
+  <si>
+    <t>2.2.9.6</t>
+  </si>
+  <si>
+    <t>2.2.9.5</t>
+  </si>
+  <si>
+    <t>2.2.10.1</t>
+  </si>
+  <si>
+    <t>2.2.11.1</t>
+  </si>
+  <si>
+    <t>2.2.11.5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MII0-WMiCRA</t>
+  </si>
+  <si>
+    <t>H3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -928,7 +958,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -938,18 +968,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,41 +984,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1307,10 +1327,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M275"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B188" sqref="B188"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1491,9 +1511,7 @@
       <c r="G11" s="6">
         <v>33.380000000000003</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>219</v>
-      </c>
+      <c r="H11" s="28"/>
       <c r="I11" s="1" t="s">
         <v>67</v>
       </c>
@@ -1606,8 +1624,8 @@
       <c r="G16" s="6">
         <v>30.56</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>219</v>
+      <c r="H16" s="27" t="s">
+        <v>272</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1741,9 +1759,7 @@
       <c r="G22" s="6">
         <v>29.49</v>
       </c>
-      <c r="H22" s="16" t="s">
-        <v>219</v>
-      </c>
+      <c r="H22" s="29"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -5124,8 +5140,8 @@
       <c r="D184" s="4">
         <v>1</v>
       </c>
-      <c r="E184" s="17" t="s">
-        <v>221</v>
+      <c r="E184" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="F184" s="6">
         <v>2.04</v>
@@ -5135,7 +5151,7 @@
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -5145,8 +5161,8 @@
         <f>+D184+1</f>
         <v>2</v>
       </c>
-      <c r="E185" s="17" t="s">
-        <v>222</v>
+      <c r="E185" s="15" t="s">
+        <v>221</v>
       </c>
       <c r="F185" s="6">
         <f>+G184</f>
@@ -5165,8 +5181,8 @@
         <f t="shared" ref="D186:D187" si="35">+D185+1</f>
         <v>3</v>
       </c>
-      <c r="E186" s="17" t="s">
-        <v>223</v>
+      <c r="E186" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="F186" s="6">
         <f t="shared" ref="F186:F187" si="36">+G185</f>
@@ -5183,8 +5199,8 @@
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="E187" s="17" t="s">
-        <v>224</v>
+      <c r="E187" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="F187" s="6">
         <f t="shared" si="36"/>
@@ -5198,7 +5214,7 @@
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="17"/>
+      <c r="E188" s="15"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="1"/>
@@ -6084,8 +6100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6170,18 +6186,18 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>225</v>
+      <c r="E4" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>22.28</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -6194,14 +6210,14 @@
         <f>+D4+1</f>
         <v>2</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>227</v>
+      <c r="E5" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="F5" s="6">
         <f>+G4</f>
         <v>22.28</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>53.37</v>
       </c>
       <c r="H5" s="1"/>
@@ -6215,18 +6231,18 @@
         <f>+D5+1</f>
         <v>3</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>228</v>
+      <c r="E6" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="F6" s="6">
         <f>+G5</f>
         <v>53.37</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>56.43</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>228</v>
+      <c r="H6" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -6235,9 +6251,9 @@
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -6254,18 +6270,18 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>230</v>
+      <c r="E8" s="17" t="s">
+        <v>229</v>
       </c>
       <c r="F8" s="6">
         <v>1.25</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>16.13</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -6276,17 +6292,17 @@
         <f>+D8+1</f>
         <v>2</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>231</v>
+      <c r="E9" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="F9" s="6">
         <f>+G8</f>
         <v>16.13</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>43.12</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>152</v>
       </c>
       <c r="I9" s="1"/>
@@ -6299,17 +6315,17 @@
         <f>+D9+1</f>
         <v>3</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>232</v>
+      <c r="E10" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="F10" s="6">
         <v>45.55</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <v>58.23</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>233</v>
+      <c r="H10" s="17" t="s">
+        <v>232</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -6318,9 +6334,9 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -6337,18 +6353,18 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>235</v>
+      <c r="E12" s="18" t="s">
+        <v>234</v>
       </c>
       <c r="F12" s="6">
         <v>3.22</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>13.19</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -6359,14 +6375,14 @@
         <f>+D12+1</f>
         <v>2</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>236</v>
+      <c r="E13" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="F13" s="6">
         <f>+G12</f>
         <v>13.19</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>30.39</v>
       </c>
       <c r="H13" s="1"/>
@@ -6380,18 +6396,18 @@
         <f>+D13+1</f>
         <v>3</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>237</v>
+      <c r="E14" s="18" t="s">
+        <v>236</v>
       </c>
       <c r="F14" s="6">
         <f>+G13</f>
         <v>30.39</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <v>43.54</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>240</v>
+      <c r="H14" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -6400,9 +6416,9 @@
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -6413,24 +6429,24 @@
       <c r="B16" s="2">
         <v>44047</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>238</v>
+      <c r="C16" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>241</v>
+      <c r="E16" s="19" t="s">
+        <v>240</v>
       </c>
       <c r="F16" s="6">
         <v>1.45</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <v>12.42</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -6441,14 +6457,14 @@
         <f>+D16+1</f>
         <v>2</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>242</v>
+      <c r="E17" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="F17" s="6">
         <f>+G16</f>
         <v>12.42</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="16">
         <v>28.52</v>
       </c>
       <c r="H17" s="1"/>
@@ -6462,14 +6478,14 @@
         <f>+D17+1</f>
         <v>3</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>243</v>
+      <c r="E18" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" ref="F18:F20" si="0">+G17</f>
         <v>28.52</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="16">
         <v>40.450000000000003</v>
       </c>
       <c r="H18" s="1"/>
@@ -6483,14 +6499,14 @@
         <f t="shared" ref="D19:D20" si="1">+D18+1</f>
         <v>4</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>244</v>
+      <c r="E19" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>40.450000000000003</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="16">
         <v>50.25</v>
       </c>
       <c r="H19" s="1"/>
@@ -6504,21 +6520,21 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>245</v>
+      <c r="E20" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>50.25</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="I20" s="19" t="s">
         <v>247</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -6526,9 +6542,9 @@
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="17"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -6545,20 +6561,20 @@
       <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>247</v>
+      <c r="E22" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="F22" s="6">
         <v>2.04</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="16">
         <v>10.19</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="21" t="s">
         <v>152</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -6569,13 +6585,13 @@
         <f>+D22+1</f>
         <v>2</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>250</v>
+      <c r="E23" s="21" t="s">
+        <v>249</v>
       </c>
       <c r="F23" s="6">
         <v>15.48</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="16">
         <v>33.479999999999997</v>
       </c>
       <c r="H23" s="1"/>
@@ -6589,797 +6605,837 @@
         <f>+D23+1</f>
         <v>3</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>251</v>
+      <c r="E24" s="21" t="s">
+        <v>250</v>
       </c>
       <c r="F24" s="6">
         <f>+G23</f>
         <v>33.479999999999997</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <v>49.18</v>
       </c>
-      <c r="H24" s="23" t="s">
-        <v>252</v>
+      <c r="H24" s="21" t="s">
+        <v>251</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="15">
         <v>6</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="22">
         <v>44049</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="15">
         <v>57.35</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="F26" s="18">
+      <c r="E26" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="16">
         <v>2.0699999999999998</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="16">
         <v>6.08</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17" t="s">
-        <v>253</v>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="4">
         <f>+D26+1</f>
         <v>2</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="E27" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" s="16">
         <f>+G26</f>
         <v>6.08</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="16">
         <v>19.2</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D29" si="2">+D27+1</f>
         <v>3</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="F28" s="18">
+      <c r="E28" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F28" s="16">
         <f>+G27</f>
         <v>19.2</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="16">
         <v>47.36</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="I28" s="17"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="F29" s="18">
+      <c r="E29" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F29" s="16">
         <v>52.45</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="16">
         <v>56.36</v>
       </c>
-      <c r="H29" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="I29" s="17"/>
+      <c r="H29" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="15">
         <v>7</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="22">
         <v>44050</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="15">
         <v>57.27</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
       </c>
-      <c r="E31" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="F31" s="18">
+      <c r="E31" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="16">
         <v>2.41</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="16">
         <v>26.29</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="I31" s="17" t="s">
-        <v>258</v>
+      <c r="I31" s="15" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="4">
         <f>+D31+1</f>
         <v>2</v>
       </c>
-      <c r="E32" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="F32" s="18">
+      <c r="E32" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" s="16">
         <v>30.36</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <v>49.1</v>
       </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="4">
         <f t="shared" ref="D33:D34" si="3">+D32+1</f>
         <v>3</v>
       </c>
-      <c r="E33" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F33" s="18">
+      <c r="E33" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="F33" s="16">
         <f>+G32</f>
         <v>49.1</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="16">
         <v>56.31</v>
       </c>
-      <c r="H33" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="I33" s="17"/>
+      <c r="H33" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="15">
         <v>8</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="22">
         <v>44051</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="15">
         <v>59.01</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="E36" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="F36" s="18">
+      <c r="E36" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="F36" s="16">
         <v>4.07</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="16">
         <v>15.48</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17" t="s">
-        <v>263</v>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="4">
         <f>+D36+1</f>
         <v>2</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="F37" s="18">
+      <c r="E37" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="F37" s="16">
         <f>+G36</f>
         <v>15.48</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="16">
         <v>38.090000000000003</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="4">
-        <f t="shared" ref="D38:D39" si="4">+D37+1</f>
+        <f t="shared" ref="D38" si="4">+D37+1</f>
         <v>3</v>
       </c>
-      <c r="E38" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="F38" s="18">
+      <c r="E38" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F38" s="16">
         <f>+G37</f>
         <v>38.090000000000003</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="16">
         <v>55.36</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="H38" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="17"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="A40" s="15">
         <v>9</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="22">
         <v>44052</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="15">
+        <v>44.18</v>
+      </c>
       <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="E40" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="16">
+        <v>3.51</v>
+      </c>
+      <c r="G40" s="16">
+        <v>10.54</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="4">
         <f>+D40+1</f>
         <v>2</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="E41" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="F41" s="16">
+        <f>+G40</f>
+        <v>10.54</v>
+      </c>
+      <c r="G41" s="16">
+        <v>27.1</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="17"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="4">
         <f t="shared" ref="D42" si="5">+D41+1</f>
         <v>3</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+      <c r="E42" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F42" s="16">
+        <f>+G41</f>
+        <v>27.1</v>
+      </c>
+      <c r="G42" s="16">
+        <v>43.36</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+      <c r="A44" s="15">
+        <v>10</v>
+      </c>
+      <c r="B44" s="22">
+        <v>44053</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="4">
+        <f>+D44+1</f>
+        <v>2</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="4">
+        <f t="shared" ref="D46" si="6">+D45+1</f>
+        <v>3</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="17"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="17"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
     </row>
     <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="17"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
     </row>
     <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="17"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
     </row>
     <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
     </row>
     <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
     </row>
     <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="17"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="15"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="17"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
     </row>
     <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
     </row>
     <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="17"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="15"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
     </row>
     <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="17"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="15"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="292">
   <si>
     <t>Date</t>
   </si>
@@ -834,19 +834,88 @@
   </si>
   <si>
     <t>H3</t>
+  </si>
+  <si>
+    <t>2.2.11.6</t>
+  </si>
+  <si>
+    <t>2.2.12.1</t>
+  </si>
+  <si>
+    <t>2.3.1.1</t>
+  </si>
+  <si>
+    <t>2.3.2.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CA6Q0-2-65s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvlgaiNAuic</t>
+  </si>
+  <si>
+    <t>2.3.2.3</t>
+  </si>
+  <si>
+    <t>2.3.2.2</t>
+  </si>
+  <si>
+    <t>2.3.4.1</t>
+  </si>
+  <si>
+    <t>2.3.3.1</t>
+  </si>
+  <si>
+    <t>2.3.5.1</t>
+  </si>
+  <si>
+    <t>2.3.5.2</t>
+  </si>
+  <si>
+    <t>12-08--2020</t>
+  </si>
+  <si>
+    <t>2.3.5.3</t>
+  </si>
+  <si>
+    <t>2.3.6.1</t>
+  </si>
+  <si>
+    <t>2.3.7.1</t>
+  </si>
+  <si>
+    <t>2.3.8.1</t>
+  </si>
+  <si>
+    <t>2.3.9.1</t>
+  </si>
+  <si>
+    <t>2.3.10.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -984,43 +1053,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1327,10 +1399,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6100,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7003,15 +7075,25 @@
       <c r="B44" s="22">
         <v>44053</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="15">
+        <v>59.37</v>
+      </c>
       <c r="D44" s="4">
         <v>1</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="E44" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="F44" s="16">
+        <v>4</v>
+      </c>
+      <c r="G44" s="16">
+        <v>9.07</v>
+      </c>
       <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="I44" s="15" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
@@ -7021,10 +7103,19 @@
         <f>+D44+1</f>
         <v>2</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="15"/>
+      <c r="E45" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" s="16">
+        <f>+G44</f>
+        <v>9.07</v>
+      </c>
+      <c r="G45" s="16">
+        <v>31.21</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>152</v>
+      </c>
       <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -7032,12 +7123,18 @@
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="4">
-        <f t="shared" ref="D46" si="6">+D45+1</f>
+        <f t="shared" ref="D46:D47" si="6">+D45+1</f>
         <v>3</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
+      <c r="E46" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="F46" s="16">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="G46" s="16">
+        <v>52.29</v>
+      </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
@@ -7045,11 +7142,23 @@
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="15"/>
+      <c r="D47" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" s="16">
+        <f>+G46</f>
+        <v>52.29</v>
+      </c>
+      <c r="G47" s="16">
+        <v>58.32</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>280</v>
+      </c>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -7064,24 +7173,50 @@
       <c r="I48" s="15"/>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
+      <c r="A49" s="15">
+        <v>11</v>
+      </c>
+      <c r="B49" s="22">
+        <v>44054</v>
+      </c>
+      <c r="C49" s="15">
+        <v>57.57</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="F49" s="16">
+        <v>3.12</v>
+      </c>
+      <c r="G49" s="16">
+        <v>23.44</v>
+      </c>
       <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="I49" s="15" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
+      <c r="D50" s="4">
+        <f>+D49+1</f>
+        <v>2</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="F50" s="16">
+        <f>+G49</f>
+        <v>23.44</v>
+      </c>
+      <c r="G50" s="16">
+        <v>39.19</v>
+      </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
@@ -7089,10 +7224,20 @@
       <c r="A51" s="15"/>
       <c r="B51" s="22"/>
       <c r="C51" s="15"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
+      <c r="D51" s="4">
+        <f t="shared" ref="D51:D52" si="7">+D50+1</f>
+        <v>3</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="F51" s="16">
+        <f t="shared" ref="F51:F52" si="8">+G50</f>
+        <v>39.19</v>
+      </c>
+      <c r="G51" s="16">
+        <v>51.29</v>
+      </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
@@ -7100,11 +7245,23 @@
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="15"/>
+      <c r="D52" s="4">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="F52" s="16">
+        <f t="shared" si="8"/>
+        <v>51.29</v>
+      </c>
+      <c r="G52" s="16">
+        <v>56.53</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>284</v>
+      </c>
       <c r="I52" s="15"/>
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -7119,11 +7276,19 @@
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="15">
+        <v>12</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>285</v>
+      </c>
       <c r="C54" s="15"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="25"/>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>286</v>
+      </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="15"/>
@@ -7133,8 +7298,13 @@
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="25"/>
+      <c r="D55" s="4">
+        <f>+D54+1</f>
+        <v>2</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>287</v>
+      </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="15"/>
@@ -7144,8 +7314,13 @@
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="25"/>
+      <c r="D56" s="4">
+        <f t="shared" ref="D56:D59" si="9">+D55+1</f>
+        <v>3</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>288</v>
+      </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="15"/>
@@ -7155,8 +7330,13 @@
       <c r="A57" s="15"/>
       <c r="B57" s="22"/>
       <c r="C57" s="15"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="25"/>
+      <c r="D57" s="4">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>289</v>
+      </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="15"/>
@@ -7166,8 +7346,13 @@
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="25"/>
+      <c r="D58" s="4">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>290</v>
+      </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="15"/>
@@ -7177,8 +7362,13 @@
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="25"/>
+      <c r="D59" s="4">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>291</v>
+      </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="15"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="293">
   <si>
     <t>Date</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t>2.3.10.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XUXikdynlU8</t>
   </si>
 </sst>
 </file>
@@ -6173,7 +6176,7 @@
   <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7282,17 +7285,25 @@
       <c r="B54" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="15">
+        <v>54.34</v>
+      </c>
       <c r="D54" s="4">
         <v>1</v>
       </c>
       <c r="E54" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
+      <c r="F54" s="16">
+        <v>5.37</v>
+      </c>
+      <c r="G54" s="16">
+        <v>9.48</v>
+      </c>
       <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
+      <c r="I54" s="15" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
@@ -7305,8 +7316,13 @@
       <c r="E55" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="F55" s="16">
+        <f>+G54</f>
+        <v>9.48</v>
+      </c>
+      <c r="G55" s="16">
+        <v>18.27</v>
+      </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
@@ -7321,8 +7337,13 @@
       <c r="E56" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+      <c r="F56" s="16">
+        <f t="shared" ref="F56:F59" si="10">+G55</f>
+        <v>18.27</v>
+      </c>
+      <c r="G56" s="16">
+        <v>29.45</v>
+      </c>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
@@ -7337,8 +7358,13 @@
       <c r="E57" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="F57" s="16">
+        <f t="shared" si="10"/>
+        <v>29.45</v>
+      </c>
+      <c r="G57" s="16">
+        <v>37.47</v>
+      </c>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
@@ -7353,8 +7379,13 @@
       <c r="E58" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
+      <c r="F58" s="16">
+        <f t="shared" si="10"/>
+        <v>37.47</v>
+      </c>
+      <c r="G58" s="16">
+        <v>47.54</v>
+      </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
@@ -7369,8 +7400,13 @@
       <c r="E59" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
+      <c r="F59" s="16">
+        <f t="shared" si="10"/>
+        <v>47.54</v>
+      </c>
+      <c r="G59" s="16">
+        <v>53.35</v>
+      </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="302">
   <si>
     <t>Date</t>
   </si>
@@ -894,19 +894,52 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=XUXikdynlU8</t>
+  </si>
+  <si>
+    <t>1.00.40</t>
+  </si>
+  <si>
+    <t>2.3.10.2</t>
+  </si>
+  <si>
+    <t>2.3.10.3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hccmfk_D_Zg</t>
+  </si>
+  <si>
+    <t>2.3.11.1</t>
+  </si>
+  <si>
+    <t>2.3.12.1</t>
+  </si>
+  <si>
+    <t>2.3.13.1</t>
+  </si>
+  <si>
+    <t>2.3.14.1</t>
+  </si>
+  <si>
+    <t>2.3.14.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1056,46 +1089,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1403,9 +1438,9 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6175,8 +6210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7407,7 +7442,9 @@
       <c r="G59" s="16">
         <v>53.35</v>
       </c>
-      <c r="H59" s="15"/>
+      <c r="H59" s="33" t="s">
+        <v>294</v>
+      </c>
       <c r="I59" s="15"/>
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -7433,24 +7470,50 @@
       <c r="I61" s="15"/>
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
+      <c r="A62" s="15">
+        <v>13</v>
+      </c>
+      <c r="B62" s="22">
+        <v>44056</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="F62" s="34">
+        <v>2.21</v>
+      </c>
+      <c r="G62" s="16">
+        <v>7.19</v>
+      </c>
       <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
+      <c r="I62" s="15" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="22"/>
       <c r="C63" s="15"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
+      <c r="D63" s="4">
+        <f>+D62+1</f>
+        <v>2</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="F63" s="16">
+        <f>+G62</f>
+        <v>7.19</v>
+      </c>
+      <c r="G63" s="16">
+        <v>24.12</v>
+      </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
@@ -7458,21 +7521,42 @@
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="15"/>
+      <c r="D64" s="4">
+        <f t="shared" ref="D64:D66" si="11">+D63+1</f>
+        <v>3</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="F64" s="16">
+        <f>+G63</f>
+        <v>24.12</v>
+      </c>
+      <c r="G64" s="16">
+        <v>31.36</v>
+      </c>
+      <c r="H64" s="33" t="s">
+        <v>152</v>
+      </c>
       <c r="I64" s="15"/>
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
+      <c r="D65" s="4">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F65" s="16">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="G65" s="16">
+        <v>47.54</v>
+      </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
@@ -7480,11 +7564,23 @@
       <c r="A66" s="15"/>
       <c r="B66" s="22"/>
       <c r="C66" s="15"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="15"/>
+      <c r="D66" s="4">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="F66" s="16">
+        <f>+G65</f>
+        <v>47.54</v>
+      </c>
+      <c r="G66" s="16">
+        <v>59.36</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>301</v>
+      </c>
       <c r="I66" s="15"/>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="307">
   <si>
     <t>Date</t>
   </si>
@@ -921,19 +921,40 @@
   </si>
   <si>
     <t>2.3.14.4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DGPjlAB2KoA</t>
+  </si>
+  <si>
+    <t>2.3.14.5</t>
+  </si>
+  <si>
+    <t>2.4.1.1</t>
+  </si>
+  <si>
+    <t>2.4.2.1</t>
+  </si>
+  <si>
+    <t>2.4.3.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1089,48 +1110,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6210,8 +6232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7595,24 +7617,51 @@
       <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
+      <c r="A68" s="15">
+        <v>14</v>
+      </c>
+      <c r="B68" s="22">
+        <v>44057</v>
+      </c>
+      <c r="C68" s="15">
+        <v>48.11</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="F68" s="16">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G68" s="16">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="22"/>
       <c r="C69" s="15"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
+      <c r="D69" s="4">
+        <f>+D68+1</f>
+        <v>2</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="F69" s="16">
+        <v>13.28</v>
+      </c>
+      <c r="G69" s="16">
+        <v>25.03</v>
+      </c>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
     </row>
@@ -7620,10 +7669,20 @@
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
+      <c r="D70" s="4">
+        <f t="shared" ref="D70:D71" si="12">+D69+1</f>
+        <v>3</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F70" s="16">
+        <f>+G69</f>
+        <v>25.03</v>
+      </c>
+      <c r="G70" s="16">
+        <v>38.04</v>
+      </c>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
     </row>
@@ -7631,10 +7690,20 @@
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
+      <c r="D71" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="F71" s="16">
+        <f>+G70</f>
+        <v>38.04</v>
+      </c>
+      <c r="G71" s="16">
+        <v>47.04</v>
+      </c>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
     </row>
@@ -7650,10 +7719,16 @@
       <c r="I72" s="15"/>
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
+      <c r="A73" s="15">
+        <v>15</v>
+      </c>
+      <c r="B73" s="22">
+        <v>44058</v>
+      </c>
       <c r="C73" s="15"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
       <c r="E73" s="25"/>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
@@ -7664,7 +7739,10 @@
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="4">
+        <f>+D73+1</f>
+        <v>2</v>
+      </c>
       <c r="E74" s="25"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -7675,7 +7753,10 @@
       <c r="A75" s="15"/>
       <c r="B75" s="22"/>
       <c r="C75" s="15"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="4">
+        <f t="shared" ref="D75:D76" si="13">+D74+1</f>
+        <v>3</v>
+      </c>
       <c r="E75" s="25"/>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
@@ -7686,7 +7767,10 @@
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
-      <c r="D76" s="4"/>
+      <c r="D76" s="4">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
       <c r="E76" s="25"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="314">
   <si>
     <t>Date</t>
   </si>
@@ -936,19 +936,46 @@
   </si>
   <si>
     <t>2.4.3.1</t>
+  </si>
+  <si>
+    <t>2.4.4.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Rj9ExkSl0NE</t>
+  </si>
+  <si>
+    <t>2.4.5.1</t>
+  </si>
+  <si>
+    <t>2.4.6.1</t>
+  </si>
+  <si>
+    <t>2.4.7.1</t>
+  </si>
+  <si>
+    <t>2.4.8.1</t>
+  </si>
+  <si>
+    <t>2.4.9.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1110,48 +1137,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -6232,8 +6260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7725,15 +7753,25 @@
       <c r="B73" s="22">
         <v>44058</v>
       </c>
-      <c r="C73" s="15"/>
+      <c r="C73" s="15">
+        <v>55.18</v>
+      </c>
       <c r="D73" s="4">
         <v>1</v>
       </c>
-      <c r="E73" s="25"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
+      <c r="E73" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="F73" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="G73" s="16">
+        <v>14.04</v>
+      </c>
       <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
+      <c r="I73" s="15" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
@@ -7743,9 +7781,16 @@
         <f>+D73+1</f>
         <v>2</v>
       </c>
-      <c r="E74" s="25"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
+      <c r="E74" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="F74" s="16">
+        <f>+G73</f>
+        <v>14.04</v>
+      </c>
+      <c r="G74" s="16">
+        <v>19.149999999999999</v>
+      </c>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
     </row>
@@ -7754,12 +7799,19 @@
       <c r="B75" s="22"/>
       <c r="C75" s="15"/>
       <c r="D75" s="4">
-        <f t="shared" ref="D75:D76" si="13">+D74+1</f>
+        <f t="shared" ref="D75:D78" si="13">+D74+1</f>
         <v>3</v>
       </c>
-      <c r="E75" s="25"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
+      <c r="E75" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="F75" s="16">
+        <f t="shared" ref="F75:F78" si="14">+G74</f>
+        <v>19.149999999999999</v>
+      </c>
+      <c r="G75" s="16">
+        <v>26.33</v>
+      </c>
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
     </row>
@@ -7771,9 +7823,16 @@
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="E76" s="25"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
+      <c r="E76" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="F76" s="16">
+        <f t="shared" si="14"/>
+        <v>26.33</v>
+      </c>
+      <c r="G76" s="16">
+        <v>33.119999999999997</v>
+      </c>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
     </row>
@@ -7781,10 +7840,20 @@
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
+      <c r="D77" s="4">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="E77" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="F77" s="16">
+        <f t="shared" si="14"/>
+        <v>33.119999999999997</v>
+      </c>
+      <c r="G77" s="16">
+        <v>40.14</v>
+      </c>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
     </row>
@@ -7792,10 +7861,20 @@
       <c r="A78" s="15"/>
       <c r="B78" s="22"/>
       <c r="C78" s="15"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
+      <c r="D78" s="4">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="E78" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="F78" s="16">
+        <f t="shared" si="14"/>
+        <v>40.14</v>
+      </c>
+      <c r="G78" s="16">
+        <v>51.43</v>
+      </c>
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="318">
   <si>
     <t>Date</t>
   </si>
@@ -957,19 +957,37 @@
   </si>
   <si>
     <t>2.4.9.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kIcQlCFRm98</t>
+  </si>
+  <si>
+    <t>2.4.10.1</t>
+  </si>
+  <si>
+    <t>2.4.11.1</t>
+  </si>
+  <si>
+    <t>2.4.12.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1137,48 +1155,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1488,9 +1507,9 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6258,10 +6277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7890,37 +7909,80 @@
       <c r="I79" s="15"/>
     </row>
     <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
+      <c r="A80" s="15">
+        <v>16</v>
+      </c>
+      <c r="B80" s="22">
+        <v>44059</v>
+      </c>
+      <c r="C80" s="15">
+        <v>55.44</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="F80" s="16">
+        <v>2.33</v>
+      </c>
+      <c r="G80" s="16">
+        <v>14.46</v>
+      </c>
       <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
+      <c r="I80" s="15" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="22"/>
       <c r="C81" s="15"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="15"/>
+      <c r="D81" s="4">
+        <f>+D80+1</f>
+        <v>2</v>
+      </c>
+      <c r="E81" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="F81" s="16">
+        <f>+G80</f>
+        <v>14.46</v>
+      </c>
+      <c r="G81" s="16">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="H81" s="37" t="s">
+        <v>152</v>
+      </c>
       <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
+      <c r="D82" s="4">
+        <f t="shared" ref="D82:D84" si="15">+D81+1</f>
+        <v>3</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="F82" s="16">
+        <v>40.1</v>
+      </c>
+      <c r="G82" s="16">
+        <v>54.37</v>
+      </c>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="D84" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="324">
   <si>
     <t>Date</t>
   </si>
@@ -969,19 +969,43 @@
   </si>
   <si>
     <t>2.4.12.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sJb6BxJ7Mg4</t>
+  </si>
+  <si>
+    <t>2.4.12.5</t>
+  </si>
+  <si>
+    <t>2.4.12.6</t>
+  </si>
+  <si>
+    <t>2.4.13.1</t>
+  </si>
+  <si>
+    <t>2.4.14.1</t>
+  </si>
+  <si>
+    <t>2.5.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1155,51 +1179,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6277,10 +6304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7963,7 +7990,7 @@
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
       <c r="D82" s="4">
-        <f t="shared" ref="D82:D84" si="15">+D81+1</f>
+        <f t="shared" ref="D82" si="15">+D81+1</f>
         <v>3</v>
       </c>
       <c r="E82" s="37" t="s">
@@ -7975,14 +8002,608 @@
       <c r="G82" s="16">
         <v>54.37</v>
       </c>
-      <c r="H82" s="15"/>
+      <c r="H82" s="38" t="s">
+        <v>319</v>
+      </c>
       <c r="I82" s="15"/>
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="D84" s="4"/>
+      <c r="A84" s="38">
+        <v>17</v>
+      </c>
+      <c r="B84" s="39">
+        <v>44060</v>
+      </c>
+      <c r="C84" s="38">
+        <v>58.11</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="F84" s="40">
+        <v>3.28</v>
+      </c>
+      <c r="G84" s="40">
+        <v>10.06</v>
+      </c>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="4">
+        <f>+D84+1</f>
+        <v>2</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" s="40">
+        <f>+G84</f>
+        <v>10.06</v>
+      </c>
+      <c r="G85" s="40">
+        <v>14.4</v>
+      </c>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+    </row>
+    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="4">
+        <f t="shared" ref="D86:D87" si="16">+D85+1</f>
+        <v>3</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="F86" s="40">
+        <f>+G85</f>
+        <v>14.4</v>
+      </c>
+      <c r="G86" s="40">
+        <v>29.04</v>
+      </c>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+    </row>
+    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="4">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="F87" s="40">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="G87" s="40">
+        <v>57.05</v>
+      </c>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+    </row>
+    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+    </row>
+    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+    </row>
+    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+    </row>
+    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91" s="38"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+    </row>
+    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+    </row>
+    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A93" s="38"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+    </row>
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94" s="38"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+    </row>
+    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95" s="38"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+    </row>
+    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+    </row>
+    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A97" s="38"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+    </row>
+    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98" s="38"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+    </row>
+    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A99" s="38"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+    </row>
+    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A100" s="38"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+    </row>
+    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A101" s="38"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+    </row>
+    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" s="38"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+    </row>
+    <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
+    </row>
+    <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A104" s="38"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38"/>
+    </row>
+    <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A105" s="38"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+    </row>
+    <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A106" s="38"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38"/>
+    </row>
+    <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A107" s="38"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="38"/>
+    </row>
+    <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A108" s="38"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38"/>
+    </row>
+    <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A109" s="38"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="38"/>
+    </row>
+    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A110" s="38"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="38"/>
+    </row>
+    <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A111" s="38"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="38"/>
+    </row>
+    <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A112" s="38"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="38"/>
+    </row>
+    <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A113" s="38"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="38"/>
+    </row>
+    <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A114" s="38"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38"/>
+    </row>
+    <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A115" s="38"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="40"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="38"/>
+    </row>
+    <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="38"/>
+    </row>
+    <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A117" s="38"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
+    </row>
+    <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="38"/>
+    </row>
+    <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A119" s="38"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="40"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="38"/>
+    </row>
+    <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A120" s="38"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+    </row>
+    <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A121" s="38"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="38"/>
+    </row>
+    <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A122" s="38"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="38"/>
+    </row>
+    <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A123" s="38"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="38"/>
+    </row>
+    <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A124" s="38"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+    </row>
+    <row r="125" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A125" s="38"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="38"/>
+    </row>
+    <row r="126" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A126" s="38"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="38"/>
+    </row>
+    <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A127" s="38"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="38"/>
+    </row>
+    <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A128" s="38"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="40"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="38"/>
+    </row>
+    <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A129" s="38"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="38"/>
+    </row>
+    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A130" s="38"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="40"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="38"/>
+    </row>
+    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A131" s="38"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="38"/>
+    </row>
+    <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A132" s="38"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="40"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="38"/>
+    </row>
+    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A133" s="38"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="40"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="341">
   <si>
     <t>Date</t>
   </si>
@@ -987,19 +987,88 @@
   </si>
   <si>
     <t>2.5.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sz5MVQljUUI</t>
+  </si>
+  <si>
+    <t>2.5.1.5</t>
+  </si>
+  <si>
+    <t>2.5.1.6</t>
+  </si>
+  <si>
+    <t>2.5.2.1</t>
+  </si>
+  <si>
+    <t>audio disc</t>
+  </si>
+  <si>
+    <t>2.5.3.1</t>
+  </si>
+  <si>
+    <t>There is a skip of 20/30 padams start end of anuvaakam not known</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LZAyORBWHkc&amp;frags=pl%2Cwn</t>
+  </si>
+  <si>
+    <t>2.5.3.5</t>
+  </si>
+  <si>
+    <t>2.5.3.6</t>
+  </si>
+  <si>
+    <t>2.5.4.1</t>
+  </si>
+  <si>
+    <t>2.5.5.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=msMS_nQsy_g</t>
+  </si>
+  <si>
+    <t>2.5.6.1</t>
+  </si>
+  <si>
+    <t>2.5.7.1</t>
+  </si>
+  <si>
+    <t>2.5.8.1</t>
+  </si>
+  <si>
+    <t>2.5.8.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1179,54 +1248,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6306,8 +6378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8096,7 +8168,9 @@
       <c r="G87" s="40">
         <v>57.05</v>
       </c>
-      <c r="H87" s="38"/>
+      <c r="H87" s="41" t="s">
+        <v>325</v>
+      </c>
       <c r="I87" s="38"/>
     </row>
     <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -8111,43 +8185,80 @@
       <c r="I88" s="38"/>
     </row>
     <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
+      <c r="A89" s="38">
+        <v>18</v>
+      </c>
+      <c r="B89" s="39">
+        <v>44061</v>
+      </c>
+      <c r="C89" s="38">
+        <v>52.48</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="F89" s="40">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G89" s="40">
+        <v>12.32</v>
+      </c>
       <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
+      <c r="I89" s="38" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="38"/>
       <c r="B90" s="38"/>
       <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="40"/>
+      <c r="D90" s="4">
+        <f>+D89+1</f>
+        <v>2</v>
+      </c>
+      <c r="E90" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="F90" s="40">
+        <f>+G89</f>
+        <v>12.32</v>
+      </c>
       <c r="G90" s="40"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
+      <c r="H90" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="I90" s="41" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
+      <c r="D91" s="4">
+        <f t="shared" ref="D91" si="17">+D90+1</f>
+        <v>3</v>
+      </c>
+      <c r="E91" s="41" t="s">
+        <v>329</v>
+      </c>
       <c r="F91" s="40"/>
-      <c r="G91" s="40"/>
-      <c r="H91" s="38"/>
+      <c r="G91" s="40">
+        <v>48.37</v>
+      </c>
+      <c r="H91" s="42" t="s">
+        <v>332</v>
+      </c>
       <c r="I91" s="38"/>
     </row>
     <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
+      <c r="D92" s="4"/>
       <c r="E92" s="38"/>
       <c r="F92" s="40"/>
       <c r="G92" s="40"/>
@@ -8155,35 +8266,72 @@
       <c r="I92" s="38"/>
     </row>
     <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="40"/>
+      <c r="A93" s="38">
+        <v>19</v>
+      </c>
+      <c r="B93" s="39">
+        <v>44062</v>
+      </c>
+      <c r="C93" s="38">
+        <v>56.12</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="F93" s="40">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G93" s="40">
+        <v>9.5299999999999994</v>
+      </c>
       <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
+      <c r="I93" s="38" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="38"/>
+      <c r="D94" s="4">
+        <f>+D93+1</f>
+        <v>2</v>
+      </c>
+      <c r="E94" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="F94" s="40">
+        <f>+G93</f>
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="G94" s="40">
+        <v>28.06</v>
+      </c>
+      <c r="H94" s="42" t="s">
+        <v>152</v>
+      </c>
       <c r="I94" s="38"/>
     </row>
     <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="38"/>
       <c r="B95" s="38"/>
       <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
+      <c r="D95" s="4">
+        <f t="shared" ref="D95" si="18">+D94+1</f>
+        <v>3</v>
+      </c>
+      <c r="E95" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="F95" s="40">
+        <v>32.32</v>
+      </c>
+      <c r="G95" s="40">
+        <v>55.12</v>
+      </c>
       <c r="H95" s="38"/>
       <c r="I95" s="38"/>
     </row>
@@ -8199,23 +8347,47 @@
       <c r="I96" s="38"/>
     </row>
     <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
+      <c r="A97" s="38">
+        <v>20</v>
+      </c>
+      <c r="B97" s="39">
+        <v>44063</v>
+      </c>
+      <c r="C97" s="38">
+        <v>51.29</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="F97" s="40">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G97" s="40">
+        <v>29.18</v>
+      </c>
       <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
+      <c r="I97" s="38" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="38"/>
       <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="40"/>
+      <c r="D98" s="4">
+        <f>+D97+1</f>
+        <v>2</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="F98" s="40">
+        <f>+G97</f>
+        <v>29.18</v>
+      </c>
       <c r="G98" s="40"/>
       <c r="H98" s="38"/>
       <c r="I98" s="38"/>
@@ -8224,11 +8396,20 @@
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
+      <c r="D99" s="4">
+        <f t="shared" ref="D99" si="19">+D98+1</f>
+        <v>3</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>339</v>
+      </c>
       <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="38"/>
+      <c r="G99" s="40">
+        <v>46.32</v>
+      </c>
+      <c r="H99" s="43" t="s">
+        <v>340</v>
+      </c>
       <c r="I99" s="38"/>
     </row>
     <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="346">
   <si>
     <t>Date</t>
   </si>
@@ -1038,19 +1038,40 @@
   </si>
   <si>
     <t>2.5.8.2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wcnTT6usKm8</t>
+  </si>
+  <si>
+    <t>2.5.8.3</t>
+  </si>
+  <si>
+    <t>2.5.9.1</t>
+  </si>
+  <si>
+    <t>2.5.10.1</t>
+  </si>
+  <si>
+    <t>2.5.10.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1248,54 +1269,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6378,8 +6400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8424,24 +8446,51 @@
       <c r="I100" s="38"/>
     </row>
     <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A101" s="38"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
+      <c r="A101" s="38">
+        <v>21</v>
+      </c>
+      <c r="B101" s="39">
+        <v>44064</v>
+      </c>
+      <c r="C101" s="38">
+        <v>56.03</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="F101" s="40">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G101" s="40">
+        <v>19.13</v>
+      </c>
+      <c r="H101" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="I101" s="38" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="38"/>
       <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
+      <c r="D102" s="4">
+        <f>+D101+1</f>
+        <v>2</v>
+      </c>
+      <c r="E102" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="F102" s="40">
+        <v>23.57</v>
+      </c>
+      <c r="G102" s="40">
+        <v>43.14</v>
+      </c>
       <c r="H102" s="38"/>
       <c r="I102" s="38"/>
     </row>
@@ -8449,11 +8498,23 @@
       <c r="A103" s="38"/>
       <c r="B103" s="38"/>
       <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="40"/>
-      <c r="G103" s="40"/>
-      <c r="H103" s="38"/>
+      <c r="D103" s="4">
+        <f t="shared" ref="D103" si="20">+D102+1</f>
+        <v>3</v>
+      </c>
+      <c r="E103" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="F103" s="40">
+        <f>+G102</f>
+        <v>43.14</v>
+      </c>
+      <c r="G103" s="40">
+        <v>55.02</v>
+      </c>
+      <c r="H103" s="44" t="s">
+        <v>345</v>
+      </c>
       <c r="I103" s="38"/>
     </row>
     <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="356">
   <si>
     <t>Date</t>
   </si>
@@ -1053,19 +1053,67 @@
   </si>
   <si>
     <t>2.5.10.3</t>
+  </si>
+  <si>
+    <t>1.00.00</t>
+  </si>
+  <si>
+    <t>2.5.10.4</t>
+  </si>
+  <si>
+    <t>2.5.11.1</t>
+  </si>
+  <si>
+    <t>2.5.12.1</t>
+  </si>
+  <si>
+    <t>2.6.1.1</t>
+  </si>
+  <si>
+    <t>2.6.1.2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5_te7lMUnJY</t>
+  </si>
+  <si>
+    <t>2.6.2.1</t>
+  </si>
+  <si>
+    <t>2.6.3.1</t>
+  </si>
+  <si>
+    <t>2.6.3.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1269,56 +1317,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1628,7 +1680,7 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -6400,8 +6452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8529,13 +8581,27 @@
       <c r="I104" s="38"/>
     </row>
     <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="40"/>
-      <c r="G105" s="40"/>
+      <c r="A105" s="38">
+        <v>22</v>
+      </c>
+      <c r="B105" s="39">
+        <v>44065</v>
+      </c>
+      <c r="C105" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
+      </c>
+      <c r="E105" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="F105" s="46">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G105" s="40">
+        <v>6.52</v>
+      </c>
       <c r="H105" s="38"/>
       <c r="I105" s="38"/>
     </row>
@@ -8543,10 +8609,20 @@
       <c r="A106" s="38"/>
       <c r="B106" s="38"/>
       <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="40"/>
-      <c r="G106" s="40"/>
+      <c r="D106" s="4">
+        <f>+D105+1</f>
+        <v>2</v>
+      </c>
+      <c r="E106" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="F106" s="40">
+        <f>+G105</f>
+        <v>6.52</v>
+      </c>
+      <c r="G106" s="40">
+        <v>37.22</v>
+      </c>
       <c r="H106" s="38"/>
       <c r="I106" s="38"/>
     </row>
@@ -8554,22 +8630,45 @@
       <c r="A107" s="38"/>
       <c r="B107" s="38"/>
       <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="40"/>
-      <c r="G107" s="40"/>
-      <c r="H107" s="38"/>
+      <c r="D107" s="4">
+        <f t="shared" ref="D107:D108" si="21">+D106+1</f>
+        <v>3</v>
+      </c>
+      <c r="E107" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="F107" s="40">
+        <f>+G106</f>
+        <v>37.22</v>
+      </c>
+      <c r="G107" s="40">
+        <v>51.35</v>
+      </c>
+      <c r="H107" s="45" t="s">
+        <v>152</v>
+      </c>
       <c r="I107" s="38"/>
     </row>
     <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="40"/>
-      <c r="G108" s="40"/>
-      <c r="H108" s="38"/>
+      <c r="D108" s="4">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="E108" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="F108" s="40">
+        <v>55.48</v>
+      </c>
+      <c r="G108" s="40">
+        <v>59</v>
+      </c>
+      <c r="H108" s="47" t="s">
+        <v>350</v>
+      </c>
       <c r="I108" s="38"/>
     </row>
     <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -8584,24 +8683,50 @@
       <c r="I109" s="38"/>
     </row>
     <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="40"/>
-      <c r="G110" s="40"/>
+      <c r="A110" s="38">
+        <v>23</v>
+      </c>
+      <c r="B110" s="39">
+        <v>44066</v>
+      </c>
+      <c r="C110" s="38">
+        <v>57.51</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1</v>
+      </c>
+      <c r="E110" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="F110" s="40">
+        <v>3.18</v>
+      </c>
+      <c r="G110" s="40">
+        <v>25.05</v>
+      </c>
       <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
+      <c r="I110" s="38" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="38"/>
       <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="40"/>
-      <c r="G111" s="40"/>
+      <c r="D111" s="4">
+        <f>+D110+1</f>
+        <v>2</v>
+      </c>
+      <c r="E111" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="F111" s="40">
+        <f>+G110</f>
+        <v>25.05</v>
+      </c>
+      <c r="G111" s="40">
+        <v>49.39</v>
+      </c>
       <c r="H111" s="38"/>
       <c r="I111" s="38"/>
     </row>
@@ -8609,18 +8734,30 @@
       <c r="A112" s="38"/>
       <c r="B112" s="38"/>
       <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="40"/>
-      <c r="G112" s="40"/>
-      <c r="H112" s="38"/>
+      <c r="D112" s="4">
+        <f t="shared" ref="D112:D113" si="22">+D111+1</f>
+        <v>3</v>
+      </c>
+      <c r="E112" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="F112" s="40">
+        <f>+G111</f>
+        <v>49.39</v>
+      </c>
+      <c r="G112" s="40">
+        <v>56.58</v>
+      </c>
+      <c r="H112" s="48" t="s">
+        <v>355</v>
+      </c>
       <c r="I112" s="38"/>
     </row>
     <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="38"/>
       <c r="B113" s="38"/>
       <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
+      <c r="D113" s="4"/>
       <c r="E113" s="38"/>
       <c r="F113" s="40"/>
       <c r="G113" s="40"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="372">
   <si>
     <t>Date</t>
   </si>
@@ -1083,19 +1083,85 @@
   </si>
   <si>
     <t>2.6.3.2</t>
+  </si>
+  <si>
+    <t>2.6.3.3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vwzr-rmCAIg</t>
+  </si>
+  <si>
+    <t>2.6.4.1</t>
+  </si>
+  <si>
+    <t>2.6.5.1</t>
+  </si>
+  <si>
+    <t>2.6.6.1</t>
+  </si>
+  <si>
+    <t>1.01.07</t>
+  </si>
+  <si>
+    <t>2.6.6.2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UZn5nE2O5Xo</t>
+  </si>
+  <si>
+    <t>2.6.7.1</t>
+  </si>
+  <si>
+    <t>2.6.8.1</t>
+  </si>
+  <si>
+    <t>2.6.8.4</t>
+  </si>
+  <si>
+    <t>2.6.8.5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cfB9lHK5E3w</t>
+  </si>
+  <si>
+    <t>mess rec.</t>
+  </si>
+  <si>
+    <t>2.6.9.1</t>
+  </si>
+  <si>
+    <t>2.9.10.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1317,61 +1383,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -6452,8 +6522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8735,7 +8805,7 @@
       <c r="B112" s="38"/>
       <c r="C112" s="38"/>
       <c r="D112" s="4">
-        <f t="shared" ref="D112:D113" si="22">+D111+1</f>
+        <f t="shared" ref="D112" si="22">+D111+1</f>
         <v>3</v>
       </c>
       <c r="E112" s="47" t="s">
@@ -8765,24 +8835,50 @@
       <c r="I113" s="38"/>
     </row>
     <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A114" s="38"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="38"/>
-      <c r="E114" s="38"/>
-      <c r="F114" s="40"/>
-      <c r="G114" s="40"/>
+      <c r="A114" s="38">
+        <v>24</v>
+      </c>
+      <c r="B114" s="39">
+        <v>44067</v>
+      </c>
+      <c r="C114" s="38">
+        <v>57.04</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1</v>
+      </c>
+      <c r="E114" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="F114" s="40">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="G114" s="40">
+        <v>18.22</v>
+      </c>
       <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
+      <c r="I114" s="38" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="38"/>
       <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="40"/>
-      <c r="G115" s="40"/>
+      <c r="D115" s="4">
+        <f>+D114+1</f>
+        <v>2</v>
+      </c>
+      <c r="E115" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="F115" s="40">
+        <f>+G114</f>
+        <v>18.22</v>
+      </c>
+      <c r="G115" s="40">
+        <v>31.04</v>
+      </c>
       <c r="H115" s="38"/>
       <c r="I115" s="38"/>
     </row>
@@ -8790,10 +8886,20 @@
       <c r="A116" s="38"/>
       <c r="B116" s="38"/>
       <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="40"/>
-      <c r="G116" s="40"/>
+      <c r="D116" s="4">
+        <f t="shared" ref="D116:D117" si="23">+D115+1</f>
+        <v>3</v>
+      </c>
+      <c r="E116" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="F116" s="40">
+        <f>+G115</f>
+        <v>31.04</v>
+      </c>
+      <c r="G116" s="40">
+        <v>52.48</v>
+      </c>
       <c r="H116" s="38"/>
       <c r="I116" s="38"/>
     </row>
@@ -8801,11 +8907,23 @@
       <c r="A117" s="38"/>
       <c r="B117" s="38"/>
       <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
-      <c r="E117" s="38"/>
-      <c r="F117" s="40"/>
-      <c r="G117" s="40"/>
-      <c r="H117" s="38"/>
+      <c r="D117" s="4">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="E117" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="F117" s="40">
+        <f>+G116</f>
+        <v>52.48</v>
+      </c>
+      <c r="G117" s="40">
+        <v>55.5</v>
+      </c>
+      <c r="H117" s="50" t="s">
+        <v>360</v>
+      </c>
       <c r="I117" s="38"/>
     </row>
     <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -8820,43 +8938,82 @@
       <c r="I118" s="38"/>
     </row>
     <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A119" s="38"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="38"/>
-      <c r="E119" s="38"/>
-      <c r="F119" s="40"/>
-      <c r="G119" s="40"/>
+      <c r="A119" s="38">
+        <v>25</v>
+      </c>
+      <c r="B119" s="39">
+        <v>44068</v>
+      </c>
+      <c r="C119" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="F119" s="40">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G119" s="40">
+        <v>20.29</v>
+      </c>
       <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
+      <c r="I119" s="38" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="38"/>
       <c r="B120" s="38"/>
       <c r="C120" s="38"/>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
-      <c r="F120" s="40"/>
-      <c r="G120" s="40"/>
-      <c r="H120" s="38"/>
+      <c r="D120" s="4">
+        <f>+D119+1</f>
+        <v>2</v>
+      </c>
+      <c r="E120" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="F120" s="40">
+        <f>+G119</f>
+        <v>20.29</v>
+      </c>
+      <c r="G120" s="40">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="H120" s="50" t="s">
+        <v>152</v>
+      </c>
       <c r="I120" s="38"/>
     </row>
     <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="38"/>
       <c r="B121" s="38"/>
       <c r="C121" s="38"/>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38"/>
-      <c r="F121" s="40"/>
-      <c r="G121" s="40"/>
-      <c r="H121" s="38"/>
+      <c r="D121" s="4">
+        <f t="shared" ref="D121" si="24">+D120+1</f>
+        <v>3</v>
+      </c>
+      <c r="E121" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="F121" s="40">
+        <v>47.44</v>
+      </c>
+      <c r="G121" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="H121" s="52" t="s">
+        <v>366</v>
+      </c>
       <c r="I121" s="38"/>
     </row>
     <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="38"/>
       <c r="B122" s="38"/>
       <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
+      <c r="D122" s="4"/>
       <c r="E122" s="38"/>
       <c r="F122" s="40"/>
       <c r="G122" s="40"/>
@@ -8864,24 +9021,47 @@
       <c r="I122" s="38"/>
     </row>
     <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A123" s="38"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="40"/>
+      <c r="A123" s="38">
+        <v>26</v>
+      </c>
+      <c r="B123" s="39">
+        <v>44069</v>
+      </c>
+      <c r="C123" s="38">
+        <v>46.57</v>
+      </c>
+      <c r="D123" s="4">
+        <v>1</v>
+      </c>
+      <c r="E123" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="F123" s="40">
+        <v>7.29</v>
+      </c>
       <c r="G123" s="40"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
+      <c r="H123" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="I123" s="38" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="38"/>
       <c r="B124" s="38"/>
       <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
+      <c r="D124" s="4">
+        <f>+D123+1</f>
+        <v>2</v>
+      </c>
+      <c r="E124" s="52" t="s">
+        <v>370</v>
+      </c>
       <c r="F124" s="40"/>
-      <c r="G124" s="40"/>
+      <c r="G124" s="40">
+        <v>32.42</v>
+      </c>
       <c r="H124" s="38"/>
       <c r="I124" s="38"/>
     </row>
@@ -8889,10 +9069,20 @@
       <c r="A125" s="38"/>
       <c r="B125" s="38"/>
       <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="40"/>
-      <c r="G125" s="40"/>
+      <c r="D125" s="4">
+        <f t="shared" ref="D125" si="25">+D124+1</f>
+        <v>3</v>
+      </c>
+      <c r="E125" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="F125" s="40">
+        <f>+G124</f>
+        <v>32.42</v>
+      </c>
+      <c r="G125" s="40">
+        <v>45.4</v>
+      </c>
       <c r="H125" s="38"/>
       <c r="I125" s="38"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
     <sheet name="Kandam2" sheetId="2" r:id="rId2"/>
+    <sheet name="Kandam3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="383">
   <si>
     <t>Date</t>
   </si>
@@ -1130,14 +1131,47 @@
     <t>2.6.9.1</t>
   </si>
   <si>
-    <t>2.9.10.1</t>
+    <t>https://www.youtube.com/watch?v=j05_OKe5feo</t>
+  </si>
+  <si>
+    <t>2.6.10.1</t>
+  </si>
+  <si>
+    <t>2.6.11.1</t>
+  </si>
+  <si>
+    <t>2.6.12.1</t>
+  </si>
+  <si>
+    <t>3.1.1.1</t>
+  </si>
+  <si>
+    <t>3.1.2.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9oWeD-kx6EM</t>
+  </si>
+  <si>
+    <t>3.1.2.2</t>
+  </si>
+  <si>
+    <t>3.1.3.1</t>
+  </si>
+  <si>
+    <t>3.1.4.1</t>
+  </si>
+  <si>
+    <t>3.1.5.1</t>
+  </si>
+  <si>
+    <t>3.1.6.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1350,14 +1384,37 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1367,6 +1424,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,66 +1446,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="38" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6522,8 +6597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9073,8 +9148,8 @@
         <f t="shared" ref="D125" si="25">+D124+1</f>
         <v>3</v>
       </c>
-      <c r="E125" s="52" t="s">
-        <v>371</v>
+      <c r="E125" s="53" t="s">
+        <v>372</v>
       </c>
       <c r="F125" s="40">
         <f>+G124</f>
@@ -9098,35 +9173,72 @@
       <c r="I126" s="38"/>
     </row>
     <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="40"/>
-      <c r="G127" s="40"/>
+      <c r="A127" s="38">
+        <v>27</v>
+      </c>
+      <c r="B127" s="39">
+        <v>44070</v>
+      </c>
+      <c r="C127" s="38">
+        <v>56.05</v>
+      </c>
+      <c r="D127" s="4">
+        <v>1</v>
+      </c>
+      <c r="E127" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="F127" s="40">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G127" s="40">
+        <v>14.09</v>
+      </c>
       <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
+      <c r="I127" s="38" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="38"/>
       <c r="B128" s="38"/>
       <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="40"/>
-      <c r="G128" s="40"/>
-      <c r="H128" s="38"/>
+      <c r="D128" s="4">
+        <f>+D127+1</f>
+        <v>2</v>
+      </c>
+      <c r="E128" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="F128" s="40">
+        <f>+G127</f>
+        <v>14.09</v>
+      </c>
+      <c r="G128" s="40">
+        <v>33.25</v>
+      </c>
+      <c r="H128" s="53" t="s">
+        <v>152</v>
+      </c>
       <c r="I128" s="38"/>
     </row>
     <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="38"/>
       <c r="B129" s="38"/>
       <c r="C129" s="38"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="40"/>
-      <c r="G129" s="40"/>
+      <c r="D129" s="4">
+        <f t="shared" ref="D129:D130" si="26">+D128+1</f>
+        <v>3</v>
+      </c>
+      <c r="E129" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="F129" s="40">
+        <v>37.36</v>
+      </c>
+      <c r="G129" s="40">
+        <v>51.24</v>
+      </c>
       <c r="H129" s="38"/>
       <c r="I129" s="38"/>
     </row>
@@ -9134,11 +9246,23 @@
       <c r="A130" s="38"/>
       <c r="B130" s="38"/>
       <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
-      <c r="E130" s="38"/>
-      <c r="F130" s="40"/>
-      <c r="G130" s="40"/>
-      <c r="H130" s="38"/>
+      <c r="D130" s="4">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="E130" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="F130" s="40">
+        <f>+G129</f>
+        <v>51.24</v>
+      </c>
+      <c r="G130" s="40">
+        <v>55.04</v>
+      </c>
+      <c r="H130" s="53" t="s">
+        <v>376</v>
+      </c>
       <c r="I130" s="38"/>
     </row>
     <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -9178,4 +9302,1039 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <v>1</v>
+      </c>
+      <c r="B4" s="39">
+        <v>44070</v>
+      </c>
+      <c r="C4" s="38">
+        <v>56.05</v>
+      </c>
+      <c r="D4" s="54">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="56">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G4" s="56">
+        <v>14.09</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="38" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="54">
+        <f>+D4+1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="56">
+        <f>+G4</f>
+        <v>14.09</v>
+      </c>
+      <c r="G5" s="56">
+        <v>33.25</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D7" si="0">+D5+1</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" s="40">
+        <v>37.36</v>
+      </c>
+      <c r="G6" s="40">
+        <v>51.24</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="40">
+        <f>+G6</f>
+        <v>51.24</v>
+      </c>
+      <c r="G7" s="40">
+        <v>55.04</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="57">
+        <v>2</v>
+      </c>
+      <c r="B9" s="58">
+        <v>44071</v>
+      </c>
+      <c r="C9" s="57">
+        <v>56.08</v>
+      </c>
+      <c r="D9" s="59">
+        <v>1</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="F9" s="57">
+        <v>7.42</v>
+      </c>
+      <c r="G9" s="57">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="59">
+        <f>+D9+1</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>379</v>
+      </c>
+      <c r="F10" s="57">
+        <f>+G9</f>
+        <v>20.079999999999998</v>
+      </c>
+      <c r="G10" s="60">
+        <v>29.1</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="59">
+        <f t="shared" ref="D11:D13" si="1">+D10+1</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" s="60">
+        <f>+G10</f>
+        <v>29.1</v>
+      </c>
+      <c r="G11" s="57">
+        <v>43.21</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="59">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" s="57">
+        <f>+G11</f>
+        <v>43.21</v>
+      </c>
+      <c r="G12" s="57">
+        <v>51.09</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="59">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="F13" s="57">
+        <f>+G12</f>
+        <v>51.09</v>
+      </c>
+      <c r="G13" s="57">
+        <v>54.55</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+    </row>
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+    </row>
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+    </row>
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+    </row>
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+    </row>
+    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+    </row>
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+    </row>
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+    </row>
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+    </row>
+    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+    </row>
+    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+    </row>
+    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+    </row>
+    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+    </row>
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+    </row>
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+    </row>
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+    </row>
+    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+    </row>
+    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+    </row>
+    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+    </row>
+    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+    </row>
+    <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+    </row>
+    <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+    </row>
+    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+    </row>
+    <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+    </row>
+    <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+    </row>
+    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+    </row>
+    <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+    </row>
+    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+    </row>
+    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+    </row>
+    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+    </row>
+    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="393">
   <si>
     <t>Date</t>
   </si>
@@ -1165,19 +1165,61 @@
   </si>
   <si>
     <t>3.1.6.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZsRDpCQIw00</t>
+  </si>
+  <si>
+    <t>3.1.6.2</t>
+  </si>
+  <si>
+    <t>3.1.7.1</t>
+  </si>
+  <si>
+    <t>3.1.8.1</t>
+  </si>
+  <si>
+    <t>3.1.9.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WZ6IdDRXNzc</t>
+  </si>
+  <si>
+    <t>3.1.10.1</t>
+  </si>
+  <si>
+    <t>3.1.11.1</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>3.2.2.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1446,78 +1488,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="38" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="40" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9308,8 +9352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9321,7 +9365,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.85546875" customWidth="1"/>
+    <col min="9" max="9" width="63.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
@@ -9614,15 +9658,31 @@
       <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
+      <c r="A15" s="57">
+        <v>3</v>
+      </c>
+      <c r="B15" s="58">
+        <v>44072</v>
+      </c>
+      <c r="C15" s="57">
+        <v>57.42</v>
+      </c>
+      <c r="D15" s="59">
+        <v>1</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" s="60">
+        <v>3.1</v>
+      </c>
+      <c r="G15" s="57">
+        <v>9.39</v>
+      </c>
       <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="57" t="s">
+        <v>383</v>
+      </c>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
       <c r="L15" s="57"/>
@@ -9632,10 +9692,20 @@
       <c r="A16" s="57"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="D16" s="59">
+        <f>+D15+1</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" s="57">
+        <f>+G15</f>
+        <v>9.39</v>
+      </c>
+      <c r="G16" s="57">
+        <v>24.02</v>
+      </c>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
@@ -9647,10 +9717,20 @@
       <c r="A17" s="57"/>
       <c r="B17" s="57"/>
       <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
+      <c r="D17" s="59">
+        <f t="shared" ref="D17:D18" si="2">+D16+1</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="57">
+        <f t="shared" ref="F17:F18" si="3">+G16</f>
+        <v>24.02</v>
+      </c>
+      <c r="G17" s="57">
+        <v>34.520000000000003</v>
+      </c>
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
@@ -9662,10 +9742,20 @@
       <c r="A18" s="57"/>
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
+      <c r="D18" s="59">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="57">
+        <f t="shared" si="3"/>
+        <v>34.520000000000003</v>
+      </c>
+      <c r="G18" s="57">
+        <v>56.32</v>
+      </c>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
@@ -9677,7 +9767,7 @@
       <c r="A19" s="57"/>
       <c r="B19" s="57"/>
       <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
@@ -9689,15 +9779,31 @@
       <c r="M19" s="57"/>
     </row>
     <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
+      <c r="A20" s="57">
+        <v>4</v>
+      </c>
+      <c r="B20" s="58">
+        <v>44073</v>
+      </c>
+      <c r="C20" s="57">
+        <v>59.56</v>
+      </c>
+      <c r="D20" s="59">
+        <v>1</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" s="57">
+        <v>5.05</v>
+      </c>
+      <c r="G20" s="57">
+        <v>14.51</v>
+      </c>
       <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="57" t="s">
+        <v>388</v>
+      </c>
       <c r="J20" s="57"/>
       <c r="K20" s="57"/>
       <c r="L20" s="57"/>
@@ -9707,11 +9813,23 @@
       <c r="A21" s="57"/>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
+      <c r="D21" s="59">
+        <f>+D20+1</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="F21" s="57">
+        <f>+G20</f>
+        <v>14.51</v>
+      </c>
+      <c r="G21" s="57">
+        <v>37.14</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>152</v>
+      </c>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
       <c r="K21" s="57"/>
@@ -9722,10 +9840,19 @@
       <c r="A22" s="57"/>
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
+      <c r="D22" s="59">
+        <f t="shared" ref="D22:D23" si="4">+D21+1</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22" s="60">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="G22" s="57">
+        <v>48.35</v>
+      </c>
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
@@ -9737,10 +9864,20 @@
       <c r="A23" s="57"/>
       <c r="B23" s="57"/>
       <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
+      <c r="D23" s="59">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="F23" s="57">
+        <f t="shared" ref="F22:F23" si="5">+G22</f>
+        <v>48.35</v>
+      </c>
+      <c r="G23" s="57">
+        <v>58.58</v>
+      </c>
       <c r="H23" s="57"/>
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="398">
   <si>
     <t>Date</t>
   </si>
@@ -1195,19 +1195,40 @@
   </si>
   <si>
     <t>3.2.2.1</t>
+  </si>
+  <si>
+    <t>31-08-202</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U1CFFnO7dqs</t>
+  </si>
+  <si>
+    <t>3.2.3.1</t>
+  </si>
+  <si>
+    <t>3.2.4.1</t>
+  </si>
+  <si>
+    <t>3.2.5.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1488,78 +1509,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="40" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="41" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -9352,8 +9374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9872,7 +9894,7 @@
         <v>392</v>
       </c>
       <c r="F23" s="57">
-        <f t="shared" ref="F22:F23" si="5">+G22</f>
+        <f t="shared" ref="F23" si="5">+G22</f>
         <v>48.35</v>
       </c>
       <c r="G23" s="57">
@@ -9901,15 +9923,31 @@
       <c r="M24" s="57"/>
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+      <c r="A25" s="57">
+        <v>5</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" s="57">
+        <v>59.38</v>
+      </c>
+      <c r="D25" s="59">
+        <v>1</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25" s="57">
+        <v>5.56</v>
+      </c>
+      <c r="G25" s="57">
+        <v>19.55</v>
+      </c>
       <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="57" t="s">
+        <v>394</v>
+      </c>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -9919,10 +9957,20 @@
       <c r="A26" s="57"/>
       <c r="B26" s="57"/>
       <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
+      <c r="D26" s="59">
+        <f>+D25+1</f>
+        <v>2</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" s="57">
+        <f>+G25</f>
+        <v>19.55</v>
+      </c>
+      <c r="G26" s="57">
+        <v>35.03</v>
+      </c>
       <c r="H26" s="57"/>
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
@@ -9934,10 +9982,20 @@
       <c r="A27" s="57"/>
       <c r="B27" s="57"/>
       <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
+      <c r="D27" s="59">
+        <f t="shared" ref="D27:D28" si="6">+D26+1</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="F27" s="57">
+        <f t="shared" ref="F27:F28" si="7">+G26</f>
+        <v>35.03</v>
+      </c>
+      <c r="G27" s="57">
+        <v>58.45</v>
+      </c>
       <c r="H27" s="57"/>
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
@@ -9949,7 +10007,7 @@
       <c r="A28" s="57"/>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="57"/>
       <c r="F28" s="57"/>
       <c r="G28" s="57"/>
@@ -10472,6 +10530,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="412">
   <si>
     <t>Date</t>
   </si>
@@ -1210,19 +1210,73 @@
   </si>
   <si>
     <t>3.2.5.1</t>
+  </si>
+  <si>
+    <t>3.2.6.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dDVDw_cqR2U</t>
+  </si>
+  <si>
+    <t>3.2.7.1</t>
+  </si>
+  <si>
+    <t>3.2.8.1</t>
+  </si>
+  <si>
+    <t>3.2.9.1</t>
+  </si>
+  <si>
+    <t>3.2.9.4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vOmy4qHLjT0</t>
+  </si>
+  <si>
+    <t>3.2.9.5</t>
+  </si>
+  <si>
+    <t>3.2.10.1</t>
+  </si>
+  <si>
+    <t>3.2.11.1</t>
+  </si>
+  <si>
+    <t>3.3.1.1</t>
+  </si>
+  <si>
+    <t>3.3.2.1</t>
+  </si>
+  <si>
+    <t>3.3.3.1</t>
+  </si>
+  <si>
+    <t>3.3.4.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1509,78 +1563,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="41" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="43" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9374,8 +9430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9983,14 +10039,14 @@
       <c r="B27" s="57"/>
       <c r="C27" s="57"/>
       <c r="D27" s="59">
-        <f t="shared" ref="D27:D28" si="6">+D26+1</f>
+        <f t="shared" ref="D27" si="6">+D26+1</f>
         <v>3</v>
       </c>
       <c r="E27" s="63" t="s">
         <v>397</v>
       </c>
       <c r="F27" s="57">
-        <f t="shared" ref="F27:F28" si="7">+G26</f>
+        <f t="shared" ref="F27" si="7">+G26</f>
         <v>35.03</v>
       </c>
       <c r="G27" s="57">
@@ -10019,15 +10075,31 @@
       <c r="M28" s="57"/>
     </row>
     <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
+      <c r="A29" s="57">
+        <v>6</v>
+      </c>
+      <c r="B29" s="58">
+        <v>44075</v>
+      </c>
+      <c r="C29" s="57">
+        <v>58.2</v>
+      </c>
+      <c r="D29" s="59">
+        <v>1</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="F29" s="57">
+        <v>3.53</v>
+      </c>
+      <c r="G29" s="60">
+        <v>15.2</v>
+      </c>
       <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="57" t="s">
+        <v>399</v>
+      </c>
       <c r="J29" s="57"/>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
@@ -10037,10 +10109,20 @@
       <c r="A30" s="57"/>
       <c r="B30" s="57"/>
       <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
+      <c r="D30" s="59">
+        <f>+D29+1</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="F30" s="60">
+        <f>+G29</f>
+        <v>15.2</v>
+      </c>
+      <c r="G30" s="57">
+        <v>24.33</v>
+      </c>
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
@@ -10052,10 +10134,20 @@
       <c r="A31" s="57"/>
       <c r="B31" s="57"/>
       <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
+      <c r="D31" s="59">
+        <f t="shared" ref="D31:D32" si="8">+D30+1</f>
+        <v>3</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="F31" s="60">
+        <f>+G30</f>
+        <v>24.33</v>
+      </c>
+      <c r="G31" s="57">
+        <v>43.48</v>
+      </c>
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
@@ -10067,11 +10159,23 @@
       <c r="A32" s="57"/>
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
+      <c r="D32" s="59">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="F32" s="57">
+        <f>+G31</f>
+        <v>43.48</v>
+      </c>
+      <c r="G32" s="57">
+        <v>57.46</v>
+      </c>
+      <c r="H32" s="64" t="s">
+        <v>403</v>
+      </c>
       <c r="I32" s="57"/>
       <c r="J32" s="57"/>
       <c r="K32" s="57"/>
@@ -10094,15 +10198,31 @@
       <c r="M33" s="57"/>
     </row>
     <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
+      <c r="A34" s="57">
+        <v>7</v>
+      </c>
+      <c r="B34" s="58">
+        <v>44076</v>
+      </c>
+      <c r="C34" s="57">
+        <v>54.39</v>
+      </c>
+      <c r="D34" s="59">
+        <v>1</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="F34" s="60">
+        <v>4.5</v>
+      </c>
+      <c r="G34" s="57">
+        <v>14.58</v>
+      </c>
       <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
+      <c r="I34" s="57" t="s">
+        <v>404</v>
+      </c>
       <c r="J34" s="57"/>
       <c r="K34" s="57"/>
       <c r="L34" s="57"/>
@@ -10112,10 +10232,20 @@
       <c r="A35" s="57"/>
       <c r="B35" s="57"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
+      <c r="D35" s="59">
+        <f>+D34+1</f>
+        <v>2</v>
+      </c>
+      <c r="E35" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="57">
+        <f>+G34</f>
+        <v>14.58</v>
+      </c>
+      <c r="G35" s="57">
+        <v>23.14</v>
+      </c>
       <c r="H35" s="57"/>
       <c r="I35" s="57"/>
       <c r="J35" s="57"/>
@@ -10127,10 +10257,20 @@
       <c r="A36" s="57"/>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
+      <c r="D36" s="59">
+        <f t="shared" ref="D36:D40" si="9">+D35+1</f>
+        <v>3</v>
+      </c>
+      <c r="E36" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="F36" s="57">
+        <f>+G35</f>
+        <v>23.14</v>
+      </c>
+      <c r="G36" s="57">
+        <v>31.34</v>
+      </c>
       <c r="H36" s="57"/>
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
@@ -10142,10 +10282,20 @@
       <c r="A37" s="57"/>
       <c r="B37" s="57"/>
       <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
+      <c r="D37" s="59">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>408</v>
+      </c>
+      <c r="F37" s="57">
+        <f t="shared" ref="F37:F39" si="10">+G36</f>
+        <v>31.34</v>
+      </c>
+      <c r="G37" s="57">
+        <v>37.49</v>
+      </c>
       <c r="H37" s="57"/>
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
@@ -10157,10 +10307,20 @@
       <c r="A38" s="57"/>
       <c r="B38" s="57"/>
       <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
+      <c r="D38" s="59">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="F38" s="57">
+        <f t="shared" si="10"/>
+        <v>37.49</v>
+      </c>
+      <c r="G38" s="57">
+        <v>42.54</v>
+      </c>
       <c r="H38" s="57"/>
       <c r="I38" s="57"/>
       <c r="J38" s="57"/>
@@ -10172,10 +10332,20 @@
       <c r="A39" s="57"/>
       <c r="B39" s="57"/>
       <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
+      <c r="D39" s="59">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="F39" s="57">
+        <f t="shared" si="10"/>
+        <v>42.54</v>
+      </c>
+      <c r="G39" s="57">
+        <v>51.23</v>
+      </c>
       <c r="H39" s="57"/>
       <c r="I39" s="57"/>
       <c r="J39" s="57"/>
@@ -10187,10 +10357,20 @@
       <c r="A40" s="57"/>
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
+      <c r="D40" s="59">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="F40" s="57">
+        <f>+G39</f>
+        <v>51.23</v>
+      </c>
+      <c r="G40" s="57">
+        <v>53.46</v>
+      </c>
       <c r="H40" s="57"/>
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="435">
   <si>
     <t>Date</t>
   </si>
@@ -1252,19 +1252,112 @@
   </si>
   <si>
     <t>3.3.4.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ShJvFs1yvBA</t>
+  </si>
+  <si>
+    <t>3.3.4.2</t>
+  </si>
+  <si>
+    <t>3.3.5.1</t>
+  </si>
+  <si>
+    <t>3.3.6.1</t>
+  </si>
+  <si>
+    <t>3.3.7.1</t>
+  </si>
+  <si>
+    <t>3.3.8.1</t>
+  </si>
+  <si>
+    <t>3.3.9.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RejlWzQfyd8</t>
+  </si>
+  <si>
+    <t>3.3.10.1</t>
+  </si>
+  <si>
+    <t>3.3.11.1</t>
+  </si>
+  <si>
+    <t>3.4.1.1</t>
+  </si>
+  <si>
+    <t>3.4.1.2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tVH8-yDUq30</t>
+  </si>
+  <si>
+    <t>3.4.5.1</t>
+  </si>
+  <si>
+    <t>3.4.6.1</t>
+  </si>
+  <si>
+    <t>3.4.7.1</t>
+  </si>
+  <si>
+    <t>3.4.8.1</t>
+  </si>
+  <si>
+    <t>3.4.9.1</t>
+  </si>
+  <si>
+    <t>3.4.2.1</t>
+  </si>
+  <si>
+    <t>3.4.3.1</t>
+  </si>
+  <si>
+    <t>3.4.4.1</t>
+  </si>
+  <si>
+    <t>3.4.6.2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Zj43zg9-3ug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1563,55 +1656,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="46" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1619,27 +1717,27 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="47" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="43" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9428,10 +9526,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10371,7 +10469,9 @@
       <c r="G40" s="57">
         <v>53.46</v>
       </c>
-      <c r="H40" s="57"/>
+      <c r="H40" s="66" t="s">
+        <v>411</v>
+      </c>
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>
       <c r="K40" s="57"/>
@@ -10394,15 +10494,31 @@
       <c r="M41" s="57"/>
     </row>
     <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
+      <c r="A42" s="57">
+        <v>8</v>
+      </c>
+      <c r="B42" s="58">
+        <v>44077</v>
+      </c>
+      <c r="C42" s="57">
+        <v>58.26</v>
+      </c>
+      <c r="D42" s="59">
+        <v>1</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>413</v>
+      </c>
+      <c r="F42" s="57">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G42" s="60">
+        <v>10.199999999999999</v>
+      </c>
       <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
+      <c r="I42" s="57" t="s">
+        <v>412</v>
+      </c>
       <c r="J42" s="57"/>
       <c r="K42" s="57"/>
       <c r="L42" s="57"/>
@@ -10412,10 +10528,20 @@
       <c r="A43" s="57"/>
       <c r="B43" s="57"/>
       <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
+      <c r="D43" s="59">
+        <f>+D42+1</f>
+        <v>2</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>414</v>
+      </c>
+      <c r="F43" s="60">
+        <f>+G42</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G43" s="57">
+        <v>23.34</v>
+      </c>
       <c r="H43" s="57"/>
       <c r="I43" s="57"/>
       <c r="J43" s="57"/>
@@ -10427,10 +10553,20 @@
       <c r="A44" s="57"/>
       <c r="B44" s="57"/>
       <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
+      <c r="D44" s="59">
+        <f t="shared" ref="D44:D46" si="11">+D43+1</f>
+        <v>3</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>415</v>
+      </c>
+      <c r="F44" s="60">
+        <f t="shared" ref="F44:F46" si="12">+G43</f>
+        <v>23.34</v>
+      </c>
+      <c r="G44" s="57">
+        <v>32.47</v>
+      </c>
       <c r="H44" s="57"/>
       <c r="I44" s="57"/>
       <c r="J44" s="57"/>
@@ -10442,10 +10578,20 @@
       <c r="A45" s="57"/>
       <c r="B45" s="57"/>
       <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
+      <c r="D45" s="59">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E45" s="66" t="s">
+        <v>416</v>
+      </c>
+      <c r="F45" s="60">
+        <f t="shared" si="12"/>
+        <v>32.47</v>
+      </c>
+      <c r="G45" s="57">
+        <v>41.09</v>
+      </c>
       <c r="H45" s="57"/>
       <c r="I45" s="57"/>
       <c r="J45" s="57"/>
@@ -10457,10 +10603,20 @@
       <c r="A46" s="57"/>
       <c r="B46" s="57"/>
       <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
+      <c r="D46" s="59">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="E46" s="66" t="s">
+        <v>417</v>
+      </c>
+      <c r="F46" s="60">
+        <f t="shared" si="12"/>
+        <v>41.09</v>
+      </c>
+      <c r="G46" s="57">
+        <v>57.44</v>
+      </c>
       <c r="H46" s="57"/>
       <c r="I46" s="57"/>
       <c r="J46" s="57"/>
@@ -10484,15 +10640,31 @@
       <c r="M47" s="57"/>
     </row>
     <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
+      <c r="A48" s="57">
+        <v>9</v>
+      </c>
+      <c r="B48" s="58">
+        <v>44078</v>
+      </c>
+      <c r="C48" s="57">
+        <v>34.06</v>
+      </c>
+      <c r="D48" s="59">
+        <v>1</v>
+      </c>
+      <c r="E48" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="F48" s="60">
+        <v>1.2</v>
+      </c>
+      <c r="G48" s="57">
+        <v>7.46</v>
+      </c>
       <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
+      <c r="I48" s="57" t="s">
+        <v>419</v>
+      </c>
       <c r="J48" s="57"/>
       <c r="K48" s="57"/>
       <c r="L48" s="57"/>
@@ -10502,10 +10674,20 @@
       <c r="A49" s="57"/>
       <c r="B49" s="57"/>
       <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
+      <c r="D49" s="59">
+        <f>+D48+1</f>
+        <v>2</v>
+      </c>
+      <c r="E49" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="F49" s="57">
+        <f>+G48</f>
+        <v>7.46</v>
+      </c>
+      <c r="G49" s="57">
+        <v>13.22</v>
+      </c>
       <c r="H49" s="57"/>
       <c r="I49" s="57"/>
       <c r="J49" s="57"/>
@@ -10517,10 +10699,20 @@
       <c r="A50" s="57"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
+      <c r="D50" s="59">
+        <f t="shared" ref="D50:D51" si="13">+D49+1</f>
+        <v>3</v>
+      </c>
+      <c r="E50" s="67" t="s">
+        <v>421</v>
+      </c>
+      <c r="F50" s="57">
+        <f>+G49</f>
+        <v>13.22</v>
+      </c>
+      <c r="G50" s="57">
+        <v>30.11</v>
+      </c>
       <c r="H50" s="57"/>
       <c r="I50" s="57"/>
       <c r="J50" s="57"/>
@@ -10532,12 +10724,23 @@
       <c r="A51" s="57"/>
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
+      <c r="D51" s="59">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="E51" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="F51" s="57">
+        <f>+G50</f>
+        <v>30.11</v>
+      </c>
+      <c r="G51" s="57">
+        <v>33.090000000000003</v>
+      </c>
+      <c r="H51" s="68" t="s">
+        <v>422</v>
+      </c>
       <c r="J51" s="57"/>
       <c r="K51" s="57"/>
       <c r="L51" s="57"/>
@@ -10559,15 +10762,31 @@
       <c r="M52" s="57"/>
     </row>
     <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
+      <c r="A53" s="57">
+        <v>10</v>
+      </c>
+      <c r="B53" s="58">
+        <v>44079</v>
+      </c>
+      <c r="C53" s="57">
+        <v>57.57</v>
+      </c>
+      <c r="D53" s="59">
+        <v>1</v>
+      </c>
+      <c r="E53" s="68" t="s">
+        <v>423</v>
+      </c>
+      <c r="F53" s="57">
+        <v>5.18</v>
+      </c>
+      <c r="G53" s="57">
+        <v>15.38</v>
+      </c>
       <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
+      <c r="I53" s="57" t="s">
+        <v>424</v>
+      </c>
       <c r="J53" s="57"/>
       <c r="K53" s="57"/>
       <c r="L53" s="57"/>
@@ -10577,10 +10796,20 @@
       <c r="A54" s="57"/>
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
+      <c r="D54" s="59">
+        <f>+D53+1</f>
+        <v>2</v>
+      </c>
+      <c r="E54" s="69" t="s">
+        <v>430</v>
+      </c>
+      <c r="F54" s="57">
+        <f>+G53</f>
+        <v>15.38</v>
+      </c>
+      <c r="G54" s="57">
+        <v>22.19</v>
+      </c>
       <c r="H54" s="57"/>
       <c r="I54" s="57"/>
       <c r="J54" s="57"/>
@@ -10592,10 +10821,20 @@
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
+      <c r="D55" s="59">
+        <f t="shared" ref="D55:D58" si="14">+D54+1</f>
+        <v>3</v>
+      </c>
+      <c r="E55" s="69" t="s">
+        <v>431</v>
+      </c>
+      <c r="F55" s="57">
+        <f t="shared" ref="F55:F57" si="15">+G54</f>
+        <v>22.19</v>
+      </c>
+      <c r="G55" s="57">
+        <v>46.27</v>
+      </c>
       <c r="H55" s="57"/>
       <c r="I55" s="57"/>
       <c r="J55" s="57"/>
@@ -10607,10 +10846,20 @@
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
+      <c r="D56" s="59">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="E56" s="69" t="s">
+        <v>432</v>
+      </c>
+      <c r="F56" s="57">
+        <f t="shared" si="15"/>
+        <v>46.27</v>
+      </c>
+      <c r="G56" s="57">
+        <v>50.19</v>
+      </c>
       <c r="H56" s="57"/>
       <c r="I56" s="57"/>
       <c r="J56" s="57"/>
@@ -10622,10 +10871,20 @@
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
+      <c r="D57" s="59">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="E57" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="F57" s="57">
+        <f t="shared" si="15"/>
+        <v>50.19</v>
+      </c>
+      <c r="G57" s="57">
+        <v>54.25</v>
+      </c>
       <c r="H57" s="57"/>
       <c r="I57" s="57"/>
       <c r="J57" s="57"/>
@@ -10637,11 +10896,23 @@
       <c r="A58" s="57"/>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
+      <c r="D58" s="59">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="E58" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="F58" s="57">
+        <f>+G57</f>
+        <v>54.25</v>
+      </c>
+      <c r="G58" s="57">
+        <v>57.19</v>
+      </c>
+      <c r="H58" s="69" t="s">
+        <v>426</v>
+      </c>
       <c r="I58" s="57"/>
       <c r="J58" s="57"/>
       <c r="K58" s="57"/>
@@ -10664,15 +10935,31 @@
       <c r="M59" s="57"/>
     </row>
     <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
+      <c r="A60" s="57">
+        <v>11</v>
+      </c>
+      <c r="B60" s="58">
+        <v>44080</v>
+      </c>
+      <c r="C60" s="57">
+        <v>56.02</v>
+      </c>
+      <c r="D60" s="59">
+        <v>1</v>
+      </c>
+      <c r="E60" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="F60" s="57">
+        <v>8.09</v>
+      </c>
+      <c r="G60" s="57">
+        <v>13.55</v>
+      </c>
       <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
+      <c r="I60" s="57" t="s">
+        <v>434</v>
+      </c>
       <c r="J60" s="57"/>
       <c r="K60" s="57"/>
       <c r="L60" s="57"/>
@@ -10682,10 +10969,20 @@
       <c r="A61" s="57"/>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
+      <c r="D61" s="59">
+        <f>+D60+1</f>
+        <v>2</v>
+      </c>
+      <c r="E61" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="F61" s="57">
+        <f>+G60</f>
+        <v>13.55</v>
+      </c>
+      <c r="G61" s="57">
+        <v>24.12</v>
+      </c>
       <c r="H61" s="57"/>
       <c r="I61" s="57"/>
       <c r="J61" s="57"/>
@@ -10697,10 +10994,20 @@
       <c r="A62" s="57"/>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
+      <c r="D62" s="59">
+        <f t="shared" ref="D62:D63" si="16">+D61+1</f>
+        <v>3</v>
+      </c>
+      <c r="E62" s="69" t="s">
+        <v>428</v>
+      </c>
+      <c r="F62" s="57">
+        <f t="shared" ref="F62:F63" si="17">+G61</f>
+        <v>24.12</v>
+      </c>
+      <c r="G62" s="57">
+        <v>48.37</v>
+      </c>
       <c r="H62" s="57"/>
       <c r="I62" s="57"/>
       <c r="J62" s="57"/>
@@ -10708,6 +11015,22 @@
       <c r="L62" s="57"/>
       <c r="M62" s="57"/>
     </row>
+    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="D63" s="59">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E63" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="F63" s="57">
+        <f t="shared" si="17"/>
+        <v>48.37</v>
+      </c>
+      <c r="G63" s="70">
+        <v>54.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="441">
   <si>
     <t>Date</t>
   </si>
@@ -1321,19 +1321,43 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Zj43zg9-3ug</t>
+  </si>
+  <si>
+    <t>3.4.9.2</t>
+  </si>
+  <si>
+    <t>3.4.9.3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EDh8TaLUDZo</t>
+  </si>
+  <si>
+    <t>3.4.10.1</t>
+  </si>
+  <si>
+    <t>3.4.11.1</t>
+  </si>
+  <si>
+    <t>3.5.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1656,78 +1680,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="46" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="47" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="48" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1736,8 +1761,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9526,10 +9552,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11030,6 +11056,451 @@
       <c r="G63" s="70">
         <v>54.5</v>
       </c>
+      <c r="H63" s="69" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="71"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="71">
+        <v>12</v>
+      </c>
+      <c r="B65" s="72">
+        <v>44081</v>
+      </c>
+      <c r="C65" s="71">
+        <v>57.23</v>
+      </c>
+      <c r="D65" s="59">
+        <v>1</v>
+      </c>
+      <c r="E65" s="71" t="s">
+        <v>436</v>
+      </c>
+      <c r="F65" s="71">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G65" s="71">
+        <v>20.57</v>
+      </c>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="71"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="59">
+        <f>+D65+1</f>
+        <v>2</v>
+      </c>
+      <c r="E66" s="71" t="s">
+        <v>438</v>
+      </c>
+      <c r="F66" s="71">
+        <f>+G65</f>
+        <v>20.57</v>
+      </c>
+      <c r="G66" s="71">
+        <v>37.14</v>
+      </c>
+      <c r="H66" s="71"/>
+      <c r="I66" s="71"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="71"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="59">
+        <f t="shared" ref="D67:D68" si="18">+D66+1</f>
+        <v>3</v>
+      </c>
+      <c r="E67" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="F67" s="71">
+        <f>+G66</f>
+        <v>37.14</v>
+      </c>
+      <c r="G67" s="71">
+        <v>53.42</v>
+      </c>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="71"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="59">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="E68" s="71" t="s">
+        <v>440</v>
+      </c>
+      <c r="F68" s="71">
+        <f>+G67</f>
+        <v>53.42</v>
+      </c>
+      <c r="G68" s="71">
+        <v>56.51</v>
+      </c>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="71"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="71"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="71"/>
+      <c r="B70" s="71"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="71"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="71"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="71"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="71"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="71"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="71"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="71"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="71"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="71"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="71"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="71"/>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="71"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="71"/>
+    </row>
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A81" s="71"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="71"/>
+    </row>
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A82" s="71"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="71"/>
+    </row>
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="71"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="71"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="71"/>
+    </row>
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="71"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="71"/>
+    </row>
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85" s="71"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="71"/>
+    </row>
+    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="71"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="71"/>
+    </row>
+    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87" s="71"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="71"/>
+      <c r="I87" s="71"/>
+    </row>
+    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A88" s="71"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="71"/>
+    </row>
+    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="71"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
+      <c r="I89" s="71"/>
+    </row>
+    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90" s="71"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="71"/>
+    </row>
+    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91" s="71"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="71"/>
+      <c r="I91" s="71"/>
+    </row>
+    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92" s="71"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+    </row>
+    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A93" s="71"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+    </row>
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94" s="71"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="71"/>
+    </row>
+    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95" s="71"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+    </row>
+    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A96" s="71"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="71"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
+    </row>
+    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A97" s="71"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
+    </row>
+    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98" s="71"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
+    </row>
+    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A99" s="71"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Kandam3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="453">
   <si>
     <t>Date</t>
   </si>
@@ -1339,19 +1340,67 @@
   </si>
   <si>
     <t>3.5.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QvaBB09CHDI</t>
+  </si>
+  <si>
+    <t>3.5.1.2</t>
+  </si>
+  <si>
+    <t>3.5.2.1</t>
+  </si>
+  <si>
+    <t>3.5.3.1</t>
+  </si>
+  <si>
+    <t>3.5.4.1</t>
+  </si>
+  <si>
+    <t>3.5.5.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dSgPzo3S_94</t>
+  </si>
+  <si>
+    <t>3.5.6.1</t>
+  </si>
+  <si>
+    <t>3.5.7.1</t>
+  </si>
+  <si>
+    <t>3.5.8.1</t>
+  </si>
+  <si>
+    <t>3.5.9.1</t>
+  </si>
+  <si>
+    <t>3.5.10.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1680,78 +1729,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="48" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="50" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1759,11 +1810,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2496,7 +2547,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" ref="F22:F25" si="0">+G21</f>
+        <f>+G21</f>
         <v>16.29</v>
       </c>
       <c r="G22" s="6">
@@ -2519,7 +2570,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="0"/>
+        <f>+G22</f>
         <v>29.49</v>
       </c>
       <c r="G23" s="6">
@@ -2542,7 +2593,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="0"/>
+        <f>+G23</f>
         <v>36.57</v>
       </c>
       <c r="G24" s="6">
@@ -2565,7 +2616,7 @@
         <v>28</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="0"/>
+        <f>+G24</f>
         <v>45.53</v>
       </c>
       <c r="G25" s="6">
@@ -2651,14 +2702,14 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="4">
-        <f t="shared" ref="D29:D34" si="1">+D28+1</f>
+        <f t="shared" ref="D29:D34" si="0">+D28+1</f>
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" ref="F29:F34" si="2">+G28</f>
+        <f t="shared" ref="F29:F34" si="1">+G28</f>
         <v>18.510000000000002</v>
       </c>
       <c r="G29" s="6">
@@ -2675,14 +2726,14 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23.47</v>
       </c>
       <c r="G30" s="6">
@@ -2701,7 +2752,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2723,14 +2774,14 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34.01</v>
       </c>
       <c r="G32" s="6">
@@ -2754,7 +2805,7 @@
         <v>36</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39.36</v>
       </c>
       <c r="G33" s="6">
@@ -2771,14 +2822,14 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44.39</v>
       </c>
       <c r="G34" s="6">
@@ -2864,14 +2915,14 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="4">
-        <f t="shared" ref="D38:D39" si="3">+D37+1</f>
+        <f>+D37+1</f>
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" ref="F38:F39" si="4">+G37</f>
+        <f>+G37</f>
         <v>23.04</v>
       </c>
       <c r="G38" s="6">
@@ -2888,14 +2939,14 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="4">
-        <f t="shared" si="3"/>
+        <f>+D38+1</f>
         <v>4</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="4"/>
+        <f>+G38</f>
         <v>32.42</v>
       </c>
       <c r="G39" s="6">
@@ -2981,14 +3032,14 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4">
-        <f t="shared" ref="D43:D48" si="5">+D42+1</f>
+        <f t="shared" ref="D43:D48" si="2">+D42+1</f>
         <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" ref="F43:F48" si="6">+G42</f>
+        <f t="shared" ref="F43:F48" si="3">+G42</f>
         <v>15.42</v>
       </c>
       <c r="G43" s="6">
@@ -3005,14 +3056,14 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>24.17</v>
       </c>
       <c r="G44" s="6">
@@ -3029,14 +3080,14 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>27.47</v>
       </c>
       <c r="G45" s="6">
@@ -3053,14 +3104,14 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>37.08</v>
       </c>
       <c r="G46" s="6">
@@ -3077,14 +3128,14 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>41.1</v>
       </c>
       <c r="G47" s="6">
@@ -3101,14 +3152,14 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>49.11</v>
       </c>
       <c r="G48" s="6">
@@ -3170,14 +3221,14 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4">
-        <f>+D50+1</f>
+        <f t="shared" ref="D51:D56" si="4">+D50+1</f>
         <v>2</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" ref="F51:F56" si="7">+G50</f>
+        <f t="shared" ref="F51:F56" si="5">+G50</f>
         <v>11.48</v>
       </c>
       <c r="G51" s="6">
@@ -3194,14 +3245,14 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4">
-        <f t="shared" ref="D52:D56" si="8">+D51+1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>18.12</v>
       </c>
       <c r="G52" s="6">
@@ -3218,14 +3269,14 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>24.08</v>
       </c>
       <c r="G53" s="6">
@@ -3242,14 +3293,14 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>29.13</v>
       </c>
       <c r="G54" s="6">
@@ -3266,14 +3317,14 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>32.14</v>
       </c>
       <c r="G55" s="6">
@@ -3290,14 +3341,14 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>39.090000000000003</v>
       </c>
       <c r="G56" s="6">
@@ -3361,7 +3412,7 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4">
-        <f t="shared" ref="D59:D69" si="9">+D58+1</f>
+        <f t="shared" ref="D59:D69" si="6">+D58+1</f>
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -3385,14 +3436,14 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" ref="F60:F69" si="10">+G59</f>
+        <f t="shared" ref="F60:F69" si="7">+G59</f>
         <v>28.14</v>
       </c>
       <c r="G60" s="6">
@@ -3409,14 +3460,14 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>31.45</v>
       </c>
       <c r="G61" s="6">
@@ -3433,14 +3484,14 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>36.06</v>
       </c>
       <c r="G62" s="6">
@@ -3457,14 +3508,14 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>39.119999999999997</v>
       </c>
       <c r="G63" s="6">
@@ -3481,14 +3532,14 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>40.42</v>
       </c>
       <c r="G64" s="6">
@@ -3505,14 +3556,14 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>42.04</v>
       </c>
       <c r="G65" s="6">
@@ -3529,14 +3580,14 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>43.23</v>
       </c>
       <c r="G66" s="6">
@@ -3553,14 +3604,14 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>45.19</v>
       </c>
       <c r="G67" s="6">
@@ -3577,14 +3628,14 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>47.22</v>
       </c>
       <c r="G68" s="6">
@@ -3601,14 +3652,14 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>50.19</v>
       </c>
       <c r="G69" s="6">
@@ -3694,14 +3745,14 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4">
-        <f t="shared" ref="D73:D106" si="11">+D72+1</f>
+        <f t="shared" ref="D73:D106" si="8">+D72+1</f>
         <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" ref="F73:F106" si="12">+G72</f>
+        <f t="shared" ref="F73:F106" si="9">+G72</f>
         <v>9.0399999999999991</v>
       </c>
       <c r="G73" s="6">
@@ -3718,14 +3769,14 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>10.5</v>
       </c>
       <c r="G74" s="6">
@@ -3742,14 +3793,14 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>12.28</v>
       </c>
       <c r="G75" s="6">
@@ -3766,14 +3817,14 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>14.01</v>
       </c>
       <c r="G76" s="6">
@@ -3790,14 +3841,14 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>15.53</v>
       </c>
       <c r="G77" s="6">
@@ -3814,14 +3865,14 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>17.46</v>
       </c>
       <c r="G78" s="6">
@@ -3838,14 +3889,14 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F79" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>19.41</v>
       </c>
       <c r="G79" s="6">
@@ -3862,14 +3913,14 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21.08</v>
       </c>
       <c r="G80" s="6">
@@ -3886,14 +3937,14 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>23.18</v>
       </c>
       <c r="G81" s="6">
@@ -3910,14 +3961,14 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>27.5</v>
       </c>
       <c r="G82" s="6">
@@ -3934,14 +3985,14 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>29.24</v>
       </c>
       <c r="G83" s="6">
@@ -3958,14 +4009,14 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.55</v>
       </c>
       <c r="G84" s="6">
@@ -3980,14 +4031,14 @@
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D85" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>31.52</v>
       </c>
       <c r="G85" s="6">
@@ -3996,14 +4047,14 @@
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D86" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>32.44</v>
       </c>
       <c r="G86" s="6">
@@ -4012,14 +4063,14 @@
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D87" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>34.42</v>
       </c>
       <c r="G87" s="6">
@@ -4028,14 +4079,14 @@
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D88" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>37.020000000000003</v>
       </c>
       <c r="G88" s="6">
@@ -4044,14 +4095,14 @@
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D89" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>38.24</v>
       </c>
       <c r="G89" s="6">
@@ -4060,14 +4111,14 @@
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D90" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>39.479999999999997</v>
       </c>
       <c r="G90" s="6">
@@ -4076,14 +4127,14 @@
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D91" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>41.14</v>
       </c>
       <c r="G91" s="6">
@@ -4092,14 +4143,14 @@
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D92" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>41.49</v>
       </c>
       <c r="G92" s="6">
@@ -4108,14 +4159,14 @@
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D93" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>43.08</v>
       </c>
       <c r="G93" s="6">
@@ -4124,14 +4175,14 @@
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D94" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>46.09</v>
       </c>
       <c r="G94" s="6">
@@ -4140,14 +4191,14 @@
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D95" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>48.37</v>
       </c>
       <c r="G95" s="6">
@@ -4156,14 +4207,14 @@
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D96" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>50.39</v>
       </c>
       <c r="G96" s="6">
@@ -4213,14 +4264,14 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="G99" s="6">
@@ -4233,14 +4284,14 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>3.52</v>
       </c>
       <c r="G100" s="6">
@@ -4253,14 +4304,14 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5.56</v>
       </c>
       <c r="G101" s="6">
@@ -4273,14 +4324,14 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>7.56</v>
       </c>
       <c r="G102" s="6">
@@ -4293,14 +4344,14 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>10.06</v>
       </c>
       <c r="G103" s="6">
@@ -4313,14 +4364,14 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>18.149999999999999</v>
       </c>
       <c r="G104" s="6">
@@ -4333,14 +4384,14 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>27.26</v>
       </c>
       <c r="G105" s="6">
@@ -4353,14 +4404,14 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>37.22</v>
       </c>
       <c r="G106" s="6">
@@ -4410,7 +4461,7 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="4">
-        <f t="shared" ref="D109:D116" si="13">+D108+1</f>
+        <f t="shared" ref="D109:D116" si="10">+D108+1</f>
         <v>2</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -4430,14 +4481,14 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F110" s="6">
-        <f t="shared" ref="F110:F111" si="14">+G109</f>
+        <f>+G109</f>
         <v>31.32</v>
       </c>
       <c r="G110" s="6">
@@ -4450,14 +4501,14 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F111" s="6">
-        <f t="shared" si="14"/>
+        <f>+G110</f>
         <v>40.15</v>
       </c>
       <c r="G111" s="6">
@@ -4505,7 +4556,7 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -4525,14 +4576,14 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F115" s="6">
-        <f t="shared" ref="F115:F116" si="15">+G114</f>
+        <f>+G114</f>
         <v>28.29</v>
       </c>
       <c r="G115" s="6">
@@ -4545,14 +4596,14 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F116" s="6">
-        <f t="shared" si="15"/>
+        <f>+G115</f>
         <v>47.08</v>
       </c>
       <c r="G116" s="6">
@@ -4602,7 +4653,7 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="4">
-        <f t="shared" ref="D119:D121" si="16">+D118+1</f>
+        <f>+D118+1</f>
         <v>2</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -4624,7 +4675,7 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="4">
-        <f t="shared" si="16"/>
+        <f>+D119+1</f>
         <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -4643,14 +4694,14 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="4">
-        <f t="shared" si="16"/>
+        <f>+D120+1</f>
         <v>4</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" ref="F121" si="17">+G120</f>
+        <f>+G120</f>
         <v>47.24</v>
       </c>
       <c r="G121" s="6">
@@ -4700,7 +4751,7 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="4">
-        <f t="shared" ref="D124:D127" si="18">+D123+1</f>
+        <f>+D123+1</f>
         <v>2</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -4720,14 +4771,14 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="4">
-        <f t="shared" si="18"/>
+        <f>+D124+1</f>
         <v>3</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" ref="F125:F127" si="19">+G124</f>
+        <f>+G124</f>
         <v>15.35</v>
       </c>
       <c r="G125" s="6">
@@ -4740,14 +4791,14 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="4">
-        <f t="shared" si="18"/>
+        <f>+D125+1</f>
         <v>4</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>145</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="19"/>
+        <f>+G125</f>
         <v>34.299999999999997</v>
       </c>
       <c r="G126" s="6">
@@ -4760,14 +4811,14 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="4">
-        <f t="shared" si="18"/>
+        <f>+D126+1</f>
         <v>5</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>146</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="19"/>
+        <f>+G126</f>
         <v>43.32</v>
       </c>
       <c r="G127" s="6">
@@ -4817,7 +4868,7 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="4">
-        <f t="shared" ref="D130:D133" si="20">+D129+1</f>
+        <f>+D129+1</f>
         <v>2</v>
       </c>
       <c r="E130" s="11" t="s">
@@ -4839,7 +4890,7 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="4">
-        <f t="shared" si="20"/>
+        <f>+D130+1</f>
         <v>3</v>
       </c>
       <c r="E131" s="11" t="s">
@@ -4858,14 +4909,14 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="4">
-        <f t="shared" si="20"/>
+        <f>+D131+1</f>
         <v>4</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" ref="F132:F133" si="21">+G131</f>
+        <f>+G131</f>
         <v>42.37</v>
       </c>
       <c r="G132" s="6">
@@ -4878,14 +4929,14 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="4">
-        <f t="shared" si="20"/>
+        <f>+D132+1</f>
         <v>5</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="21"/>
+        <f>+G132</f>
         <v>55.03</v>
       </c>
       <c r="G133" s="6">
@@ -4937,7 +4988,7 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="4">
-        <f t="shared" ref="D136:D141" si="22">+D135+1</f>
+        <f t="shared" ref="D136:D141" si="11">+D135+1</f>
         <v>2</v>
       </c>
       <c r="E136" s="11" t="s">
@@ -4957,7 +5008,7 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="E137" s="13" t="s">
@@ -5015,7 +5066,7 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="E140" s="11" t="s">
@@ -5037,7 +5088,7 @@
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="E141" s="11" t="s">
@@ -5062,7 +5113,7 @@
         <v>169</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" ref="F142" si="23">+G141</f>
+        <f>+G141</f>
         <v>48.25</v>
       </c>
       <c r="G142" s="6">
@@ -5114,7 +5165,7 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="4">
-        <f t="shared" ref="D145" si="24">+D144+1</f>
+        <f>+D144+1</f>
         <v>2</v>
       </c>
       <c r="E145" s="11" t="s">
@@ -5190,7 +5241,7 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="4">
-        <f t="shared" ref="D149:D152" si="25">+D148+1</f>
+        <f>+D148+1</f>
         <v>2</v>
       </c>
       <c r="E149" s="12" t="s">
@@ -5210,14 +5261,14 @@
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="4">
-        <f t="shared" si="25"/>
+        <f>+D149+1</f>
         <v>3</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>176</v>
       </c>
       <c r="F150" s="6">
-        <f t="shared" ref="F150:F152" si="26">+G149</f>
+        <f>+G149</f>
         <v>22.09</v>
       </c>
       <c r="G150" s="6">
@@ -5230,14 +5281,14 @@
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="4">
-        <f t="shared" si="25"/>
+        <f>+D150+1</f>
         <v>4</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>177</v>
       </c>
       <c r="F151" s="6">
-        <f t="shared" si="26"/>
+        <f>+G150</f>
         <v>45.27</v>
       </c>
       <c r="G151" s="6">
@@ -5250,14 +5301,14 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="4">
-        <f t="shared" si="25"/>
+        <f>+D151+1</f>
         <v>5</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>178</v>
       </c>
       <c r="F152" s="6">
-        <f t="shared" si="26"/>
+        <f>+G151</f>
         <v>52.3</v>
       </c>
       <c r="G152" s="6">
@@ -5329,14 +5380,14 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="4">
-        <f t="shared" ref="D156:D159" si="27">+D155+1</f>
+        <f>+D155+1</f>
         <v>3</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>183</v>
       </c>
       <c r="F156" s="6">
-        <f t="shared" ref="F156:F159" si="28">+G155</f>
+        <f>+G155</f>
         <v>22.28</v>
       </c>
       <c r="G156" s="6">
@@ -5349,14 +5400,14 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="4">
-        <f t="shared" si="27"/>
+        <f>+D156+1</f>
         <v>4</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>184</v>
       </c>
       <c r="F157" s="6">
-        <f t="shared" si="28"/>
+        <f>+G156</f>
         <v>31.35</v>
       </c>
       <c r="G157" s="6">
@@ -5369,14 +5420,14 @@
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="4">
-        <f t="shared" si="27"/>
+        <f>+D157+1</f>
         <v>5</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>185</v>
       </c>
       <c r="F158" s="6">
-        <f t="shared" si="28"/>
+        <f>+G157</f>
         <v>39.4</v>
       </c>
       <c r="G158" s="6">
@@ -5389,14 +5440,14 @@
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="4">
-        <f t="shared" si="27"/>
+        <f>+D158+1</f>
         <v>6</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>186</v>
       </c>
       <c r="F159" s="6">
-        <f t="shared" si="28"/>
+        <f>+G158</f>
         <v>47.26</v>
       </c>
       <c r="G159" s="6">
@@ -5448,14 +5499,14 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="4">
-        <f>+D161+1</f>
+        <f t="shared" ref="D162:D167" si="12">+D161+1</f>
         <v>2</v>
       </c>
       <c r="E162" s="12" t="s">
         <v>191</v>
       </c>
       <c r="F162" s="6">
-        <f>+G161</f>
+        <f t="shared" ref="F162:F167" si="13">+G161</f>
         <v>15.05</v>
       </c>
       <c r="G162" s="6">
@@ -5468,14 +5519,14 @@
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="4">
-        <f t="shared" ref="D163:D167" si="29">+D162+1</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>192</v>
       </c>
       <c r="F163" s="6">
-        <f t="shared" ref="F163:F167" si="30">+G162</f>
+        <f t="shared" si="13"/>
         <v>21.48</v>
       </c>
       <c r="G163" s="6">
@@ -5488,14 +5539,14 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>193</v>
       </c>
       <c r="F164" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>23.36</v>
       </c>
       <c r="G164" s="6">
@@ -5508,14 +5559,14 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>194</v>
       </c>
       <c r="F165" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>28.1</v>
       </c>
       <c r="G165" s="6">
@@ -5528,14 +5579,14 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E166" s="12" t="s">
         <v>195</v>
       </c>
       <c r="F166" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>34.01</v>
       </c>
       <c r="G166" s="6">
@@ -5548,14 +5599,14 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>196</v>
       </c>
       <c r="F167" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>42.59</v>
       </c>
       <c r="G167" s="6">
@@ -5625,14 +5676,14 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="4">
-        <f t="shared" ref="D171:D174" si="31">+D170+1</f>
+        <f>+D170+1</f>
         <v>3</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>201</v>
       </c>
       <c r="F171" s="6">
-        <f t="shared" ref="F171:F174" si="32">+G170</f>
+        <f>+G170</f>
         <v>20.38</v>
       </c>
       <c r="G171" s="6">
@@ -5645,14 +5696,14 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="4">
-        <f t="shared" si="31"/>
+        <f>+D171+1</f>
         <v>4</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>202</v>
       </c>
       <c r="F172" s="6">
-        <f t="shared" si="32"/>
+        <f>+G171</f>
         <v>32.21</v>
       </c>
       <c r="G172" s="6">
@@ -5665,14 +5716,14 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="4">
-        <f t="shared" si="31"/>
+        <f>+D172+1</f>
         <v>5</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>203</v>
       </c>
       <c r="F173" s="6">
-        <f t="shared" si="32"/>
+        <f>+G172</f>
         <v>42.34</v>
       </c>
       <c r="G173" s="6">
@@ -5685,14 +5736,14 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="4">
-        <f t="shared" si="31"/>
+        <f>+D173+1</f>
         <v>6</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>204</v>
       </c>
       <c r="F174" s="6">
-        <f t="shared" si="32"/>
+        <f>+G173</f>
         <v>47.05</v>
       </c>
       <c r="G174" s="6">
@@ -5744,14 +5795,14 @@
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="4">
-        <f>+D176+1</f>
+        <f t="shared" ref="D177:D182" si="14">+D176+1</f>
         <v>2</v>
       </c>
       <c r="E177" s="14" t="s">
         <v>213</v>
       </c>
       <c r="F177" s="6">
-        <f>+G176</f>
+        <f t="shared" ref="F177:F182" si="15">+G176</f>
         <v>11.1</v>
       </c>
       <c r="G177" s="6">
@@ -5764,14 +5815,14 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="4">
-        <f t="shared" ref="D178:D182" si="33">+D177+1</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E178" s="14" t="s">
         <v>214</v>
       </c>
       <c r="F178" s="6">
-        <f t="shared" ref="F178:F182" si="34">+G177</f>
+        <f t="shared" si="15"/>
         <v>22.42</v>
       </c>
       <c r="G178" s="6">
@@ -5784,14 +5835,14 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="E179" s="14" t="s">
         <v>215</v>
       </c>
       <c r="F179" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="15"/>
         <v>29.52</v>
       </c>
       <c r="G179" s="6">
@@ -5804,14 +5855,14 @@
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="E180" s="14" t="s">
         <v>216</v>
       </c>
       <c r="F180" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="15"/>
         <v>37.020000000000003</v>
       </c>
       <c r="G180" s="6">
@@ -5824,14 +5875,14 @@
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="E181" s="14" t="s">
         <v>217</v>
       </c>
       <c r="F181" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="15"/>
         <v>45.22</v>
       </c>
       <c r="G181" s="6">
@@ -5844,14 +5895,14 @@
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E182" s="14" t="s">
         <v>218</v>
       </c>
       <c r="F182" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="15"/>
         <v>48.55</v>
       </c>
       <c r="G182" s="6">
@@ -5921,14 +5972,14 @@
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="4">
-        <f t="shared" ref="D186:D187" si="35">+D185+1</f>
+        <f>+D185+1</f>
         <v>3</v>
       </c>
       <c r="E186" s="15" t="s">
         <v>222</v>
       </c>
       <c r="F186" s="6">
-        <f t="shared" ref="F186:F187" si="36">+G185</f>
+        <f>+G185</f>
         <v>9.34</v>
       </c>
       <c r="G186" s="6"/>
@@ -5939,14 +5990,14 @@
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="4">
-        <f t="shared" si="35"/>
+        <f>+D186+1</f>
         <v>4</v>
       </c>
       <c r="E187" s="15" t="s">
         <v>223</v>
       </c>
       <c r="F187" s="6">
-        <f t="shared" si="36"/>
+        <f>+G186</f>
         <v>0</v>
       </c>
       <c r="G187" s="6"/>
@@ -7225,7 +7276,7 @@
         <v>242</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" ref="F18:F20" si="0">+G17</f>
+        <f>+G17</f>
         <v>28.52</v>
       </c>
       <c r="G18" s="16">
@@ -7239,14 +7290,14 @@
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:D20" si="1">+D18+1</f>
+        <f>+D18+1</f>
         <v>4</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>243</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="0"/>
+        <f>+G18</f>
         <v>40.450000000000003</v>
       </c>
       <c r="G19" s="16">
@@ -7260,14 +7311,14 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4">
-        <f t="shared" si="1"/>
+        <f>+D19+1</f>
         <v>5</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>244</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="0"/>
+        <f>+G19</f>
         <v>50.25</v>
       </c>
       <c r="G20" s="20" t="s">
@@ -7427,7 +7478,7 @@
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="4">
-        <f t="shared" ref="D28:D29" si="2">+D27+1</f>
+        <f>+D27+1</f>
         <v>3</v>
       </c>
       <c r="E28" s="23" t="s">
@@ -7450,7 +7501,7 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="4">
-        <f t="shared" si="2"/>
+        <f>+D28+1</f>
         <v>4</v>
       </c>
       <c r="E29" s="23" t="s">
@@ -7532,7 +7583,7 @@
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="4">
-        <f t="shared" ref="D33:D34" si="3">+D32+1</f>
+        <f>+D32+1</f>
         <v>3</v>
       </c>
       <c r="E33" s="24" t="s">
@@ -7555,7 +7606,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="4">
-        <f t="shared" si="3"/>
+        <f>+D33+1</f>
         <v>4</v>
       </c>
       <c r="E34" s="15"/>
@@ -7628,7 +7679,7 @@
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="4">
-        <f t="shared" ref="D38" si="4">+D37+1</f>
+        <f>+D37+1</f>
         <v>3</v>
       </c>
       <c r="E38" s="25" t="s">
@@ -7710,7 +7761,7 @@
       <c r="B42" s="22"/>
       <c r="C42" s="15"/>
       <c r="D42" s="4">
-        <f t="shared" ref="D42" si="5">+D41+1</f>
+        <f>+D41+1</f>
         <v>3</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -7794,7 +7845,7 @@
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="4">
-        <f t="shared" ref="D46:D47" si="6">+D45+1</f>
+        <f>+D45+1</f>
         <v>3</v>
       </c>
       <c r="E46" s="30" t="s">
@@ -7814,7 +7865,7 @@
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="4">
-        <f t="shared" si="6"/>
+        <f>+D46+1</f>
         <v>4</v>
       </c>
       <c r="E47" s="30" t="s">
@@ -7896,14 +7947,14 @@
       <c r="B51" s="22"/>
       <c r="C51" s="15"/>
       <c r="D51" s="4">
-        <f t="shared" ref="D51:D52" si="7">+D50+1</f>
+        <f>+D50+1</f>
         <v>3</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F51" s="16">
-        <f t="shared" ref="F51:F52" si="8">+G50</f>
+        <f>+G50</f>
         <v>39.19</v>
       </c>
       <c r="G51" s="16">
@@ -7917,14 +7968,14 @@
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="4">
-        <f t="shared" si="7"/>
+        <f>+D51+1</f>
         <v>4</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>283</v>
       </c>
       <c r="F52" s="16">
-        <f t="shared" si="8"/>
+        <f>+G51</f>
         <v>51.29</v>
       </c>
       <c r="G52" s="16">
@@ -7999,14 +8050,14 @@
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="4">
-        <f t="shared" ref="D56:D59" si="9">+D55+1</f>
+        <f>+D55+1</f>
         <v>3</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>288</v>
       </c>
       <c r="F56" s="16">
-        <f t="shared" ref="F56:F59" si="10">+G55</f>
+        <f>+G55</f>
         <v>18.27</v>
       </c>
       <c r="G56" s="16">
@@ -8020,14 +8071,14 @@
       <c r="B57" s="22"/>
       <c r="C57" s="15"/>
       <c r="D57" s="4">
-        <f t="shared" si="9"/>
+        <f>+D56+1</f>
         <v>4</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>289</v>
       </c>
       <c r="F57" s="16">
-        <f t="shared" si="10"/>
+        <f>+G56</f>
         <v>29.45</v>
       </c>
       <c r="G57" s="16">
@@ -8041,14 +8092,14 @@
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="4">
-        <f t="shared" si="9"/>
+        <f>+D57+1</f>
         <v>5</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>290</v>
       </c>
       <c r="F58" s="16">
-        <f t="shared" si="10"/>
+        <f>+G57</f>
         <v>37.47</v>
       </c>
       <c r="G58" s="16">
@@ -8062,14 +8113,14 @@
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="4">
-        <f t="shared" si="9"/>
+        <f>+D58+1</f>
         <v>6</v>
       </c>
       <c r="E59" s="31" t="s">
         <v>291</v>
       </c>
       <c r="F59" s="16">
-        <f t="shared" si="10"/>
+        <f>+G58</f>
         <v>47.54</v>
       </c>
       <c r="G59" s="16">
@@ -8155,7 +8206,7 @@
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="4">
-        <f t="shared" ref="D64:D66" si="11">+D63+1</f>
+        <f>+D63+1</f>
         <v>3</v>
       </c>
       <c r="E64" s="33" t="s">
@@ -8178,7 +8229,7 @@
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="4">
-        <f t="shared" si="11"/>
+        <f>+D64+1</f>
         <v>4</v>
       </c>
       <c r="E65" s="33" t="s">
@@ -8198,7 +8249,7 @@
       <c r="B66" s="22"/>
       <c r="C66" s="15"/>
       <c r="D66" s="4">
-        <f t="shared" si="11"/>
+        <f>+D65+1</f>
         <v>5</v>
       </c>
       <c r="E66" s="33" t="s">
@@ -8281,7 +8332,7 @@
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="4">
-        <f t="shared" ref="D70:D71" si="12">+D69+1</f>
+        <f>+D69+1</f>
         <v>3</v>
       </c>
       <c r="E70" s="35" t="s">
@@ -8302,7 +8353,7 @@
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
       <c r="D71" s="4">
-        <f t="shared" si="12"/>
+        <f>+D70+1</f>
         <v>4</v>
       </c>
       <c r="E71" s="35" t="s">
@@ -8382,14 +8433,14 @@
       <c r="B75" s="22"/>
       <c r="C75" s="15"/>
       <c r="D75" s="4">
-        <f t="shared" ref="D75:D78" si="13">+D74+1</f>
+        <f>+D74+1</f>
         <v>3</v>
       </c>
       <c r="E75" s="36" t="s">
         <v>310</v>
       </c>
       <c r="F75" s="16">
-        <f t="shared" ref="F75:F78" si="14">+G74</f>
+        <f>+G74</f>
         <v>19.149999999999999</v>
       </c>
       <c r="G75" s="16">
@@ -8403,14 +8454,14 @@
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
       <c r="D76" s="4">
-        <f t="shared" si="13"/>
+        <f>+D75+1</f>
         <v>4</v>
       </c>
       <c r="E76" s="36" t="s">
         <v>311</v>
       </c>
       <c r="F76" s="16">
-        <f t="shared" si="14"/>
+        <f>+G75</f>
         <v>26.33</v>
       </c>
       <c r="G76" s="16">
@@ -8424,14 +8475,14 @@
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
       <c r="D77" s="4">
-        <f t="shared" si="13"/>
+        <f>+D76+1</f>
         <v>5</v>
       </c>
       <c r="E77" s="36" t="s">
         <v>312</v>
       </c>
       <c r="F77" s="16">
-        <f t="shared" si="14"/>
+        <f>+G76</f>
         <v>33.119999999999997</v>
       </c>
       <c r="G77" s="16">
@@ -8445,14 +8496,14 @@
       <c r="B78" s="22"/>
       <c r="C78" s="15"/>
       <c r="D78" s="4">
-        <f t="shared" si="13"/>
+        <f>+D77+1</f>
         <v>6</v>
       </c>
       <c r="E78" s="36" t="s">
         <v>313</v>
       </c>
       <c r="F78" s="16">
-        <f t="shared" si="14"/>
+        <f>+G77</f>
         <v>40.14</v>
       </c>
       <c r="G78" s="16">
@@ -8527,7 +8578,7 @@
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
       <c r="D82" s="4">
-        <f t="shared" ref="D82" si="15">+D81+1</f>
+        <f>+D81+1</f>
         <v>3</v>
       </c>
       <c r="E82" s="37" t="s">
@@ -8600,7 +8651,7 @@
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
       <c r="D86" s="4">
-        <f t="shared" ref="D86:D87" si="16">+D85+1</f>
+        <f>+D85+1</f>
         <v>3</v>
       </c>
       <c r="E86" s="38" t="s">
@@ -8621,7 +8672,7 @@
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
       <c r="D87" s="4">
-        <f t="shared" si="16"/>
+        <f>+D86+1</f>
         <v>4</v>
       </c>
       <c r="E87" s="38" t="s">
@@ -8704,7 +8755,7 @@
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
       <c r="D91" s="4">
-        <f t="shared" ref="D91" si="17">+D90+1</f>
+        <f>+D90+1</f>
         <v>3</v>
       </c>
       <c r="E91" s="41" t="s">
@@ -8785,7 +8836,7 @@
       <c r="B95" s="38"/>
       <c r="C95" s="38"/>
       <c r="D95" s="4">
-        <f t="shared" ref="D95" si="18">+D94+1</f>
+        <f>+D94+1</f>
         <v>3</v>
       </c>
       <c r="E95" s="42" t="s">
@@ -8862,7 +8913,7 @@
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
       <c r="D99" s="4">
-        <f t="shared" ref="D99" si="19">+D98+1</f>
+        <f>+D98+1</f>
         <v>3</v>
       </c>
       <c r="E99" s="43" t="s">
@@ -8942,7 +8993,7 @@
       <c r="B103" s="38"/>
       <c r="C103" s="38"/>
       <c r="D103" s="4">
-        <f t="shared" ref="D103" si="20">+D102+1</f>
+        <f>+D102+1</f>
         <v>3</v>
       </c>
       <c r="E103" s="44" t="s">
@@ -9022,7 +9073,7 @@
       <c r="B107" s="38"/>
       <c r="C107" s="38"/>
       <c r="D107" s="4">
-        <f t="shared" ref="D107:D108" si="21">+D106+1</f>
+        <f>+D106+1</f>
         <v>3</v>
       </c>
       <c r="E107" s="45" t="s">
@@ -9045,7 +9096,7 @@
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
       <c r="D108" s="4">
-        <f t="shared" si="21"/>
+        <f>+D107+1</f>
         <v>4</v>
       </c>
       <c r="E108" s="45" t="s">
@@ -9126,7 +9177,7 @@
       <c r="B112" s="38"/>
       <c r="C112" s="38"/>
       <c r="D112" s="4">
-        <f t="shared" ref="D112" si="22">+D111+1</f>
+        <f>+D111+1</f>
         <v>3</v>
       </c>
       <c r="E112" s="47" t="s">
@@ -9208,7 +9259,7 @@
       <c r="B116" s="38"/>
       <c r="C116" s="38"/>
       <c r="D116" s="4">
-        <f t="shared" ref="D116:D117" si="23">+D115+1</f>
+        <f>+D115+1</f>
         <v>3</v>
       </c>
       <c r="E116" s="49" t="s">
@@ -9229,7 +9280,7 @@
       <c r="B117" s="38"/>
       <c r="C117" s="38"/>
       <c r="D117" s="4">
-        <f t="shared" si="23"/>
+        <f>+D116+1</f>
         <v>4</v>
       </c>
       <c r="E117" s="49" t="s">
@@ -9313,7 +9364,7 @@
       <c r="B121" s="38"/>
       <c r="C121" s="38"/>
       <c r="D121" s="4">
-        <f t="shared" ref="D121" si="24">+D120+1</f>
+        <f>+D120+1</f>
         <v>3</v>
       </c>
       <c r="E121" s="50" t="s">
@@ -9391,7 +9442,7 @@
       <c r="B125" s="38"/>
       <c r="C125" s="38"/>
       <c r="D125" s="4">
-        <f t="shared" ref="D125" si="25">+D124+1</f>
+        <f>+D124+1</f>
         <v>3</v>
       </c>
       <c r="E125" s="53" t="s">
@@ -9473,7 +9524,7 @@
       <c r="B129" s="38"/>
       <c r="C129" s="38"/>
       <c r="D129" s="4">
-        <f t="shared" ref="D129:D130" si="26">+D128+1</f>
+        <f>+D128+1</f>
         <v>3</v>
       </c>
       <c r="E129" s="53" t="s">
@@ -9493,7 +9544,7 @@
       <c r="B130" s="38"/>
       <c r="C130" s="38"/>
       <c r="D130" s="4">
-        <f t="shared" si="26"/>
+        <f>+D129+1</f>
         <v>4</v>
       </c>
       <c r="E130" s="53" t="s">
@@ -9554,8 +9605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9675,7 +9726,7 @@
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="4">
-        <f t="shared" ref="D6:D7" si="0">+D5+1</f>
+        <f>+D5+1</f>
         <v>3</v>
       </c>
       <c r="E6" s="53" t="s">
@@ -9695,7 +9746,7 @@
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
+        <f>+D6+1</f>
         <v>4</v>
       </c>
       <c r="E7" s="53" t="s">
@@ -9774,7 +9825,7 @@
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
       <c r="D11" s="59">
-        <f t="shared" ref="D11:D13" si="1">+D10+1</f>
+        <f>+D10+1</f>
         <v>3</v>
       </c>
       <c r="E11" s="57" t="s">
@@ -9799,7 +9850,7 @@
       <c r="B12" s="57"/>
       <c r="C12" s="57"/>
       <c r="D12" s="59">
-        <f t="shared" si="1"/>
+        <f>+D11+1</f>
         <v>4</v>
       </c>
       <c r="E12" s="57" t="s">
@@ -9824,7 +9875,7 @@
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="D13" s="59">
-        <f t="shared" si="1"/>
+        <f>+D12+1</f>
         <v>5</v>
       </c>
       <c r="E13" s="57" t="s">
@@ -9920,14 +9971,14 @@
       <c r="B17" s="57"/>
       <c r="C17" s="57"/>
       <c r="D17" s="59">
-        <f t="shared" ref="D17:D18" si="2">+D16+1</f>
+        <f>+D16+1</f>
         <v>3</v>
       </c>
       <c r="E17" s="61" t="s">
         <v>386</v>
       </c>
       <c r="F17" s="57">
-        <f t="shared" ref="F17:F18" si="3">+G16</f>
+        <f>+G16</f>
         <v>24.02</v>
       </c>
       <c r="G17" s="57">
@@ -9945,14 +9996,14 @@
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
       <c r="D18" s="59">
-        <f t="shared" si="2"/>
+        <f>+D17+1</f>
         <v>4</v>
       </c>
       <c r="E18" s="61" t="s">
         <v>387</v>
       </c>
       <c r="F18" s="57">
-        <f t="shared" si="3"/>
+        <f>+G17</f>
         <v>34.520000000000003</v>
       </c>
       <c r="G18" s="57">
@@ -10043,7 +10094,7 @@
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
       <c r="D22" s="59">
-        <f t="shared" ref="D22:D23" si="4">+D21+1</f>
+        <f>+D21+1</f>
         <v>3</v>
       </c>
       <c r="E22" s="62" t="s">
@@ -10067,14 +10118,14 @@
       <c r="B23" s="57"/>
       <c r="C23" s="57"/>
       <c r="D23" s="59">
-        <f t="shared" si="4"/>
+        <f>+D22+1</f>
         <v>4</v>
       </c>
       <c r="E23" s="62" t="s">
         <v>392</v>
       </c>
       <c r="F23" s="57">
-        <f t="shared" ref="F23" si="5">+G22</f>
+        <f>+G22</f>
         <v>48.35</v>
       </c>
       <c r="G23" s="57">
@@ -10163,14 +10214,14 @@
       <c r="B27" s="57"/>
       <c r="C27" s="57"/>
       <c r="D27" s="59">
-        <f t="shared" ref="D27" si="6">+D26+1</f>
+        <f>+D26+1</f>
         <v>3</v>
       </c>
       <c r="E27" s="63" t="s">
         <v>397</v>
       </c>
       <c r="F27" s="57">
-        <f t="shared" ref="F27" si="7">+G26</f>
+        <f>+G26</f>
         <v>35.03</v>
       </c>
       <c r="G27" s="57">
@@ -10259,7 +10310,7 @@
       <c r="B31" s="57"/>
       <c r="C31" s="57"/>
       <c r="D31" s="59">
-        <f t="shared" ref="D31:D32" si="8">+D30+1</f>
+        <f>+D30+1</f>
         <v>3</v>
       </c>
       <c r="E31" s="64" t="s">
@@ -10284,7 +10335,7 @@
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
       <c r="D32" s="59">
-        <f t="shared" si="8"/>
+        <f>+D31+1</f>
         <v>4</v>
       </c>
       <c r="E32" s="64" t="s">
@@ -10357,14 +10408,14 @@
       <c r="B35" s="57"/>
       <c r="C35" s="57"/>
       <c r="D35" s="59">
-        <f>+D34+1</f>
+        <f t="shared" ref="D35:D40" si="0">+D34+1</f>
         <v>2</v>
       </c>
       <c r="E35" s="65" t="s">
         <v>406</v>
       </c>
       <c r="F35" s="57">
-        <f>+G34</f>
+        <f t="shared" ref="F35:F40" si="1">+G34</f>
         <v>14.58</v>
       </c>
       <c r="G35" s="57">
@@ -10382,14 +10433,14 @@
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
       <c r="D36" s="59">
-        <f t="shared" ref="D36:D40" si="9">+D35+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E36" s="65" t="s">
         <v>407</v>
       </c>
       <c r="F36" s="57">
-        <f>+G35</f>
+        <f t="shared" si="1"/>
         <v>23.14</v>
       </c>
       <c r="G36" s="57">
@@ -10407,14 +10458,14 @@
       <c r="B37" s="57"/>
       <c r="C37" s="57"/>
       <c r="D37" s="59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>408</v>
       </c>
       <c r="F37" s="57">
-        <f t="shared" ref="F37:F39" si="10">+G36</f>
+        <f t="shared" si="1"/>
         <v>31.34</v>
       </c>
       <c r="G37" s="57">
@@ -10432,14 +10483,14 @@
       <c r="B38" s="57"/>
       <c r="C38" s="57"/>
       <c r="D38" s="59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>409</v>
       </c>
       <c r="F38" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>37.49</v>
       </c>
       <c r="G38" s="57">
@@ -10457,14 +10508,14 @@
       <c r="B39" s="57"/>
       <c r="C39" s="57"/>
       <c r="D39" s="59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>410</v>
       </c>
       <c r="F39" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>42.54</v>
       </c>
       <c r="G39" s="57">
@@ -10482,14 +10533,14 @@
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
       <c r="D40" s="59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E40" s="65" t="s">
         <v>411</v>
       </c>
       <c r="F40" s="57">
-        <f>+G39</f>
+        <f t="shared" si="1"/>
         <v>51.23</v>
       </c>
       <c r="G40" s="57">
@@ -10580,14 +10631,14 @@
       <c r="B44" s="57"/>
       <c r="C44" s="57"/>
       <c r="D44" s="59">
-        <f t="shared" ref="D44:D46" si="11">+D43+1</f>
+        <f>+D43+1</f>
         <v>3</v>
       </c>
       <c r="E44" s="66" t="s">
         <v>415</v>
       </c>
       <c r="F44" s="60">
-        <f t="shared" ref="F44:F46" si="12">+G43</f>
+        <f>+G43</f>
         <v>23.34</v>
       </c>
       <c r="G44" s="57">
@@ -10605,14 +10656,14 @@
       <c r="B45" s="57"/>
       <c r="C45" s="57"/>
       <c r="D45" s="59">
-        <f t="shared" si="11"/>
+        <f>+D44+1</f>
         <v>4</v>
       </c>
       <c r="E45" s="66" t="s">
         <v>416</v>
       </c>
       <c r="F45" s="60">
-        <f t="shared" si="12"/>
+        <f>+G44</f>
         <v>32.47</v>
       </c>
       <c r="G45" s="57">
@@ -10630,14 +10681,14 @@
       <c r="B46" s="57"/>
       <c r="C46" s="57"/>
       <c r="D46" s="59">
-        <f t="shared" si="11"/>
+        <f>+D45+1</f>
         <v>5</v>
       </c>
       <c r="E46" s="66" t="s">
         <v>417</v>
       </c>
       <c r="F46" s="60">
-        <f t="shared" si="12"/>
+        <f>+G45</f>
         <v>41.09</v>
       </c>
       <c r="G46" s="57">
@@ -10726,7 +10777,7 @@
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
       <c r="D50" s="59">
-        <f t="shared" ref="D50:D51" si="13">+D49+1</f>
+        <f>+D49+1</f>
         <v>3</v>
       </c>
       <c r="E50" s="67" t="s">
@@ -10751,7 +10802,7 @@
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
       <c r="D51" s="59">
-        <f t="shared" si="13"/>
+        <f>+D50+1</f>
         <v>4</v>
       </c>
       <c r="E51" s="67" t="s">
@@ -10848,14 +10899,14 @@
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
       <c r="D55" s="59">
-        <f t="shared" ref="D55:D58" si="14">+D54+1</f>
+        <f>+D54+1</f>
         <v>3</v>
       </c>
       <c r="E55" s="69" t="s">
         <v>431</v>
       </c>
       <c r="F55" s="57">
-        <f t="shared" ref="F55:F57" si="15">+G54</f>
+        <f>+G54</f>
         <v>22.19</v>
       </c>
       <c r="G55" s="57">
@@ -10873,14 +10924,14 @@
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
       <c r="D56" s="59">
-        <f t="shared" si="14"/>
+        <f>+D55+1</f>
         <v>4</v>
       </c>
       <c r="E56" s="69" t="s">
         <v>432</v>
       </c>
       <c r="F56" s="57">
-        <f t="shared" si="15"/>
+        <f>+G55</f>
         <v>46.27</v>
       </c>
       <c r="G56" s="57">
@@ -10898,14 +10949,14 @@
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
       <c r="D57" s="59">
-        <f t="shared" si="14"/>
+        <f>+D56+1</f>
         <v>5</v>
       </c>
       <c r="E57" s="69" t="s">
         <v>425</v>
       </c>
       <c r="F57" s="57">
-        <f t="shared" si="15"/>
+        <f>+G56</f>
         <v>50.19</v>
       </c>
       <c r="G57" s="57">
@@ -10923,7 +10974,7 @@
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
       <c r="D58" s="59">
-        <f t="shared" si="14"/>
+        <f>+D57+1</f>
         <v>6</v>
       </c>
       <c r="E58" s="69" t="s">
@@ -11021,14 +11072,14 @@
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
       <c r="D62" s="59">
-        <f t="shared" ref="D62:D63" si="16">+D61+1</f>
+        <f>+D61+1</f>
         <v>3</v>
       </c>
       <c r="E62" s="69" t="s">
         <v>428</v>
       </c>
       <c r="F62" s="57">
-        <f t="shared" ref="F62:F63" si="17">+G61</f>
+        <f>+G61</f>
         <v>24.12</v>
       </c>
       <c r="G62" s="57">
@@ -11043,14 +11094,14 @@
     </row>
     <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="D63" s="59">
-        <f t="shared" si="16"/>
+        <f>+D62+1</f>
         <v>4</v>
       </c>
       <c r="E63" s="69" t="s">
         <v>429</v>
       </c>
       <c r="F63" s="57">
-        <f t="shared" si="17"/>
+        <f>+G62</f>
         <v>48.37</v>
       </c>
       <c r="G63" s="70">
@@ -11124,7 +11175,7 @@
       <c r="B67" s="71"/>
       <c r="C67" s="71"/>
       <c r="D67" s="59">
-        <f t="shared" ref="D67:D68" si="18">+D66+1</f>
+        <f>+D66+1</f>
         <v>3</v>
       </c>
       <c r="E67" s="71" t="s">
@@ -11145,7 +11196,7 @@
       <c r="B68" s="71"/>
       <c r="C68" s="71"/>
       <c r="D68" s="59">
-        <f t="shared" si="18"/>
+        <f>+D67+1</f>
         <v>4</v>
       </c>
       <c r="E68" s="71" t="s">
@@ -11158,7 +11209,9 @@
       <c r="G68" s="71">
         <v>56.51</v>
       </c>
-      <c r="H68" s="71"/>
+      <c r="H68" s="73" t="s">
+        <v>440</v>
+      </c>
       <c r="I68" s="71"/>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -11173,24 +11226,50 @@
       <c r="I69" s="71"/>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
+      <c r="A70" s="71">
+        <v>13</v>
+      </c>
+      <c r="B70" s="72">
+        <v>44082</v>
+      </c>
+      <c r="C70" s="71">
+        <v>57.25</v>
+      </c>
+      <c r="D70" s="59">
+        <v>1</v>
+      </c>
+      <c r="E70" s="73" t="s">
+        <v>442</v>
+      </c>
+      <c r="F70" s="71">
+        <v>5.35</v>
+      </c>
+      <c r="G70" s="71">
+        <v>20.28</v>
+      </c>
       <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
+      <c r="I70" s="71" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="71"/>
       <c r="B71" s="71"/>
       <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
+      <c r="D71" s="59">
+        <f>+D70+1</f>
+        <v>2</v>
+      </c>
+      <c r="E71" s="73" t="s">
+        <v>443</v>
+      </c>
+      <c r="F71" s="71">
+        <f>+G70</f>
+        <v>20.28</v>
+      </c>
+      <c r="G71" s="71">
+        <v>35.229999999999997</v>
+      </c>
       <c r="H71" s="71"/>
       <c r="I71" s="71"/>
     </row>
@@ -11198,10 +11277,20 @@
       <c r="A72" s="71"/>
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
+      <c r="D72" s="59">
+        <f>+D71+1</f>
+        <v>3</v>
+      </c>
+      <c r="E72" s="73" t="s">
+        <v>444</v>
+      </c>
+      <c r="F72" s="71">
+        <f>+G71</f>
+        <v>35.229999999999997</v>
+      </c>
+      <c r="G72" s="71">
+        <v>42.43</v>
+      </c>
       <c r="H72" s="71"/>
       <c r="I72" s="71"/>
     </row>
@@ -11209,10 +11298,20 @@
       <c r="A73" s="71"/>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
+      <c r="D73" s="59">
+        <f>+D72+1</f>
+        <v>4</v>
+      </c>
+      <c r="E73" s="73" t="s">
+        <v>445</v>
+      </c>
+      <c r="F73" s="71">
+        <f>+G72</f>
+        <v>42.43</v>
+      </c>
+      <c r="G73" s="71">
+        <v>56.26</v>
+      </c>
       <c r="H73" s="71"/>
       <c r="I73" s="71"/>
     </row>
@@ -11228,24 +11327,50 @@
       <c r="I74" s="71"/>
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
+      <c r="A75" s="71">
+        <v>14</v>
+      </c>
+      <c r="B75" s="72">
+        <v>44083</v>
+      </c>
+      <c r="C75" s="71">
+        <v>55.46</v>
+      </c>
+      <c r="D75" s="59">
+        <v>1</v>
+      </c>
+      <c r="E75" s="74" t="s">
+        <v>446</v>
+      </c>
+      <c r="F75" s="71">
+        <v>4.03</v>
+      </c>
+      <c r="G75" s="71">
+        <v>13.21</v>
+      </c>
       <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
+      <c r="I75" s="71" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="71"/>
       <c r="B76" s="71"/>
       <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
+      <c r="D76" s="59">
+        <f>+D75+1</f>
+        <v>2</v>
+      </c>
+      <c r="E76" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="F76" s="71">
+        <f>+G75</f>
+        <v>13.21</v>
+      </c>
+      <c r="G76" s="71">
+        <v>21.37</v>
+      </c>
       <c r="H76" s="71"/>
       <c r="I76" s="71"/>
     </row>
@@ -11253,10 +11378,20 @@
       <c r="A77" s="71"/>
       <c r="B77" s="71"/>
       <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
+      <c r="D77" s="59">
+        <f>+D76+1</f>
+        <v>3</v>
+      </c>
+      <c r="E77" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="F77" s="71">
+        <f>+G76</f>
+        <v>21.37</v>
+      </c>
+      <c r="G77" s="71">
+        <v>31.33</v>
+      </c>
       <c r="H77" s="71"/>
       <c r="I77" s="71"/>
     </row>
@@ -11264,10 +11399,20 @@
       <c r="A78" s="71"/>
       <c r="B78" s="71"/>
       <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
+      <c r="D78" s="59">
+        <f>+D77+1</f>
+        <v>4</v>
+      </c>
+      <c r="E78" s="74" t="s">
+        <v>450</v>
+      </c>
+      <c r="F78" s="71">
+        <f>+G77</f>
+        <v>31.33</v>
+      </c>
+      <c r="G78" s="71">
+        <v>36.450000000000003</v>
+      </c>
       <c r="H78" s="71"/>
       <c r="I78" s="71"/>
     </row>
@@ -11275,10 +11420,20 @@
       <c r="A79" s="71"/>
       <c r="B79" s="71"/>
       <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
+      <c r="D79" s="59">
+        <f>+D78+1</f>
+        <v>5</v>
+      </c>
+      <c r="E79" s="74" t="s">
+        <v>451</v>
+      </c>
+      <c r="F79" s="71">
+        <f>+G78</f>
+        <v>36.450000000000003</v>
+      </c>
+      <c r="G79" s="71">
+        <v>46.44</v>
+      </c>
       <c r="H79" s="71"/>
       <c r="I79" s="71"/>
     </row>
@@ -11286,10 +11441,20 @@
       <c r="A80" s="71"/>
       <c r="B80" s="71"/>
       <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
+      <c r="D80" s="59">
+        <f>+D79+1</f>
+        <v>6</v>
+      </c>
+      <c r="E80" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="F80" s="71">
+        <f>+G79</f>
+        <v>46.44</v>
+      </c>
+      <c r="G80" s="71">
+        <v>55.12</v>
+      </c>
       <c r="H80" s="71"/>
       <c r="I80" s="71"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
     <sheet name="Kandam2" sheetId="2" r:id="rId2"/>
     <sheet name="Kandam3" sheetId="3" r:id="rId3"/>
+    <sheet name="Kandam4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="457">
   <si>
     <t>Date</t>
   </si>
@@ -1376,19 +1376,37 @@
   </si>
   <si>
     <t>3.5.10.1</t>
+  </si>
+  <si>
+    <t>3.5.11.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ashEiCEpYPQ</t>
+  </si>
+  <si>
+    <t>4.1.1.1</t>
+  </si>
+  <si>
+    <t>4.1.2.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1729,78 +1747,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="50" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="51" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1809,10 +1828,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -9605,8 +9624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11470,21 +11489,40 @@
       <c r="I81" s="71"/>
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
+      <c r="A82" s="71">
+        <v>15</v>
+      </c>
+      <c r="B82" s="72">
+        <v>44084</v>
+      </c>
+      <c r="C82" s="71">
+        <v>55.27</v>
+      </c>
+      <c r="D82" s="59">
+        <v>1</v>
+      </c>
+      <c r="E82" s="75" t="s">
+        <v>453</v>
+      </c>
+      <c r="F82" s="71">
+        <v>4.05</v>
+      </c>
+      <c r="G82" s="71">
+        <v>21.12</v>
+      </c>
       <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
+      <c r="I82" s="71" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="71"/>
       <c r="B83" s="71"/>
       <c r="C83" s="71"/>
-      <c r="D83" s="71"/>
+      <c r="D83" s="59">
+        <f>+D82+1</f>
+        <v>2</v>
+      </c>
       <c r="E83" s="71"/>
       <c r="F83" s="71"/>
       <c r="G83" s="71"/>
@@ -11495,7 +11533,10 @@
       <c r="A84" s="71"/>
       <c r="B84" s="71"/>
       <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
+      <c r="D84" s="59">
+        <f>+D83+1</f>
+        <v>3</v>
+      </c>
       <c r="E84" s="71"/>
       <c r="F84" s="71"/>
       <c r="G84" s="71"/>
@@ -11506,7 +11547,10 @@
       <c r="A85" s="71"/>
       <c r="B85" s="71"/>
       <c r="C85" s="71"/>
-      <c r="D85" s="71"/>
+      <c r="D85" s="59">
+        <f>+D84+1</f>
+        <v>4</v>
+      </c>
       <c r="E85" s="71"/>
       <c r="F85" s="71"/>
       <c r="G85" s="71"/>
@@ -11517,7 +11561,10 @@
       <c r="A86" s="71"/>
       <c r="B86" s="71"/>
       <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
+      <c r="D86" s="59">
+        <f>+D85+1</f>
+        <v>5</v>
+      </c>
       <c r="E86" s="71"/>
       <c r="F86" s="71"/>
       <c r="G86" s="71"/>
@@ -11671,4 +11718,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="71">
+        <v>15</v>
+      </c>
+      <c r="B4" s="72">
+        <v>44084</v>
+      </c>
+      <c r="C4" s="71">
+        <v>55.27</v>
+      </c>
+      <c r="D4" s="54">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" s="55">
+        <v>4.05</v>
+      </c>
+      <c r="G4" s="55">
+        <v>21.12</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="59">
+        <f>+D4+1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>455</v>
+      </c>
+      <c r="F5" s="71">
+        <v>27.12</v>
+      </c>
+      <c r="G5" s="71">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="59">
+        <f>+D5+1</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>456</v>
+      </c>
+      <c r="F6" s="71">
+        <f>+G5</f>
+        <v>40.380000000000003</v>
+      </c>
+      <c r="G6" s="71">
+        <v>54.28</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="466">
   <si>
     <t>Date</t>
   </si>
@@ -1388,19 +1388,52 @@
   </si>
   <si>
     <t>4.1.2.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7mi0xnXWass</t>
+  </si>
+  <si>
+    <t>4.1.2.5</t>
+  </si>
+  <si>
+    <t>4.1.2.4</t>
+  </si>
+  <si>
+    <t>4.1.3.1</t>
+  </si>
+  <si>
+    <t>4.1.4.1</t>
+  </si>
+  <si>
+    <t>4.1.5.1</t>
+  </si>
+  <si>
+    <t>4.1.6.1</t>
+  </si>
+  <si>
+    <t>4.1.6.2</t>
+  </si>
+  <si>
+    <t>4.1.6.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1747,78 +1780,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="51" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="51" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="52" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1827,13 +1861,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11722,10 +11757,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11790,7 +11825,7 @@
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="71">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B4" s="72">
         <v>44084</v>
@@ -11855,7 +11890,9 @@
       <c r="G6" s="71">
         <v>54.28</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="76" t="s">
+        <v>459</v>
+      </c>
       <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -11870,15 +11907,1828 @@
       <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
+      <c r="A8" s="71">
+        <v>2</v>
+      </c>
+      <c r="B8" s="72">
+        <v>44085</v>
+      </c>
+      <c r="C8" s="71">
+        <v>47.46</v>
+      </c>
+      <c r="D8" s="59">
+        <v>1</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" s="71">
+        <v>3.14</v>
+      </c>
+      <c r="G8" s="71">
+        <v>7.38</v>
+      </c>
       <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="I8" s="71" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="59">
+        <f>+D8+1</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>460</v>
+      </c>
+      <c r="F9" s="76">
+        <f>+G8</f>
+        <v>7.38</v>
+      </c>
+      <c r="G9" s="76">
+        <v>18.04</v>
+      </c>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="59">
+        <f>+D9+1</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>461</v>
+      </c>
+      <c r="F10" s="76">
+        <f>+G9</f>
+        <v>18.04</v>
+      </c>
+      <c r="G10" s="76">
+        <v>28.02</v>
+      </c>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="59">
+        <f t="shared" ref="D11:D12" si="0">+D10+1</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>462</v>
+      </c>
+      <c r="F11" s="76">
+        <f t="shared" ref="F11:F12" si="1">+G10</f>
+        <v>28.02</v>
+      </c>
+      <c r="G11" s="76">
+        <v>39.47</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>463</v>
+      </c>
+      <c r="F12" s="76">
+        <f t="shared" si="1"/>
+        <v>39.47</v>
+      </c>
+      <c r="G12" s="76">
+        <v>46.36</v>
+      </c>
+      <c r="H12" s="76" t="s">
+        <v>464</v>
+      </c>
+      <c r="I12" s="76"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="76">
+        <v>3</v>
+      </c>
+      <c r="B14" s="77">
+        <v>44086</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="59">
+        <v>1</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>465</v>
+      </c>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="59">
+        <f>+D14+1</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="59">
+        <f>+D15+1</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="59">
+        <f t="shared" ref="D17" si="2">+D16+1</f>
+        <v>4</v>
+      </c>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="76"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="76"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="76"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="76"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="76"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="76"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="76"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="76"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="76"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="76"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="76"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="76"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="76"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="76"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="76"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="76"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="76"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="76"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="76"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A58" s="76"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="76"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="76"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="76"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62" s="76"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" s="76"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="76"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="76"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="76"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="76"/>
+      <c r="B67" s="76"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76"/>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="76"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="76"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="76"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="76"/>
+      <c r="I70" s="76"/>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="76"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="76"/>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="76"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
+      <c r="I72" s="76"/>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="76"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="76"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="76"/>
+      <c r="I74" s="76"/>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="76"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="76"/>
+      <c r="I75" s="76"/>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="76"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="76"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="76"/>
+      <c r="I77" s="76"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="76"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="76"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="76"/>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="76"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76"/>
+    </row>
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A81" s="76"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76"/>
+    </row>
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A82" s="76"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="76"/>
+    </row>
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="76"/>
+      <c r="B83" s="76"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="76"/>
+      <c r="I83" s="76"/>
+    </row>
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="76"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="76"/>
+    </row>
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85" s="76"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+    </row>
+    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="76"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+    </row>
+    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87" s="76"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="76"/>
+    </row>
+    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A88" s="76"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="76"/>
+      <c r="I88" s="76"/>
+    </row>
+    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="76"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="76"/>
+      <c r="I89" s="76"/>
+    </row>
+    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90" s="76"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="76"/>
+    </row>
+    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91" s="76"/>
+      <c r="B91" s="76"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="76"/>
+      <c r="I91" s="76"/>
+    </row>
+    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92" s="76"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="76"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="76"/>
+      <c r="I92" s="76"/>
+    </row>
+    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A93" s="76"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="76"/>
+      <c r="I93" s="76"/>
+    </row>
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94" s="76"/>
+      <c r="B94" s="76"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="76"/>
+      <c r="I94" s="76"/>
+    </row>
+    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95" s="76"/>
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="76"/>
+      <c r="I95" s="76"/>
+    </row>
+    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A96" s="76"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="76"/>
+      <c r="I96" s="76"/>
+    </row>
+    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A97" s="76"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="76"/>
+      <c r="I97" s="76"/>
+    </row>
+    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98" s="76"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="76"/>
+      <c r="I98" s="76"/>
+    </row>
+    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A99" s="76"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76"/>
+    </row>
+    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A100" s="76"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+    </row>
+    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A101" s="76"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+    </row>
+    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" s="76"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+    </row>
+    <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A103" s="76"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+    </row>
+    <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A104" s="76"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+    </row>
+    <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A105" s="76"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+    </row>
+    <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A106" s="76"/>
+      <c r="B106" s="76"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+    </row>
+    <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A107" s="76"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76"/>
+    </row>
+    <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A108" s="76"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+    </row>
+    <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A109" s="76"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="76"/>
+    </row>
+    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A110" s="76"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+    </row>
+    <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A111" s="76"/>
+      <c r="B111" s="76"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+    </row>
+    <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A112" s="76"/>
+      <c r="B112" s="76"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+    </row>
+    <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A113" s="76"/>
+      <c r="B113" s="76"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+    </row>
+    <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A114" s="76"/>
+      <c r="B114" s="76"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+    </row>
+    <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A115" s="76"/>
+      <c r="B115" s="76"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+    </row>
+    <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A116" s="76"/>
+      <c r="B116" s="76"/>
+      <c r="C116" s="76"/>
+      <c r="D116" s="76"/>
+      <c r="E116" s="76"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="76"/>
+      <c r="I116" s="76"/>
+    </row>
+    <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A117" s="76"/>
+      <c r="B117" s="76"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="76"/>
+      <c r="E117" s="76"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="76"/>
+      <c r="I117" s="76"/>
+    </row>
+    <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A118" s="76"/>
+      <c r="B118" s="76"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="76"/>
+      <c r="E118" s="76"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="76"/>
+      <c r="I118" s="76"/>
+    </row>
+    <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A119" s="76"/>
+      <c r="B119" s="76"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="76"/>
+      <c r="F119" s="76"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="76"/>
+      <c r="I119" s="76"/>
+    </row>
+    <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A120" s="76"/>
+      <c r="B120" s="76"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="76"/>
+      <c r="I120" s="76"/>
+    </row>
+    <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A121" s="76"/>
+      <c r="B121" s="76"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="76"/>
+      <c r="I121" s="76"/>
+    </row>
+    <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A122" s="76"/>
+      <c r="B122" s="76"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="76"/>
+      <c r="I122" s="76"/>
+    </row>
+    <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A123" s="76"/>
+      <c r="B123" s="76"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="76"/>
+      <c r="G123" s="76"/>
+      <c r="H123" s="76"/>
+      <c r="I123" s="76"/>
+    </row>
+    <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A124" s="76"/>
+      <c r="B124" s="76"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="76"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="76"/>
+      <c r="I124" s="76"/>
+    </row>
+    <row r="125" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A125" s="76"/>
+      <c r="B125" s="76"/>
+      <c r="C125" s="76"/>
+      <c r="D125" s="76"/>
+      <c r="E125" s="76"/>
+      <c r="F125" s="76"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="76"/>
+      <c r="I125" s="76"/>
+    </row>
+    <row r="126" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A126" s="76"/>
+      <c r="B126" s="76"/>
+      <c r="C126" s="76"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="76"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="76"/>
+      <c r="I126" s="76"/>
+    </row>
+    <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A127" s="76"/>
+      <c r="B127" s="76"/>
+      <c r="C127" s="76"/>
+      <c r="D127" s="76"/>
+      <c r="E127" s="76"/>
+      <c r="F127" s="76"/>
+      <c r="G127" s="76"/>
+      <c r="H127" s="76"/>
+      <c r="I127" s="76"/>
+    </row>
+    <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A128" s="76"/>
+      <c r="B128" s="76"/>
+      <c r="C128" s="76"/>
+      <c r="D128" s="76"/>
+      <c r="E128" s="76"/>
+      <c r="F128" s="76"/>
+      <c r="G128" s="76"/>
+      <c r="H128" s="76"/>
+      <c r="I128" s="76"/>
+    </row>
+    <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A129" s="76"/>
+      <c r="B129" s="76"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="76"/>
+      <c r="F129" s="76"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="76"/>
+      <c r="I129" s="76"/>
+    </row>
+    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A130" s="76"/>
+      <c r="B130" s="76"/>
+      <c r="C130" s="76"/>
+      <c r="D130" s="76"/>
+      <c r="E130" s="76"/>
+      <c r="F130" s="76"/>
+      <c r="G130" s="76"/>
+      <c r="H130" s="76"/>
+      <c r="I130" s="76"/>
+    </row>
+    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A131" s="76"/>
+      <c r="B131" s="76"/>
+      <c r="C131" s="76"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="76"/>
+      <c r="F131" s="76"/>
+      <c r="G131" s="76"/>
+      <c r="H131" s="76"/>
+      <c r="I131" s="76"/>
+    </row>
+    <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A132" s="76"/>
+      <c r="B132" s="76"/>
+      <c r="C132" s="76"/>
+      <c r="D132" s="76"/>
+      <c r="E132" s="76"/>
+      <c r="F132" s="76"/>
+      <c r="G132" s="76"/>
+      <c r="H132" s="76"/>
+      <c r="I132" s="76"/>
+    </row>
+    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A133" s="76"/>
+      <c r="B133" s="76"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="76"/>
+      <c r="F133" s="76"/>
+      <c r="G133" s="76"/>
+      <c r="H133" s="76"/>
+      <c r="I133" s="76"/>
+    </row>
+    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A134" s="76"/>
+      <c r="B134" s="76"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="76"/>
+      <c r="E134" s="76"/>
+      <c r="F134" s="76"/>
+      <c r="G134" s="76"/>
+      <c r="H134" s="76"/>
+      <c r="I134" s="76"/>
+    </row>
+    <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A135" s="76"/>
+      <c r="B135" s="76"/>
+      <c r="C135" s="76"/>
+      <c r="D135" s="76"/>
+      <c r="E135" s="76"/>
+      <c r="F135" s="76"/>
+      <c r="G135" s="76"/>
+      <c r="H135" s="76"/>
+      <c r="I135" s="76"/>
+    </row>
+    <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A136" s="76"/>
+      <c r="B136" s="76"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="76"/>
+      <c r="E136" s="76"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="76"/>
+      <c r="H136" s="76"/>
+      <c r="I136" s="76"/>
+    </row>
+    <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A137" s="76"/>
+      <c r="B137" s="76"/>
+      <c r="C137" s="76"/>
+      <c r="D137" s="76"/>
+      <c r="E137" s="76"/>
+      <c r="F137" s="76"/>
+      <c r="G137" s="76"/>
+      <c r="H137" s="76"/>
+      <c r="I137" s="76"/>
+    </row>
+    <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A138" s="76"/>
+      <c r="B138" s="76"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="76"/>
+      <c r="E138" s="76"/>
+      <c r="F138" s="76"/>
+      <c r="G138" s="76"/>
+      <c r="H138" s="76"/>
+      <c r="I138" s="76"/>
+    </row>
+    <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A139" s="76"/>
+      <c r="B139" s="76"/>
+      <c r="C139" s="76"/>
+      <c r="D139" s="76"/>
+      <c r="E139" s="76"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="76"/>
+      <c r="I139" s="76"/>
+    </row>
+    <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A140" s="76"/>
+      <c r="B140" s="76"/>
+      <c r="C140" s="76"/>
+      <c r="D140" s="76"/>
+      <c r="E140" s="76"/>
+      <c r="F140" s="76"/>
+      <c r="G140" s="76"/>
+      <c r="H140" s="76"/>
+      <c r="I140" s="76"/>
+    </row>
+    <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A141" s="76"/>
+      <c r="B141" s="76"/>
+      <c r="C141" s="76"/>
+      <c r="D141" s="76"/>
+      <c r="E141" s="76"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="76"/>
+      <c r="I141" s="76"/>
+    </row>
+    <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A142" s="76"/>
+      <c r="B142" s="76"/>
+      <c r="C142" s="76"/>
+      <c r="D142" s="76"/>
+      <c r="E142" s="76"/>
+      <c r="F142" s="76"/>
+      <c r="G142" s="76"/>
+      <c r="H142" s="76"/>
+      <c r="I142" s="76"/>
+    </row>
+    <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A143" s="76"/>
+      <c r="B143" s="76"/>
+      <c r="C143" s="76"/>
+      <c r="D143" s="76"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="76"/>
+      <c r="G143" s="76"/>
+      <c r="H143" s="76"/>
+      <c r="I143" s="76"/>
+    </row>
+    <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A144" s="76"/>
+      <c r="B144" s="76"/>
+      <c r="C144" s="76"/>
+      <c r="D144" s="76"/>
+      <c r="E144" s="76"/>
+      <c r="F144" s="76"/>
+      <c r="G144" s="76"/>
+      <c r="H144" s="76"/>
+      <c r="I144" s="76"/>
+    </row>
+    <row r="145" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A145" s="76"/>
+      <c r="B145" s="76"/>
+      <c r="C145" s="76"/>
+      <c r="D145" s="76"/>
+      <c r="E145" s="76"/>
+      <c r="F145" s="76"/>
+      <c r="G145" s="76"/>
+      <c r="H145" s="76"/>
+      <c r="I145" s="76"/>
+    </row>
+    <row r="146" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A146" s="76"/>
+      <c r="B146" s="76"/>
+      <c r="C146" s="76"/>
+      <c r="D146" s="76"/>
+      <c r="E146" s="76"/>
+      <c r="F146" s="76"/>
+      <c r="G146" s="76"/>
+      <c r="H146" s="76"/>
+      <c r="I146" s="76"/>
+    </row>
+    <row r="147" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A147" s="76"/>
+      <c r="B147" s="76"/>
+      <c r="C147" s="76"/>
+      <c r="D147" s="76"/>
+      <c r="E147" s="76"/>
+      <c r="F147" s="76"/>
+      <c r="G147" s="76"/>
+      <c r="H147" s="76"/>
+      <c r="I147" s="76"/>
+    </row>
+    <row r="148" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A148" s="76"/>
+      <c r="B148" s="76"/>
+      <c r="C148" s="76"/>
+      <c r="D148" s="76"/>
+      <c r="E148" s="76"/>
+      <c r="F148" s="76"/>
+      <c r="G148" s="76"/>
+      <c r="H148" s="76"/>
+      <c r="I148" s="76"/>
+    </row>
+    <row r="149" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A149" s="76"/>
+      <c r="B149" s="76"/>
+      <c r="C149" s="76"/>
+      <c r="D149" s="76"/>
+      <c r="E149" s="76"/>
+      <c r="F149" s="76"/>
+      <c r="G149" s="76"/>
+      <c r="H149" s="76"/>
+      <c r="I149" s="76"/>
+    </row>
+    <row r="150" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A150" s="76"/>
+      <c r="B150" s="76"/>
+      <c r="C150" s="76"/>
+      <c r="D150" s="76"/>
+      <c r="E150" s="76"/>
+      <c r="F150" s="76"/>
+      <c r="G150" s="76"/>
+      <c r="H150" s="76"/>
+      <c r="I150" s="76"/>
+    </row>
+    <row r="151" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A151" s="76"/>
+      <c r="B151" s="76"/>
+      <c r="C151" s="76"/>
+      <c r="D151" s="76"/>
+      <c r="E151" s="76"/>
+      <c r="F151" s="76"/>
+      <c r="G151" s="76"/>
+      <c r="H151" s="76"/>
+      <c r="I151" s="76"/>
+    </row>
+    <row r="152" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A152" s="76"/>
+      <c r="B152" s="76"/>
+      <c r="C152" s="76"/>
+      <c r="D152" s="76"/>
+      <c r="E152" s="76"/>
+      <c r="F152" s="76"/>
+      <c r="G152" s="76"/>
+      <c r="H152" s="76"/>
+      <c r="I152" s="76"/>
+    </row>
+    <row r="153" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A153" s="76"/>
+      <c r="B153" s="76"/>
+      <c r="C153" s="76"/>
+      <c r="D153" s="76"/>
+      <c r="E153" s="76"/>
+      <c r="F153" s="76"/>
+      <c r="G153" s="76"/>
+      <c r="H153" s="76"/>
+      <c r="I153" s="76"/>
+    </row>
+    <row r="154" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A154" s="76"/>
+      <c r="B154" s="76"/>
+      <c r="C154" s="76"/>
+      <c r="D154" s="76"/>
+      <c r="E154" s="76"/>
+      <c r="F154" s="76"/>
+      <c r="G154" s="76"/>
+      <c r="H154" s="76"/>
+      <c r="I154" s="76"/>
+    </row>
+    <row r="155" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A155" s="76"/>
+      <c r="B155" s="76"/>
+      <c r="C155" s="76"/>
+      <c r="D155" s="76"/>
+      <c r="E155" s="76"/>
+      <c r="F155" s="76"/>
+      <c r="G155" s="76"/>
+      <c r="H155" s="76"/>
+      <c r="I155" s="76"/>
+    </row>
+    <row r="156" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A156" s="76"/>
+      <c r="B156" s="76"/>
+      <c r="C156" s="76"/>
+      <c r="D156" s="76"/>
+      <c r="E156" s="76"/>
+      <c r="F156" s="76"/>
+      <c r="G156" s="76"/>
+      <c r="H156" s="76"/>
+      <c r="I156" s="76"/>
+    </row>
+    <row r="157" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A157" s="76"/>
+      <c r="B157" s="76"/>
+      <c r="C157" s="76"/>
+      <c r="D157" s="76"/>
+      <c r="E157" s="76"/>
+      <c r="F157" s="76"/>
+      <c r="G157" s="76"/>
+      <c r="H157" s="76"/>
+      <c r="I157" s="76"/>
+    </row>
+    <row r="158" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A158" s="76"/>
+      <c r="B158" s="76"/>
+      <c r="C158" s="76"/>
+      <c r="D158" s="76"/>
+      <c r="E158" s="76"/>
+      <c r="F158" s="76"/>
+      <c r="G158" s="76"/>
+      <c r="H158" s="76"/>
+      <c r="I158" s="76"/>
+    </row>
+    <row r="159" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A159" s="76"/>
+      <c r="B159" s="76"/>
+      <c r="C159" s="76"/>
+      <c r="D159" s="76"/>
+      <c r="E159" s="76"/>
+      <c r="F159" s="76"/>
+      <c r="G159" s="76"/>
+      <c r="H159" s="76"/>
+      <c r="I159" s="76"/>
+    </row>
+    <row r="160" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A160" s="76"/>
+      <c r="B160" s="76"/>
+      <c r="C160" s="76"/>
+      <c r="D160" s="76"/>
+      <c r="E160" s="76"/>
+      <c r="F160" s="76"/>
+      <c r="G160" s="76"/>
+      <c r="H160" s="76"/>
+      <c r="I160" s="76"/>
+    </row>
+    <row r="161" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A161" s="76"/>
+      <c r="B161" s="76"/>
+      <c r="C161" s="76"/>
+      <c r="D161" s="76"/>
+      <c r="E161" s="76"/>
+      <c r="F161" s="76"/>
+      <c r="G161" s="76"/>
+      <c r="H161" s="76"/>
+      <c r="I161" s="76"/>
+    </row>
+    <row r="162" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A162" s="76"/>
+      <c r="B162" s="76"/>
+      <c r="C162" s="76"/>
+      <c r="D162" s="76"/>
+      <c r="E162" s="76"/>
+      <c r="F162" s="76"/>
+      <c r="G162" s="76"/>
+      <c r="H162" s="76"/>
+      <c r="I162" s="76"/>
+    </row>
+    <row r="163" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A163" s="76"/>
+      <c r="B163" s="76"/>
+      <c r="C163" s="76"/>
+      <c r="D163" s="76"/>
+      <c r="E163" s="76"/>
+      <c r="F163" s="76"/>
+      <c r="G163" s="76"/>
+      <c r="H163" s="76"/>
+      <c r="I163" s="76"/>
+    </row>
+    <row r="164" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A164" s="76"/>
+      <c r="B164" s="76"/>
+      <c r="C164" s="76"/>
+      <c r="D164" s="76"/>
+      <c r="E164" s="76"/>
+      <c r="F164" s="76"/>
+      <c r="G164" s="76"/>
+      <c r="H164" s="76"/>
+      <c r="I164" s="76"/>
+    </row>
+    <row r="165" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A165" s="76"/>
+      <c r="B165" s="76"/>
+      <c r="C165" s="76"/>
+      <c r="D165" s="76"/>
+      <c r="E165" s="76"/>
+      <c r="F165" s="76"/>
+      <c r="G165" s="76"/>
+      <c r="H165" s="76"/>
+      <c r="I165" s="76"/>
+    </row>
+    <row r="166" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A166" s="76"/>
+      <c r="B166" s="76"/>
+      <c r="C166" s="76"/>
+      <c r="D166" s="76"/>
+      <c r="E166" s="76"/>
+      <c r="F166" s="76"/>
+      <c r="G166" s="76"/>
+      <c r="H166" s="76"/>
+      <c r="I166" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="474">
   <si>
     <t>Date</t>
   </si>
@@ -1415,19 +1415,55 @@
   </si>
   <si>
     <t>4.1.6.3</t>
+  </si>
+  <si>
+    <t>4.1.7.1</t>
+  </si>
+  <si>
+    <t>4.1.8.1</t>
+  </si>
+  <si>
+    <t>4.1.9.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JGI1kCHX_y4</t>
+  </si>
+  <si>
+    <t>4.1.10.1</t>
+  </si>
+  <si>
+    <t>4.1.11.1</t>
+  </si>
+  <si>
+    <t>4.2.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H669N76DrwA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1780,78 +1816,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="51" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="53" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="52" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="54" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1859,16 +1897,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11759,8 +11798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12037,17 +12076,25 @@
       <c r="B14" s="77">
         <v>44086</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="76">
+        <v>44.29</v>
+      </c>
       <c r="D14" s="59">
         <v>1</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>465</v>
       </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
+      <c r="F14" s="76">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G14" s="79">
+        <v>7.2</v>
+      </c>
       <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
+      <c r="I14" s="76" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
@@ -12057,11 +12104,17 @@
         <f>+D14+1</f>
         <v>2</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
+      <c r="E15" s="78" t="s">
+        <v>466</v>
+      </c>
+      <c r="F15" s="79">
+        <f>+G14</f>
+        <v>7.2</v>
+      </c>
+      <c r="G15" s="76">
+        <v>18.23</v>
+      </c>
       <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="76"/>
@@ -12071,9 +12124,16 @@
         <f>+D15+1</f>
         <v>3</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
+      <c r="E16" s="78" t="s">
+        <v>467</v>
+      </c>
+      <c r="F16" s="79">
+        <f>+G15</f>
+        <v>18.23</v>
+      </c>
+      <c r="G16" s="76">
+        <v>34.31</v>
+      </c>
       <c r="H16" s="76"/>
       <c r="I16" s="76"/>
     </row>
@@ -12085,9 +12145,16 @@
         <f t="shared" ref="D17" si="2">+D16+1</f>
         <v>4</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
+      <c r="E17" s="78" t="s">
+        <v>468</v>
+      </c>
+      <c r="F17" s="76">
+        <f>+G16</f>
+        <v>34.31</v>
+      </c>
+      <c r="G17" s="76">
+        <v>43.54</v>
+      </c>
       <c r="H17" s="76"/>
       <c r="I17" s="76"/>
     </row>
@@ -12103,24 +12170,50 @@
       <c r="I18" s="76"/>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
+      <c r="A19" s="76">
+        <v>4</v>
+      </c>
+      <c r="B19" s="77">
+        <v>44087</v>
+      </c>
+      <c r="C19" s="76">
+        <v>39.380000000000003</v>
+      </c>
+      <c r="D19" s="59">
+        <v>1</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>470</v>
+      </c>
+      <c r="F19" s="76">
+        <v>5.21</v>
+      </c>
+      <c r="G19" s="76">
+        <v>20.350000000000001</v>
+      </c>
       <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
+      <c r="I19" s="76" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
+      <c r="D20" s="59">
+        <f>+D19+1</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="F20" s="76">
+        <f>+G19</f>
+        <v>20.350000000000001</v>
+      </c>
+      <c r="G20" s="76">
+        <v>33.03</v>
+      </c>
       <c r="H20" s="76"/>
       <c r="I20" s="76"/>
     </row>
@@ -12128,10 +12221,20 @@
       <c r="A21" s="76"/>
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
+      <c r="D21" s="59">
+        <f>+D20+1</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>472</v>
+      </c>
+      <c r="F21" s="76">
+        <f>+G20</f>
+        <v>33.03</v>
+      </c>
+      <c r="G21" s="76">
+        <v>38.47</v>
+      </c>
       <c r="H21" s="76"/>
       <c r="I21" s="76"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="481">
   <si>
     <t>Date</t>
   </si>
@@ -1439,19 +1439,46 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=H669N76DrwA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qk1syQNFBkk</t>
+  </si>
+  <si>
+    <t>4.2.1.2</t>
+  </si>
+  <si>
+    <t>4.2.1.3</t>
+  </si>
+  <si>
+    <t>4.2.2.1</t>
+  </si>
+  <si>
+    <t>4.2.3.1</t>
+  </si>
+  <si>
+    <t>4.2.4.1</t>
+  </si>
+  <si>
+    <t>4.2.5.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1816,78 +1843,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="53" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="54" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="54" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="55" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1896,17 +1924,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -11798,8 +11826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12235,7 +12263,9 @@
       <c r="G21" s="76">
         <v>38.47</v>
       </c>
-      <c r="H21" s="76"/>
+      <c r="H21" s="81" t="s">
+        <v>475</v>
+      </c>
       <c r="I21" s="76"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -12250,24 +12280,50 @@
       <c r="I22" s="76"/>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
+      <c r="A23" s="76">
+        <v>5</v>
+      </c>
+      <c r="B23" s="77">
+        <v>44088</v>
+      </c>
+      <c r="C23" s="76">
+        <v>55.09</v>
+      </c>
+      <c r="D23" s="59">
+        <v>1</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>476</v>
+      </c>
+      <c r="F23" s="76">
+        <v>6.08</v>
+      </c>
+      <c r="G23" s="76">
+        <v>16.13</v>
+      </c>
       <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
+      <c r="I23" s="76" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="76"/>
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
+      <c r="D24" s="59">
+        <f>+D23+1</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="81" t="s">
+        <v>477</v>
+      </c>
+      <c r="F24" s="76">
+        <f>+G23</f>
+        <v>16.13</v>
+      </c>
+      <c r="G24" s="76">
+        <v>28.58</v>
+      </c>
       <c r="H24" s="76"/>
       <c r="I24" s="76"/>
     </row>
@@ -12275,10 +12331,20 @@
       <c r="A25" s="76"/>
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
+      <c r="D25" s="59">
+        <f>+D24+1</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="81" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" s="76">
+        <f t="shared" ref="F25:F27" si="3">+G24</f>
+        <v>28.58</v>
+      </c>
+      <c r="G25" s="79">
+        <v>42</v>
+      </c>
       <c r="H25" s="76"/>
       <c r="I25" s="76"/>
     </row>
@@ -12286,10 +12352,20 @@
       <c r="A26" s="76"/>
       <c r="B26" s="76"/>
       <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
+      <c r="D26" s="59">
+        <f>+D25+1</f>
+        <v>4</v>
+      </c>
+      <c r="E26" s="81" t="s">
+        <v>479</v>
+      </c>
+      <c r="F26" s="79">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="G26" s="76">
+        <v>54.01</v>
+      </c>
       <c r="H26" s="76"/>
       <c r="I26" s="76"/>
     </row>
@@ -12305,11 +12381,19 @@
       <c r="I27" s="76"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="76">
+        <v>6</v>
+      </c>
+      <c r="B28" s="77">
+        <v>44089</v>
+      </c>
       <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
+      <c r="D28" s="59">
+        <v>1</v>
+      </c>
+      <c r="E28" s="81" t="s">
+        <v>480</v>
+      </c>
       <c r="F28" s="76"/>
       <c r="G28" s="76"/>
       <c r="H28" s="76"/>
@@ -12319,7 +12403,10 @@
       <c r="A29" s="76"/>
       <c r="B29" s="76"/>
       <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
+      <c r="D29" s="59">
+        <f>+D28+1</f>
+        <v>2</v>
+      </c>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="76"/>
@@ -12330,7 +12417,10 @@
       <c r="A30" s="76"/>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
+      <c r="D30" s="59">
+        <f>+D29+1</f>
+        <v>3</v>
+      </c>
       <c r="E30" s="76"/>
       <c r="F30" s="76"/>
       <c r="G30" s="76"/>
@@ -12341,7 +12431,10 @@
       <c r="A31" s="76"/>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
+      <c r="D31" s="59">
+        <f>+D30+1</f>
+        <v>4</v>
+      </c>
       <c r="E31" s="76"/>
       <c r="F31" s="76"/>
       <c r="G31" s="76"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="488">
   <si>
     <t>Date</t>
   </si>
@@ -1460,19 +1460,46 @@
   </si>
   <si>
     <t>4.2.5.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=owACaHfnStk</t>
+  </si>
+  <si>
+    <t>4.2.6.1</t>
+  </si>
+  <si>
+    <t>4.2.7.1</t>
+  </si>
+  <si>
+    <t>4.2.8.1</t>
+  </si>
+  <si>
+    <t>4.2.9.1</t>
+  </si>
+  <si>
+    <t>4.2.10.1</t>
+  </si>
+  <si>
+    <t>4.2.11.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1843,78 +1870,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="54" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="55" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="55" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="56" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1923,17 +1951,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -11826,8 +11854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12339,7 +12367,7 @@
         <v>478</v>
       </c>
       <c r="F25" s="76">
-        <f t="shared" ref="F25:F27" si="3">+G24</f>
+        <f t="shared" ref="F25:F26" si="3">+G24</f>
         <v>28.58</v>
       </c>
       <c r="G25" s="79">
@@ -12387,17 +12415,25 @@
       <c r="B28" s="77">
         <v>44089</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="76">
+        <v>50.19</v>
+      </c>
       <c r="D28" s="59">
         <v>1</v>
       </c>
       <c r="E28" s="81" t="s">
         <v>480</v>
       </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
+      <c r="F28" s="76">
+        <v>3.02</v>
+      </c>
+      <c r="G28" s="76">
+        <v>22.41</v>
+      </c>
       <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
+      <c r="I28" s="76" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="76"/>
@@ -12407,9 +12443,16 @@
         <f>+D28+1</f>
         <v>2</v>
       </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
+      <c r="E29" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="F29" s="76">
+        <f>+G28</f>
+        <v>22.41</v>
+      </c>
+      <c r="G29" s="76">
+        <v>38.14</v>
+      </c>
       <c r="H29" s="76"/>
       <c r="I29" s="76"/>
     </row>
@@ -12421,9 +12464,16 @@
         <f>+D29+1</f>
         <v>3</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
+      <c r="E30" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="F30" s="76">
+        <f>+G29</f>
+        <v>38.14</v>
+      </c>
+      <c r="G30" s="76">
+        <v>49.15</v>
+      </c>
       <c r="H30" s="76"/>
       <c r="I30" s="76"/>
     </row>
@@ -12431,10 +12481,7 @@
       <c r="A31" s="76"/>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
-      <c r="D31" s="59">
-        <f>+D30+1</f>
-        <v>4</v>
-      </c>
+      <c r="D31" s="59"/>
       <c r="E31" s="76"/>
       <c r="F31" s="76"/>
       <c r="G31" s="76"/>
@@ -12442,11 +12489,19 @@
       <c r="I31" s="76"/>
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="76">
+        <v>7</v>
+      </c>
+      <c r="B32" s="77">
+        <v>44090</v>
+      </c>
       <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
+      <c r="D32" s="59">
+        <v>1</v>
+      </c>
+      <c r="E32" s="82" t="s">
+        <v>484</v>
+      </c>
       <c r="F32" s="76"/>
       <c r="G32" s="76"/>
       <c r="H32" s="76"/>
@@ -12456,8 +12511,13 @@
       <c r="A33" s="76"/>
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
+      <c r="D33" s="59">
+        <f>+D32+1</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="82" t="s">
+        <v>485</v>
+      </c>
       <c r="F33" s="76"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -12467,8 +12527,13 @@
       <c r="A34" s="76"/>
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
+      <c r="D34" s="59">
+        <f>+D33+1</f>
+        <v>3</v>
+      </c>
+      <c r="E34" s="82" t="s">
+        <v>486</v>
+      </c>
       <c r="F34" s="76"/>
       <c r="G34" s="76"/>
       <c r="H34" s="76"/>
@@ -12478,8 +12543,13 @@
       <c r="A35" s="76"/>
       <c r="B35" s="76"/>
       <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
+      <c r="D35" s="59">
+        <f>+D34+1</f>
+        <v>4</v>
+      </c>
+      <c r="E35" s="82" t="s">
+        <v>487</v>
+      </c>
       <c r="F35" s="76"/>
       <c r="G35" s="76"/>
       <c r="H35" s="76"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="489">
   <si>
     <t>Date</t>
   </si>
@@ -1481,6 +1481,9 @@
   </si>
   <si>
     <t>4.2.11.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iG5Ds-XUhog</t>
   </si>
 </sst>
 </file>
@@ -11855,7 +11858,7 @@
   <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12495,17 +12498,25 @@
       <c r="B32" s="77">
         <v>44090</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="76">
+        <v>58.24</v>
+      </c>
       <c r="D32" s="59">
         <v>1</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>484</v>
       </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
+      <c r="F32" s="76">
+        <v>7.08</v>
+      </c>
+      <c r="G32" s="76">
+        <v>16.489999999999998</v>
+      </c>
       <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
+      <c r="I32" s="76" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="76"/>
@@ -12518,8 +12529,13 @@
       <c r="E33" s="82" t="s">
         <v>485</v>
       </c>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
+      <c r="F33" s="76">
+        <f>+G32</f>
+        <v>16.489999999999998</v>
+      </c>
+      <c r="G33" s="76">
+        <v>35.479999999999997</v>
+      </c>
       <c r="H33" s="76"/>
       <c r="I33" s="76"/>
     </row>
@@ -12534,8 +12550,13 @@
       <c r="E34" s="82" t="s">
         <v>486</v>
       </c>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
+      <c r="F34" s="76">
+        <f>+G33</f>
+        <v>35.479999999999997</v>
+      </c>
+      <c r="G34" s="76">
+        <v>48.51</v>
+      </c>
       <c r="H34" s="76"/>
       <c r="I34" s="76"/>
     </row>
@@ -12550,8 +12571,13 @@
       <c r="E35" s="82" t="s">
         <v>487</v>
       </c>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
+      <c r="F35" s="76">
+        <f>+G34</f>
+        <v>48.51</v>
+      </c>
+      <c r="G35" s="76">
+        <v>57.46</v>
+      </c>
       <c r="H35" s="76"/>
       <c r="I35" s="76"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -13,11 +13,12 @@
     <sheet name="Kandam4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="506">
   <si>
     <t>Date</t>
   </si>
@@ -1484,19 +1485,88 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=iG5Ds-XUhog</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4ymk1MR1PD4</t>
+  </si>
+  <si>
+    <t>4.3.1.1</t>
+  </si>
+  <si>
+    <t>4.3.2.1</t>
+  </si>
+  <si>
+    <t>4.3.3.1</t>
+  </si>
+  <si>
+    <t>4.3.4.1</t>
+  </si>
+  <si>
+    <t>4.3.5.1</t>
+  </si>
+  <si>
+    <t>4.3.6.1</t>
+  </si>
+  <si>
+    <t>4.3.7.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=02xxeSIBfuA</t>
+  </si>
+  <si>
+    <t>4.3.8.1</t>
+  </si>
+  <si>
+    <t>4.3.9.1</t>
+  </si>
+  <si>
+    <t>4.3.10.1</t>
+  </si>
+  <si>
+    <t>4.3.11.1</t>
+  </si>
+  <si>
+    <t>4.3.12.1</t>
+  </si>
+  <si>
+    <t>4.3.12.2</t>
+  </si>
+  <si>
+    <t>4.3.12.3</t>
+  </si>
+  <si>
+    <t>4.3.13.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1873,97 +1943,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="55" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="58" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="59" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="56" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11857,8 +11930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12593,24 +12666,50 @@
       <c r="I36" s="76"/>
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
+      <c r="A37" s="76">
+        <v>8</v>
+      </c>
+      <c r="B37" s="77">
+        <v>44091</v>
+      </c>
+      <c r="C37" s="76">
+        <v>57.06</v>
+      </c>
+      <c r="D37" s="59">
+        <v>1</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>490</v>
+      </c>
+      <c r="F37" s="79">
+        <v>4.2</v>
+      </c>
+      <c r="G37" s="76">
+        <v>8.15</v>
+      </c>
       <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
+      <c r="I37" s="76" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="76"/>
       <c r="B38" s="76"/>
       <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
+      <c r="D38" s="59">
+        <f t="shared" ref="D38:D43" si="4">+D37+1</f>
+        <v>2</v>
+      </c>
+      <c r="E38" s="83" t="s">
+        <v>491</v>
+      </c>
+      <c r="F38" s="79">
+        <f>+G37</f>
+        <v>8.15</v>
+      </c>
+      <c r="G38" s="76">
+        <v>19.440000000000001</v>
+      </c>
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
     </row>
@@ -12618,10 +12717,20 @@
       <c r="A39" s="76"/>
       <c r="B39" s="76"/>
       <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
+      <c r="D39" s="59">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>492</v>
+      </c>
+      <c r="F39" s="79">
+        <f t="shared" ref="F39:F43" si="5">+G38</f>
+        <v>19.440000000000001</v>
+      </c>
+      <c r="G39" s="76">
+        <v>28.39</v>
+      </c>
       <c r="H39" s="76"/>
       <c r="I39" s="76"/>
     </row>
@@ -12629,10 +12738,20 @@
       <c r="A40" s="76"/>
       <c r="B40" s="76"/>
       <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
+      <c r="D40" s="59">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E40" s="83" t="s">
+        <v>493</v>
+      </c>
+      <c r="F40" s="79">
+        <f t="shared" si="5"/>
+        <v>28.39</v>
+      </c>
+      <c r="G40" s="76">
+        <v>39.08</v>
+      </c>
       <c r="H40" s="76"/>
       <c r="I40" s="76"/>
     </row>
@@ -12640,10 +12759,20 @@
       <c r="A41" s="76"/>
       <c r="B41" s="76"/>
       <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
+      <c r="D41" s="59">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E41" s="83" t="s">
+        <v>494</v>
+      </c>
+      <c r="F41" s="79">
+        <f t="shared" si="5"/>
+        <v>39.08</v>
+      </c>
+      <c r="G41" s="76">
+        <v>43.52</v>
+      </c>
       <c r="H41" s="76"/>
       <c r="I41" s="76"/>
     </row>
@@ -12651,10 +12780,20 @@
       <c r="A42" s="76"/>
       <c r="B42" s="76"/>
       <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
+      <c r="D42" s="59">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E42" s="83" t="s">
+        <v>495</v>
+      </c>
+      <c r="F42" s="79">
+        <f t="shared" si="5"/>
+        <v>43.52</v>
+      </c>
+      <c r="G42" s="76">
+        <v>50.11</v>
+      </c>
       <c r="H42" s="76"/>
       <c r="I42" s="76"/>
     </row>
@@ -12662,10 +12801,20 @@
       <c r="A43" s="76"/>
       <c r="B43" s="76"/>
       <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
+      <c r="D43" s="59">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>496</v>
+      </c>
+      <c r="F43" s="79">
+        <f t="shared" si="5"/>
+        <v>50.11</v>
+      </c>
+      <c r="G43" s="76">
+        <v>55.58</v>
+      </c>
       <c r="H43" s="76"/>
       <c r="I43" s="76"/>
     </row>
@@ -12681,24 +12830,50 @@
       <c r="I44" s="76"/>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
+      <c r="A45" s="76">
+        <v>8</v>
+      </c>
+      <c r="B45" s="77">
+        <v>44092</v>
+      </c>
+      <c r="C45" s="76">
+        <v>57.27</v>
+      </c>
+      <c r="D45" s="59">
+        <v>1</v>
+      </c>
+      <c r="E45" s="84" t="s">
+        <v>498</v>
+      </c>
+      <c r="F45" s="84">
+        <v>5.53</v>
+      </c>
+      <c r="G45" s="76">
+        <v>10.23</v>
+      </c>
       <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
+      <c r="I45" s="76" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="76"/>
       <c r="B46" s="76"/>
       <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
+      <c r="D46" s="59">
+        <f t="shared" ref="D46:D49" si="6">+D45+1</f>
+        <v>2</v>
+      </c>
+      <c r="E46" s="84" t="s">
+        <v>499</v>
+      </c>
+      <c r="F46" s="79">
+        <f>+G45</f>
+        <v>10.23</v>
+      </c>
+      <c r="G46" s="76">
+        <v>18.54</v>
+      </c>
       <c r="H46" s="76"/>
       <c r="I46" s="76"/>
     </row>
@@ -12706,10 +12881,20 @@
       <c r="A47" s="76"/>
       <c r="B47" s="76"/>
       <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
+      <c r="D47" s="59">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="E47" s="84" t="s">
+        <v>500</v>
+      </c>
+      <c r="F47" s="79">
+        <f>+G46</f>
+        <v>18.54</v>
+      </c>
+      <c r="G47" s="76">
+        <v>31.34</v>
+      </c>
       <c r="H47" s="76"/>
       <c r="I47" s="76"/>
     </row>
@@ -12717,10 +12902,20 @@
       <c r="A48" s="76"/>
       <c r="B48" s="76"/>
       <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
+      <c r="D48" s="59">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E48" s="84" t="s">
+        <v>501</v>
+      </c>
+      <c r="F48" s="76">
+        <f>+G47</f>
+        <v>31.34</v>
+      </c>
+      <c r="G48" s="76">
+        <v>49.42</v>
+      </c>
       <c r="H48" s="76"/>
       <c r="I48" s="76"/>
     </row>
@@ -12728,11 +12923,23 @@
       <c r="A49" s="76"/>
       <c r="B49" s="76"/>
       <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
+      <c r="D49" s="59">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E49" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="F49" s="76">
+        <f>+G48</f>
+        <v>49.42</v>
+      </c>
+      <c r="G49" s="76">
+        <v>56.29</v>
+      </c>
+      <c r="H49" s="85" t="s">
+        <v>503</v>
+      </c>
       <c r="I49" s="76"/>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -12747,11 +12954,19 @@
       <c r="I50" s="76"/>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="76"/>
-      <c r="B51" s="76"/>
+      <c r="A51" s="76">
+        <v>9</v>
+      </c>
+      <c r="B51" s="77">
+        <v>44093</v>
+      </c>
       <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
+      <c r="D51" s="59">
+        <v>1</v>
+      </c>
+      <c r="E51" s="85" t="s">
+        <v>504</v>
+      </c>
       <c r="F51" s="76"/>
       <c r="G51" s="76"/>
       <c r="H51" s="76"/>
@@ -12761,8 +12976,13 @@
       <c r="A52" s="76"/>
       <c r="B52" s="76"/>
       <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
+      <c r="D52" s="59">
+        <f t="shared" ref="D52:D54" si="7">+D51+1</f>
+        <v>2</v>
+      </c>
+      <c r="E52" s="85" t="s">
+        <v>505</v>
+      </c>
       <c r="F52" s="76"/>
       <c r="G52" s="76"/>
       <c r="H52" s="76"/>
@@ -12772,7 +12992,10 @@
       <c r="A53" s="76"/>
       <c r="B53" s="76"/>
       <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
+      <c r="D53" s="59">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
       <c r="E53" s="76"/>
       <c r="F53" s="76"/>
       <c r="G53" s="76"/>
@@ -12783,7 +13006,10 @@
       <c r="A54" s="76"/>
       <c r="B54" s="76"/>
       <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
+      <c r="D54" s="59">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="E54" s="76"/>
       <c r="F54" s="76"/>
       <c r="G54" s="76"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <sheet name="Kandam4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="508">
   <si>
     <t>Date</t>
   </si>
@@ -1536,19 +1535,31 @@
   </si>
   <si>
     <t>4.3.13.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aqIPov47OD8</t>
+  </si>
+  <si>
+    <t>4.4.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1943,78 +1954,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="58" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="59" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="59" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="60" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2023,17 +2035,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2346,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M275"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -11930,8 +11942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12960,31 +12972,44 @@
       <c r="B51" s="77">
         <v>44093</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="76">
+        <v>38.21</v>
+      </c>
       <c r="D51" s="59">
         <v>1</v>
       </c>
       <c r="E51" s="85" t="s">
         <v>504</v>
       </c>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
+      <c r="F51" s="76">
+        <v>3.26</v>
+      </c>
+      <c r="G51" s="76">
+        <v>5.49</v>
+      </c>
       <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
+      <c r="I51" s="76" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="76"/>
       <c r="B52" s="76"/>
       <c r="C52" s="76"/>
       <c r="D52" s="59">
-        <f t="shared" ref="D52:D54" si="7">+D51+1</f>
+        <f t="shared" ref="D52:D53" si="7">+D51+1</f>
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
         <v>505</v>
       </c>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
+      <c r="F52" s="76">
+        <f>+G51</f>
+        <v>5.49</v>
+      </c>
+      <c r="G52" s="76">
+        <v>29.14</v>
+      </c>
       <c r="H52" s="76"/>
       <c r="I52" s="76"/>
     </row>
@@ -12996,9 +13021,16 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
+      <c r="E53" s="86" t="s">
+        <v>507</v>
+      </c>
+      <c r="F53" s="76">
+        <f>+G52</f>
+        <v>29.14</v>
+      </c>
+      <c r="G53" s="76">
+        <v>37.42</v>
+      </c>
       <c r="H53" s="76"/>
       <c r="I53" s="76"/>
     </row>
@@ -13006,10 +13038,7 @@
       <c r="A54" s="76"/>
       <c r="B54" s="76"/>
       <c r="C54" s="76"/>
-      <c r="D54" s="59">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
+      <c r="D54" s="59"/>
       <c r="E54" s="76"/>
       <c r="F54" s="76"/>
       <c r="G54" s="76"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="512">
   <si>
     <t>Date</t>
   </si>
@@ -1541,19 +1541,37 @@
   </si>
   <si>
     <t>4.4.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7LBPenE9P8E</t>
+  </si>
+  <si>
+    <t>4.4.2.1</t>
+  </si>
+  <si>
+    <t>4.4.3.1</t>
+  </si>
+  <si>
+    <t>4.4.4.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1954,78 +1972,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="59" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="60" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="60" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="61" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2034,17 +2053,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2358,10 +2377,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -11942,8 +11961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13046,24 +13065,50 @@
       <c r="I54" s="76"/>
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="76"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
+      <c r="A55" s="76">
+        <v>10</v>
+      </c>
+      <c r="B55" s="77">
+        <v>44094</v>
+      </c>
+      <c r="C55" s="76">
+        <v>59.55</v>
+      </c>
+      <c r="D55" s="59">
+        <v>1</v>
+      </c>
+      <c r="E55" s="87" t="s">
+        <v>509</v>
+      </c>
+      <c r="F55" s="76">
+        <v>5.12</v>
+      </c>
+      <c r="G55" s="76">
+        <v>17.32</v>
+      </c>
       <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
+      <c r="I55" s="76" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="76"/>
       <c r="B56" s="76"/>
       <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
+      <c r="D56" s="59">
+        <f t="shared" ref="D56:D58" si="8">+D55+1</f>
+        <v>2</v>
+      </c>
+      <c r="E56" s="87" t="s">
+        <v>510</v>
+      </c>
+      <c r="F56" s="76">
+        <f>+G55</f>
+        <v>17.32</v>
+      </c>
+      <c r="G56" s="79">
+        <v>32.200000000000003</v>
+      </c>
       <c r="H56" s="76"/>
       <c r="I56" s="76"/>
     </row>
@@ -13071,10 +13116,20 @@
       <c r="A57" s="76"/>
       <c r="B57" s="76"/>
       <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
+      <c r="D57" s="59">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E57" s="87" t="s">
+        <v>511</v>
+      </c>
+      <c r="F57" s="79">
+        <f>+G56</f>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G57" s="76">
+        <v>59.12</v>
+      </c>
       <c r="H57" s="76"/>
       <c r="I57" s="76"/>
     </row>
@@ -13082,7 +13137,10 @@
       <c r="A58" s="76"/>
       <c r="B58" s="76"/>
       <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
+      <c r="D58" s="59">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="E58" s="76"/>
       <c r="F58" s="76"/>
       <c r="G58" s="76"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="536">
   <si>
     <t>Date</t>
   </si>
@@ -1553,19 +1553,109 @@
   </si>
   <si>
     <t>4.4.4.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PT1uLnZ4mk8</t>
+  </si>
+  <si>
+    <t>4.4.5.1</t>
+  </si>
+  <si>
+    <t>4.4.6.1</t>
+  </si>
+  <si>
+    <t>4.4.7.1</t>
+  </si>
+  <si>
+    <t>4.4.8.1</t>
+  </si>
+  <si>
+    <t>4.4.9.1</t>
+  </si>
+  <si>
+    <t>4.4.10.1</t>
+  </si>
+  <si>
+    <t>4.4.11.1</t>
+  </si>
+  <si>
+    <t>4.4.12.1</t>
+  </si>
+  <si>
+    <t>4.4.12.2</t>
+  </si>
+  <si>
+    <t>4.5.1.1</t>
+  </si>
+  <si>
+    <t>4.5.2.1</t>
+  </si>
+  <si>
+    <t>4.5.3.1</t>
+  </si>
+  <si>
+    <t>4.5.4.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4nzwGKLpF1Y</t>
+  </si>
+  <si>
+    <t>4.5.5.1</t>
+  </si>
+  <si>
+    <t>4.5.6.1</t>
+  </si>
+  <si>
+    <t>4.5.7.1</t>
+  </si>
+  <si>
+    <t>4.5.8.1</t>
+  </si>
+  <si>
+    <t>4.5.9.1</t>
+  </si>
+  <si>
+    <t>4.5.10.1</t>
+  </si>
+  <si>
+    <t>4.5.11.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYCrgE57cIU</t>
+  </si>
+  <si>
+    <t>4.6.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="66" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1972,97 +2062,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="60" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="63" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="64" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="61" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2378,9 +2471,9 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -11961,8 +12054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13096,7 +13189,7 @@
       <c r="B56" s="76"/>
       <c r="C56" s="76"/>
       <c r="D56" s="59">
-        <f t="shared" ref="D56:D58" si="8">+D55+1</f>
+        <f t="shared" ref="D56:D66" si="8">+D55+1</f>
         <v>2</v>
       </c>
       <c r="E56" s="87" t="s">
@@ -13137,10 +13230,7 @@
       <c r="A58" s="76"/>
       <c r="B58" s="76"/>
       <c r="C58" s="76"/>
-      <c r="D58" s="59">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+      <c r="D58" s="59"/>
       <c r="E58" s="76"/>
       <c r="F58" s="76"/>
       <c r="G58" s="76"/>
@@ -13148,24 +13238,50 @@
       <c r="I58" s="76"/>
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="76"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
+      <c r="A59" s="76">
+        <v>11</v>
+      </c>
+      <c r="B59" s="77">
+        <v>44095</v>
+      </c>
+      <c r="C59" s="76">
+        <v>58.32</v>
+      </c>
+      <c r="D59" s="59">
+        <v>1</v>
+      </c>
+      <c r="E59" s="88" t="s">
+        <v>513</v>
+      </c>
+      <c r="F59" s="76">
+        <v>5.18</v>
+      </c>
+      <c r="G59" s="76">
+        <v>10.54</v>
+      </c>
       <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
+      <c r="I59" s="76" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="76"/>
       <c r="B60" s="76"/>
       <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
+      <c r="D60" s="59">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E60" s="88" t="s">
+        <v>514</v>
+      </c>
+      <c r="F60" s="76">
+        <f>+G59</f>
+        <v>10.54</v>
+      </c>
+      <c r="G60" s="79">
+        <v>19.3</v>
+      </c>
       <c r="H60" s="76"/>
       <c r="I60" s="76"/>
     </row>
@@ -13173,10 +13289,20 @@
       <c r="A61" s="76"/>
       <c r="B61" s="76"/>
       <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
+      <c r="D61" s="59">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E61" s="88" t="s">
+        <v>515</v>
+      </c>
+      <c r="F61" s="79">
+        <f t="shared" ref="F61:F64" si="9">+G60</f>
+        <v>19.3</v>
+      </c>
+      <c r="G61" s="79">
+        <v>24.1</v>
+      </c>
       <c r="H61" s="76"/>
       <c r="I61" s="76"/>
     </row>
@@ -13184,10 +13310,20 @@
       <c r="A62" s="76"/>
       <c r="B62" s="76"/>
       <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
+      <c r="D62" s="59">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E62" s="88" t="s">
+        <v>516</v>
+      </c>
+      <c r="F62" s="79">
+        <f t="shared" si="9"/>
+        <v>24.1</v>
+      </c>
+      <c r="G62" s="76">
+        <v>28.01</v>
+      </c>
       <c r="H62" s="76"/>
       <c r="I62" s="76"/>
     </row>
@@ -13195,10 +13331,20 @@
       <c r="A63" s="76"/>
       <c r="B63" s="76"/>
       <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
+      <c r="D63" s="59">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E63" s="88" t="s">
+        <v>517</v>
+      </c>
+      <c r="F63" s="79">
+        <f t="shared" si="9"/>
+        <v>28.01</v>
+      </c>
+      <c r="G63" s="79">
+        <v>34.299999999999997</v>
+      </c>
       <c r="H63" s="76"/>
       <c r="I63" s="76"/>
     </row>
@@ -13206,10 +13352,20 @@
       <c r="A64" s="76"/>
       <c r="B64" s="76"/>
       <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
+      <c r="D64" s="59">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E64" s="88" t="s">
+        <v>518</v>
+      </c>
+      <c r="F64" s="79">
+        <f t="shared" si="9"/>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G64" s="79">
+        <v>43.16</v>
+      </c>
       <c r="H64" s="76"/>
       <c r="I64" s="76"/>
     </row>
@@ -13217,10 +13373,20 @@
       <c r="A65" s="76"/>
       <c r="B65" s="76"/>
       <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
+      <c r="D65" s="59">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="E65" s="88" t="s">
+        <v>519</v>
+      </c>
+      <c r="F65" s="79">
+        <f>+G64</f>
+        <v>43.16</v>
+      </c>
+      <c r="G65" s="76">
+        <v>54.16</v>
+      </c>
       <c r="H65" s="76"/>
       <c r="I65" s="76"/>
     </row>
@@ -13228,11 +13394,23 @@
       <c r="A66" s="76"/>
       <c r="B66" s="76"/>
       <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
+      <c r="D66" s="59">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="E66" s="88" t="s">
+        <v>520</v>
+      </c>
+      <c r="F66" s="76">
+        <f>+G65</f>
+        <v>54.16</v>
+      </c>
+      <c r="G66" s="76">
+        <v>57.33</v>
+      </c>
+      <c r="H66" s="88" t="s">
+        <v>520</v>
+      </c>
       <c r="I66" s="76"/>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -13247,24 +13425,51 @@
       <c r="I67" s="76"/>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="76"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
+      <c r="A68" s="76">
+        <v>12</v>
+      </c>
+      <c r="B68" s="77">
+        <v>44096</v>
+      </c>
+      <c r="C68" s="89">
+        <v>54.01</v>
+      </c>
+      <c r="D68" s="59">
+        <v>1</v>
+      </c>
+      <c r="E68" s="88" t="s">
+        <v>521</v>
+      </c>
+      <c r="F68" s="76">
+        <v>5.08</v>
+      </c>
+      <c r="G68" s="76">
+        <v>20.53</v>
+      </c>
+      <c r="H68" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="I68" s="76" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="76"/>
       <c r="B69" s="76"/>
       <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
+      <c r="D69" s="59">
+        <f t="shared" ref="D69:D80" si="10">+D68+1</f>
+        <v>2</v>
+      </c>
+      <c r="E69" s="88" t="s">
+        <v>522</v>
+      </c>
+      <c r="F69" s="79">
+        <v>24.13</v>
+      </c>
+      <c r="G69" s="76">
+        <v>37.590000000000003</v>
+      </c>
       <c r="H69" s="76"/>
       <c r="I69" s="76"/>
     </row>
@@ -13272,10 +13477,20 @@
       <c r="A70" s="76"/>
       <c r="B70" s="76"/>
       <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
+      <c r="D70" s="59">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E70" s="88" t="s">
+        <v>523</v>
+      </c>
+      <c r="F70" s="79">
+        <f t="shared" ref="F70:F71" si="11">+G69</f>
+        <v>37.590000000000003</v>
+      </c>
+      <c r="G70" s="76">
+        <v>44.26</v>
+      </c>
       <c r="H70" s="76"/>
       <c r="I70" s="76"/>
     </row>
@@ -13283,10 +13498,20 @@
       <c r="A71" s="76"/>
       <c r="B71" s="76"/>
       <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
+      <c r="D71" s="59">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="E71" s="88" t="s">
+        <v>524</v>
+      </c>
+      <c r="F71" s="79">
+        <f t="shared" si="11"/>
+        <v>44.26</v>
+      </c>
+      <c r="G71" s="76">
+        <v>52.35</v>
+      </c>
       <c r="H71" s="76"/>
       <c r="I71" s="76"/>
     </row>
@@ -13294,32 +13519,58 @@
       <c r="A72" s="76"/>
       <c r="B72" s="76"/>
       <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="79"/>
       <c r="G72" s="76"/>
       <c r="H72" s="76"/>
       <c r="I72" s="76"/>
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="76"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
+      <c r="A73" s="76">
+        <v>13</v>
+      </c>
+      <c r="B73" s="77">
+        <v>44097</v>
+      </c>
+      <c r="C73" s="76">
+        <v>58.18</v>
+      </c>
+      <c r="D73" s="59">
+        <v>1</v>
+      </c>
+      <c r="E73" s="89" t="s">
+        <v>525</v>
+      </c>
+      <c r="F73" s="76">
+        <v>2.34</v>
+      </c>
+      <c r="G73" s="76">
+        <v>8.57</v>
+      </c>
       <c r="H73" s="76"/>
-      <c r="I73" s="76"/>
+      <c r="I73" s="76" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="76"/>
       <c r="B74" s="76"/>
       <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
+      <c r="D74" s="59">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E74" s="89" t="s">
+        <v>527</v>
+      </c>
+      <c r="F74" s="79">
+        <f>+G73</f>
+        <v>8.57</v>
+      </c>
+      <c r="G74" s="76">
+        <v>13.01</v>
+      </c>
       <c r="H74" s="76"/>
       <c r="I74" s="76"/>
     </row>
@@ -13327,10 +13578,20 @@
       <c r="A75" s="76"/>
       <c r="B75" s="76"/>
       <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="76"/>
+      <c r="D75" s="59">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E75" s="89" t="s">
+        <v>528</v>
+      </c>
+      <c r="F75" s="79">
+        <f t="shared" ref="F75:F81" si="12">+G74</f>
+        <v>13.01</v>
+      </c>
+      <c r="G75" s="76">
+        <v>17.09</v>
+      </c>
       <c r="H75" s="76"/>
       <c r="I75" s="76"/>
     </row>
@@ -13338,10 +13599,20 @@
       <c r="A76" s="76"/>
       <c r="B76" s="76"/>
       <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
+      <c r="D76" s="59">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="E76" s="89" t="s">
+        <v>529</v>
+      </c>
+      <c r="F76" s="79">
+        <f t="shared" si="12"/>
+        <v>17.09</v>
+      </c>
+      <c r="G76" s="76">
+        <v>21.34</v>
+      </c>
       <c r="H76" s="76"/>
       <c r="I76" s="76"/>
     </row>
@@ -13349,10 +13620,20 @@
       <c r="A77" s="76"/>
       <c r="B77" s="76"/>
       <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
+      <c r="D77" s="59">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="E77" s="89" t="s">
+        <v>530</v>
+      </c>
+      <c r="F77" s="79">
+        <f t="shared" si="12"/>
+        <v>21.34</v>
+      </c>
+      <c r="G77" s="76">
+        <v>26.23</v>
+      </c>
       <c r="H77" s="76"/>
       <c r="I77" s="76"/>
     </row>
@@ -13360,10 +13641,20 @@
       <c r="A78" s="76"/>
       <c r="B78" s="76"/>
       <c r="C78" s="76"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
+      <c r="D78" s="59">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="E78" s="89" t="s">
+        <v>531</v>
+      </c>
+      <c r="F78" s="79">
+        <f t="shared" si="12"/>
+        <v>26.23</v>
+      </c>
+      <c r="G78" s="76">
+        <v>31.42</v>
+      </c>
       <c r="H78" s="76"/>
       <c r="I78" s="76"/>
     </row>
@@ -13371,10 +13662,20 @@
       <c r="A79" s="76"/>
       <c r="B79" s="76"/>
       <c r="C79" s="76"/>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
+      <c r="D79" s="59">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E79" s="89" t="s">
+        <v>532</v>
+      </c>
+      <c r="F79" s="79">
+        <f t="shared" si="12"/>
+        <v>31.42</v>
+      </c>
+      <c r="G79" s="76">
+        <v>43.02</v>
+      </c>
       <c r="H79" s="76"/>
       <c r="I79" s="76"/>
     </row>
@@ -13382,10 +13683,20 @@
       <c r="A80" s="76"/>
       <c r="B80" s="76"/>
       <c r="C80" s="76"/>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
+      <c r="D80" s="59">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="E80" s="90" t="s">
+        <v>533</v>
+      </c>
+      <c r="F80" s="79">
+        <f t="shared" si="12"/>
+        <v>43.02</v>
+      </c>
+      <c r="G80" s="76">
+        <v>49.48</v>
+      </c>
       <c r="H80" s="76"/>
       <c r="I80" s="76"/>
     </row>
@@ -13393,10 +13704,19 @@
       <c r="A81" s="76"/>
       <c r="B81" s="76"/>
       <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
+      <c r="D81" s="59">
+        <v>9</v>
+      </c>
+      <c r="E81" s="90" t="s">
+        <v>535</v>
+      </c>
+      <c r="F81" s="79">
+        <f t="shared" si="12"/>
+        <v>49.48</v>
+      </c>
+      <c r="G81" s="76">
+        <v>56.58</v>
+      </c>
       <c r="H81" s="76"/>
       <c r="I81" s="76"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="544">
   <si>
     <t>Date</t>
   </si>
@@ -1625,19 +1625,49 @@
   </si>
   <si>
     <t>4.6.1.1</t>
+  </si>
+  <si>
+    <t>4.6.1.3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BbbwM1nmfJU</t>
+  </si>
+  <si>
+    <t>4.6.2.1</t>
+  </si>
+  <si>
+    <t>4.6.3.1</t>
+  </si>
+  <si>
+    <t>4.6.4.1</t>
+  </si>
+  <si>
+    <t>4.6.5.1</t>
+  </si>
+  <si>
+    <t>4.6.4.2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P3Ck9Wi-vG0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="66" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2062,78 +2092,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="63" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="64" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="64" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="65" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2142,17 +2173,17 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2471,7 +2502,7 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="F148" sqref="F148"/>
     </sheetView>
@@ -12054,8 +12085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13717,7 +13748,9 @@
       <c r="G81" s="76">
         <v>56.58</v>
       </c>
-      <c r="H81" s="76"/>
+      <c r="H81" s="91" t="s">
+        <v>536</v>
+      </c>
       <c r="I81" s="76"/>
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -13732,24 +13765,50 @@
       <c r="I82" s="76"/>
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="76"/>
-      <c r="B83" s="76"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
+      <c r="A83" s="76">
+        <v>14</v>
+      </c>
+      <c r="B83" s="77">
+        <v>44098</v>
+      </c>
+      <c r="C83" s="76">
+        <v>54.52</v>
+      </c>
+      <c r="D83" s="59">
+        <v>1</v>
+      </c>
+      <c r="E83" s="91" t="s">
+        <v>536</v>
+      </c>
+      <c r="F83" s="76">
+        <v>6.16</v>
+      </c>
+      <c r="G83" s="76">
+        <v>13.21</v>
+      </c>
       <c r="H83" s="76"/>
-      <c r="I83" s="76"/>
+      <c r="I83" s="76" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="76"/>
       <c r="B84" s="76"/>
       <c r="C84" s="76"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
+      <c r="D84" s="59">
+        <f t="shared" ref="D84:D90" si="13">+D83+1</f>
+        <v>2</v>
+      </c>
+      <c r="E84" s="91" t="s">
+        <v>538</v>
+      </c>
+      <c r="F84" s="79">
+        <f t="shared" ref="F84:F90" si="14">+G83</f>
+        <v>13.21</v>
+      </c>
+      <c r="G84" s="76">
+        <v>33.479999999999997</v>
+      </c>
       <c r="H84" s="76"/>
       <c r="I84" s="76"/>
     </row>
@@ -13757,10 +13816,20 @@
       <c r="A85" s="76"/>
       <c r="B85" s="76"/>
       <c r="C85" s="76"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
+      <c r="D85" s="59">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E85" s="91" t="s">
+        <v>539</v>
+      </c>
+      <c r="F85" s="79">
+        <f t="shared" si="14"/>
+        <v>33.479999999999997</v>
+      </c>
+      <c r="G85" s="76">
+        <v>50.13</v>
+      </c>
       <c r="H85" s="76"/>
       <c r="I85" s="76"/>
     </row>
@@ -13768,42 +13837,76 @@
       <c r="A86" s="76"/>
       <c r="B86" s="76"/>
       <c r="C86" s="76"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="76"/>
+      <c r="D86" s="59">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="E86" s="91" t="s">
+        <v>540</v>
+      </c>
+      <c r="F86" s="79">
+        <f t="shared" si="14"/>
+        <v>50.13</v>
+      </c>
+      <c r="G86" s="76">
+        <v>54.17</v>
+      </c>
+      <c r="H86" s="91" t="s">
+        <v>540</v>
+      </c>
       <c r="I86" s="76"/>
     </row>
     <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="76"/>
       <c r="B87" s="76"/>
       <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="79"/>
       <c r="G87" s="76"/>
       <c r="H87" s="76"/>
       <c r="I87" s="76"/>
     </row>
     <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="76"/>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
+      <c r="A88" s="76">
+        <v>15</v>
+      </c>
+      <c r="B88" s="77">
+        <v>44099</v>
+      </c>
+      <c r="C88" s="76">
+        <v>53.17</v>
+      </c>
+      <c r="D88" s="59">
+        <v>1</v>
+      </c>
+      <c r="E88" s="91" t="s">
+        <v>542</v>
+      </c>
+      <c r="F88" s="76">
+        <v>5.41</v>
+      </c>
       <c r="G88" s="76"/>
       <c r="H88" s="76"/>
-      <c r="I88" s="76"/>
+      <c r="I88" s="76" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="76"/>
       <c r="B89" s="76"/>
       <c r="C89" s="76"/>
-      <c r="D89" s="76"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
+      <c r="D89" s="59">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E89" s="91" t="s">
+        <v>541</v>
+      </c>
+      <c r="F89" s="79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="G89" s="76"/>
       <c r="H89" s="76"/>
       <c r="I89" s="76"/>
@@ -13812,9 +13915,17 @@
       <c r="A90" s="76"/>
       <c r="B90" s="76"/>
       <c r="C90" s="76"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76"/>
+      <c r="D90" s="59">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="E90" s="91" t="s">
+        <v>541</v>
+      </c>
+      <c r="F90" s="79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="G90" s="76"/>
       <c r="H90" s="76"/>
       <c r="I90" s="76"/>
@@ -13825,7 +13936,7 @@
       <c r="C91" s="76"/>
       <c r="D91" s="76"/>
       <c r="E91" s="76"/>
-      <c r="F91" s="76"/>
+      <c r="F91" s="79"/>
       <c r="G91" s="76"/>
       <c r="H91" s="76"/>
       <c r="I91" s="76"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -12086,7 +12086,7 @@
   <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13875,7 +13875,7 @@
         <v>44099</v>
       </c>
       <c r="C88" s="76">
-        <v>53.17</v>
+        <v>53.18</v>
       </c>
       <c r="D88" s="59">
         <v>1</v>
@@ -13886,7 +13886,9 @@
       <c r="F88" s="76">
         <v>5.41</v>
       </c>
-      <c r="G88" s="76"/>
+      <c r="G88" s="76">
+        <v>17.53</v>
+      </c>
       <c r="H88" s="76"/>
       <c r="I88" s="76" t="s">
         <v>543</v>
@@ -13905,9 +13907,11 @@
       </c>
       <c r="F89" s="79">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="76"/>
+        <v>17.53</v>
+      </c>
+      <c r="G89" s="76">
+        <v>36.119999999999997</v>
+      </c>
       <c r="H89" s="76"/>
       <c r="I89" s="76"/>
     </row>
@@ -13924,9 +13928,11 @@
       </c>
       <c r="F90" s="79">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="76"/>
+        <v>36.119999999999997</v>
+      </c>
+      <c r="G90" s="76">
+        <v>52.32</v>
+      </c>
       <c r="H90" s="76"/>
       <c r="I90" s="76"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -11,13 +11,15 @@
     <sheet name="Kandam2" sheetId="2" r:id="rId2"/>
     <sheet name="Kandam3" sheetId="3" r:id="rId3"/>
     <sheet name="Kandam4" sheetId="4" r:id="rId4"/>
+    <sheet name="Kandam5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="576">
   <si>
     <t>Date</t>
   </si>
@@ -1649,19 +1651,139 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=P3Ck9Wi-vG0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Tb-MXz3eWBw</t>
+  </si>
+  <si>
+    <t>4.6.6.5</t>
+  </si>
+  <si>
+    <t>4.6.6.1</t>
+  </si>
+  <si>
+    <t>4.6.6.6</t>
+  </si>
+  <si>
+    <t>4.6.7.1</t>
+  </si>
+  <si>
+    <t>4.6.8.1</t>
+  </si>
+  <si>
+    <t>4.6.9.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NkHsSRhpFBA</t>
+  </si>
+  <si>
+    <t>4.7.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dlwcBaLxc1s</t>
+  </si>
+  <si>
+    <t>4.7.2.1</t>
+  </si>
+  <si>
+    <t>4.7.3.1</t>
+  </si>
+  <si>
+    <t>4.7.4.1</t>
+  </si>
+  <si>
+    <t>4.7.5.1</t>
+  </si>
+  <si>
+    <t>4.7.6.1</t>
+  </si>
+  <si>
+    <t>4.7.7.1</t>
+  </si>
+  <si>
+    <t>4.7.8.1</t>
+  </si>
+  <si>
+    <t>4.7.9.1</t>
+  </si>
+  <si>
+    <t>4.7.10.1</t>
+  </si>
+  <si>
+    <t>4.7.11.1</t>
+  </si>
+  <si>
+    <t>4.7.12.1</t>
+  </si>
+  <si>
+    <t>4.7.12.2</t>
+  </si>
+  <si>
+    <t>4.7.13.1</t>
+  </si>
+  <si>
+    <t>4.7.14.1</t>
+  </si>
+  <si>
+    <t>4.7.15.1</t>
+  </si>
+  <si>
+    <t>4.7.15.4</t>
+  </si>
+  <si>
+    <t>4.7.15.5</t>
+  </si>
+  <si>
+    <t>5.1.1.1</t>
+  </si>
+  <si>
+    <t>5.1.1.2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=En17R8e8FEM</t>
+  </si>
+  <si>
+    <t>5.1.2.1</t>
+  </si>
+  <si>
+    <t>5.1.2.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2092,55 +2214,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="64" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="68" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2148,41 +2275,40 @@
     <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="69" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="65" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2194,7 +2320,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="68" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="69" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12085,8 +12220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13923,8 +14058,8 @@
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="E90" s="91" t="s">
-        <v>541</v>
+      <c r="E90" s="92" t="s">
+        <v>546</v>
       </c>
       <c r="F90" s="79">
         <f t="shared" si="14"/>
@@ -13933,7 +14068,9 @@
       <c r="G90" s="76">
         <v>52.32</v>
       </c>
-      <c r="H90" s="76"/>
+      <c r="H90" s="92" t="s">
+        <v>545</v>
+      </c>
       <c r="I90" s="76"/>
     </row>
     <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -13948,24 +14085,50 @@
       <c r="I91" s="76"/>
     </row>
     <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="76"/>
-      <c r="B92" s="76"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="76"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76"/>
+      <c r="A92" s="76">
+        <v>16</v>
+      </c>
+      <c r="B92" s="77">
+        <v>44100</v>
+      </c>
+      <c r="C92" s="76">
+        <v>55.52</v>
+      </c>
+      <c r="D92" s="59">
+        <v>1</v>
+      </c>
+      <c r="E92" s="92" t="s">
+        <v>547</v>
+      </c>
+      <c r="F92" s="76">
+        <v>4.25</v>
+      </c>
+      <c r="G92" s="76">
+        <v>10.33</v>
+      </c>
       <c r="H92" s="76"/>
-      <c r="I92" s="76"/>
+      <c r="I92" s="76" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="76"/>
       <c r="B93" s="76"/>
       <c r="C93" s="76"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="76"/>
+      <c r="D93" s="59">
+        <f t="shared" ref="D93:D95" si="15">+D92+1</f>
+        <v>2</v>
+      </c>
+      <c r="E93" s="92" t="s">
+        <v>548</v>
+      </c>
+      <c r="F93" s="79">
+        <f t="shared" ref="F93:F95" si="16">+G92</f>
+        <v>10.33</v>
+      </c>
+      <c r="G93" s="79">
+        <v>25.5</v>
+      </c>
       <c r="H93" s="76"/>
       <c r="I93" s="76"/>
     </row>
@@ -13973,10 +14136,20 @@
       <c r="A94" s="76"/>
       <c r="B94" s="76"/>
       <c r="C94" s="76"/>
-      <c r="D94" s="76"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="76"/>
+      <c r="D94" s="59">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="E94" s="92" t="s">
+        <v>549</v>
+      </c>
+      <c r="F94" s="79">
+        <f t="shared" si="16"/>
+        <v>25.5</v>
+      </c>
+      <c r="G94" s="76">
+        <v>40.409999999999997</v>
+      </c>
       <c r="H94" s="76"/>
       <c r="I94" s="76"/>
     </row>
@@ -13984,10 +14157,20 @@
       <c r="A95" s="76"/>
       <c r="B95" s="76"/>
       <c r="C95" s="76"/>
-      <c r="D95" s="76"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="76"/>
+      <c r="D95" s="59">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="E95" s="92" t="s">
+        <v>550</v>
+      </c>
+      <c r="F95" s="79">
+        <f t="shared" si="16"/>
+        <v>40.409999999999997</v>
+      </c>
+      <c r="G95" s="76">
+        <v>55.15</v>
+      </c>
       <c r="H95" s="76"/>
       <c r="I95" s="76"/>
     </row>
@@ -14003,24 +14186,50 @@
       <c r="I96" s="76"/>
     </row>
     <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A97" s="76"/>
-      <c r="B97" s="76"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="76"/>
-      <c r="F97" s="76"/>
-      <c r="G97" s="76"/>
+      <c r="A97" s="76">
+        <v>17</v>
+      </c>
+      <c r="B97" s="77">
+        <v>44101</v>
+      </c>
+      <c r="C97" s="76">
+        <v>48.07</v>
+      </c>
+      <c r="D97" s="59">
+        <v>1</v>
+      </c>
+      <c r="E97" s="93" t="s">
+        <v>552</v>
+      </c>
+      <c r="F97" s="76">
+        <v>2.04</v>
+      </c>
+      <c r="G97" s="76">
+        <v>6.32</v>
+      </c>
       <c r="H97" s="76"/>
-      <c r="I97" s="76"/>
+      <c r="I97" s="76" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="76"/>
       <c r="B98" s="76"/>
       <c r="C98" s="76"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="76"/>
-      <c r="F98" s="76"/>
-      <c r="G98" s="76"/>
+      <c r="D98" s="59">
+        <f t="shared" ref="D98:D108" si="17">+D97+1</f>
+        <v>2</v>
+      </c>
+      <c r="E98" s="94" t="s">
+        <v>554</v>
+      </c>
+      <c r="F98" s="76">
+        <f>+G97</f>
+        <v>6.32</v>
+      </c>
+      <c r="G98" s="76">
+        <v>10.18</v>
+      </c>
       <c r="H98" s="76"/>
       <c r="I98" s="76"/>
     </row>
@@ -14028,10 +14237,20 @@
       <c r="A99" s="76"/>
       <c r="B99" s="76"/>
       <c r="C99" s="76"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="76"/>
+      <c r="D99" s="59">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="E99" s="94" t="s">
+        <v>555</v>
+      </c>
+      <c r="F99" s="76">
+        <f t="shared" ref="F99:F108" si="18">+G98</f>
+        <v>10.18</v>
+      </c>
+      <c r="G99" s="76">
+        <v>13.58</v>
+      </c>
       <c r="H99" s="76"/>
       <c r="I99" s="76"/>
     </row>
@@ -14039,10 +14258,20 @@
       <c r="A100" s="76"/>
       <c r="B100" s="76"/>
       <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
+      <c r="D100" s="59">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="E100" s="94" t="s">
+        <v>556</v>
+      </c>
+      <c r="F100" s="76">
+        <f t="shared" si="18"/>
+        <v>13.58</v>
+      </c>
+      <c r="G100" s="76">
+        <v>17.57</v>
+      </c>
       <c r="H100" s="76"/>
       <c r="I100" s="76"/>
     </row>
@@ -14050,10 +14279,20 @@
       <c r="A101" s="76"/>
       <c r="B101" s="76"/>
       <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-      <c r="G101" s="76"/>
+      <c r="D101" s="59">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="E101" s="94" t="s">
+        <v>557</v>
+      </c>
+      <c r="F101" s="76">
+        <f t="shared" si="18"/>
+        <v>17.57</v>
+      </c>
+      <c r="G101" s="76">
+        <v>21.24</v>
+      </c>
       <c r="H101" s="76"/>
       <c r="I101" s="76"/>
     </row>
@@ -14061,10 +14300,20 @@
       <c r="A102" s="76"/>
       <c r="B102" s="76"/>
       <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="76"/>
-      <c r="G102" s="76"/>
+      <c r="D102" s="59">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="E102" s="94" t="s">
+        <v>558</v>
+      </c>
+      <c r="F102" s="76">
+        <f t="shared" si="18"/>
+        <v>21.24</v>
+      </c>
+      <c r="G102" s="76">
+        <v>25.02</v>
+      </c>
       <c r="H102" s="76"/>
       <c r="I102" s="76"/>
     </row>
@@ -14072,10 +14321,20 @@
       <c r="A103" s="76"/>
       <c r="B103" s="76"/>
       <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
+      <c r="D103" s="59">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="E103" s="94" t="s">
+        <v>559</v>
+      </c>
+      <c r="F103" s="76">
+        <f t="shared" si="18"/>
+        <v>25.02</v>
+      </c>
+      <c r="G103" s="76">
+        <v>29.13</v>
+      </c>
       <c r="H103" s="76"/>
       <c r="I103" s="76"/>
     </row>
@@ -14083,10 +14342,20 @@
       <c r="A104" s="76"/>
       <c r="B104" s="76"/>
       <c r="C104" s="76"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="76"/>
+      <c r="D104" s="59">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="E104" s="94" t="s">
+        <v>560</v>
+      </c>
+      <c r="F104" s="76">
+        <f t="shared" si="18"/>
+        <v>29.13</v>
+      </c>
+      <c r="G104" s="76">
+        <v>32.090000000000003</v>
+      </c>
       <c r="H104" s="76"/>
       <c r="I104" s="76"/>
     </row>
@@ -14094,10 +14363,20 @@
       <c r="A105" s="76"/>
       <c r="B105" s="76"/>
       <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="76"/>
-      <c r="G105" s="76"/>
+      <c r="D105" s="59">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="E105" s="94" t="s">
+        <v>561</v>
+      </c>
+      <c r="F105" s="76">
+        <f t="shared" si="18"/>
+        <v>32.090000000000003</v>
+      </c>
+      <c r="G105" s="76">
+        <v>34.54</v>
+      </c>
       <c r="H105" s="76"/>
       <c r="I105" s="76"/>
     </row>
@@ -14105,10 +14384,20 @@
       <c r="A106" s="76"/>
       <c r="B106" s="76"/>
       <c r="C106" s="76"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="76"/>
+      <c r="D106" s="59">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="E106" s="94" t="s">
+        <v>562</v>
+      </c>
+      <c r="F106" s="76">
+        <f t="shared" si="18"/>
+        <v>34.54</v>
+      </c>
+      <c r="G106" s="76">
+        <v>39.22</v>
+      </c>
       <c r="H106" s="76"/>
       <c r="I106" s="76"/>
     </row>
@@ -14116,10 +14405,20 @@
       <c r="A107" s="76"/>
       <c r="B107" s="76"/>
       <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="76"/>
-      <c r="F107" s="76"/>
-      <c r="G107" s="76"/>
+      <c r="D107" s="59">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="E107" s="94" t="s">
+        <v>563</v>
+      </c>
+      <c r="F107" s="76">
+        <f t="shared" si="18"/>
+        <v>39.22</v>
+      </c>
+      <c r="G107" s="76">
+        <v>44.49</v>
+      </c>
       <c r="H107" s="76"/>
       <c r="I107" s="76"/>
     </row>
@@ -14127,10 +14426,20 @@
       <c r="A108" s="76"/>
       <c r="B108" s="76"/>
       <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
+      <c r="D108" s="59">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="E108" s="94" t="s">
+        <v>564</v>
+      </c>
+      <c r="F108" s="76">
+        <f t="shared" si="18"/>
+        <v>44.49</v>
+      </c>
+      <c r="G108" s="76">
+        <v>47.25</v>
+      </c>
       <c r="H108" s="76"/>
       <c r="I108" s="76"/>
     </row>
@@ -14146,24 +14455,50 @@
       <c r="I109" s="76"/>
     </row>
     <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A110" s="76"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="76"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="76"/>
+      <c r="A110" s="76">
+        <v>18</v>
+      </c>
+      <c r="B110" s="77">
+        <v>44102</v>
+      </c>
+      <c r="C110" s="76">
+        <v>53.45</v>
+      </c>
+      <c r="D110" s="59">
+        <v>1</v>
+      </c>
+      <c r="E110" s="94" t="s">
+        <v>565</v>
+      </c>
+      <c r="F110" s="95">
+        <v>5.5</v>
+      </c>
+      <c r="G110" s="76">
+        <v>12.51</v>
+      </c>
       <c r="H110" s="76"/>
-      <c r="I110" s="76"/>
+      <c r="I110" s="76" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="76"/>
       <c r="B111" s="76"/>
       <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
+      <c r="D111" s="59">
+        <f t="shared" ref="D111:D113" si="19">+D110+1</f>
+        <v>2</v>
+      </c>
+      <c r="E111" s="94" t="s">
+        <v>566</v>
+      </c>
+      <c r="F111" s="76">
+        <f>+G110</f>
+        <v>12.51</v>
+      </c>
+      <c r="G111" s="76">
+        <v>27.58</v>
+      </c>
       <c r="H111" s="76"/>
       <c r="I111" s="76"/>
     </row>
@@ -14171,10 +14506,20 @@
       <c r="A112" s="76"/>
       <c r="B112" s="76"/>
       <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76"/>
+      <c r="D112" s="59">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="E112" s="94" t="s">
+        <v>567</v>
+      </c>
+      <c r="F112" s="76">
+        <f t="shared" ref="F112:F113" si="20">+G111</f>
+        <v>27.58</v>
+      </c>
+      <c r="G112" s="79">
+        <v>40.1</v>
+      </c>
       <c r="H112" s="76"/>
       <c r="I112" s="76"/>
     </row>
@@ -14182,11 +14527,23 @@
       <c r="A113" s="76"/>
       <c r="B113" s="76"/>
       <c r="C113" s="76"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76"/>
+      <c r="D113" s="59">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="E113" s="94" t="s">
+        <v>568</v>
+      </c>
+      <c r="F113" s="79">
+        <f t="shared" si="20"/>
+        <v>40.1</v>
+      </c>
+      <c r="G113" s="76">
+        <v>53.08</v>
+      </c>
+      <c r="H113" s="94" t="s">
+        <v>569</v>
+      </c>
       <c r="I113" s="76"/>
     </row>
     <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -14201,24 +14558,51 @@
       <c r="I114" s="76"/>
     </row>
     <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A115" s="76"/>
-      <c r="B115" s="76"/>
-      <c r="C115" s="76"/>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76"/>
-      <c r="I115" s="76"/>
+      <c r="A115" s="76">
+        <v>19</v>
+      </c>
+      <c r="B115" s="77">
+        <v>44103</v>
+      </c>
+      <c r="C115" s="76">
+        <v>39.24</v>
+      </c>
+      <c r="D115" s="59">
+        <v>1</v>
+      </c>
+      <c r="E115" s="94" t="s">
+        <v>570</v>
+      </c>
+      <c r="F115" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="G115" s="76">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="H115" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="I115" s="76" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="76"/>
       <c r="B116" s="76"/>
       <c r="C116" s="76"/>
-      <c r="D116" s="76"/>
-      <c r="E116" s="76"/>
-      <c r="F116" s="76"/>
-      <c r="G116" s="76"/>
+      <c r="D116" s="59">
+        <f t="shared" ref="D116:D118" si="21">+D115+1</f>
+        <v>2</v>
+      </c>
+      <c r="E116" s="96" t="s">
+        <v>571</v>
+      </c>
+      <c r="F116" s="76">
+        <v>10.43</v>
+      </c>
+      <c r="G116" s="76">
+        <v>28.05</v>
+      </c>
       <c r="H116" s="76"/>
       <c r="I116" s="76"/>
     </row>
@@ -14226,10 +14610,20 @@
       <c r="A117" s="76"/>
       <c r="B117" s="76"/>
       <c r="C117" s="76"/>
-      <c r="D117" s="76"/>
-      <c r="E117" s="76"/>
-      <c r="F117" s="76"/>
-      <c r="G117" s="76"/>
+      <c r="D117" s="59">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="E117" s="96" t="s">
+        <v>572</v>
+      </c>
+      <c r="F117" s="76">
+        <f>+G116</f>
+        <v>28.05</v>
+      </c>
+      <c r="G117" s="76">
+        <v>38.35</v>
+      </c>
       <c r="H117" s="76"/>
       <c r="I117" s="76"/>
     </row>
@@ -14237,7 +14631,7 @@
       <c r="A118" s="76"/>
       <c r="B118" s="76"/>
       <c r="C118" s="76"/>
-      <c r="D118" s="76"/>
+      <c r="D118" s="59"/>
       <c r="E118" s="76"/>
       <c r="F118" s="76"/>
       <c r="G118" s="76"/>
@@ -14776,4 +15170,2704 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I236"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="76">
+        <v>1</v>
+      </c>
+      <c r="B4" s="98">
+        <v>44103</v>
+      </c>
+      <c r="C4" s="55">
+        <v>39.24</v>
+      </c>
+      <c r="D4" s="54">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="F4" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="G4" s="55">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="59">
+        <f t="shared" ref="D5:D6" si="0">+D4+1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>571</v>
+      </c>
+      <c r="F5" s="76">
+        <v>10.43</v>
+      </c>
+      <c r="G5" s="76">
+        <v>28.05</v>
+      </c>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="59">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="96" t="s">
+        <v>574</v>
+      </c>
+      <c r="F6" s="76">
+        <f>+G5</f>
+        <v>28.05</v>
+      </c>
+      <c r="G6" s="76">
+        <v>38.35</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>575</v>
+      </c>
+      <c r="I6" s="76"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="96">
+        <v>2</v>
+      </c>
+      <c r="B8" s="99">
+        <v>44104</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="100">
+        <v>1</v>
+      </c>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="100">
+        <f>+D8+1</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="100">
+        <f>+D9+1</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="96"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="96"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="96"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="96"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="96"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="96"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="96"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="96"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="96"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="96"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="96"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="96"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="96"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="96"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="96"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="96"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="96"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="96"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="96"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="96"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="96"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="96"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="96"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A58" s="96"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="96"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="96"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="96"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62" s="96"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" s="96"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="96"/>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="96"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="96"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="96"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="96"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="96"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="96"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="96"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="96"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="96"/>
+      <c r="H70" s="96"/>
+      <c r="I70" s="96"/>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="96"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="96"/>
+      <c r="H71" s="96"/>
+      <c r="I71" s="96"/>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="96"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="96"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="96"/>
+      <c r="H72" s="96"/>
+      <c r="I72" s="96"/>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="96"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="96"/>
+      <c r="I73" s="96"/>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="96"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="96"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="96"/>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="96"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="96"/>
+      <c r="H76" s="96"/>
+      <c r="I76" s="96"/>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="96"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="96"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="96"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="96"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="96"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="96"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="96"/>
+      <c r="G79" s="96"/>
+      <c r="H79" s="96"/>
+      <c r="I79" s="96"/>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="96"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="96"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
+      <c r="G80" s="96"/>
+      <c r="H80" s="96"/>
+      <c r="I80" s="96"/>
+    </row>
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A81" s="96"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="96"/>
+      <c r="G81" s="96"/>
+      <c r="H81" s="96"/>
+      <c r="I81" s="96"/>
+    </row>
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A82" s="96"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="96"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="96"/>
+      <c r="G82" s="96"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="96"/>
+    </row>
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="96"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="96"/>
+      <c r="G83" s="96"/>
+      <c r="H83" s="96"/>
+      <c r="I83" s="96"/>
+    </row>
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="96"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="96"/>
+      <c r="G84" s="96"/>
+      <c r="H84" s="96"/>
+      <c r="I84" s="96"/>
+    </row>
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85" s="96"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="96"/>
+      <c r="E85" s="96"/>
+      <c r="F85" s="96"/>
+      <c r="G85" s="96"/>
+      <c r="H85" s="96"/>
+      <c r="I85" s="96"/>
+    </row>
+    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="96"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="96"/>
+      <c r="G86" s="96"/>
+      <c r="H86" s="96"/>
+      <c r="I86" s="96"/>
+    </row>
+    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87" s="96"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="96"/>
+      <c r="G87" s="96"/>
+      <c r="H87" s="96"/>
+      <c r="I87" s="96"/>
+    </row>
+    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A88" s="96"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="96"/>
+      <c r="E88" s="96"/>
+      <c r="F88" s="96"/>
+      <c r="G88" s="96"/>
+      <c r="H88" s="96"/>
+      <c r="I88" s="96"/>
+    </row>
+    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="96"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="96"/>
+      <c r="D89" s="96"/>
+      <c r="E89" s="96"/>
+      <c r="F89" s="96"/>
+      <c r="G89" s="96"/>
+      <c r="H89" s="96"/>
+      <c r="I89" s="96"/>
+    </row>
+    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90" s="96"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="96"/>
+      <c r="G90" s="96"/>
+      <c r="H90" s="96"/>
+      <c r="I90" s="96"/>
+    </row>
+    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91" s="96"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="96"/>
+      <c r="G91" s="96"/>
+      <c r="H91" s="96"/>
+      <c r="I91" s="96"/>
+    </row>
+    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92" s="96"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="96"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="96"/>
+      <c r="G92" s="96"/>
+      <c r="H92" s="96"/>
+      <c r="I92" s="96"/>
+    </row>
+    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A93" s="96"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="96"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="96"/>
+      <c r="G93" s="96"/>
+      <c r="H93" s="96"/>
+      <c r="I93" s="96"/>
+    </row>
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94" s="96"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="96"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="96"/>
+      <c r="G94" s="96"/>
+      <c r="H94" s="96"/>
+      <c r="I94" s="96"/>
+    </row>
+    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95" s="96"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="96"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="96"/>
+      <c r="G95" s="96"/>
+      <c r="H95" s="96"/>
+      <c r="I95" s="96"/>
+    </row>
+    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A96" s="96"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="96"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="96"/>
+      <c r="G96" s="96"/>
+      <c r="H96" s="96"/>
+      <c r="I96" s="96"/>
+    </row>
+    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A97" s="96"/>
+      <c r="B97" s="96"/>
+      <c r="C97" s="96"/>
+      <c r="D97" s="96"/>
+      <c r="E97" s="96"/>
+      <c r="F97" s="96"/>
+      <c r="G97" s="96"/>
+      <c r="H97" s="96"/>
+      <c r="I97" s="96"/>
+    </row>
+    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98" s="96"/>
+      <c r="B98" s="96"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="96"/>
+      <c r="E98" s="96"/>
+      <c r="F98" s="96"/>
+      <c r="G98" s="96"/>
+      <c r="H98" s="96"/>
+      <c r="I98" s="96"/>
+    </row>
+    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A99" s="96"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="96"/>
+      <c r="E99" s="96"/>
+      <c r="F99" s="96"/>
+      <c r="G99" s="96"/>
+      <c r="H99" s="96"/>
+      <c r="I99" s="96"/>
+    </row>
+    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A100" s="96"/>
+      <c r="B100" s="96"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="96"/>
+      <c r="E100" s="96"/>
+      <c r="F100" s="96"/>
+      <c r="G100" s="96"/>
+      <c r="H100" s="96"/>
+      <c r="I100" s="96"/>
+    </row>
+    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A101" s="96"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="96"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="96"/>
+      <c r="G101" s="96"/>
+      <c r="H101" s="96"/>
+      <c r="I101" s="96"/>
+    </row>
+    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" s="96"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="96"/>
+      <c r="G102" s="96"/>
+      <c r="H102" s="96"/>
+      <c r="I102" s="96"/>
+    </row>
+    <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A103" s="96"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="96"/>
+      <c r="D103" s="96"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="96"/>
+      <c r="G103" s="96"/>
+      <c r="H103" s="96"/>
+      <c r="I103" s="96"/>
+    </row>
+    <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A104" s="96"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="96"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="96"/>
+      <c r="G104" s="96"/>
+      <c r="H104" s="96"/>
+      <c r="I104" s="96"/>
+    </row>
+    <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A105" s="96"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="96"/>
+      <c r="D105" s="96"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="96"/>
+      <c r="G105" s="96"/>
+      <c r="H105" s="96"/>
+      <c r="I105" s="96"/>
+    </row>
+    <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A106" s="96"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="96"/>
+      <c r="F106" s="96"/>
+      <c r="G106" s="96"/>
+      <c r="H106" s="96"/>
+      <c r="I106" s="96"/>
+    </row>
+    <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A107" s="96"/>
+      <c r="B107" s="96"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="96"/>
+      <c r="E107" s="96"/>
+      <c r="F107" s="96"/>
+      <c r="G107" s="96"/>
+      <c r="H107" s="96"/>
+      <c r="I107" s="96"/>
+    </row>
+    <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A108" s="96"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="96"/>
+      <c r="E108" s="96"/>
+      <c r="F108" s="96"/>
+      <c r="G108" s="96"/>
+      <c r="H108" s="96"/>
+      <c r="I108" s="96"/>
+    </row>
+    <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A109" s="96"/>
+      <c r="B109" s="96"/>
+      <c r="C109" s="96"/>
+      <c r="D109" s="96"/>
+      <c r="E109" s="96"/>
+      <c r="F109" s="96"/>
+      <c r="G109" s="96"/>
+      <c r="H109" s="96"/>
+      <c r="I109" s="96"/>
+    </row>
+    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A110" s="96"/>
+      <c r="B110" s="96"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="96"/>
+      <c r="E110" s="96"/>
+      <c r="F110" s="96"/>
+      <c r="G110" s="96"/>
+      <c r="H110" s="96"/>
+      <c r="I110" s="96"/>
+    </row>
+    <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A111" s="96"/>
+      <c r="B111" s="96"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="96"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="96"/>
+      <c r="G111" s="96"/>
+      <c r="H111" s="96"/>
+      <c r="I111" s="96"/>
+    </row>
+    <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A112" s="96"/>
+      <c r="B112" s="96"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="96"/>
+      <c r="E112" s="96"/>
+      <c r="F112" s="96"/>
+      <c r="G112" s="96"/>
+      <c r="H112" s="96"/>
+      <c r="I112" s="96"/>
+    </row>
+    <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A113" s="96"/>
+      <c r="B113" s="96"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="96"/>
+      <c r="E113" s="96"/>
+      <c r="F113" s="96"/>
+      <c r="G113" s="96"/>
+      <c r="H113" s="96"/>
+      <c r="I113" s="96"/>
+    </row>
+    <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A114" s="96"/>
+      <c r="B114" s="96"/>
+      <c r="C114" s="96"/>
+      <c r="D114" s="96"/>
+      <c r="E114" s="96"/>
+      <c r="F114" s="96"/>
+      <c r="G114" s="96"/>
+      <c r="H114" s="96"/>
+      <c r="I114" s="96"/>
+    </row>
+    <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A115" s="96"/>
+      <c r="B115" s="96"/>
+      <c r="C115" s="96"/>
+      <c r="D115" s="96"/>
+      <c r="E115" s="96"/>
+      <c r="F115" s="96"/>
+      <c r="G115" s="96"/>
+      <c r="H115" s="96"/>
+      <c r="I115" s="96"/>
+    </row>
+    <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A116" s="96"/>
+      <c r="B116" s="96"/>
+      <c r="C116" s="96"/>
+      <c r="D116" s="96"/>
+      <c r="E116" s="96"/>
+      <c r="F116" s="96"/>
+      <c r="G116" s="96"/>
+      <c r="H116" s="96"/>
+      <c r="I116" s="96"/>
+    </row>
+    <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A117" s="96"/>
+      <c r="B117" s="96"/>
+      <c r="C117" s="96"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
+      <c r="F117" s="96"/>
+      <c r="G117" s="96"/>
+      <c r="H117" s="96"/>
+      <c r="I117" s="96"/>
+    </row>
+    <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A118" s="96"/>
+      <c r="B118" s="96"/>
+      <c r="C118" s="96"/>
+      <c r="D118" s="96"/>
+      <c r="E118" s="96"/>
+      <c r="F118" s="96"/>
+      <c r="G118" s="96"/>
+      <c r="H118" s="96"/>
+      <c r="I118" s="96"/>
+    </row>
+    <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A119" s="96"/>
+      <c r="B119" s="96"/>
+      <c r="C119" s="96"/>
+      <c r="D119" s="96"/>
+      <c r="E119" s="96"/>
+      <c r="F119" s="96"/>
+      <c r="G119" s="96"/>
+      <c r="H119" s="96"/>
+      <c r="I119" s="96"/>
+    </row>
+    <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A120" s="96"/>
+      <c r="B120" s="96"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="96"/>
+      <c r="F120" s="96"/>
+      <c r="G120" s="96"/>
+      <c r="H120" s="96"/>
+      <c r="I120" s="96"/>
+    </row>
+    <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A121" s="96"/>
+      <c r="B121" s="96"/>
+      <c r="C121" s="96"/>
+      <c r="D121" s="96"/>
+      <c r="E121" s="96"/>
+      <c r="F121" s="96"/>
+      <c r="G121" s="96"/>
+      <c r="H121" s="96"/>
+      <c r="I121" s="96"/>
+    </row>
+    <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A122" s="96"/>
+      <c r="B122" s="96"/>
+      <c r="C122" s="96"/>
+      <c r="D122" s="96"/>
+      <c r="E122" s="96"/>
+      <c r="F122" s="96"/>
+      <c r="G122" s="96"/>
+      <c r="H122" s="96"/>
+      <c r="I122" s="96"/>
+    </row>
+    <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A123" s="96"/>
+      <c r="B123" s="96"/>
+      <c r="C123" s="96"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
+      <c r="H123" s="96"/>
+      <c r="I123" s="96"/>
+    </row>
+    <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A124" s="96"/>
+      <c r="B124" s="96"/>
+      <c r="C124" s="96"/>
+      <c r="D124" s="96"/>
+      <c r="E124" s="96"/>
+      <c r="F124" s="96"/>
+      <c r="G124" s="96"/>
+      <c r="H124" s="96"/>
+      <c r="I124" s="96"/>
+    </row>
+    <row r="125" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A125" s="96"/>
+      <c r="B125" s="96"/>
+      <c r="C125" s="96"/>
+      <c r="D125" s="96"/>
+      <c r="E125" s="96"/>
+      <c r="F125" s="96"/>
+      <c r="G125" s="96"/>
+      <c r="H125" s="96"/>
+      <c r="I125" s="96"/>
+    </row>
+    <row r="126" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A126" s="96"/>
+      <c r="B126" s="96"/>
+      <c r="C126" s="96"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="96"/>
+      <c r="F126" s="96"/>
+      <c r="G126" s="96"/>
+      <c r="H126" s="96"/>
+      <c r="I126" s="96"/>
+    </row>
+    <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A127" s="96"/>
+      <c r="B127" s="96"/>
+      <c r="C127" s="96"/>
+      <c r="D127" s="96"/>
+      <c r="E127" s="96"/>
+      <c r="F127" s="96"/>
+      <c r="G127" s="96"/>
+      <c r="H127" s="96"/>
+      <c r="I127" s="96"/>
+    </row>
+    <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A128" s="96"/>
+      <c r="B128" s="96"/>
+      <c r="C128" s="96"/>
+      <c r="D128" s="96"/>
+      <c r="E128" s="96"/>
+      <c r="F128" s="96"/>
+      <c r="G128" s="96"/>
+      <c r="H128" s="96"/>
+      <c r="I128" s="96"/>
+    </row>
+    <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A129" s="96"/>
+      <c r="B129" s="96"/>
+      <c r="C129" s="96"/>
+      <c r="D129" s="96"/>
+      <c r="E129" s="96"/>
+      <c r="F129" s="96"/>
+      <c r="G129" s="96"/>
+      <c r="H129" s="96"/>
+      <c r="I129" s="96"/>
+    </row>
+    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A130" s="96"/>
+      <c r="B130" s="96"/>
+      <c r="C130" s="96"/>
+      <c r="D130" s="96"/>
+      <c r="E130" s="96"/>
+      <c r="F130" s="96"/>
+      <c r="G130" s="96"/>
+      <c r="H130" s="96"/>
+      <c r="I130" s="96"/>
+    </row>
+    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A131" s="96"/>
+      <c r="B131" s="96"/>
+      <c r="C131" s="96"/>
+      <c r="D131" s="96"/>
+      <c r="E131" s="96"/>
+      <c r="F131" s="96"/>
+      <c r="G131" s="96"/>
+      <c r="H131" s="96"/>
+      <c r="I131" s="96"/>
+    </row>
+    <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A132" s="96"/>
+      <c r="B132" s="96"/>
+      <c r="C132" s="96"/>
+      <c r="D132" s="96"/>
+      <c r="E132" s="96"/>
+      <c r="F132" s="96"/>
+      <c r="G132" s="96"/>
+      <c r="H132" s="96"/>
+      <c r="I132" s="96"/>
+    </row>
+    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A133" s="96"/>
+      <c r="B133" s="96"/>
+      <c r="C133" s="96"/>
+      <c r="D133" s="96"/>
+      <c r="E133" s="96"/>
+      <c r="F133" s="96"/>
+      <c r="G133" s="96"/>
+      <c r="H133" s="96"/>
+      <c r="I133" s="96"/>
+    </row>
+    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A134" s="96"/>
+      <c r="B134" s="96"/>
+      <c r="C134" s="96"/>
+      <c r="D134" s="96"/>
+      <c r="E134" s="96"/>
+      <c r="F134" s="96"/>
+      <c r="G134" s="96"/>
+      <c r="H134" s="96"/>
+      <c r="I134" s="96"/>
+    </row>
+    <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A135" s="96"/>
+      <c r="B135" s="96"/>
+      <c r="C135" s="96"/>
+      <c r="D135" s="96"/>
+      <c r="E135" s="96"/>
+      <c r="F135" s="96"/>
+      <c r="G135" s="96"/>
+      <c r="H135" s="96"/>
+      <c r="I135" s="96"/>
+    </row>
+    <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A136" s="96"/>
+      <c r="B136" s="96"/>
+      <c r="C136" s="96"/>
+      <c r="D136" s="96"/>
+      <c r="E136" s="96"/>
+      <c r="F136" s="96"/>
+      <c r="G136" s="96"/>
+      <c r="H136" s="96"/>
+      <c r="I136" s="96"/>
+    </row>
+    <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A137" s="96"/>
+      <c r="B137" s="96"/>
+      <c r="C137" s="96"/>
+      <c r="D137" s="96"/>
+      <c r="E137" s="96"/>
+      <c r="F137" s="96"/>
+      <c r="G137" s="96"/>
+      <c r="H137" s="96"/>
+      <c r="I137" s="96"/>
+    </row>
+    <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A138" s="96"/>
+      <c r="B138" s="96"/>
+      <c r="C138" s="96"/>
+      <c r="D138" s="96"/>
+      <c r="E138" s="96"/>
+      <c r="F138" s="96"/>
+      <c r="G138" s="96"/>
+      <c r="H138" s="96"/>
+      <c r="I138" s="96"/>
+    </row>
+    <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A139" s="96"/>
+      <c r="B139" s="96"/>
+      <c r="C139" s="96"/>
+      <c r="D139" s="96"/>
+      <c r="E139" s="96"/>
+      <c r="F139" s="96"/>
+      <c r="G139" s="96"/>
+      <c r="H139" s="96"/>
+      <c r="I139" s="96"/>
+    </row>
+    <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A140" s="96"/>
+      <c r="B140" s="96"/>
+      <c r="C140" s="96"/>
+      <c r="D140" s="96"/>
+      <c r="E140" s="96"/>
+      <c r="F140" s="96"/>
+      <c r="G140" s="96"/>
+      <c r="H140" s="96"/>
+      <c r="I140" s="96"/>
+    </row>
+    <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A141" s="96"/>
+      <c r="B141" s="96"/>
+      <c r="C141" s="96"/>
+      <c r="D141" s="96"/>
+      <c r="E141" s="96"/>
+      <c r="F141" s="96"/>
+      <c r="G141" s="96"/>
+      <c r="H141" s="96"/>
+      <c r="I141" s="96"/>
+    </row>
+    <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A142" s="96"/>
+      <c r="B142" s="96"/>
+      <c r="C142" s="96"/>
+      <c r="D142" s="96"/>
+      <c r="E142" s="96"/>
+      <c r="F142" s="96"/>
+      <c r="G142" s="96"/>
+      <c r="H142" s="96"/>
+      <c r="I142" s="96"/>
+    </row>
+    <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A143" s="96"/>
+      <c r="B143" s="96"/>
+      <c r="C143" s="96"/>
+      <c r="D143" s="96"/>
+      <c r="E143" s="96"/>
+      <c r="F143" s="96"/>
+      <c r="G143" s="96"/>
+      <c r="H143" s="96"/>
+      <c r="I143" s="96"/>
+    </row>
+    <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A144" s="96"/>
+      <c r="B144" s="96"/>
+      <c r="C144" s="96"/>
+      <c r="D144" s="96"/>
+      <c r="E144" s="96"/>
+      <c r="F144" s="96"/>
+      <c r="G144" s="96"/>
+      <c r="H144" s="96"/>
+      <c r="I144" s="96"/>
+    </row>
+    <row r="145" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A145" s="96"/>
+      <c r="B145" s="96"/>
+      <c r="C145" s="96"/>
+      <c r="D145" s="96"/>
+      <c r="E145" s="96"/>
+      <c r="F145" s="96"/>
+      <c r="G145" s="96"/>
+      <c r="H145" s="96"/>
+      <c r="I145" s="96"/>
+    </row>
+    <row r="146" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A146" s="96"/>
+      <c r="B146" s="96"/>
+      <c r="C146" s="96"/>
+      <c r="D146" s="96"/>
+      <c r="E146" s="96"/>
+      <c r="F146" s="96"/>
+      <c r="G146" s="96"/>
+      <c r="H146" s="96"/>
+      <c r="I146" s="96"/>
+    </row>
+    <row r="147" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A147" s="96"/>
+      <c r="B147" s="96"/>
+      <c r="C147" s="96"/>
+      <c r="D147" s="96"/>
+      <c r="E147" s="96"/>
+      <c r="F147" s="96"/>
+      <c r="G147" s="96"/>
+      <c r="H147" s="96"/>
+      <c r="I147" s="96"/>
+    </row>
+    <row r="148" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A148" s="96"/>
+      <c r="B148" s="96"/>
+      <c r="C148" s="96"/>
+      <c r="D148" s="96"/>
+      <c r="E148" s="96"/>
+      <c r="F148" s="96"/>
+      <c r="G148" s="96"/>
+      <c r="H148" s="96"/>
+      <c r="I148" s="96"/>
+    </row>
+    <row r="149" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A149" s="96"/>
+      <c r="B149" s="96"/>
+      <c r="C149" s="96"/>
+      <c r="D149" s="96"/>
+      <c r="E149" s="96"/>
+      <c r="F149" s="96"/>
+      <c r="G149" s="96"/>
+      <c r="H149" s="96"/>
+      <c r="I149" s="96"/>
+    </row>
+    <row r="150" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A150" s="96"/>
+      <c r="B150" s="96"/>
+      <c r="C150" s="96"/>
+      <c r="D150" s="96"/>
+      <c r="E150" s="96"/>
+      <c r="F150" s="96"/>
+      <c r="G150" s="96"/>
+      <c r="H150" s="96"/>
+      <c r="I150" s="96"/>
+    </row>
+    <row r="151" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A151" s="96"/>
+      <c r="B151" s="96"/>
+      <c r="C151" s="96"/>
+      <c r="D151" s="96"/>
+      <c r="E151" s="96"/>
+      <c r="F151" s="96"/>
+      <c r="G151" s="96"/>
+      <c r="H151" s="96"/>
+      <c r="I151" s="96"/>
+    </row>
+    <row r="152" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A152" s="96"/>
+      <c r="B152" s="96"/>
+      <c r="C152" s="96"/>
+      <c r="D152" s="96"/>
+      <c r="E152" s="96"/>
+      <c r="F152" s="96"/>
+      <c r="G152" s="96"/>
+      <c r="H152" s="96"/>
+      <c r="I152" s="96"/>
+    </row>
+    <row r="153" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A153" s="96"/>
+      <c r="B153" s="96"/>
+      <c r="C153" s="96"/>
+      <c r="D153" s="96"/>
+      <c r="E153" s="96"/>
+      <c r="F153" s="96"/>
+      <c r="G153" s="96"/>
+      <c r="H153" s="96"/>
+      <c r="I153" s="96"/>
+    </row>
+    <row r="154" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A154" s="96"/>
+      <c r="B154" s="96"/>
+      <c r="C154" s="96"/>
+      <c r="D154" s="96"/>
+      <c r="E154" s="96"/>
+      <c r="F154" s="96"/>
+      <c r="G154" s="96"/>
+      <c r="H154" s="96"/>
+      <c r="I154" s="96"/>
+    </row>
+    <row r="155" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A155" s="96"/>
+      <c r="B155" s="96"/>
+      <c r="C155" s="96"/>
+      <c r="D155" s="96"/>
+      <c r="E155" s="96"/>
+      <c r="F155" s="96"/>
+      <c r="G155" s="96"/>
+      <c r="H155" s="96"/>
+      <c r="I155" s="96"/>
+    </row>
+    <row r="156" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A156" s="96"/>
+      <c r="B156" s="96"/>
+      <c r="C156" s="96"/>
+      <c r="D156" s="96"/>
+      <c r="E156" s="96"/>
+      <c r="F156" s="96"/>
+      <c r="G156" s="96"/>
+      <c r="H156" s="96"/>
+      <c r="I156" s="96"/>
+    </row>
+    <row r="157" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A157" s="96"/>
+      <c r="B157" s="96"/>
+      <c r="C157" s="96"/>
+      <c r="D157" s="96"/>
+      <c r="E157" s="96"/>
+      <c r="F157" s="96"/>
+      <c r="G157" s="96"/>
+      <c r="H157" s="96"/>
+      <c r="I157" s="96"/>
+    </row>
+    <row r="158" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A158" s="96"/>
+      <c r="B158" s="96"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="96"/>
+      <c r="E158" s="96"/>
+      <c r="F158" s="96"/>
+      <c r="G158" s="96"/>
+      <c r="H158" s="96"/>
+      <c r="I158" s="96"/>
+    </row>
+    <row r="159" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A159" s="96"/>
+      <c r="B159" s="96"/>
+      <c r="C159" s="96"/>
+      <c r="D159" s="96"/>
+      <c r="E159" s="96"/>
+      <c r="F159" s="96"/>
+      <c r="G159" s="96"/>
+      <c r="H159" s="96"/>
+      <c r="I159" s="96"/>
+    </row>
+    <row r="160" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A160" s="96"/>
+      <c r="B160" s="96"/>
+      <c r="C160" s="96"/>
+      <c r="D160" s="96"/>
+      <c r="E160" s="96"/>
+      <c r="F160" s="96"/>
+      <c r="G160" s="96"/>
+      <c r="H160" s="96"/>
+      <c r="I160" s="96"/>
+    </row>
+    <row r="161" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A161" s="96"/>
+      <c r="B161" s="96"/>
+      <c r="C161" s="96"/>
+      <c r="D161" s="96"/>
+      <c r="E161" s="96"/>
+      <c r="F161" s="96"/>
+      <c r="G161" s="96"/>
+      <c r="H161" s="96"/>
+      <c r="I161" s="96"/>
+    </row>
+    <row r="162" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A162" s="96"/>
+      <c r="B162" s="96"/>
+      <c r="C162" s="96"/>
+      <c r="D162" s="96"/>
+      <c r="E162" s="96"/>
+      <c r="F162" s="96"/>
+      <c r="G162" s="96"/>
+      <c r="H162" s="96"/>
+      <c r="I162" s="96"/>
+    </row>
+    <row r="163" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A163" s="96"/>
+      <c r="B163" s="96"/>
+      <c r="C163" s="96"/>
+      <c r="D163" s="96"/>
+      <c r="E163" s="96"/>
+      <c r="F163" s="96"/>
+      <c r="G163" s="96"/>
+      <c r="H163" s="96"/>
+      <c r="I163" s="96"/>
+    </row>
+    <row r="164" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A164" s="96"/>
+      <c r="B164" s="96"/>
+      <c r="C164" s="96"/>
+      <c r="D164" s="96"/>
+      <c r="E164" s="96"/>
+      <c r="F164" s="96"/>
+      <c r="G164" s="96"/>
+      <c r="H164" s="96"/>
+      <c r="I164" s="96"/>
+    </row>
+    <row r="165" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A165" s="96"/>
+      <c r="B165" s="96"/>
+      <c r="C165" s="96"/>
+      <c r="D165" s="96"/>
+      <c r="E165" s="96"/>
+      <c r="F165" s="96"/>
+      <c r="G165" s="96"/>
+      <c r="H165" s="96"/>
+      <c r="I165" s="96"/>
+    </row>
+    <row r="166" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A166" s="96"/>
+      <c r="B166" s="96"/>
+      <c r="C166" s="96"/>
+      <c r="D166" s="96"/>
+      <c r="E166" s="96"/>
+      <c r="F166" s="96"/>
+      <c r="G166" s="96"/>
+      <c r="H166" s="96"/>
+      <c r="I166" s="96"/>
+    </row>
+    <row r="167" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A167" s="96"/>
+      <c r="B167" s="96"/>
+      <c r="C167" s="96"/>
+      <c r="D167" s="96"/>
+      <c r="E167" s="96"/>
+      <c r="F167" s="96"/>
+      <c r="G167" s="96"/>
+      <c r="H167" s="96"/>
+      <c r="I167" s="96"/>
+    </row>
+    <row r="168" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A168" s="96"/>
+      <c r="B168" s="96"/>
+      <c r="C168" s="96"/>
+      <c r="D168" s="96"/>
+      <c r="E168" s="96"/>
+      <c r="F168" s="96"/>
+      <c r="G168" s="96"/>
+      <c r="H168" s="96"/>
+      <c r="I168" s="96"/>
+    </row>
+    <row r="169" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A169" s="96"/>
+      <c r="B169" s="96"/>
+      <c r="C169" s="96"/>
+      <c r="D169" s="96"/>
+      <c r="E169" s="96"/>
+      <c r="F169" s="96"/>
+      <c r="G169" s="96"/>
+      <c r="H169" s="96"/>
+      <c r="I169" s="96"/>
+    </row>
+    <row r="170" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A170" s="96"/>
+      <c r="B170" s="96"/>
+      <c r="C170" s="96"/>
+      <c r="D170" s="96"/>
+      <c r="E170" s="96"/>
+      <c r="F170" s="96"/>
+      <c r="G170" s="96"/>
+      <c r="H170" s="96"/>
+      <c r="I170" s="96"/>
+    </row>
+    <row r="171" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A171" s="96"/>
+      <c r="B171" s="96"/>
+      <c r="C171" s="96"/>
+      <c r="D171" s="96"/>
+      <c r="E171" s="96"/>
+      <c r="F171" s="96"/>
+      <c r="G171" s="96"/>
+      <c r="H171" s="96"/>
+      <c r="I171" s="96"/>
+    </row>
+    <row r="172" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A172" s="96"/>
+      <c r="B172" s="96"/>
+      <c r="C172" s="96"/>
+      <c r="D172" s="96"/>
+      <c r="E172" s="96"/>
+      <c r="F172" s="96"/>
+      <c r="G172" s="96"/>
+      <c r="H172" s="96"/>
+      <c r="I172" s="96"/>
+    </row>
+    <row r="173" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A173" s="96"/>
+      <c r="B173" s="96"/>
+      <c r="C173" s="96"/>
+      <c r="D173" s="96"/>
+      <c r="E173" s="96"/>
+      <c r="F173" s="96"/>
+      <c r="G173" s="96"/>
+      <c r="H173" s="96"/>
+      <c r="I173" s="96"/>
+    </row>
+    <row r="174" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A174" s="96"/>
+      <c r="B174" s="96"/>
+      <c r="C174" s="96"/>
+      <c r="D174" s="96"/>
+      <c r="E174" s="96"/>
+      <c r="F174" s="96"/>
+      <c r="G174" s="96"/>
+      <c r="H174" s="96"/>
+      <c r="I174" s="96"/>
+    </row>
+    <row r="175" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A175" s="96"/>
+      <c r="B175" s="96"/>
+      <c r="C175" s="96"/>
+      <c r="D175" s="96"/>
+      <c r="E175" s="96"/>
+      <c r="F175" s="96"/>
+      <c r="G175" s="96"/>
+      <c r="H175" s="96"/>
+      <c r="I175" s="96"/>
+    </row>
+    <row r="176" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A176" s="96"/>
+      <c r="B176" s="96"/>
+      <c r="C176" s="96"/>
+      <c r="D176" s="96"/>
+      <c r="E176" s="96"/>
+      <c r="F176" s="96"/>
+      <c r="G176" s="96"/>
+      <c r="H176" s="96"/>
+      <c r="I176" s="96"/>
+    </row>
+    <row r="177" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A177" s="96"/>
+      <c r="B177" s="96"/>
+      <c r="C177" s="96"/>
+      <c r="D177" s="96"/>
+      <c r="E177" s="96"/>
+      <c r="F177" s="96"/>
+      <c r="G177" s="96"/>
+      <c r="H177" s="96"/>
+      <c r="I177" s="96"/>
+    </row>
+    <row r="178" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A178" s="96"/>
+      <c r="B178" s="96"/>
+      <c r="C178" s="96"/>
+      <c r="D178" s="96"/>
+      <c r="E178" s="96"/>
+      <c r="F178" s="96"/>
+      <c r="G178" s="96"/>
+      <c r="H178" s="96"/>
+      <c r="I178" s="96"/>
+    </row>
+    <row r="179" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A179" s="96"/>
+      <c r="B179" s="96"/>
+      <c r="C179" s="96"/>
+      <c r="D179" s="96"/>
+      <c r="E179" s="96"/>
+      <c r="F179" s="96"/>
+      <c r="G179" s="96"/>
+      <c r="H179" s="96"/>
+      <c r="I179" s="96"/>
+    </row>
+    <row r="180" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A180" s="96"/>
+      <c r="B180" s="96"/>
+      <c r="C180" s="96"/>
+      <c r="D180" s="96"/>
+      <c r="E180" s="96"/>
+      <c r="F180" s="96"/>
+      <c r="G180" s="96"/>
+      <c r="H180" s="96"/>
+      <c r="I180" s="96"/>
+    </row>
+    <row r="181" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A181" s="96"/>
+      <c r="B181" s="96"/>
+      <c r="C181" s="96"/>
+      <c r="D181" s="96"/>
+      <c r="E181" s="96"/>
+      <c r="F181" s="96"/>
+      <c r="G181" s="96"/>
+      <c r="H181" s="96"/>
+      <c r="I181" s="96"/>
+    </row>
+    <row r="182" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A182" s="96"/>
+      <c r="B182" s="96"/>
+      <c r="C182" s="96"/>
+      <c r="D182" s="96"/>
+      <c r="E182" s="96"/>
+      <c r="F182" s="96"/>
+      <c r="G182" s="96"/>
+      <c r="H182" s="96"/>
+      <c r="I182" s="96"/>
+    </row>
+    <row r="183" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A183" s="96"/>
+      <c r="B183" s="96"/>
+      <c r="C183" s="96"/>
+      <c r="D183" s="96"/>
+      <c r="E183" s="96"/>
+      <c r="F183" s="96"/>
+      <c r="G183" s="96"/>
+      <c r="H183" s="96"/>
+      <c r="I183" s="96"/>
+    </row>
+    <row r="184" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A184" s="96"/>
+      <c r="B184" s="96"/>
+      <c r="C184" s="96"/>
+      <c r="D184" s="96"/>
+      <c r="E184" s="96"/>
+      <c r="F184" s="96"/>
+      <c r="G184" s="96"/>
+      <c r="H184" s="96"/>
+      <c r="I184" s="96"/>
+    </row>
+    <row r="185" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A185" s="96"/>
+      <c r="B185" s="96"/>
+      <c r="C185" s="96"/>
+      <c r="D185" s="96"/>
+      <c r="E185" s="96"/>
+      <c r="F185" s="96"/>
+      <c r="G185" s="96"/>
+      <c r="H185" s="96"/>
+      <c r="I185" s="96"/>
+    </row>
+    <row r="186" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A186" s="96"/>
+      <c r="B186" s="96"/>
+      <c r="C186" s="96"/>
+      <c r="D186" s="96"/>
+      <c r="E186" s="96"/>
+      <c r="F186" s="96"/>
+      <c r="G186" s="96"/>
+      <c r="H186" s="96"/>
+      <c r="I186" s="96"/>
+    </row>
+    <row r="187" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A187" s="96"/>
+      <c r="B187" s="96"/>
+      <c r="C187" s="96"/>
+      <c r="D187" s="96"/>
+      <c r="E187" s="96"/>
+      <c r="F187" s="96"/>
+      <c r="G187" s="96"/>
+      <c r="H187" s="96"/>
+      <c r="I187" s="96"/>
+    </row>
+    <row r="188" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A188" s="96"/>
+      <c r="B188" s="96"/>
+      <c r="C188" s="96"/>
+      <c r="D188" s="96"/>
+      <c r="E188" s="96"/>
+      <c r="F188" s="96"/>
+      <c r="G188" s="96"/>
+      <c r="H188" s="96"/>
+      <c r="I188" s="96"/>
+    </row>
+    <row r="189" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A189" s="96"/>
+      <c r="B189" s="96"/>
+      <c r="C189" s="96"/>
+      <c r="D189" s="96"/>
+      <c r="E189" s="96"/>
+      <c r="F189" s="96"/>
+      <c r="G189" s="96"/>
+      <c r="H189" s="96"/>
+      <c r="I189" s="96"/>
+    </row>
+    <row r="190" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A190" s="96"/>
+      <c r="B190" s="96"/>
+      <c r="C190" s="96"/>
+      <c r="D190" s="96"/>
+      <c r="E190" s="96"/>
+      <c r="F190" s="96"/>
+      <c r="G190" s="96"/>
+      <c r="H190" s="96"/>
+      <c r="I190" s="96"/>
+    </row>
+    <row r="191" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A191" s="96"/>
+      <c r="B191" s="96"/>
+      <c r="C191" s="96"/>
+      <c r="D191" s="96"/>
+      <c r="E191" s="96"/>
+      <c r="F191" s="96"/>
+      <c r="G191" s="96"/>
+      <c r="H191" s="96"/>
+      <c r="I191" s="96"/>
+    </row>
+    <row r="192" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A192" s="96"/>
+      <c r="B192" s="96"/>
+      <c r="C192" s="96"/>
+      <c r="D192" s="96"/>
+      <c r="E192" s="96"/>
+      <c r="F192" s="96"/>
+      <c r="G192" s="96"/>
+      <c r="H192" s="96"/>
+      <c r="I192" s="96"/>
+    </row>
+    <row r="193" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A193" s="96"/>
+      <c r="B193" s="96"/>
+      <c r="C193" s="96"/>
+      <c r="D193" s="96"/>
+      <c r="E193" s="96"/>
+      <c r="F193" s="96"/>
+      <c r="G193" s="96"/>
+      <c r="H193" s="96"/>
+      <c r="I193" s="96"/>
+    </row>
+    <row r="194" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A194" s="96"/>
+      <c r="B194" s="96"/>
+      <c r="C194" s="96"/>
+      <c r="D194" s="96"/>
+      <c r="E194" s="96"/>
+      <c r="F194" s="96"/>
+      <c r="G194" s="96"/>
+      <c r="H194" s="96"/>
+      <c r="I194" s="96"/>
+    </row>
+    <row r="195" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A195" s="96"/>
+      <c r="B195" s="96"/>
+      <c r="C195" s="96"/>
+      <c r="D195" s="96"/>
+      <c r="E195" s="96"/>
+      <c r="F195" s="96"/>
+      <c r="G195" s="96"/>
+      <c r="H195" s="96"/>
+      <c r="I195" s="96"/>
+    </row>
+    <row r="196" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A196" s="96"/>
+      <c r="B196" s="96"/>
+      <c r="C196" s="96"/>
+      <c r="D196" s="96"/>
+      <c r="E196" s="96"/>
+      <c r="F196" s="96"/>
+      <c r="G196" s="96"/>
+      <c r="H196" s="96"/>
+      <c r="I196" s="96"/>
+    </row>
+    <row r="197" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A197" s="96"/>
+      <c r="B197" s="96"/>
+      <c r="C197" s="96"/>
+      <c r="D197" s="96"/>
+      <c r="E197" s="96"/>
+      <c r="F197" s="96"/>
+      <c r="G197" s="96"/>
+      <c r="H197" s="96"/>
+      <c r="I197" s="96"/>
+    </row>
+    <row r="198" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A198" s="96"/>
+      <c r="B198" s="96"/>
+      <c r="C198" s="96"/>
+      <c r="D198" s="96"/>
+      <c r="E198" s="96"/>
+      <c r="F198" s="96"/>
+      <c r="G198" s="96"/>
+      <c r="H198" s="96"/>
+      <c r="I198" s="96"/>
+    </row>
+    <row r="199" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A199" s="96"/>
+      <c r="B199" s="96"/>
+      <c r="C199" s="96"/>
+      <c r="D199" s="96"/>
+      <c r="E199" s="96"/>
+      <c r="F199" s="96"/>
+      <c r="G199" s="96"/>
+      <c r="H199" s="96"/>
+      <c r="I199" s="96"/>
+    </row>
+    <row r="200" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A200" s="96"/>
+      <c r="B200" s="96"/>
+      <c r="C200" s="96"/>
+      <c r="D200" s="96"/>
+      <c r="E200" s="96"/>
+      <c r="F200" s="96"/>
+      <c r="G200" s="96"/>
+      <c r="H200" s="96"/>
+      <c r="I200" s="96"/>
+    </row>
+    <row r="201" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A201" s="96"/>
+      <c r="B201" s="96"/>
+      <c r="C201" s="96"/>
+      <c r="D201" s="96"/>
+      <c r="E201" s="96"/>
+      <c r="F201" s="96"/>
+      <c r="G201" s="96"/>
+      <c r="H201" s="96"/>
+      <c r="I201" s="96"/>
+    </row>
+    <row r="202" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A202" s="96"/>
+      <c r="B202" s="96"/>
+      <c r="C202" s="96"/>
+      <c r="D202" s="96"/>
+      <c r="E202" s="96"/>
+      <c r="F202" s="96"/>
+      <c r="G202" s="96"/>
+      <c r="H202" s="96"/>
+      <c r="I202" s="96"/>
+    </row>
+    <row r="203" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A203" s="96"/>
+      <c r="B203" s="96"/>
+      <c r="C203" s="96"/>
+      <c r="D203" s="96"/>
+      <c r="E203" s="96"/>
+      <c r="F203" s="96"/>
+      <c r="G203" s="96"/>
+      <c r="H203" s="96"/>
+      <c r="I203" s="96"/>
+    </row>
+    <row r="204" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A204" s="96"/>
+      <c r="B204" s="96"/>
+      <c r="C204" s="96"/>
+      <c r="D204" s="96"/>
+      <c r="E204" s="96"/>
+      <c r="F204" s="96"/>
+      <c r="G204" s="96"/>
+      <c r="H204" s="96"/>
+      <c r="I204" s="96"/>
+    </row>
+    <row r="205" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A205" s="96"/>
+      <c r="B205" s="96"/>
+      <c r="C205" s="96"/>
+      <c r="D205" s="96"/>
+      <c r="E205" s="96"/>
+      <c r="F205" s="96"/>
+      <c r="G205" s="96"/>
+      <c r="H205" s="96"/>
+      <c r="I205" s="96"/>
+    </row>
+    <row r="206" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A206" s="96"/>
+      <c r="B206" s="96"/>
+      <c r="C206" s="96"/>
+      <c r="D206" s="96"/>
+      <c r="E206" s="96"/>
+      <c r="F206" s="96"/>
+      <c r="G206" s="96"/>
+      <c r="H206" s="96"/>
+      <c r="I206" s="96"/>
+    </row>
+    <row r="207" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A207" s="96"/>
+      <c r="B207" s="96"/>
+      <c r="C207" s="96"/>
+      <c r="D207" s="96"/>
+      <c r="E207" s="96"/>
+      <c r="F207" s="96"/>
+      <c r="G207" s="96"/>
+      <c r="H207" s="96"/>
+      <c r="I207" s="96"/>
+    </row>
+    <row r="208" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A208" s="96"/>
+      <c r="B208" s="96"/>
+      <c r="C208" s="96"/>
+      <c r="D208" s="96"/>
+      <c r="E208" s="96"/>
+      <c r="F208" s="96"/>
+      <c r="G208" s="96"/>
+      <c r="H208" s="96"/>
+      <c r="I208" s="96"/>
+    </row>
+    <row r="209" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A209" s="96"/>
+      <c r="B209" s="96"/>
+      <c r="C209" s="96"/>
+      <c r="D209" s="96"/>
+      <c r="E209" s="96"/>
+      <c r="F209" s="96"/>
+      <c r="G209" s="96"/>
+      <c r="H209" s="96"/>
+      <c r="I209" s="96"/>
+    </row>
+    <row r="210" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A210" s="96"/>
+      <c r="B210" s="96"/>
+      <c r="C210" s="96"/>
+      <c r="D210" s="96"/>
+      <c r="E210" s="96"/>
+      <c r="F210" s="96"/>
+      <c r="G210" s="96"/>
+      <c r="H210" s="96"/>
+      <c r="I210" s="96"/>
+    </row>
+    <row r="211" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A211" s="96"/>
+      <c r="B211" s="96"/>
+      <c r="C211" s="96"/>
+      <c r="D211" s="96"/>
+      <c r="E211" s="96"/>
+      <c r="F211" s="96"/>
+      <c r="G211" s="96"/>
+      <c r="H211" s="96"/>
+      <c r="I211" s="96"/>
+    </row>
+    <row r="212" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A212" s="96"/>
+      <c r="B212" s="96"/>
+      <c r="C212" s="96"/>
+      <c r="D212" s="96"/>
+      <c r="E212" s="96"/>
+      <c r="F212" s="96"/>
+      <c r="G212" s="96"/>
+      <c r="H212" s="96"/>
+      <c r="I212" s="96"/>
+    </row>
+    <row r="213" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A213" s="96"/>
+      <c r="B213" s="96"/>
+      <c r="C213" s="96"/>
+      <c r="D213" s="96"/>
+      <c r="E213" s="96"/>
+      <c r="F213" s="96"/>
+      <c r="G213" s="96"/>
+      <c r="H213" s="96"/>
+      <c r="I213" s="96"/>
+    </row>
+    <row r="214" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A214" s="96"/>
+      <c r="B214" s="96"/>
+      <c r="C214" s="96"/>
+      <c r="D214" s="96"/>
+      <c r="E214" s="96"/>
+      <c r="F214" s="96"/>
+      <c r="G214" s="96"/>
+      <c r="H214" s="96"/>
+      <c r="I214" s="96"/>
+    </row>
+    <row r="215" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A215" s="96"/>
+      <c r="B215" s="96"/>
+      <c r="C215" s="96"/>
+      <c r="D215" s="96"/>
+      <c r="E215" s="96"/>
+      <c r="F215" s="96"/>
+      <c r="G215" s="96"/>
+      <c r="H215" s="96"/>
+      <c r="I215" s="96"/>
+    </row>
+    <row r="216" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A216" s="96"/>
+      <c r="B216" s="96"/>
+      <c r="C216" s="96"/>
+      <c r="D216" s="96"/>
+      <c r="E216" s="96"/>
+      <c r="F216" s="96"/>
+      <c r="G216" s="96"/>
+      <c r="H216" s="96"/>
+      <c r="I216" s="96"/>
+    </row>
+    <row r="217" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A217" s="96"/>
+      <c r="B217" s="96"/>
+      <c r="C217" s="96"/>
+      <c r="D217" s="96"/>
+      <c r="E217" s="96"/>
+      <c r="F217" s="96"/>
+      <c r="G217" s="96"/>
+      <c r="H217" s="96"/>
+      <c r="I217" s="96"/>
+    </row>
+    <row r="218" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A218" s="96"/>
+      <c r="B218" s="96"/>
+      <c r="C218" s="96"/>
+      <c r="D218" s="96"/>
+      <c r="E218" s="96"/>
+      <c r="F218" s="96"/>
+      <c r="G218" s="96"/>
+      <c r="H218" s="96"/>
+      <c r="I218" s="96"/>
+    </row>
+    <row r="219" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A219" s="96"/>
+      <c r="B219" s="96"/>
+      <c r="C219" s="96"/>
+      <c r="D219" s="96"/>
+      <c r="E219" s="96"/>
+      <c r="F219" s="96"/>
+      <c r="G219" s="96"/>
+      <c r="H219" s="96"/>
+      <c r="I219" s="96"/>
+    </row>
+    <row r="220" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A220" s="96"/>
+      <c r="B220" s="96"/>
+      <c r="C220" s="96"/>
+      <c r="D220" s="96"/>
+      <c r="E220" s="96"/>
+      <c r="F220" s="96"/>
+      <c r="G220" s="96"/>
+      <c r="H220" s="96"/>
+      <c r="I220" s="96"/>
+    </row>
+    <row r="221" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A221" s="96"/>
+      <c r="B221" s="96"/>
+      <c r="C221" s="96"/>
+      <c r="D221" s="96"/>
+      <c r="E221" s="96"/>
+      <c r="F221" s="96"/>
+      <c r="G221" s="96"/>
+      <c r="H221" s="96"/>
+      <c r="I221" s="96"/>
+    </row>
+    <row r="222" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A222" s="96"/>
+      <c r="B222" s="96"/>
+      <c r="C222" s="96"/>
+      <c r="D222" s="96"/>
+      <c r="E222" s="96"/>
+      <c r="F222" s="96"/>
+      <c r="G222" s="96"/>
+      <c r="H222" s="96"/>
+      <c r="I222" s="96"/>
+    </row>
+    <row r="223" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A223" s="96"/>
+      <c r="B223" s="96"/>
+      <c r="C223" s="96"/>
+      <c r="D223" s="96"/>
+      <c r="E223" s="96"/>
+      <c r="F223" s="96"/>
+      <c r="G223" s="96"/>
+      <c r="H223" s="96"/>
+      <c r="I223" s="96"/>
+    </row>
+    <row r="224" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A224" s="96"/>
+      <c r="B224" s="96"/>
+      <c r="C224" s="96"/>
+      <c r="D224" s="96"/>
+      <c r="E224" s="96"/>
+      <c r="F224" s="96"/>
+      <c r="G224" s="96"/>
+      <c r="H224" s="96"/>
+      <c r="I224" s="96"/>
+    </row>
+    <row r="225" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A225" s="96"/>
+      <c r="B225" s="96"/>
+      <c r="C225" s="96"/>
+      <c r="D225" s="96"/>
+      <c r="E225" s="96"/>
+      <c r="F225" s="96"/>
+      <c r="G225" s="96"/>
+      <c r="H225" s="96"/>
+      <c r="I225" s="96"/>
+    </row>
+    <row r="226" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A226" s="96"/>
+      <c r="B226" s="96"/>
+      <c r="C226" s="96"/>
+      <c r="D226" s="96"/>
+      <c r="E226" s="96"/>
+      <c r="F226" s="96"/>
+      <c r="G226" s="96"/>
+      <c r="H226" s="96"/>
+      <c r="I226" s="96"/>
+    </row>
+    <row r="227" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A227" s="96"/>
+      <c r="B227" s="96"/>
+      <c r="C227" s="96"/>
+      <c r="D227" s="96"/>
+      <c r="E227" s="96"/>
+      <c r="F227" s="96"/>
+      <c r="G227" s="96"/>
+      <c r="H227" s="96"/>
+      <c r="I227" s="96"/>
+    </row>
+    <row r="228" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A228" s="96"/>
+      <c r="B228" s="96"/>
+      <c r="C228" s="96"/>
+      <c r="D228" s="96"/>
+      <c r="E228" s="96"/>
+      <c r="F228" s="96"/>
+      <c r="G228" s="96"/>
+      <c r="H228" s="96"/>
+      <c r="I228" s="96"/>
+    </row>
+    <row r="229" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A229" s="96"/>
+      <c r="B229" s="96"/>
+      <c r="C229" s="96"/>
+      <c r="D229" s="96"/>
+      <c r="E229" s="96"/>
+      <c r="F229" s="96"/>
+      <c r="G229" s="96"/>
+      <c r="H229" s="96"/>
+      <c r="I229" s="96"/>
+    </row>
+    <row r="230" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A230" s="96"/>
+      <c r="B230" s="96"/>
+      <c r="C230" s="96"/>
+      <c r="D230" s="96"/>
+      <c r="E230" s="96"/>
+      <c r="F230" s="96"/>
+      <c r="G230" s="96"/>
+      <c r="H230" s="96"/>
+      <c r="I230" s="96"/>
+    </row>
+    <row r="231" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A231" s="96"/>
+      <c r="B231" s="96"/>
+      <c r="C231" s="96"/>
+      <c r="D231" s="96"/>
+      <c r="E231" s="96"/>
+      <c r="F231" s="96"/>
+      <c r="G231" s="96"/>
+      <c r="H231" s="96"/>
+      <c r="I231" s="96"/>
+    </row>
+    <row r="232" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A232" s="96"/>
+      <c r="B232" s="96"/>
+      <c r="C232" s="96"/>
+      <c r="D232" s="96"/>
+      <c r="E232" s="96"/>
+      <c r="F232" s="96"/>
+      <c r="G232" s="96"/>
+      <c r="H232" s="96"/>
+      <c r="I232" s="96"/>
+    </row>
+    <row r="233" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A233" s="96"/>
+      <c r="B233" s="96"/>
+      <c r="C233" s="96"/>
+      <c r="D233" s="96"/>
+      <c r="E233" s="96"/>
+      <c r="F233" s="96"/>
+      <c r="G233" s="96"/>
+      <c r="H233" s="96"/>
+      <c r="I233" s="96"/>
+    </row>
+    <row r="234" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A234" s="96"/>
+      <c r="B234" s="96"/>
+      <c r="C234" s="96"/>
+      <c r="D234" s="96"/>
+      <c r="E234" s="96"/>
+      <c r="F234" s="96"/>
+      <c r="G234" s="96"/>
+      <c r="H234" s="96"/>
+      <c r="I234" s="96"/>
+    </row>
+    <row r="235" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A235" s="96"/>
+      <c r="B235" s="96"/>
+      <c r="C235" s="96"/>
+      <c r="D235" s="96"/>
+      <c r="E235" s="96"/>
+      <c r="F235" s="96"/>
+      <c r="G235" s="96"/>
+      <c r="H235" s="96"/>
+      <c r="I235" s="96"/>
+    </row>
+    <row r="236" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A236" s="96"/>
+      <c r="B236" s="96"/>
+      <c r="C236" s="96"/>
+      <c r="D236" s="96"/>
+      <c r="E236" s="96"/>
+      <c r="F236" s="96"/>
+      <c r="G236" s="96"/>
+      <c r="H236" s="96"/>
+      <c r="I236" s="96"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="587">
   <si>
     <t>Date</t>
   </si>
@@ -1747,19 +1747,64 @@
   </si>
   <si>
     <t>5.1.2.3</t>
+  </si>
+  <si>
+    <t>1.00.20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jFtIO5TY5Sw</t>
+  </si>
+  <si>
+    <t>5.1.2.4</t>
+  </si>
+  <si>
+    <t>5.1.3.1</t>
+  </si>
+  <si>
+    <t>5.1.4.1</t>
+  </si>
+  <si>
+    <t>5.1.5.1</t>
+  </si>
+  <si>
+    <t>5.1.5.5</t>
+  </si>
+  <si>
+    <t>5.1.5.6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Au57cjXkglA</t>
+  </si>
+  <si>
+    <t>5.1.6.1</t>
+  </si>
+  <si>
+    <t>5.1.7.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2214,78 +2259,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="68" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="70" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="69" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2293,18 +2340,18 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2318,18 +2365,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="68" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="70" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="69" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12220,8 +12268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14591,7 +14639,7 @@
       <c r="B116" s="76"/>
       <c r="C116" s="76"/>
       <c r="D116" s="59">
-        <f t="shared" ref="D116:D118" si="21">+D115+1</f>
+        <f t="shared" ref="D116:D117" si="21">+D115+1</f>
         <v>2</v>
       </c>
       <c r="E116" s="96" t="s">
@@ -15176,8 +15224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15331,15 +15379,25 @@
       <c r="B8" s="99">
         <v>44104</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="101" t="s">
+        <v>576</v>
+      </c>
       <c r="D8" s="100">
         <v>1</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
+      <c r="E8" s="101" t="s">
+        <v>578</v>
+      </c>
+      <c r="F8" s="96">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G8" s="102">
+        <v>15.3</v>
+      </c>
       <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
+      <c r="I8" s="96" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="96"/>
@@ -15348,9 +15406,16 @@
         <f>+D8+1</f>
         <v>2</v>
       </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
+      <c r="E9" s="101" t="s">
+        <v>579</v>
+      </c>
+      <c r="F9" s="79">
+        <f>+G8</f>
+        <v>15.3</v>
+      </c>
+      <c r="G9" s="96">
+        <v>30.25</v>
+      </c>
       <c r="H9" s="96"/>
       <c r="I9" s="96"/>
     </row>
@@ -15362,9 +15427,16 @@
         <f>+D9+1</f>
         <v>3</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
+      <c r="E10" s="101" t="s">
+        <v>580</v>
+      </c>
+      <c r="F10" s="79">
+        <f t="shared" ref="F10:F11" si="1">+G9</f>
+        <v>30.25</v>
+      </c>
+      <c r="G10" s="96">
+        <v>45.56</v>
+      </c>
       <c r="H10" s="96"/>
       <c r="I10" s="96"/>
     </row>
@@ -15372,11 +15444,23 @@
       <c r="A11" s="96"/>
       <c r="B11" s="96"/>
       <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
+      <c r="D11" s="100">
+        <f>+D10+1</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>581</v>
+      </c>
+      <c r="F11" s="79">
+        <f t="shared" si="1"/>
+        <v>45.56</v>
+      </c>
+      <c r="G11" s="102">
+        <v>59.4</v>
+      </c>
+      <c r="H11" s="103" t="s">
+        <v>582</v>
+      </c>
       <c r="I11" s="96"/>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -15391,24 +15475,50 @@
       <c r="I12" s="96"/>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
+      <c r="A13" s="96">
+        <v>3</v>
+      </c>
+      <c r="B13" s="99">
+        <v>44105</v>
+      </c>
+      <c r="C13" s="102">
+        <v>32.1</v>
+      </c>
+      <c r="D13" s="100">
+        <v>1</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>583</v>
+      </c>
+      <c r="F13" s="96">
+        <v>1.31</v>
+      </c>
+      <c r="G13" s="96">
+        <v>15.02</v>
+      </c>
       <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
+      <c r="I13" s="96" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
+      <c r="D14" s="100">
+        <f>+D13+1</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>585</v>
+      </c>
+      <c r="F14" s="96">
+        <f>+G13</f>
+        <v>15.02</v>
+      </c>
+      <c r="G14" s="96">
+        <v>28.22</v>
+      </c>
       <c r="H14" s="96"/>
       <c r="I14" s="96"/>
     </row>
@@ -15416,11 +15526,23 @@
       <c r="A15" s="96"/>
       <c r="B15" s="96"/>
       <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
+      <c r="D15" s="100">
+        <f>+D14+1</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>586</v>
+      </c>
+      <c r="F15" s="96">
+        <f>+G14</f>
+        <v>28.22</v>
+      </c>
+      <c r="G15" s="96">
+        <v>31.36</v>
+      </c>
+      <c r="H15" s="103" t="s">
+        <v>586</v>
+      </c>
       <c r="I15" s="96"/>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="588">
   <si>
     <t>Date</t>
   </si>
@@ -1780,19 +1780,28 @@
   </si>
   <si>
     <t>5.1.7.1</t>
+  </si>
+  <si>
+    <t>5.1.7.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2259,78 +2268,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="70" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="71" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="72" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2339,17 +2349,17 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2364,19 +2374,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="70" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="71" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="72" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -15224,8 +15234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15557,11 +15567,19 @@
       <c r="I16" s="96"/>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
+      <c r="A17" s="96">
+        <v>3</v>
+      </c>
+      <c r="B17" s="99">
+        <v>44106</v>
+      </c>
+      <c r="C17" s="102"/>
+      <c r="D17" s="100">
+        <v>1</v>
+      </c>
+      <c r="E17" s="104" t="s">
+        <v>587</v>
+      </c>
       <c r="F17" s="96"/>
       <c r="G17" s="96"/>
       <c r="H17" s="96"/>
@@ -15571,7 +15589,10 @@
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
+      <c r="D18" s="100">
+        <f>+D17+1</f>
+        <v>2</v>
+      </c>
       <c r="E18" s="96"/>
       <c r="F18" s="96"/>
       <c r="G18" s="96"/>
@@ -15582,7 +15603,10 @@
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
+      <c r="D19" s="100">
+        <f>+D18+1</f>
+        <v>3</v>
+      </c>
       <c r="E19" s="96"/>
       <c r="F19" s="96"/>
       <c r="G19" s="96"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="597">
   <si>
     <t>Date</t>
   </si>
@@ -1783,19 +1783,58 @@
   </si>
   <si>
     <t>5.1.7.2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1Pon2uK7hqo</t>
+  </si>
+  <si>
+    <t>5.1.8.1</t>
+  </si>
+  <si>
+    <t>5.1.9.1</t>
+  </si>
+  <si>
+    <t>5.1.10.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b4UIdTTT_Y0</t>
+  </si>
+  <si>
+    <t>5.1.10.3</t>
+  </si>
+  <si>
+    <t>5.1.10.4</t>
+  </si>
+  <si>
+    <t>5.1.11.1</t>
+  </si>
+  <si>
+    <t>5.2.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2268,78 +2307,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="71" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="73" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="72" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="74" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2347,18 +2388,18 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2372,20 +2413,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="71" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="73" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="72" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="74" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -15234,8 +15275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15573,17 +15614,25 @@
       <c r="B17" s="99">
         <v>44106</v>
       </c>
-      <c r="C17" s="102"/>
+      <c r="C17" s="102">
+        <v>55.53</v>
+      </c>
       <c r="D17" s="100">
         <v>1</v>
       </c>
       <c r="E17" s="104" t="s">
         <v>587</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
+      <c r="F17" s="96">
+        <v>1.05</v>
+      </c>
+      <c r="G17" s="96">
+        <v>9.43</v>
+      </c>
       <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
+      <c r="I17" s="96" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="96"/>
@@ -15593,9 +15642,16 @@
         <f>+D17+1</f>
         <v>2</v>
       </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
+      <c r="E18" s="105" t="s">
+        <v>589</v>
+      </c>
+      <c r="F18" s="96">
+        <f>+G17</f>
+        <v>9.43</v>
+      </c>
+      <c r="G18" s="96">
+        <v>30.35</v>
+      </c>
       <c r="H18" s="96"/>
       <c r="I18" s="96"/>
     </row>
@@ -15607,9 +15663,16 @@
         <f>+D18+1</f>
         <v>3</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
+      <c r="E19" s="105" t="s">
+        <v>590</v>
+      </c>
+      <c r="F19" s="96">
+        <f>+G18</f>
+        <v>30.35</v>
+      </c>
+      <c r="G19" s="96">
+        <v>46.27</v>
+      </c>
       <c r="H19" s="96"/>
       <c r="I19" s="96"/>
     </row>
@@ -15617,11 +15680,23 @@
       <c r="A20" s="96"/>
       <c r="B20" s="96"/>
       <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
+      <c r="D20" s="100">
+        <f>+D19+1</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="105" t="s">
+        <v>591</v>
+      </c>
+      <c r="F20" s="96">
+        <f>+G19</f>
+        <v>46.27</v>
+      </c>
+      <c r="G20" s="96">
+        <v>55.17</v>
+      </c>
+      <c r="H20" s="106" t="s">
+        <v>593</v>
+      </c>
       <c r="I20" s="96"/>
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -15636,35 +15711,72 @@
       <c r="I21" s="96"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
+      <c r="A22" s="96">
+        <v>4</v>
+      </c>
+      <c r="B22" s="99">
+        <v>44107</v>
+      </c>
+      <c r="C22" s="102">
+        <v>55.4</v>
+      </c>
+      <c r="D22" s="100">
+        <v>1</v>
+      </c>
+      <c r="E22" s="106" t="s">
+        <v>594</v>
+      </c>
+      <c r="F22" s="96">
+        <v>1.45</v>
+      </c>
+      <c r="G22" s="96">
+        <v>11.36</v>
+      </c>
       <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
+      <c r="I22" s="96" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
       <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
+      <c r="D23" s="100">
+        <f>+D22+1</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="106" t="s">
+        <v>595</v>
+      </c>
+      <c r="F23" s="96">
+        <f>+G22</f>
+        <v>11.36</v>
+      </c>
+      <c r="G23" s="96">
+        <v>25.53</v>
+      </c>
+      <c r="H23" s="106" t="s">
+        <v>152</v>
+      </c>
       <c r="I23" s="96"/>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
       <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
+      <c r="D24" s="100">
+        <f>+D23+1</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="106" t="s">
+        <v>596</v>
+      </c>
+      <c r="F24" s="96">
+        <v>31.29</v>
+      </c>
+      <c r="G24" s="96">
+        <v>54.14</v>
+      </c>
       <c r="H24" s="96"/>
       <c r="I24" s="96"/>
     </row>
@@ -15672,7 +15784,10 @@
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
       <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
+      <c r="D25" s="100">
+        <f>+D24+1</f>
+        <v>4</v>
+      </c>
       <c r="E25" s="96"/>
       <c r="F25" s="96"/>
       <c r="G25" s="96"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="601">
   <si>
     <t>Date</t>
   </si>
@@ -1810,19 +1810,37 @@
   </si>
   <si>
     <t>5.2.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1Dbz9_iNRjQ</t>
+  </si>
+  <si>
+    <t>5.2.2.1</t>
+  </si>
+  <si>
+    <t>5.2.3.1</t>
+  </si>
+  <si>
+    <t>5.2.4.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="77" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2307,78 +2325,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="73" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="74" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="74" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="75" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2387,17 +2406,17 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2412,19 +2431,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="73" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="74" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="74" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="75" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2736,9 +2755,9 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F148" sqref="F148"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15275,8 +15294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15784,10 +15803,7 @@
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
       <c r="C25" s="96"/>
-      <c r="D25" s="100">
-        <f>+D24+1</f>
-        <v>4</v>
-      </c>
+      <c r="D25" s="100"/>
       <c r="E25" s="96"/>
       <c r="F25" s="96"/>
       <c r="G25" s="96"/>
@@ -15795,24 +15811,50 @@
       <c r="I25" s="96"/>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
+      <c r="A26" s="96">
+        <v>5</v>
+      </c>
+      <c r="B26" s="99">
+        <v>44108</v>
+      </c>
+      <c r="C26" s="96">
+        <v>58.24</v>
+      </c>
+      <c r="D26" s="100">
+        <v>1</v>
+      </c>
+      <c r="E26" s="107" t="s">
+        <v>598</v>
+      </c>
+      <c r="F26" s="96">
+        <v>9.35</v>
+      </c>
+      <c r="G26" s="96">
+        <v>27.26</v>
+      </c>
       <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
+      <c r="I26" s="96" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="96"/>
       <c r="B27" s="96"/>
       <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
+      <c r="D27" s="100">
+        <f>+D26+1</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="107" t="s">
+        <v>599</v>
+      </c>
+      <c r="F27" s="96">
+        <f>+G26</f>
+        <v>27.26</v>
+      </c>
+      <c r="G27" s="96">
+        <v>49.08</v>
+      </c>
       <c r="H27" s="96"/>
       <c r="I27" s="96"/>
     </row>
@@ -15820,10 +15862,20 @@
       <c r="A28" s="96"/>
       <c r="B28" s="96"/>
       <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
+      <c r="D28" s="100">
+        <f>+D27+1</f>
+        <v>3</v>
+      </c>
+      <c r="E28" s="107" t="s">
+        <v>600</v>
+      </c>
+      <c r="F28" s="96">
+        <f>+G27</f>
+        <v>49.08</v>
+      </c>
+      <c r="G28" s="102">
+        <v>57.5</v>
+      </c>
       <c r="H28" s="96"/>
       <c r="I28" s="96"/>
     </row>
@@ -15831,7 +15883,10 @@
       <c r="A29" s="96"/>
       <c r="B29" s="96"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
+      <c r="D29" s="100">
+        <f>+D28+1</f>
+        <v>4</v>
+      </c>
       <c r="E29" s="96"/>
       <c r="F29" s="96"/>
       <c r="G29" s="96"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="606">
   <si>
     <t>Date</t>
   </si>
@@ -1822,19 +1822,40 @@
   </si>
   <si>
     <t>5.2.4.1</t>
+  </si>
+  <si>
+    <t>5.2.4.3</t>
+  </si>
+  <si>
+    <t>5.2.4.4</t>
+  </si>
+  <si>
+    <t>5.2.5.1</t>
+  </si>
+  <si>
+    <t>5.2.6.1</t>
+  </si>
+  <si>
+    <t>5.2.7.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="77" x14ac:knownFonts="1">
+  <fonts count="78" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2325,78 +2346,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="74" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="75" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="75" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="76" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2405,17 +2427,17 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2430,19 +2452,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="74" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="75" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="75" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="76" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2754,10 +2776,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M275"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15294,8 +15316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15876,17 +15898,16 @@
       <c r="G28" s="102">
         <v>57.5</v>
       </c>
-      <c r="H28" s="96"/>
+      <c r="H28" s="108" t="s">
+        <v>601</v>
+      </c>
       <c r="I28" s="96"/>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="96"/>
       <c r="B29" s="96"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="100">
-        <f>+D28+1</f>
-        <v>4</v>
-      </c>
+      <c r="D29" s="100"/>
       <c r="E29" s="96"/>
       <c r="F29" s="96"/>
       <c r="G29" s="96"/>
@@ -15894,13 +15915,27 @@
       <c r="I29" s="96"/>
     </row>
     <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
+      <c r="A30" s="96">
+        <v>6</v>
+      </c>
+      <c r="B30" s="99">
+        <v>44109</v>
+      </c>
+      <c r="C30" s="102">
+        <v>55.1</v>
+      </c>
+      <c r="D30" s="100">
+        <v>1</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>602</v>
+      </c>
+      <c r="F30" s="102">
+        <v>5.3</v>
+      </c>
+      <c r="G30" s="96">
+        <v>9.2899999999999991</v>
+      </c>
       <c r="H30" s="96"/>
       <c r="I30" s="96"/>
     </row>
@@ -15908,10 +15943,20 @@
       <c r="A31" s="96"/>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
+      <c r="D31" s="100">
+        <f>+D30+1</f>
+        <v>2</v>
+      </c>
+      <c r="E31" s="108" t="s">
+        <v>603</v>
+      </c>
+      <c r="F31" s="96">
+        <f>+G30</f>
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="G31" s="96">
+        <v>32.54</v>
+      </c>
       <c r="H31" s="96"/>
       <c r="I31" s="96"/>
     </row>
@@ -15919,10 +15964,20 @@
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
+      <c r="D32" s="100">
+        <f>+D31+1</f>
+        <v>3</v>
+      </c>
+      <c r="E32" s="108" t="s">
+        <v>604</v>
+      </c>
+      <c r="F32" s="96">
+        <f>+G31</f>
+        <v>32.54</v>
+      </c>
+      <c r="G32" s="96">
+        <v>51.24</v>
+      </c>
       <c r="H32" s="96"/>
       <c r="I32" s="96"/>
     </row>
@@ -15930,10 +15985,20 @@
       <c r="A33" s="96"/>
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
+      <c r="D33" s="100">
+        <f>+D32+1</f>
+        <v>4</v>
+      </c>
+      <c r="E33" s="108" t="s">
+        <v>605</v>
+      </c>
+      <c r="F33" s="96">
+        <f t="shared" ref="F33" si="2">+G32</f>
+        <v>51.24</v>
+      </c>
+      <c r="G33" s="96">
+        <v>54.26</v>
+      </c>
       <c r="H33" s="96"/>
       <c r="I33" s="96"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="618">
   <si>
     <t>Date</t>
   </si>
@@ -1837,19 +1838,67 @@
   </si>
   <si>
     <t>5.2.7.1</t>
+  </si>
+  <si>
+    <t>1.00.32</t>
+  </si>
+  <si>
+    <t>5.2.7.2</t>
+  </si>
+  <si>
+    <t>5.2.8.1</t>
+  </si>
+  <si>
+    <t>5.2.9.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=soZ8A0NqrTQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7EnTCwBJZi4</t>
+  </si>
+  <si>
+    <t>5.2.10.1</t>
+  </si>
+  <si>
+    <t>5.2.10.2</t>
+  </si>
+  <si>
+    <t>5.2.10.3</t>
+  </si>
+  <si>
+    <t>5.2.11.1</t>
+  </si>
+  <si>
+    <t>5.2.12.1</t>
+  </si>
+  <si>
+    <t>5.3.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="78" x14ac:knownFonts="1">
+  <fonts count="80" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2346,78 +2395,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="75" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="77" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="76" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="78" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2425,18 +2476,18 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2450,20 +2501,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="75" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="77" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="76" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="78" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2776,10 +2827,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15316,8 +15367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15937,7 +15988,9 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
+      <c r="I30" s="96" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
@@ -16014,24 +16067,50 @@
       <c r="I34" s="96"/>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
+      <c r="A35" s="96">
+        <v>7</v>
+      </c>
+      <c r="B35" s="99">
+        <v>44110</v>
+      </c>
+      <c r="C35" s="109" t="s">
+        <v>606</v>
+      </c>
+      <c r="D35" s="100">
+        <v>1</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>607</v>
+      </c>
+      <c r="F35" s="102">
+        <v>3</v>
+      </c>
+      <c r="G35" s="96">
+        <v>16.079999999999998</v>
+      </c>
       <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
+      <c r="I35" s="96" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="96"/>
       <c r="B36" s="96"/>
       <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
+      <c r="D36" s="100">
+        <f>+D35+1</f>
+        <v>2</v>
+      </c>
+      <c r="E36" s="109" t="s">
+        <v>608</v>
+      </c>
+      <c r="F36" s="96">
+        <f>+G35</f>
+        <v>16.079999999999998</v>
+      </c>
+      <c r="G36" s="102">
+        <v>38</v>
+      </c>
       <c r="H36" s="96"/>
       <c r="I36" s="96"/>
     </row>
@@ -16039,10 +16118,20 @@
       <c r="A37" s="96"/>
       <c r="B37" s="96"/>
       <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
+      <c r="D37" s="100">
+        <f>+D36+1</f>
+        <v>3</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>609</v>
+      </c>
+      <c r="F37" s="102">
+        <f>+G36</f>
+        <v>38</v>
+      </c>
+      <c r="G37" s="102">
+        <v>54.5</v>
+      </c>
       <c r="H37" s="96"/>
       <c r="I37" s="96"/>
     </row>
@@ -16050,11 +16139,23 @@
       <c r="A38" s="96"/>
       <c r="B38" s="96"/>
       <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
+      <c r="D38" s="100">
+        <f>+D37+1</f>
+        <v>4</v>
+      </c>
+      <c r="E38" s="110" t="s">
+        <v>612</v>
+      </c>
+      <c r="F38" s="102">
+        <f>+G37</f>
+        <v>54.5</v>
+      </c>
+      <c r="G38" s="96">
+        <v>59.56</v>
+      </c>
+      <c r="H38" s="110" t="s">
+        <v>613</v>
+      </c>
       <c r="I38" s="96"/>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16069,11 +16170,19 @@
       <c r="I39" s="96"/>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="96"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
+      <c r="A40" s="96">
+        <v>8</v>
+      </c>
+      <c r="B40" s="99">
+        <v>44111</v>
+      </c>
+      <c r="C40" s="109"/>
+      <c r="D40" s="100">
+        <v>1</v>
+      </c>
+      <c r="E40" s="110" t="s">
+        <v>614</v>
+      </c>
       <c r="F40" s="96"/>
       <c r="G40" s="96"/>
       <c r="H40" s="96"/>
@@ -16083,8 +16192,13 @@
       <c r="A41" s="96"/>
       <c r="B41" s="96"/>
       <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
+      <c r="D41" s="100">
+        <f>+D40+1</f>
+        <v>2</v>
+      </c>
+      <c r="E41" s="110" t="s">
+        <v>615</v>
+      </c>
       <c r="F41" s="96"/>
       <c r="G41" s="96"/>
       <c r="H41" s="96"/>
@@ -16094,8 +16208,13 @@
       <c r="A42" s="96"/>
       <c r="B42" s="96"/>
       <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
+      <c r="D42" s="100">
+        <f>+D41+1</f>
+        <v>3</v>
+      </c>
+      <c r="E42" s="110" t="s">
+        <v>616</v>
+      </c>
       <c r="F42" s="96"/>
       <c r="G42" s="96"/>
       <c r="H42" s="96"/>
@@ -16105,8 +16224,13 @@
       <c r="A43" s="96"/>
       <c r="B43" s="96"/>
       <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
+      <c r="D43" s="100">
+        <f>+D42+1</f>
+        <v>4</v>
+      </c>
+      <c r="E43" s="110" t="s">
+        <v>617</v>
+      </c>
       <c r="F43" s="96"/>
       <c r="G43" s="96"/>
       <c r="H43" s="96"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,11 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="641">
   <si>
     <t>Date</t>
   </si>
@@ -1874,19 +1873,118 @@
   </si>
   <si>
     <t>5.3.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q5X6x1Q6seQ</t>
+  </si>
+  <si>
+    <t>5.3.2.1</t>
+  </si>
+  <si>
+    <t>5.3.2.2</t>
+  </si>
+  <si>
+    <t>5.3.3.1</t>
+  </si>
+  <si>
+    <t>5.3.4.1</t>
+  </si>
+  <si>
+    <t>5.3.5.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UF65aY_augo</t>
+  </si>
+  <si>
+    <t>5.3.5.2</t>
+  </si>
+  <si>
+    <t>5.3.6.1</t>
+  </si>
+  <si>
+    <t>5.3.7.1</t>
+  </si>
+  <si>
+    <t>5.3.8.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1qvxuhCyam0</t>
+  </si>
+  <si>
+    <t>5.3.9.1</t>
+  </si>
+  <si>
+    <t>5.3.10.1</t>
+  </si>
+  <si>
+    <t>5.3.11.1</t>
+  </si>
+  <si>
+    <t>5.3.12.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8OnQAAEH5jk</t>
+  </si>
+  <si>
+    <t>5.4.1.1</t>
+  </si>
+  <si>
+    <t>5.4.2.1</t>
+  </si>
+  <si>
+    <t>5.4.3.1</t>
+  </si>
+  <si>
+    <t>5.4.4.1</t>
+  </si>
+  <si>
+    <t>5.4.5.1</t>
+  </si>
+  <si>
+    <t>5.4.6.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="80" x14ac:knownFonts="1">
+  <fonts count="85" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2395,97 +2493,102 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="77" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="82" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="83" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="83" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="78" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="78" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2496,23 +2599,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="82" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="83" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="77" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="78" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2827,10 +2930,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M275"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15367,8 +15470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16176,17 +16279,25 @@
       <c r="B40" s="99">
         <v>44111</v>
       </c>
-      <c r="C40" s="109"/>
+      <c r="C40" s="109">
+        <v>53.46</v>
+      </c>
       <c r="D40" s="100">
         <v>1</v>
       </c>
       <c r="E40" s="110" t="s">
         <v>614</v>
       </c>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
+      <c r="F40" s="102">
+        <v>4.3</v>
+      </c>
+      <c r="G40" s="102">
+        <v>20.25</v>
+      </c>
       <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
+      <c r="I40" s="96" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="96"/>
@@ -16199,8 +16310,13 @@
       <c r="E41" s="110" t="s">
         <v>615</v>
       </c>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
+      <c r="F41" s="102">
+        <f>+G40</f>
+        <v>20.25</v>
+      </c>
+      <c r="G41" s="102">
+        <v>25.34</v>
+      </c>
       <c r="H41" s="96"/>
       <c r="I41" s="96"/>
     </row>
@@ -16215,9 +16331,16 @@
       <c r="E42" s="110" t="s">
         <v>616</v>
       </c>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
+      <c r="F42" s="102">
+        <f t="shared" ref="F42" si="3">+G41</f>
+        <v>25.34</v>
+      </c>
+      <c r="G42" s="102">
+        <v>30.12</v>
+      </c>
+      <c r="H42" s="111" t="s">
+        <v>152</v>
+      </c>
       <c r="I42" s="96"/>
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16231,8 +16354,12 @@
       <c r="E43" s="110" t="s">
         <v>617</v>
       </c>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
+      <c r="F43" s="102">
+        <v>31.52</v>
+      </c>
+      <c r="G43" s="102">
+        <v>49.07</v>
+      </c>
       <c r="H43" s="96"/>
       <c r="I43" s="96"/>
     </row>
@@ -16240,11 +16367,23 @@
       <c r="A44" s="96"/>
       <c r="B44" s="96"/>
       <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
+      <c r="D44" s="100">
+        <f>+D43+1</f>
+        <v>5</v>
+      </c>
+      <c r="E44" s="111" t="s">
+        <v>619</v>
+      </c>
+      <c r="F44" s="102">
+        <f>+G43</f>
+        <v>49.07</v>
+      </c>
+      <c r="G44" s="102">
+        <v>52.5</v>
+      </c>
+      <c r="H44" s="112" t="s">
+        <v>619</v>
+      </c>
       <c r="I44" s="96"/>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16259,24 +16398,50 @@
       <c r="I45" s="96"/>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="96"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
+      <c r="A46" s="96">
+        <v>9</v>
+      </c>
+      <c r="B46" s="99">
+        <v>44112</v>
+      </c>
+      <c r="C46" s="96">
+        <v>58.37</v>
+      </c>
+      <c r="D46" s="100">
+        <v>1</v>
+      </c>
+      <c r="E46" s="112" t="s">
+        <v>620</v>
+      </c>
+      <c r="F46" s="96">
+        <v>3.05</v>
+      </c>
+      <c r="G46" s="102">
+        <v>16</v>
+      </c>
       <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
+      <c r="I46" s="96" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="96"/>
       <c r="B47" s="96"/>
       <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
+      <c r="D47" s="100">
+        <f>+D46+1</f>
+        <v>2</v>
+      </c>
+      <c r="E47" s="112" t="s">
+        <v>621</v>
+      </c>
+      <c r="F47" s="102">
+        <f>+G46</f>
+        <v>16</v>
+      </c>
+      <c r="G47" s="96">
+        <v>33.25</v>
+      </c>
       <c r="H47" s="96"/>
       <c r="I47" s="96"/>
     </row>
@@ -16284,10 +16449,20 @@
       <c r="A48" s="96"/>
       <c r="B48" s="96"/>
       <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
+      <c r="D48" s="100">
+        <f>+D47+1</f>
+        <v>3</v>
+      </c>
+      <c r="E48" s="112" t="s">
+        <v>622</v>
+      </c>
+      <c r="F48" s="102">
+        <f t="shared" ref="F48:F49" si="4">+G47</f>
+        <v>33.25</v>
+      </c>
+      <c r="G48" s="96">
+        <v>54.57</v>
+      </c>
       <c r="H48" s="96"/>
       <c r="I48" s="96"/>
     </row>
@@ -16295,11 +16470,23 @@
       <c r="A49" s="96"/>
       <c r="B49" s="96"/>
       <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
+      <c r="D49" s="100">
+        <f>+D48+1</f>
+        <v>4</v>
+      </c>
+      <c r="E49" s="112" t="s">
+        <v>623</v>
+      </c>
+      <c r="F49" s="102">
+        <f t="shared" si="4"/>
+        <v>54.57</v>
+      </c>
+      <c r="G49" s="96">
+        <v>58.01</v>
+      </c>
+      <c r="H49" s="112" t="s">
+        <v>623</v>
+      </c>
       <c r="I49" s="96"/>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16314,24 +16501,50 @@
       <c r="I50" s="96"/>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="96"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
+      <c r="A51" s="96">
+        <v>10</v>
+      </c>
+      <c r="B51" s="99">
+        <v>44113</v>
+      </c>
+      <c r="C51" s="96">
+        <v>56.52</v>
+      </c>
+      <c r="D51" s="100">
+        <v>1</v>
+      </c>
+      <c r="E51" s="112" t="s">
+        <v>625</v>
+      </c>
+      <c r="F51" s="96">
+        <v>3.19</v>
+      </c>
+      <c r="G51" s="96">
+        <v>18.079999999999998</v>
+      </c>
       <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
+      <c r="I51" s="96" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="96"/>
       <c r="B52" s="96"/>
       <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
+      <c r="D52" s="100">
+        <f>+D51+1</f>
+        <v>2</v>
+      </c>
+      <c r="E52" s="112" t="s">
+        <v>626</v>
+      </c>
+      <c r="F52" s="96">
+        <f>+G51</f>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="G52" s="102">
+        <v>29.2</v>
+      </c>
       <c r="H52" s="96"/>
       <c r="I52" s="96"/>
     </row>
@@ -16339,10 +16552,20 @@
       <c r="A53" s="96"/>
       <c r="B53" s="96"/>
       <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
+      <c r="D53" s="100">
+        <f>+D52+1</f>
+        <v>3</v>
+      </c>
+      <c r="E53" s="112" t="s">
+        <v>627</v>
+      </c>
+      <c r="F53" s="102">
+        <f t="shared" ref="F53:F54" si="5">+G52</f>
+        <v>29.2</v>
+      </c>
+      <c r="G53" s="96">
+        <v>46.18</v>
+      </c>
       <c r="H53" s="96"/>
       <c r="I53" s="96"/>
     </row>
@@ -16350,10 +16573,20 @@
       <c r="A54" s="96"/>
       <c r="B54" s="96"/>
       <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
+      <c r="D54" s="100">
+        <f>+D53+1</f>
+        <v>4</v>
+      </c>
+      <c r="E54" s="112" t="s">
+        <v>628</v>
+      </c>
+      <c r="F54" s="96">
+        <f t="shared" si="5"/>
+        <v>46.18</v>
+      </c>
+      <c r="G54" s="96">
+        <v>55.56</v>
+      </c>
       <c r="H54" s="96"/>
       <c r="I54" s="96"/>
     </row>
@@ -16369,24 +16602,50 @@
       <c r="I55" s="96"/>
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="96"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
+      <c r="A56" s="96">
+        <v>11</v>
+      </c>
+      <c r="B56" s="99">
+        <v>44114</v>
+      </c>
+      <c r="C56" s="96">
+        <v>59.39</v>
+      </c>
+      <c r="D56" s="100">
+        <v>1</v>
+      </c>
+      <c r="E56" s="113" t="s">
+        <v>630</v>
+      </c>
+      <c r="F56" s="102">
+        <v>1</v>
+      </c>
+      <c r="G56" s="96">
+        <v>8.0500000000000007</v>
+      </c>
       <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
+      <c r="I56" s="96" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="96"/>
       <c r="B57" s="96"/>
       <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
+      <c r="D57" s="100">
+        <f>+D56+1</f>
+        <v>2</v>
+      </c>
+      <c r="E57" s="113" t="s">
+        <v>631</v>
+      </c>
+      <c r="F57" s="96">
+        <f>+G56</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G57" s="96">
+        <v>20.03</v>
+      </c>
       <c r="H57" s="96"/>
       <c r="I57" s="96"/>
     </row>
@@ -16394,10 +16653,20 @@
       <c r="A58" s="96"/>
       <c r="B58" s="96"/>
       <c r="C58" s="96"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="96"/>
+      <c r="D58" s="100">
+        <f>+D57+1</f>
+        <v>3</v>
+      </c>
+      <c r="E58" s="113" t="s">
+        <v>632</v>
+      </c>
+      <c r="F58" s="96">
+        <f t="shared" ref="F58:F61" si="6">+G57</f>
+        <v>20.03</v>
+      </c>
+      <c r="G58" s="96">
+        <v>29.48</v>
+      </c>
       <c r="H58" s="96"/>
       <c r="I58" s="96"/>
     </row>
@@ -16405,10 +16674,20 @@
       <c r="A59" s="96"/>
       <c r="B59" s="96"/>
       <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="96"/>
+      <c r="D59" s="100">
+        <f>+D58+1</f>
+        <v>4</v>
+      </c>
+      <c r="E59" s="113" t="s">
+        <v>633</v>
+      </c>
+      <c r="F59" s="96">
+        <f t="shared" si="6"/>
+        <v>29.48</v>
+      </c>
+      <c r="G59" s="96">
+        <v>36.409999999999997</v>
+      </c>
       <c r="H59" s="96"/>
       <c r="I59" s="96"/>
     </row>
@@ -16416,10 +16695,20 @@
       <c r="A60" s="96"/>
       <c r="B60" s="96"/>
       <c r="C60" s="96"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
+      <c r="D60" s="100">
+        <f t="shared" ref="D60:D61" si="7">+D59+1</f>
+        <v>5</v>
+      </c>
+      <c r="E60" s="114" t="s">
+        <v>635</v>
+      </c>
+      <c r="F60" s="96">
+        <f t="shared" si="6"/>
+        <v>36.409999999999997</v>
+      </c>
+      <c r="G60" s="96">
+        <v>48.14</v>
+      </c>
       <c r="H60" s="96"/>
       <c r="I60" s="96"/>
     </row>
@@ -16427,10 +16716,20 @@
       <c r="A61" s="96"/>
       <c r="B61" s="96"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
+      <c r="D61" s="100">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E61" s="114" t="s">
+        <v>636</v>
+      </c>
+      <c r="F61" s="96">
+        <f t="shared" si="6"/>
+        <v>48.14</v>
+      </c>
+      <c r="G61" s="96">
+        <v>59.08</v>
+      </c>
       <c r="H61" s="96"/>
       <c r="I61" s="96"/>
     </row>
@@ -16446,11 +16745,19 @@
       <c r="I62" s="96"/>
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="96"/>
-      <c r="B63" s="96"/>
+      <c r="A63" s="96">
+        <v>12</v>
+      </c>
+      <c r="B63" s="99">
+        <v>44115</v>
+      </c>
       <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="96"/>
+      <c r="D63" s="100">
+        <v>1</v>
+      </c>
+      <c r="E63" s="115" t="s">
+        <v>637</v>
+      </c>
       <c r="F63" s="96"/>
       <c r="G63" s="96"/>
       <c r="H63" s="96"/>
@@ -16460,8 +16767,13 @@
       <c r="A64" s="96"/>
       <c r="B64" s="96"/>
       <c r="C64" s="96"/>
-      <c r="D64" s="96"/>
-      <c r="E64" s="96"/>
+      <c r="D64" s="100">
+        <f>+D63+1</f>
+        <v>2</v>
+      </c>
+      <c r="E64" s="115" t="s">
+        <v>638</v>
+      </c>
       <c r="F64" s="96"/>
       <c r="G64" s="96"/>
       <c r="H64" s="96"/>
@@ -16471,8 +16783,13 @@
       <c r="A65" s="96"/>
       <c r="B65" s="96"/>
       <c r="C65" s="96"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="96"/>
+      <c r="D65" s="100">
+        <f>+D64+1</f>
+        <v>3</v>
+      </c>
+      <c r="E65" s="115" t="s">
+        <v>639</v>
+      </c>
       <c r="F65" s="96"/>
       <c r="G65" s="96"/>
       <c r="H65" s="96"/>
@@ -16482,8 +16799,13 @@
       <c r="A66" s="96"/>
       <c r="B66" s="96"/>
       <c r="C66" s="96"/>
-      <c r="D66" s="96"/>
-      <c r="E66" s="96"/>
+      <c r="D66" s="100">
+        <f>+D65+1</f>
+        <v>4</v>
+      </c>
+      <c r="E66" s="115" t="s">
+        <v>640</v>
+      </c>
       <c r="F66" s="96"/>
       <c r="G66" s="96"/>
       <c r="H66" s="96"/>
@@ -16493,7 +16815,7 @@
       <c r="A67" s="96"/>
       <c r="B67" s="96"/>
       <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
+      <c r="D67" s="100"/>
       <c r="E67" s="96"/>
       <c r="F67" s="96"/>
       <c r="G67" s="96"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="659">
   <si>
     <t>Date</t>
   </si>
@@ -837,9 +837,6 @@
     <t>https://www.youtube.com/watch?v=MII0-WMiCRA</t>
   </si>
   <si>
-    <t>H3</t>
-  </si>
-  <si>
     <t>2.2.11.6</t>
   </si>
   <si>
@@ -1942,19 +1939,112 @@
   </si>
   <si>
     <t>5.4.6.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Km_f4mE1S4g</t>
+  </si>
+  <si>
+    <t>5.4.6.2</t>
+  </si>
+  <si>
+    <t>5.4.6.3</t>
+  </si>
+  <si>
+    <t>5.4.7.1</t>
+  </si>
+  <si>
+    <t>5.4.8.1</t>
+  </si>
+  <si>
+    <t>5.4.9.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E6Tivz6MEmY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RydQN59j44c</t>
+  </si>
+  <si>
+    <t>5.4.9.2</t>
+  </si>
+  <si>
+    <t>5.4.10.1</t>
+  </si>
+  <si>
+    <t>5.4.11.1</t>
+  </si>
+  <si>
+    <t>5.4.12.1</t>
+  </si>
+  <si>
+    <t>5.5.1.1</t>
+  </si>
+  <si>
+    <t>5.5.2.1</t>
+  </si>
+  <si>
+    <t>5.5.3.1</t>
+  </si>
+  <si>
+    <t>5.5.4.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-zWlmfF_IsE</t>
+  </si>
+  <si>
+    <t>5.5.4.2</t>
+  </si>
+  <si>
+    <t>Start H1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="85" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2461,7 +2551,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2480,6 +2570,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2493,97 +2589,103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="88" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="82" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="88" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="89" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="89" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="83" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="83" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2593,24 +2695,24 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="88" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="89" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="82" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="83" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2620,10 +2722,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2931,9 +3033,9 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3227,9 +3329,7 @@
       <c r="G16" s="6">
         <v>30.56</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>272</v>
-      </c>
+      <c r="H16" s="27"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -5323,7 +5423,7 @@
       <c r="G111" s="6">
         <v>53.04</v>
       </c>
-      <c r="H111" s="1"/>
+      <c r="H111" s="120"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -5343,7 +5443,9 @@
       <c r="B113" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C113" s="1"/>
+      <c r="C113" s="1">
+        <v>56.12</v>
+      </c>
       <c r="D113" s="4">
         <v>1</v>
       </c>
@@ -5496,7 +5598,9 @@
       <c r="G120" s="6">
         <v>47.24</v>
       </c>
-      <c r="H120" s="1"/>
+      <c r="H120" s="121" t="s">
+        <v>658</v>
+      </c>
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -8613,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F44" s="16">
         <v>4</v>
@@ -8623,7 +8727,7 @@
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -8635,7 +8739,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F45" s="16">
         <f>+G44</f>
@@ -8658,7 +8762,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F46" s="16">
         <v>37.200000000000003</v>
@@ -8678,7 +8782,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F47" s="16">
         <f>+G46</f>
@@ -8688,7 +8792,7 @@
         <v>58.32</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I47" s="15"/>
     </row>
@@ -8717,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F49" s="16">
         <v>3.12</v>
@@ -8727,7 +8831,7 @@
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -8739,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F50" s="16">
         <f>+G49</f>
@@ -8760,7 +8864,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F51" s="16">
         <f>+G50</f>
@@ -8781,7 +8885,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F52" s="16">
         <f>+G51</f>
@@ -8791,7 +8895,7 @@
         <v>56.53</v>
       </c>
       <c r="H52" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I52" s="15"/>
     </row>
@@ -8811,7 +8915,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C54" s="15">
         <v>54.34</v>
@@ -8820,7 +8924,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F54" s="16">
         <v>5.37</v>
@@ -8830,7 +8934,7 @@
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -8842,7 +8946,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F55" s="16">
         <f>+G54</f>
@@ -8863,7 +8967,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F56" s="16">
         <f>+G55</f>
@@ -8884,7 +8988,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F57" s="16">
         <f>+G56</f>
@@ -8905,7 +9009,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F58" s="16">
         <f>+G57</f>
@@ -8926,7 +9030,7 @@
         <v>6</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F59" s="16">
         <f>+G58</f>
@@ -8936,7 +9040,7 @@
         <v>53.35</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I59" s="15"/>
     </row>
@@ -8970,13 +9074,13 @@
         <v>44056</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F62" s="34">
         <v>2.21</v>
@@ -8986,7 +9090,7 @@
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -8998,7 +9102,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F63" s="16">
         <f>+G62</f>
@@ -9019,7 +9123,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F64" s="16">
         <f>+G63</f>
@@ -9042,7 +9146,7 @@
         <v>4</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F65" s="16">
         <v>36.520000000000003</v>
@@ -9062,7 +9166,7 @@
         <v>5</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F66" s="16">
         <f>+G65</f>
@@ -9072,7 +9176,7 @@
         <v>59.36</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I66" s="15"/>
     </row>
@@ -9101,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F68" s="16">
         <v>2.2200000000000002</v>
@@ -9113,7 +9217,7 @@
         <v>152</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -9125,7 +9229,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F69" s="16">
         <v>13.28</v>
@@ -9145,7 +9249,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F70" s="16">
         <f>+G69</f>
@@ -9166,7 +9270,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F71" s="16">
         <f>+G70</f>
@@ -9203,7 +9307,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F73" s="16">
         <v>3.15</v>
@@ -9213,7 +9317,7 @@
       </c>
       <c r="H73" s="15"/>
       <c r="I73" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -9225,7 +9329,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F74" s="16">
         <f>+G73</f>
@@ -9246,7 +9350,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F75" s="16">
         <f>+G74</f>
@@ -9267,7 +9371,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F76" s="16">
         <f>+G75</f>
@@ -9288,7 +9392,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F77" s="16">
         <f>+G76</f>
@@ -9309,7 +9413,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F78" s="16">
         <f>+G77</f>
@@ -9346,7 +9450,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F80" s="16">
         <v>2.33</v>
@@ -9356,7 +9460,7 @@
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -9368,7 +9472,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F81" s="16">
         <f>+G80</f>
@@ -9391,7 +9495,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F82" s="16">
         <v>40.1</v>
@@ -9400,7 +9504,7 @@
         <v>54.37</v>
       </c>
       <c r="H82" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I82" s="15"/>
     </row>
@@ -9421,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F84" s="40">
         <v>3.28</v>
@@ -9431,7 +9535,7 @@
       </c>
       <c r="H84" s="38"/>
       <c r="I84" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -9443,7 +9547,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F85" s="40">
         <f>+G84</f>
@@ -9464,7 +9568,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F86" s="40">
         <f>+G85</f>
@@ -9485,7 +9589,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F87" s="40">
         <v>38.369999999999997</v>
@@ -9494,7 +9598,7 @@
         <v>57.05</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I87" s="38"/>
     </row>
@@ -9523,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F89" s="40">
         <v>4.2699999999999996</v>
@@ -9533,7 +9637,7 @@
       </c>
       <c r="H89" s="38"/>
       <c r="I89" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -9545,7 +9649,7 @@
         <v>2</v>
       </c>
       <c r="E90" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F90" s="40">
         <f>+G89</f>
@@ -9553,10 +9657,10 @@
       </c>
       <c r="G90" s="40"/>
       <c r="H90" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I90" s="41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -9568,14 +9672,14 @@
         <v>3</v>
       </c>
       <c r="E91" s="41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F91" s="40"/>
       <c r="G91" s="40">
         <v>48.37</v>
       </c>
       <c r="H91" s="42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I91" s="38"/>
     </row>
@@ -9604,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F93" s="40">
         <v>2.3199999999999998</v>
@@ -9614,7 +9718,7 @@
       </c>
       <c r="H93" s="38"/>
       <c r="I93" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -9626,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F94" s="40">
         <f>+G93</f>
@@ -9649,7 +9753,7 @@
         <v>3</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F95" s="40">
         <v>32.32</v>
@@ -9685,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F97" s="40">
         <v>4.0199999999999996</v>
@@ -9695,7 +9799,7 @@
       </c>
       <c r="H97" s="38"/>
       <c r="I97" s="38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -9707,7 +9811,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F98" s="40">
         <f>+G97</f>
@@ -9726,14 +9830,14 @@
         <v>3</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F99" s="40"/>
       <c r="G99" s="40">
         <v>46.32</v>
       </c>
       <c r="H99" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I99" s="38"/>
     </row>
@@ -9762,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F101" s="40">
         <v>2.2200000000000002</v>
@@ -9774,7 +9878,7 @@
         <v>152</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -9786,7 +9890,7 @@
         <v>2</v>
       </c>
       <c r="E102" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F102" s="40">
         <v>23.57</v>
@@ -9806,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="E103" s="44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F103" s="40">
         <f>+G102</f>
@@ -9816,7 +9920,7 @@
         <v>55.02</v>
       </c>
       <c r="H103" s="44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I103" s="38"/>
     </row>
@@ -9839,13 +9943,13 @@
         <v>44065</v>
       </c>
       <c r="C105" s="45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
       </c>
       <c r="E105" s="45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F105" s="46">
         <v>2.2200000000000002</v>
@@ -9865,7 +9969,7 @@
         <v>2</v>
       </c>
       <c r="E106" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F106" s="40">
         <f>+G105</f>
@@ -9886,7 +9990,7 @@
         <v>3</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F107" s="40">
         <f>+G106</f>
@@ -9909,7 +10013,7 @@
         <v>4</v>
       </c>
       <c r="E108" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F108" s="40">
         <v>55.48</v>
@@ -9918,7 +10022,7 @@
         <v>59</v>
       </c>
       <c r="H108" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I108" s="38"/>
     </row>
@@ -9947,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F110" s="40">
         <v>3.18</v>
@@ -9957,7 +10061,7 @@
       </c>
       <c r="H110" s="38"/>
       <c r="I110" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -9969,7 +10073,7 @@
         <v>2</v>
       </c>
       <c r="E111" s="47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F111" s="40">
         <f>+G110</f>
@@ -9990,7 +10094,7 @@
         <v>3</v>
       </c>
       <c r="E112" s="47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F112" s="40">
         <f>+G111</f>
@@ -10000,7 +10104,7 @@
         <v>56.58</v>
       </c>
       <c r="H112" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I112" s="38"/>
     </row>
@@ -10029,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F114" s="40">
         <v>4.3600000000000003</v>
@@ -10039,7 +10143,7 @@
       </c>
       <c r="H114" s="38"/>
       <c r="I114" s="38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -10051,7 +10155,7 @@
         <v>2</v>
       </c>
       <c r="E115" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F115" s="40">
         <f>+G114</f>
@@ -10072,7 +10176,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="49" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F116" s="40">
         <f>+G115</f>
@@ -10093,7 +10197,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F117" s="40">
         <f>+G116</f>
@@ -10103,7 +10207,7 @@
         <v>55.5</v>
       </c>
       <c r="H117" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I117" s="38"/>
     </row>
@@ -10126,13 +10230,13 @@
         <v>44068</v>
       </c>
       <c r="C119" s="50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
       </c>
       <c r="E119" s="50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F119" s="40">
         <v>2.4300000000000002</v>
@@ -10142,7 +10246,7 @@
       </c>
       <c r="H119" s="38"/>
       <c r="I119" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -10154,7 +10258,7 @@
         <v>2</v>
       </c>
       <c r="E120" s="50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F120" s="40">
         <f>+G119</f>
@@ -10177,7 +10281,7 @@
         <v>3</v>
       </c>
       <c r="E121" s="50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F121" s="40">
         <v>47.44</v>
@@ -10186,7 +10290,7 @@
         <v>149</v>
       </c>
       <c r="H121" s="52" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I121" s="38"/>
     </row>
@@ -10215,17 +10319,17 @@
         <v>1</v>
       </c>
       <c r="E123" s="52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F123" s="40">
         <v>7.29</v>
       </c>
       <c r="G123" s="40"/>
       <c r="H123" s="52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -10237,7 +10341,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F124" s="40"/>
       <c r="G124" s="40">
@@ -10255,7 +10359,7 @@
         <v>3</v>
       </c>
       <c r="E125" s="53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F125" s="40">
         <f>+G124</f>
@@ -10292,7 +10396,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F127" s="40">
         <v>1.1499999999999999</v>
@@ -10302,7 +10406,7 @@
       </c>
       <c r="H127" s="38"/>
       <c r="I127" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -10314,7 +10418,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F128" s="40">
         <f>+G127</f>
@@ -10337,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="E129" s="53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F129" s="40">
         <v>37.36</v>
@@ -10357,7 +10461,7 @@
         <v>4</v>
       </c>
       <c r="E130" s="53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F130" s="40">
         <f>+G129</f>
@@ -10367,7 +10471,7 @@
         <v>55.04</v>
       </c>
       <c r="H130" s="53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I130" s="38"/>
     </row>
@@ -10494,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F4" s="56">
         <v>1.1499999999999999</v>
@@ -10504,7 +10608,7 @@
       </c>
       <c r="H4" s="55"/>
       <c r="I4" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.25">
@@ -10516,7 +10620,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F5" s="56">
         <f>+G4</f>
@@ -10539,7 +10643,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F6" s="40">
         <v>37.36</v>
@@ -10559,7 +10663,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F7" s="40">
         <f>+G6</f>
@@ -10569,7 +10673,7 @@
         <v>55.04</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I7" s="38"/>
     </row>
@@ -10587,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F9" s="57">
         <v>7.42</v>
@@ -10597,7 +10701,7 @@
       </c>
       <c r="H9" s="57"/>
       <c r="I9" s="57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J9" s="57"/>
       <c r="K9" s="57"/>
@@ -10613,7 +10717,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F10" s="57">
         <f>+G9</f>
@@ -10638,7 +10742,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F11" s="60">
         <f>+G10</f>
@@ -10663,7 +10767,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F12" s="57">
         <f>+G11</f>
@@ -10688,7 +10792,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F13" s="57">
         <f>+G12</f>
@@ -10733,7 +10837,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F15" s="60">
         <v>3.1</v>
@@ -10743,7 +10847,7 @@
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
@@ -10759,7 +10863,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F16" s="57">
         <f>+G15</f>
@@ -10784,7 +10888,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F17" s="57">
         <f>+G16</f>
@@ -10809,7 +10913,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F18" s="57">
         <f>+G17</f>
@@ -10854,7 +10958,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F20" s="57">
         <v>5.05</v>
@@ -10864,7 +10968,7 @@
       </c>
       <c r="H20" s="57"/>
       <c r="I20" s="57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J20" s="57"/>
       <c r="K20" s="57"/>
@@ -10880,7 +10984,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F21" s="57">
         <f>+G20</f>
@@ -10907,7 +11011,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F22" s="60">
         <v>40.200000000000003</v>
@@ -10931,7 +11035,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F23" s="57">
         <f>+G22</f>
@@ -10967,7 +11071,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C25" s="57">
         <v>59.38</v>
@@ -10976,7 +11080,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F25" s="57">
         <v>5.56</v>
@@ -10986,7 +11090,7 @@
       </c>
       <c r="H25" s="57"/>
       <c r="I25" s="57" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J25" s="57"/>
       <c r="K25" s="57"/>
@@ -11002,7 +11106,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F26" s="57">
         <f>+G25</f>
@@ -11027,7 +11131,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F27" s="57">
         <f>+G26</f>
@@ -11072,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F29" s="57">
         <v>3.53</v>
@@ -11082,7 +11186,7 @@
       </c>
       <c r="H29" s="57"/>
       <c r="I29" s="57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J29" s="57"/>
       <c r="K29" s="57"/>
@@ -11098,7 +11202,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F30" s="60">
         <f>+G29</f>
@@ -11123,7 +11227,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F31" s="60">
         <f>+G30</f>
@@ -11148,7 +11252,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F32" s="57">
         <f>+G31</f>
@@ -11158,7 +11262,7 @@
         <v>57.46</v>
       </c>
       <c r="H32" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I32" s="57"/>
       <c r="J32" s="57"/>
@@ -11195,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F34" s="60">
         <v>4.5</v>
@@ -11205,7 +11309,7 @@
       </c>
       <c r="H34" s="57"/>
       <c r="I34" s="57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J34" s="57"/>
       <c r="K34" s="57"/>
@@ -11221,7 +11325,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F35" s="57">
         <f t="shared" ref="F35:F40" si="1">+G34</f>
@@ -11246,7 +11350,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F36" s="57">
         <f t="shared" si="1"/>
@@ -11271,7 +11375,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F37" s="57">
         <f t="shared" si="1"/>
@@ -11296,7 +11400,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F38" s="57">
         <f t="shared" si="1"/>
@@ -11321,7 +11425,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F39" s="57">
         <f t="shared" si="1"/>
@@ -11346,7 +11450,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="65" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F40" s="57">
         <f t="shared" si="1"/>
@@ -11356,7 +11460,7 @@
         <v>53.46</v>
       </c>
       <c r="H40" s="66" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>
@@ -11393,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F42" s="57">
         <v>4.4800000000000004</v>
@@ -11403,7 +11507,7 @@
       </c>
       <c r="H42" s="57"/>
       <c r="I42" s="57" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J42" s="57"/>
       <c r="K42" s="57"/>
@@ -11419,7 +11523,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="66" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F43" s="60">
         <f>+G42</f>
@@ -11444,7 +11548,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="66" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F44" s="60">
         <f>+G43</f>
@@ -11469,7 +11573,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F45" s="60">
         <f>+G44</f>
@@ -11494,7 +11598,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F46" s="60">
         <f>+G45</f>
@@ -11539,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F48" s="60">
         <v>1.2</v>
@@ -11549,7 +11653,7 @@
       </c>
       <c r="H48" s="57"/>
       <c r="I48" s="57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J48" s="57"/>
       <c r="K48" s="57"/>
@@ -11565,7 +11669,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F49" s="57">
         <f>+G48</f>
@@ -11590,7 +11694,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F50" s="57">
         <f>+G49</f>
@@ -11615,7 +11719,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="67" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F51" s="57">
         <f>+G50</f>
@@ -11625,7 +11729,7 @@
         <v>33.090000000000003</v>
       </c>
       <c r="H51" s="68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J51" s="57"/>
       <c r="K51" s="57"/>
@@ -11661,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F53" s="57">
         <v>5.18</v>
@@ -11671,7 +11775,7 @@
       </c>
       <c r="H53" s="57"/>
       <c r="I53" s="57" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J53" s="57"/>
       <c r="K53" s="57"/>
@@ -11687,7 +11791,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F54" s="57">
         <f>+G53</f>
@@ -11712,7 +11816,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F55" s="57">
         <f>+G54</f>
@@ -11737,7 +11841,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F56" s="57">
         <f>+G55</f>
@@ -11762,7 +11866,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F57" s="57">
         <f>+G56</f>
@@ -11787,7 +11891,7 @@
         <v>6</v>
       </c>
       <c r="E58" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F58" s="57">
         <f>+G57</f>
@@ -11797,7 +11901,7 @@
         <v>57.19</v>
       </c>
       <c r="H58" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I58" s="57"/>
       <c r="J58" s="57"/>
@@ -11834,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F60" s="57">
         <v>8.09</v>
@@ -11844,7 +11948,7 @@
       </c>
       <c r="H60" s="57"/>
       <c r="I60" s="57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J60" s="57"/>
       <c r="K60" s="57"/>
@@ -11860,7 +11964,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F61" s="57">
         <f>+G60</f>
@@ -11885,7 +11989,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="69" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F62" s="57">
         <f>+G61</f>
@@ -11907,7 +12011,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F63" s="57">
         <f>+G62</f>
@@ -11917,7 +12021,7 @@
         <v>54.5</v>
       </c>
       <c r="H63" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.25">
@@ -11945,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="71" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F65" s="71">
         <v>4.2699999999999996</v>
@@ -11955,7 +12059,7 @@
       </c>
       <c r="H65" s="71"/>
       <c r="I65" s="71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -11967,7 +12071,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="71" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F66" s="71">
         <f>+G65</f>
@@ -11988,7 +12092,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="71" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F67" s="71">
         <f>+G66</f>
@@ -12009,7 +12113,7 @@
         <v>4</v>
       </c>
       <c r="E68" s="71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F68" s="71">
         <f>+G67</f>
@@ -12019,7 +12123,7 @@
         <v>56.51</v>
       </c>
       <c r="H68" s="73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I68" s="71"/>
     </row>
@@ -12048,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="73" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F70" s="71">
         <v>5.35</v>
@@ -12058,7 +12162,7 @@
       </c>
       <c r="H70" s="71"/>
       <c r="I70" s="71" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -12070,7 +12174,7 @@
         <v>2</v>
       </c>
       <c r="E71" s="73" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F71" s="71">
         <f>+G70</f>
@@ -12091,7 +12195,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F72" s="71">
         <f>+G71</f>
@@ -12112,7 +12216,7 @@
         <v>4</v>
       </c>
       <c r="E73" s="73" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F73" s="71">
         <f>+G72</f>
@@ -12149,7 +12253,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="74" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F75" s="71">
         <v>4.03</v>
@@ -12159,7 +12263,7 @@
       </c>
       <c r="H75" s="71"/>
       <c r="I75" s="71" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -12171,7 +12275,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="74" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F76" s="71">
         <f>+G75</f>
@@ -12192,7 +12296,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F77" s="71">
         <f>+G76</f>
@@ -12213,7 +12317,7 @@
         <v>4</v>
       </c>
       <c r="E78" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F78" s="71">
         <f>+G77</f>
@@ -12234,7 +12338,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F79" s="71">
         <f>+G78</f>
@@ -12255,7 +12359,7 @@
         <v>6</v>
       </c>
       <c r="E80" s="74" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F80" s="71">
         <f>+G79</f>
@@ -12292,7 +12396,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="75" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F82" s="71">
         <v>4.05</v>
@@ -12302,7 +12406,7 @@
       </c>
       <c r="H82" s="71"/>
       <c r="I82" s="71" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -12592,7 +12696,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F4" s="55">
         <v>4.05</v>
@@ -12604,7 +12708,7 @@
         <v>152</v>
       </c>
       <c r="I4" s="71" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -12616,7 +12720,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F5" s="71">
         <v>27.12</v>
@@ -12636,7 +12740,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F6" s="71">
         <f>+G5</f>
@@ -12646,7 +12750,7 @@
         <v>54.28</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I6" s="71"/>
     </row>
@@ -12675,7 +12779,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F8" s="71">
         <v>3.14</v>
@@ -12685,7 +12789,7 @@
       </c>
       <c r="H8" s="71"/>
       <c r="I8" s="71" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -12697,7 +12801,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F9" s="76">
         <f>+G8</f>
@@ -12718,7 +12822,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F10" s="76">
         <f>+G9</f>
@@ -12739,7 +12843,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F11" s="76">
         <f t="shared" ref="F11:F12" si="1">+G10</f>
@@ -12760,7 +12864,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F12" s="76">
         <f t="shared" si="1"/>
@@ -12770,7 +12874,7 @@
         <v>46.36</v>
       </c>
       <c r="H12" s="76" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I12" s="76"/>
     </row>
@@ -12799,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F14" s="76">
         <v>2.5499999999999998</v>
@@ -12809,7 +12913,7 @@
       </c>
       <c r="H14" s="76"/>
       <c r="I14" s="76" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -12821,7 +12925,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F15" s="79">
         <f>+G14</f>
@@ -12841,7 +12945,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="78" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F16" s="79">
         <f>+G15</f>
@@ -12862,7 +12966,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F17" s="76">
         <f>+G16</f>
@@ -12899,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="80" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F19" s="76">
         <v>5.21</v>
@@ -12909,7 +13013,7 @@
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="76" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -12921,7 +13025,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F20" s="76">
         <f>+G19</f>
@@ -12942,7 +13046,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F21" s="76">
         <f>+G20</f>
@@ -12952,7 +13056,7 @@
         <v>38.47</v>
       </c>
       <c r="H21" s="81" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I21" s="76"/>
     </row>
@@ -12981,7 +13085,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="81" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F23" s="76">
         <v>6.08</v>
@@ -12991,7 +13095,7 @@
       </c>
       <c r="H23" s="76"/>
       <c r="I23" s="76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -13003,7 +13107,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="81" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F24" s="76">
         <f>+G23</f>
@@ -13024,7 +13128,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F25" s="76">
         <f t="shared" ref="F25:F26" si="3">+G24</f>
@@ -13045,7 +13149,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F26" s="79">
         <f t="shared" si="3"/>
@@ -13082,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="81" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F28" s="76">
         <v>3.02</v>
@@ -13092,7 +13196,7 @@
       </c>
       <c r="H28" s="76"/>
       <c r="I28" s="76" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -13104,7 +13208,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F29" s="76">
         <f>+G28</f>
@@ -13125,7 +13229,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F30" s="76">
         <f>+G29</f>
@@ -13162,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F32" s="76">
         <v>7.08</v>
@@ -13172,7 +13276,7 @@
       </c>
       <c r="H32" s="76"/>
       <c r="I32" s="76" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -13184,7 +13288,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F33" s="76">
         <f>+G32</f>
@@ -13205,7 +13309,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F34" s="76">
         <f>+G33</f>
@@ -13226,7 +13330,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F35" s="76">
         <f>+G34</f>
@@ -13263,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="83" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F37" s="79">
         <v>4.2</v>
@@ -13273,7 +13377,7 @@
       </c>
       <c r="H37" s="76"/>
       <c r="I37" s="76" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -13285,7 +13389,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="83" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F38" s="79">
         <f>+G37</f>
@@ -13306,7 +13410,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="83" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F39" s="79">
         <f t="shared" ref="F39:F43" si="5">+G38</f>
@@ -13327,7 +13431,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="83" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F40" s="79">
         <f t="shared" si="5"/>
@@ -13348,7 +13452,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="83" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F41" s="79">
         <f t="shared" si="5"/>
@@ -13369,7 +13473,7 @@
         <v>6</v>
       </c>
       <c r="E42" s="83" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F42" s="79">
         <f t="shared" si="5"/>
@@ -13390,7 +13494,7 @@
         <v>7</v>
       </c>
       <c r="E43" s="83" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F43" s="79">
         <f t="shared" si="5"/>
@@ -13427,7 +13531,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="84" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F45" s="84">
         <v>5.53</v>
@@ -13437,7 +13541,7 @@
       </c>
       <c r="H45" s="76"/>
       <c r="I45" s="76" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -13449,7 +13553,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="84" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F46" s="79">
         <f>+G45</f>
@@ -13470,7 +13574,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="84" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F47" s="79">
         <f>+G46</f>
@@ -13491,7 +13595,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F48" s="76">
         <f>+G47</f>
@@ -13512,7 +13616,7 @@
         <v>5</v>
       </c>
       <c r="E49" s="85" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F49" s="76">
         <f>+G48</f>
@@ -13522,7 +13626,7 @@
         <v>56.29</v>
       </c>
       <c r="H49" s="85" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I49" s="76"/>
     </row>
@@ -13551,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="85" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F51" s="76">
         <v>3.26</v>
@@ -13561,7 +13665,7 @@
       </c>
       <c r="H51" s="76"/>
       <c r="I51" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -13573,7 +13677,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F52" s="76">
         <f>+G51</f>
@@ -13594,7 +13698,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="86" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F53" s="76">
         <f>+G52</f>
@@ -13631,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="87" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F55" s="76">
         <v>5.12</v>
@@ -13641,7 +13745,7 @@
       </c>
       <c r="H55" s="76"/>
       <c r="I55" s="76" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -13653,7 +13757,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="87" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F56" s="76">
         <f>+G55</f>
@@ -13674,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="87" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F57" s="79">
         <f>+G56</f>
@@ -13711,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="88" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F59" s="76">
         <v>5.18</v>
@@ -13721,7 +13825,7 @@
       </c>
       <c r="H59" s="76"/>
       <c r="I59" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -13733,7 +13837,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="88" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F60" s="76">
         <f>+G59</f>
@@ -13754,7 +13858,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="88" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F61" s="79">
         <f t="shared" ref="F61:F64" si="9">+G60</f>
@@ -13775,7 +13879,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="88" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F62" s="79">
         <f t="shared" si="9"/>
@@ -13796,7 +13900,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="88" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F63" s="79">
         <f t="shared" si="9"/>
@@ -13817,7 +13921,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="88" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F64" s="79">
         <f t="shared" si="9"/>
@@ -13838,7 +13942,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F65" s="79">
         <f>+G64</f>
@@ -13859,7 +13963,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="88" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F66" s="76">
         <f>+G65</f>
@@ -13869,7 +13973,7 @@
         <v>57.33</v>
       </c>
       <c r="H66" s="88" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I66" s="76"/>
     </row>
@@ -13898,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="88" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F68" s="76">
         <v>5.08</v>
@@ -13910,7 +14014,7 @@
         <v>152</v>
       </c>
       <c r="I68" s="76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -13922,7 +14026,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="88" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F69" s="79">
         <v>24.13</v>
@@ -13942,7 +14046,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="88" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F70" s="79">
         <f t="shared" ref="F70:F71" si="11">+G69</f>
@@ -13963,7 +14067,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="88" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F71" s="79">
         <f t="shared" si="11"/>
@@ -14000,7 +14104,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="89" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F73" s="76">
         <v>2.34</v>
@@ -14010,7 +14114,7 @@
       </c>
       <c r="H73" s="76"/>
       <c r="I73" s="76" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -14022,7 +14126,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="89" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F74" s="79">
         <f>+G73</f>
@@ -14043,7 +14147,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="89" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F75" s="79">
         <f t="shared" ref="F75:F81" si="12">+G74</f>
@@ -14064,7 +14168,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="89" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F76" s="79">
         <f t="shared" si="12"/>
@@ -14085,7 +14189,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="89" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F77" s="79">
         <f t="shared" si="12"/>
@@ -14106,7 +14210,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F78" s="79">
         <f t="shared" si="12"/>
@@ -14127,7 +14231,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="89" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F79" s="79">
         <f t="shared" si="12"/>
@@ -14148,7 +14252,7 @@
         <v>8</v>
       </c>
       <c r="E80" s="90" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F80" s="79">
         <f t="shared" si="12"/>
@@ -14168,7 +14272,7 @@
         <v>9</v>
       </c>
       <c r="E81" s="90" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F81" s="79">
         <f t="shared" si="12"/>
@@ -14178,7 +14282,7 @@
         <v>56.58</v>
       </c>
       <c r="H81" s="91" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I81" s="76"/>
     </row>
@@ -14207,7 +14311,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="91" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F83" s="76">
         <v>6.16</v>
@@ -14217,7 +14321,7 @@
       </c>
       <c r="H83" s="76"/>
       <c r="I83" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -14229,7 +14333,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="91" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F84" s="79">
         <f t="shared" ref="F84:F90" si="14">+G83</f>
@@ -14250,7 +14354,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="91" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F85" s="79">
         <f t="shared" si="14"/>
@@ -14271,7 +14375,7 @@
         <v>4</v>
       </c>
       <c r="E86" s="91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F86" s="79">
         <f t="shared" si="14"/>
@@ -14281,7 +14385,7 @@
         <v>54.17</v>
       </c>
       <c r="H86" s="91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I86" s="76"/>
     </row>
@@ -14310,7 +14414,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="91" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F88" s="76">
         <v>5.41</v>
@@ -14320,7 +14424,7 @@
       </c>
       <c r="H88" s="76"/>
       <c r="I88" s="76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -14332,7 +14436,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="91" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F89" s="79">
         <f t="shared" si="14"/>
@@ -14353,7 +14457,7 @@
         <v>3</v>
       </c>
       <c r="E90" s="92" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F90" s="79">
         <f t="shared" si="14"/>
@@ -14363,7 +14467,7 @@
         <v>52.32</v>
       </c>
       <c r="H90" s="92" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I90" s="76"/>
     </row>
@@ -14392,7 +14496,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="92" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F92" s="76">
         <v>4.25</v>
@@ -14402,7 +14506,7 @@
       </c>
       <c r="H92" s="76"/>
       <c r="I92" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -14414,7 +14518,7 @@
         <v>2</v>
       </c>
       <c r="E93" s="92" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F93" s="79">
         <f t="shared" ref="F93:F95" si="16">+G92</f>
@@ -14435,7 +14539,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="92" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F94" s="79">
         <f t="shared" si="16"/>
@@ -14456,7 +14560,7 @@
         <v>4</v>
       </c>
       <c r="E95" s="92" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F95" s="79">
         <f t="shared" si="16"/>
@@ -14493,7 +14597,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="93" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F97" s="76">
         <v>2.04</v>
@@ -14503,7 +14607,7 @@
       </c>
       <c r="H97" s="76"/>
       <c r="I97" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -14515,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="94" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F98" s="76">
         <f>+G97</f>
@@ -14536,7 +14640,7 @@
         <v>3</v>
       </c>
       <c r="E99" s="94" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F99" s="76">
         <f t="shared" ref="F99:F108" si="18">+G98</f>
@@ -14557,7 +14661,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="94" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F100" s="76">
         <f t="shared" si="18"/>
@@ -14578,7 +14682,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="94" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F101" s="76">
         <f t="shared" si="18"/>
@@ -14599,7 +14703,7 @@
         <v>6</v>
       </c>
       <c r="E102" s="94" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F102" s="76">
         <f t="shared" si="18"/>
@@ -14620,7 +14724,7 @@
         <v>7</v>
       </c>
       <c r="E103" s="94" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F103" s="76">
         <f t="shared" si="18"/>
@@ -14641,7 +14745,7 @@
         <v>8</v>
       </c>
       <c r="E104" s="94" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F104" s="76">
         <f t="shared" si="18"/>
@@ -14662,7 +14766,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="94" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F105" s="76">
         <f t="shared" si="18"/>
@@ -14683,7 +14787,7 @@
         <v>10</v>
       </c>
       <c r="E106" s="94" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F106" s="76">
         <f t="shared" si="18"/>
@@ -14704,7 +14808,7 @@
         <v>11</v>
       </c>
       <c r="E107" s="94" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F107" s="76">
         <f t="shared" si="18"/>
@@ -14725,7 +14829,7 @@
         <v>12</v>
       </c>
       <c r="E108" s="94" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F108" s="76">
         <f t="shared" si="18"/>
@@ -14762,7 +14866,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="94" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F110" s="95">
         <v>5.5</v>
@@ -14772,7 +14876,7 @@
       </c>
       <c r="H110" s="76"/>
       <c r="I110" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -14784,7 +14888,7 @@
         <v>2</v>
       </c>
       <c r="E111" s="94" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F111" s="76">
         <f>+G110</f>
@@ -14805,7 +14909,7 @@
         <v>3</v>
       </c>
       <c r="E112" s="94" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F112" s="76">
         <f t="shared" ref="F112:F113" si="20">+G111</f>
@@ -14826,7 +14930,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="94" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F113" s="79">
         <f t="shared" si="20"/>
@@ -14836,7 +14940,7 @@
         <v>53.08</v>
       </c>
       <c r="H113" s="94" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I113" s="76"/>
     </row>
@@ -14865,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="94" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F115" s="79">
         <v>1.2</v>
@@ -14877,7 +14981,7 @@
         <v>152</v>
       </c>
       <c r="I115" s="76" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -14889,7 +14993,7 @@
         <v>2</v>
       </c>
       <c r="E116" s="96" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F116" s="76">
         <v>10.43</v>
@@ -14909,7 +15013,7 @@
         <v>3</v>
       </c>
       <c r="E117" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F117" s="76">
         <f>+G116</f>
@@ -15470,8 +15574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15549,7 +15653,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F4" s="56">
         <v>1.2</v>
@@ -15561,7 +15665,7 @@
         <v>152</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -15573,7 +15677,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="96" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F5" s="76">
         <v>10.43</v>
@@ -15593,7 +15697,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="96" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F6" s="76">
         <f>+G5</f>
@@ -15603,7 +15707,7 @@
         <v>38.35</v>
       </c>
       <c r="H6" s="96" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I6" s="76"/>
     </row>
@@ -15626,13 +15730,13 @@
         <v>44104</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D8" s="100">
         <v>1</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F8" s="96">
         <v>4.5599999999999996</v>
@@ -15642,7 +15746,7 @@
       </c>
       <c r="H8" s="96"/>
       <c r="I8" s="96" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -15653,7 +15757,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F9" s="79">
         <f>+G8</f>
@@ -15674,7 +15778,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F10" s="79">
         <f t="shared" ref="F10:F11" si="1">+G9</f>
@@ -15695,7 +15799,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F11" s="79">
         <f t="shared" si="1"/>
@@ -15705,7 +15809,7 @@
         <v>59.4</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I11" s="96"/>
     </row>
@@ -15734,7 +15838,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="103" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F13" s="96">
         <v>1.31</v>
@@ -15744,7 +15848,7 @@
       </c>
       <c r="H13" s="96"/>
       <c r="I13" s="96" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -15756,7 +15860,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="103" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F14" s="96">
         <f>+G13</f>
@@ -15777,7 +15881,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="103" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F15" s="96">
         <f>+G14</f>
@@ -15787,7 +15891,7 @@
         <v>31.36</v>
       </c>
       <c r="H15" s="103" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I15" s="96"/>
     </row>
@@ -15816,7 +15920,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="104" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F17" s="96">
         <v>1.05</v>
@@ -15826,7 +15930,7 @@
       </c>
       <c r="H17" s="96"/>
       <c r="I17" s="96" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -15838,7 +15942,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="105" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F18" s="96">
         <f>+G17</f>
@@ -15859,7 +15963,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="105" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F19" s="96">
         <f>+G18</f>
@@ -15880,7 +15984,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="105" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F20" s="96">
         <f>+G19</f>
@@ -15890,7 +15994,7 @@
         <v>55.17</v>
       </c>
       <c r="H20" s="106" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I20" s="96"/>
     </row>
@@ -15919,7 +16023,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="106" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F22" s="96">
         <v>1.45</v>
@@ -15929,7 +16033,7 @@
       </c>
       <c r="H22" s="96"/>
       <c r="I22" s="96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -15941,7 +16045,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="106" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F23" s="96">
         <f>+G22</f>
@@ -15964,7 +16068,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="106" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F24" s="96">
         <v>31.29</v>
@@ -16000,7 +16104,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="107" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F26" s="96">
         <v>9.35</v>
@@ -16010,7 +16114,7 @@
       </c>
       <c r="H26" s="96"/>
       <c r="I26" s="96" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16022,7 +16126,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F27" s="96">
         <f>+G26</f>
@@ -16043,7 +16147,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="107" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F28" s="96">
         <f>+G27</f>
@@ -16053,7 +16157,7 @@
         <v>57.5</v>
       </c>
       <c r="H28" s="108" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I28" s="96"/>
     </row>
@@ -16082,7 +16186,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F30" s="102">
         <v>5.3</v>
@@ -16092,7 +16196,7 @@
       </c>
       <c r="H30" s="96"/>
       <c r="I30" s="96" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16104,7 +16208,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="108" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F31" s="96">
         <f>+G30</f>
@@ -16125,7 +16229,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="108" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F32" s="96">
         <f>+G31</f>
@@ -16146,7 +16250,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="108" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F33" s="96">
         <f t="shared" ref="F33" si="2">+G32</f>
@@ -16177,13 +16281,13 @@
         <v>44110</v>
       </c>
       <c r="C35" s="109" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D35" s="100">
         <v>1</v>
       </c>
       <c r="E35" s="109" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F35" s="102">
         <v>3</v>
@@ -16193,7 +16297,7 @@
       </c>
       <c r="H35" s="96"/>
       <c r="I35" s="96" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16205,7 +16309,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="109" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F36" s="96">
         <f>+G35</f>
@@ -16226,7 +16330,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="109" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F37" s="102">
         <f>+G36</f>
@@ -16247,7 +16351,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="110" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F38" s="102">
         <f>+G37</f>
@@ -16257,7 +16361,7 @@
         <v>59.56</v>
       </c>
       <c r="H38" s="110" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I38" s="96"/>
     </row>
@@ -16286,7 +16390,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="110" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F40" s="102">
         <v>4.3</v>
@@ -16296,7 +16400,7 @@
       </c>
       <c r="H40" s="96"/>
       <c r="I40" s="96" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16308,7 +16412,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="110" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F41" s="102">
         <f>+G40</f>
@@ -16329,7 +16433,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="110" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F42" s="102">
         <f t="shared" ref="F42" si="3">+G41</f>
@@ -16352,7 +16456,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="110" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F43" s="102">
         <v>31.52</v>
@@ -16372,7 +16476,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F44" s="102">
         <f>+G43</f>
@@ -16382,7 +16486,7 @@
         <v>52.5</v>
       </c>
       <c r="H44" s="112" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I44" s="96"/>
     </row>
@@ -16411,7 +16515,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="112" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F46" s="96">
         <v>3.05</v>
@@ -16421,7 +16525,7 @@
       </c>
       <c r="H46" s="96"/>
       <c r="I46" s="96" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16433,7 +16537,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="112" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F47" s="102">
         <f>+G46</f>
@@ -16454,7 +16558,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="112" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F48" s="102">
         <f t="shared" ref="F48:F49" si="4">+G47</f>
@@ -16475,7 +16579,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="112" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F49" s="102">
         <f t="shared" si="4"/>
@@ -16485,7 +16589,7 @@
         <v>58.01</v>
       </c>
       <c r="H49" s="112" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I49" s="96"/>
     </row>
@@ -16514,7 +16618,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="112" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F51" s="96">
         <v>3.19</v>
@@ -16524,7 +16628,7 @@
       </c>
       <c r="H51" s="96"/>
       <c r="I51" s="96" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16536,7 +16640,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="112" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F52" s="96">
         <f>+G51</f>
@@ -16557,7 +16661,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="112" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F53" s="102">
         <f t="shared" ref="F53:F54" si="5">+G52</f>
@@ -16578,7 +16682,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="112" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F54" s="96">
         <f t="shared" si="5"/>
@@ -16615,7 +16719,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="113" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F56" s="102">
         <v>1</v>
@@ -16625,7 +16729,7 @@
       </c>
       <c r="H56" s="96"/>
       <c r="I56" s="96" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16637,7 +16741,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="113" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F57" s="96">
         <f>+G56</f>
@@ -16658,7 +16762,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="113" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F58" s="96">
         <f t="shared" ref="F58:F61" si="6">+G57</f>
@@ -16679,7 +16783,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="113" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F59" s="96">
         <f t="shared" si="6"/>
@@ -16700,7 +16804,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="114" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F60" s="96">
         <f t="shared" si="6"/>
@@ -16721,7 +16825,7 @@
         <v>6</v>
       </c>
       <c r="E61" s="114" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F61" s="96">
         <f t="shared" si="6"/>
@@ -16751,17 +16855,25 @@
       <c r="B63" s="99">
         <v>44115</v>
       </c>
-      <c r="C63" s="96"/>
+      <c r="C63" s="96">
+        <v>55.37</v>
+      </c>
       <c r="D63" s="100">
         <v>1</v>
       </c>
       <c r="E63" s="115" t="s">
-        <v>637</v>
-      </c>
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
+        <v>636</v>
+      </c>
+      <c r="F63" s="102">
+        <v>3.1</v>
+      </c>
+      <c r="G63" s="96">
+        <v>18.059999999999999</v>
+      </c>
       <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
+      <c r="I63" s="96" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="96"/>
@@ -16772,10 +16884,15 @@
         <v>2</v>
       </c>
       <c r="E64" s="115" t="s">
-        <v>638</v>
-      </c>
-      <c r="F64" s="96"/>
-      <c r="G64" s="96"/>
+        <v>637</v>
+      </c>
+      <c r="F64" s="96">
+        <f>+G63</f>
+        <v>18.059999999999999</v>
+      </c>
+      <c r="G64" s="102">
+        <v>32</v>
+      </c>
       <c r="H64" s="96"/>
       <c r="I64" s="96"/>
     </row>
@@ -16788,10 +16905,15 @@
         <v>3</v>
       </c>
       <c r="E65" s="115" t="s">
-        <v>639</v>
-      </c>
-      <c r="F65" s="96"/>
-      <c r="G65" s="96"/>
+        <v>638</v>
+      </c>
+      <c r="F65" s="102">
+        <f t="shared" ref="F65:F66" si="8">+G64</f>
+        <v>32</v>
+      </c>
+      <c r="G65" s="96">
+        <v>49.01</v>
+      </c>
       <c r="H65" s="96"/>
       <c r="I65" s="96"/>
     </row>
@@ -16804,11 +16926,18 @@
         <v>4</v>
       </c>
       <c r="E66" s="115" t="s">
-        <v>640</v>
-      </c>
-      <c r="F66" s="96"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
+        <v>639</v>
+      </c>
+      <c r="F66" s="96">
+        <f t="shared" si="8"/>
+        <v>49.01</v>
+      </c>
+      <c r="G66" s="96">
+        <v>54.38</v>
+      </c>
+      <c r="H66" s="116" t="s">
+        <v>641</v>
+      </c>
       <c r="I66" s="96"/>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16823,24 +16952,50 @@
       <c r="I67" s="96"/>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="96"/>
-      <c r="B68" s="96"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="96"/>
+      <c r="A68" s="96">
+        <v>13</v>
+      </c>
+      <c r="B68" s="99">
+        <v>44116</v>
+      </c>
+      <c r="C68" s="96">
+        <v>56.28</v>
+      </c>
+      <c r="D68" s="100">
+        <v>1</v>
+      </c>
+      <c r="E68" s="116" t="s">
+        <v>642</v>
+      </c>
+      <c r="F68" s="96">
+        <v>5.34</v>
+      </c>
+      <c r="G68" s="96">
+        <v>18.37</v>
+      </c>
       <c r="H68" s="96"/>
-      <c r="I68" s="96"/>
+      <c r="I68" s="96" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="96"/>
       <c r="B69" s="96"/>
       <c r="C69" s="96"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="96"/>
-      <c r="G69" s="96"/>
+      <c r="D69" s="100">
+        <f>+D68+1</f>
+        <v>2</v>
+      </c>
+      <c r="E69" s="116" t="s">
+        <v>643</v>
+      </c>
+      <c r="F69" s="96">
+        <f>+G68</f>
+        <v>18.37</v>
+      </c>
+      <c r="G69" s="96">
+        <v>39.56</v>
+      </c>
       <c r="H69" s="96"/>
       <c r="I69" s="96"/>
     </row>
@@ -16848,10 +17003,20 @@
       <c r="A70" s="96"/>
       <c r="B70" s="96"/>
       <c r="C70" s="96"/>
-      <c r="D70" s="96"/>
-      <c r="E70" s="96"/>
-      <c r="F70" s="96"/>
-      <c r="G70" s="96"/>
+      <c r="D70" s="100">
+        <f>+D69+1</f>
+        <v>3</v>
+      </c>
+      <c r="E70" s="116" t="s">
+        <v>644</v>
+      </c>
+      <c r="F70" s="96">
+        <f>+G69</f>
+        <v>39.56</v>
+      </c>
+      <c r="G70" s="96">
+        <v>54.02</v>
+      </c>
       <c r="H70" s="96"/>
       <c r="I70" s="96"/>
     </row>
@@ -16859,11 +17024,23 @@
       <c r="A71" s="96"/>
       <c r="B71" s="96"/>
       <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
+      <c r="D71" s="100">
+        <f>+D70+1</f>
+        <v>4</v>
+      </c>
+      <c r="E71" s="117" t="s">
+        <v>645</v>
+      </c>
+      <c r="F71" s="96">
+        <f>+G70</f>
+        <v>54.02</v>
+      </c>
+      <c r="G71" s="96">
+        <v>56.28</v>
+      </c>
+      <c r="H71" s="118" t="s">
+        <v>645</v>
+      </c>
       <c r="I71" s="96"/>
     </row>
     <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16878,24 +17055,50 @@
       <c r="I72" s="96"/>
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="96"/>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
+      <c r="A73" s="96">
+        <v>14</v>
+      </c>
+      <c r="B73" s="99">
+        <v>44117</v>
+      </c>
+      <c r="C73" s="96">
+        <v>56.07</v>
+      </c>
+      <c r="D73" s="100">
+        <v>1</v>
+      </c>
+      <c r="E73" s="118" t="s">
+        <v>648</v>
+      </c>
+      <c r="F73" s="102">
+        <v>2.5</v>
+      </c>
+      <c r="G73" s="102">
+        <v>13.01</v>
+      </c>
       <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
+      <c r="I73" s="96" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="96"/>
       <c r="B74" s="96"/>
       <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
+      <c r="D74" s="100">
+        <f>+D73+1</f>
+        <v>2</v>
+      </c>
+      <c r="E74" s="118" t="s">
+        <v>649</v>
+      </c>
+      <c r="F74" s="102">
+        <f>+G73</f>
+        <v>13.01</v>
+      </c>
+      <c r="G74" s="102">
+        <v>30.04</v>
+      </c>
       <c r="H74" s="96"/>
       <c r="I74" s="96"/>
     </row>
@@ -16903,10 +17106,20 @@
       <c r="A75" s="96"/>
       <c r="B75" s="96"/>
       <c r="C75" s="96"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
+      <c r="D75" s="100">
+        <f>+D74+1</f>
+        <v>3</v>
+      </c>
+      <c r="E75" s="118" t="s">
+        <v>650</v>
+      </c>
+      <c r="F75" s="102">
+        <f t="shared" ref="F75:F76" si="9">+G74</f>
+        <v>30.04</v>
+      </c>
+      <c r="G75" s="102">
+        <v>43.42</v>
+      </c>
       <c r="H75" s="96"/>
       <c r="I75" s="96"/>
     </row>
@@ -16914,10 +17127,20 @@
       <c r="A76" s="96"/>
       <c r="B76" s="96"/>
       <c r="C76" s="96"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="96"/>
+      <c r="D76" s="100">
+        <f>+D75+1</f>
+        <v>4</v>
+      </c>
+      <c r="E76" s="118" t="s">
+        <v>651</v>
+      </c>
+      <c r="F76" s="102">
+        <f t="shared" si="9"/>
+        <v>43.42</v>
+      </c>
+      <c r="G76" s="102">
+        <v>55.05</v>
+      </c>
       <c r="H76" s="96"/>
       <c r="I76" s="96"/>
     </row>
@@ -16933,24 +17156,50 @@
       <c r="I77" s="96"/>
     </row>
     <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="96"/>
-      <c r="B78" s="96"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="96"/>
-      <c r="E78" s="96"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="96"/>
+      <c r="A78" s="96">
+        <v>15</v>
+      </c>
+      <c r="B78" s="99">
+        <v>44118</v>
+      </c>
+      <c r="C78" s="96">
+        <v>57.51</v>
+      </c>
+      <c r="D78" s="100">
+        <v>1</v>
+      </c>
+      <c r="E78" s="118" t="s">
+        <v>652</v>
+      </c>
+      <c r="F78" s="96">
+        <v>3.56</v>
+      </c>
+      <c r="G78" s="96">
+        <v>26.32</v>
+      </c>
       <c r="H78" s="96"/>
-      <c r="I78" s="96"/>
+      <c r="I78" s="96" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="96"/>
       <c r="B79" s="96"/>
       <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="96"/>
-      <c r="F79" s="96"/>
-      <c r="G79" s="96"/>
+      <c r="D79" s="100">
+        <f>+D78+1</f>
+        <v>2</v>
+      </c>
+      <c r="E79" s="118" t="s">
+        <v>653</v>
+      </c>
+      <c r="F79" s="96">
+        <f>+G78</f>
+        <v>26.32</v>
+      </c>
+      <c r="G79" s="96">
+        <v>44.38</v>
+      </c>
       <c r="H79" s="96"/>
       <c r="I79" s="96"/>
     </row>
@@ -16958,10 +17207,20 @@
       <c r="A80" s="96"/>
       <c r="B80" s="96"/>
       <c r="C80" s="96"/>
-      <c r="D80" s="96"/>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
-      <c r="G80" s="96"/>
+      <c r="D80" s="100">
+        <f>+D79+1</f>
+        <v>3</v>
+      </c>
+      <c r="E80" s="118" t="s">
+        <v>654</v>
+      </c>
+      <c r="F80" s="96">
+        <f t="shared" ref="F80:F81" si="10">+G79</f>
+        <v>44.38</v>
+      </c>
+      <c r="G80" s="102">
+        <v>55</v>
+      </c>
       <c r="H80" s="96"/>
       <c r="I80" s="96"/>
     </row>
@@ -16969,11 +17228,23 @@
       <c r="A81" s="96"/>
       <c r="B81" s="96"/>
       <c r="C81" s="96"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="96"/>
+      <c r="D81" s="100">
+        <f>+D80+1</f>
+        <v>4</v>
+      </c>
+      <c r="E81" s="118" t="s">
+        <v>655</v>
+      </c>
+      <c r="F81" s="102">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="G81" s="96">
+        <v>57.12</v>
+      </c>
+      <c r="H81" s="119" t="s">
+        <v>655</v>
+      </c>
       <c r="I81" s="96"/>
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -16988,13 +17259,25 @@
       <c r="I82" s="96"/>
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="96"/>
-      <c r="B83" s="96"/>
+      <c r="A83" s="96">
+        <v>16</v>
+      </c>
+      <c r="B83" s="99">
+        <v>44119</v>
+      </c>
       <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="96"/>
-      <c r="F83" s="96"/>
-      <c r="G83" s="96"/>
+      <c r="D83" s="100">
+        <v>1</v>
+      </c>
+      <c r="E83" s="119" t="s">
+        <v>657</v>
+      </c>
+      <c r="F83" s="96">
+        <v>3.56</v>
+      </c>
+      <c r="G83" s="96">
+        <v>26.32</v>
+      </c>
       <c r="H83" s="96"/>
       <c r="I83" s="96"/>
     </row>
@@ -17002,7 +17285,10 @@
       <c r="A84" s="96"/>
       <c r="B84" s="96"/>
       <c r="C84" s="96"/>
-      <c r="D84" s="96"/>
+      <c r="D84" s="100">
+        <f>+D83+1</f>
+        <v>2</v>
+      </c>
       <c r="E84" s="96"/>
       <c r="F84" s="96"/>
       <c r="G84" s="96"/>
@@ -17013,7 +17299,10 @@
       <c r="A85" s="96"/>
       <c r="B85" s="96"/>
       <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
+      <c r="D85" s="100">
+        <f>+D84+1</f>
+        <v>3</v>
+      </c>
       <c r="E85" s="96"/>
       <c r="F85" s="96"/>
       <c r="G85" s="96"/>
@@ -17024,7 +17313,10 @@
       <c r="A86" s="96"/>
       <c r="B86" s="96"/>
       <c r="C86" s="96"/>
-      <c r="D86" s="96"/>
+      <c r="D86" s="100">
+        <f>+D85+1</f>
+        <v>4</v>
+      </c>
       <c r="E86" s="96"/>
       <c r="F86" s="96"/>
       <c r="G86" s="96"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="683">
   <si>
     <t>Date</t>
   </si>
@@ -2038,19 +2038,55 @@
   </si>
   <si>
     <t>H2</t>
+  </si>
+  <si>
+    <t>5.5.16.1</t>
+  </si>
+  <si>
+    <t>5.5.17.1</t>
+  </si>
+  <si>
+    <t>5.5.18.1</t>
+  </si>
+  <si>
+    <t>5.5.19.1</t>
+  </si>
+  <si>
+    <t>5.5.20.1</t>
+  </si>
+  <si>
+    <t>5.5.21.1</t>
+  </si>
+  <si>
+    <t>5.5.22.1</t>
+  </si>
+  <si>
+    <t>5.5.23.1</t>
+  </si>
+  <si>
+    <t>5.5.24.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bUMIAvgMFwM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="95" x14ac:knownFonts="1">
+  <fonts count="96" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2655,77 +2691,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="91" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="92" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="91" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="92" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="93" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="93" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="93" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="94" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2734,17 +2771,17 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2759,19 +2796,19 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="92" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="93" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="93" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="94" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2786,17 +2823,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10597,8 +10634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15653,8 +15690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17466,17 +17503,25 @@
       <c r="B89" s="98">
         <v>44120</v>
       </c>
-      <c r="C89" s="95"/>
+      <c r="C89" s="95">
+        <v>57.17</v>
+      </c>
       <c r="D89" s="99">
         <v>1</v>
       </c>
       <c r="E89" s="124" t="s">
         <v>665</v>
       </c>
-      <c r="F89" s="95"/>
-      <c r="G89" s="95"/>
+      <c r="F89" s="95">
+        <v>4.25</v>
+      </c>
+      <c r="G89" s="101">
+        <v>20.3</v>
+      </c>
       <c r="H89" s="95"/>
-      <c r="I89" s="95"/>
+      <c r="I89" s="95" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="95"/>
@@ -17489,8 +17534,13 @@
       <c r="E90" s="124" t="s">
         <v>666</v>
       </c>
-      <c r="F90" s="95"/>
-      <c r="G90" s="95"/>
+      <c r="F90" s="101">
+        <f>+G89</f>
+        <v>20.3</v>
+      </c>
+      <c r="G90" s="95">
+        <v>42.44</v>
+      </c>
       <c r="H90" s="95"/>
       <c r="I90" s="95"/>
     </row>
@@ -17505,8 +17555,13 @@
       <c r="E91" s="124" t="s">
         <v>667</v>
       </c>
-      <c r="F91" s="95"/>
-      <c r="G91" s="95"/>
+      <c r="F91" s="95">
+        <f t="shared" ref="F91:F100" si="12">+G90</f>
+        <v>42.44</v>
+      </c>
+      <c r="G91" s="95">
+        <v>45.12</v>
+      </c>
       <c r="H91" s="95"/>
       <c r="I91" s="95"/>
     </row>
@@ -17521,8 +17576,13 @@
       <c r="E92" s="124" t="s">
         <v>668</v>
       </c>
-      <c r="F92" s="95"/>
-      <c r="G92" s="95"/>
+      <c r="F92" s="95">
+        <f t="shared" si="12"/>
+        <v>45.12</v>
+      </c>
+      <c r="G92" s="95">
+        <v>47.05</v>
+      </c>
       <c r="H92" s="95"/>
       <c r="I92" s="95"/>
     </row>
@@ -17537,8 +17597,13 @@
       <c r="E93" s="124" t="s">
         <v>669</v>
       </c>
-      <c r="F93" s="95"/>
-      <c r="G93" s="95"/>
+      <c r="F93" s="95">
+        <f t="shared" si="12"/>
+        <v>47.05</v>
+      </c>
+      <c r="G93" s="95">
+        <v>48.34</v>
+      </c>
       <c r="H93" s="95"/>
       <c r="I93" s="95"/>
     </row>
@@ -17547,14 +17612,19 @@
       <c r="B94" s="95"/>
       <c r="C94" s="95"/>
       <c r="D94" s="99">
-        <f t="shared" ref="D94:D97" si="12">+D93+1</f>
+        <f t="shared" ref="D94:D100" si="13">+D93+1</f>
         <v>6</v>
       </c>
       <c r="E94" s="124" t="s">
         <v>670</v>
       </c>
-      <c r="F94" s="95"/>
-      <c r="G94" s="95"/>
+      <c r="F94" s="95">
+        <f t="shared" si="12"/>
+        <v>48.34</v>
+      </c>
+      <c r="G94" s="95">
+        <v>50.15</v>
+      </c>
       <c r="H94" s="95"/>
       <c r="I94" s="95"/>
     </row>
@@ -17563,14 +17633,19 @@
       <c r="B95" s="95"/>
       <c r="C95" s="95"/>
       <c r="D95" s="99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="E95" s="124" t="s">
         <v>671</v>
       </c>
-      <c r="F95" s="95"/>
-      <c r="G95" s="95"/>
+      <c r="F95" s="95">
+        <f t="shared" si="12"/>
+        <v>50.15</v>
+      </c>
+      <c r="G95" s="95">
+        <v>51.48</v>
+      </c>
       <c r="H95" s="95"/>
       <c r="I95" s="95"/>
     </row>
@@ -17579,12 +17654,19 @@
       <c r="B96" s="95"/>
       <c r="C96" s="95"/>
       <c r="D96" s="99">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="E96" s="127" t="s">
+        <v>673</v>
+      </c>
+      <c r="F96" s="95">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="E96" s="95"/>
-      <c r="F96" s="95"/>
-      <c r="G96" s="95"/>
+        <v>51.48</v>
+      </c>
+      <c r="G96" s="95">
+        <v>53.13</v>
+      </c>
       <c r="H96" s="95"/>
       <c r="I96" s="95"/>
     </row>
@@ -17593,12 +17675,19 @@
       <c r="B97" s="95"/>
       <c r="C97" s="95"/>
       <c r="D97" s="99">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="E97" s="127" t="s">
+        <v>674</v>
+      </c>
+      <c r="F97" s="95">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="E97" s="95"/>
-      <c r="F97" s="95"/>
-      <c r="G97" s="95"/>
+        <v>53.13</v>
+      </c>
+      <c r="G97" s="95">
+        <v>54.54</v>
+      </c>
       <c r="H97" s="95"/>
       <c r="I97" s="95"/>
     </row>
@@ -17606,10 +17695,20 @@
       <c r="A98" s="95"/>
       <c r="B98" s="95"/>
       <c r="C98" s="95"/>
-      <c r="D98" s="95"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="95"/>
-      <c r="G98" s="95"/>
+      <c r="D98" s="99">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="E98" s="127" t="s">
+        <v>675</v>
+      </c>
+      <c r="F98" s="95">
+        <f t="shared" si="12"/>
+        <v>54.54</v>
+      </c>
+      <c r="G98" s="95">
+        <v>56.17</v>
+      </c>
       <c r="H98" s="95"/>
       <c r="I98" s="95"/>
     </row>
@@ -17617,7 +17716,7 @@
       <c r="A99" s="95"/>
       <c r="B99" s="95"/>
       <c r="C99" s="95"/>
-      <c r="D99" s="95"/>
+      <c r="D99" s="99"/>
       <c r="E99" s="95"/>
       <c r="F99" s="95"/>
       <c r="G99" s="95"/>
@@ -17625,11 +17724,19 @@
       <c r="I99" s="95"/>
     </row>
     <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A100" s="95"/>
-      <c r="B100" s="95"/>
+      <c r="A100" s="95">
+        <v>18</v>
+      </c>
+      <c r="B100" s="98">
+        <v>44121</v>
+      </c>
       <c r="C100" s="95"/>
-      <c r="D100" s="95"/>
-      <c r="E100" s="95"/>
+      <c r="D100" s="99">
+        <v>1</v>
+      </c>
+      <c r="E100" s="127" t="s">
+        <v>676</v>
+      </c>
       <c r="F100" s="95"/>
       <c r="G100" s="95"/>
       <c r="H100" s="95"/>
@@ -17639,8 +17746,13 @@
       <c r="A101" s="95"/>
       <c r="B101" s="95"/>
       <c r="C101" s="95"/>
-      <c r="D101" s="95"/>
-      <c r="E101" s="95"/>
+      <c r="D101" s="99">
+        <f>+D100+1</f>
+        <v>2</v>
+      </c>
+      <c r="E101" s="127" t="s">
+        <v>677</v>
+      </c>
       <c r="F101" s="95"/>
       <c r="G101" s="95"/>
       <c r="H101" s="95"/>
@@ -17650,8 +17762,13 @@
       <c r="A102" s="95"/>
       <c r="B102" s="95"/>
       <c r="C102" s="95"/>
-      <c r="D102" s="95"/>
-      <c r="E102" s="95"/>
+      <c r="D102" s="99">
+        <f>+D101+1</f>
+        <v>3</v>
+      </c>
+      <c r="E102" s="127" t="s">
+        <v>678</v>
+      </c>
       <c r="F102" s="95"/>
       <c r="G102" s="95"/>
       <c r="H102" s="95"/>
@@ -17661,8 +17778,13 @@
       <c r="A103" s="95"/>
       <c r="B103" s="95"/>
       <c r="C103" s="95"/>
-      <c r="D103" s="95"/>
-      <c r="E103" s="95"/>
+      <c r="D103" s="99">
+        <f>+D102+1</f>
+        <v>4</v>
+      </c>
+      <c r="E103" s="127" t="s">
+        <v>679</v>
+      </c>
       <c r="F103" s="95"/>
       <c r="G103" s="95"/>
       <c r="H103" s="95"/>
@@ -17672,8 +17794,13 @@
       <c r="A104" s="95"/>
       <c r="B104" s="95"/>
       <c r="C104" s="95"/>
-      <c r="D104" s="95"/>
-      <c r="E104" s="95"/>
+      <c r="D104" s="99">
+        <f>+D103+1</f>
+        <v>5</v>
+      </c>
+      <c r="E104" s="127" t="s">
+        <v>680</v>
+      </c>
       <c r="F104" s="95"/>
       <c r="G104" s="95"/>
       <c r="H104" s="95"/>
@@ -17683,8 +17810,13 @@
       <c r="A105" s="95"/>
       <c r="B105" s="95"/>
       <c r="C105" s="95"/>
-      <c r="D105" s="95"/>
-      <c r="E105" s="95"/>
+      <c r="D105" s="99">
+        <f t="shared" ref="D105" si="14">+D104+1</f>
+        <v>6</v>
+      </c>
+      <c r="E105" s="127" t="s">
+        <v>681</v>
+      </c>
       <c r="F105" s="95"/>
       <c r="G105" s="95"/>
       <c r="H105" s="95"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="688">
   <si>
     <t>Date</t>
   </si>
@@ -2068,19 +2068,40 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=bUMIAvgMFwM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZGPMrt6n_gQ</t>
+  </si>
+  <si>
+    <t>5.6.1.1</t>
+  </si>
+  <si>
+    <t>5.6.2.1</t>
+  </si>
+  <si>
+    <t>5.6.3.1</t>
+  </si>
+  <si>
+    <t>5.6.4.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="96" x14ac:knownFonts="1">
+  <fonts count="97" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2691,77 +2712,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="93" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="93" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="94" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="93" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="93" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="94" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="94" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="94" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="95" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2770,17 +2792,17 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2795,19 +2817,19 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="93" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="94" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="94" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="95" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2822,17 +2844,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -15690,8 +15712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17556,7 +17578,7 @@
         <v>667</v>
       </c>
       <c r="F91" s="95">
-        <f t="shared" ref="F91:F100" si="12">+G90</f>
+        <f t="shared" ref="F91:F98" si="12">+G90</f>
         <v>42.44</v>
       </c>
       <c r="G91" s="95">
@@ -17612,7 +17634,7 @@
       <c r="B94" s="95"/>
       <c r="C94" s="95"/>
       <c r="D94" s="99">
-        <f t="shared" ref="D94:D100" si="13">+D93+1</f>
+        <f t="shared" ref="D94:D98" si="13">+D93+1</f>
         <v>6</v>
       </c>
       <c r="E94" s="124" t="s">
@@ -17730,17 +17752,25 @@
       <c r="B100" s="98">
         <v>44121</v>
       </c>
-      <c r="C100" s="95"/>
+      <c r="C100" s="95">
+        <v>57.56</v>
+      </c>
       <c r="D100" s="99">
         <v>1</v>
       </c>
       <c r="E100" s="127" t="s">
         <v>676</v>
       </c>
-      <c r="F100" s="95"/>
-      <c r="G100" s="95"/>
+      <c r="F100" s="95">
+        <v>3.01</v>
+      </c>
+      <c r="G100" s="101">
+        <v>4.3</v>
+      </c>
       <c r="H100" s="95"/>
-      <c r="I100" s="95"/>
+      <c r="I100" s="95" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="95"/>
@@ -17753,8 +17783,13 @@
       <c r="E101" s="127" t="s">
         <v>677</v>
       </c>
-      <c r="F101" s="95"/>
-      <c r="G101" s="95"/>
+      <c r="F101" s="101">
+        <f>+G100</f>
+        <v>4.3</v>
+      </c>
+      <c r="G101" s="95">
+        <v>5.58</v>
+      </c>
       <c r="H101" s="95"/>
       <c r="I101" s="95"/>
     </row>
@@ -17769,8 +17804,13 @@
       <c r="E102" s="127" t="s">
         <v>678</v>
       </c>
-      <c r="F102" s="95"/>
-      <c r="G102" s="95"/>
+      <c r="F102" s="95">
+        <f t="shared" ref="F102:F109" si="14">+G101</f>
+        <v>5.58</v>
+      </c>
+      <c r="G102" s="101">
+        <v>7.2</v>
+      </c>
       <c r="H102" s="95"/>
       <c r="I102" s="95"/>
     </row>
@@ -17785,8 +17825,13 @@
       <c r="E103" s="127" t="s">
         <v>679</v>
       </c>
-      <c r="F103" s="95"/>
-      <c r="G103" s="95"/>
+      <c r="F103" s="101">
+        <f t="shared" si="14"/>
+        <v>7.2</v>
+      </c>
+      <c r="G103" s="101">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="H103" s="95"/>
       <c r="I103" s="95"/>
     </row>
@@ -17801,8 +17846,13 @@
       <c r="E104" s="127" t="s">
         <v>680</v>
       </c>
-      <c r="F104" s="95"/>
-      <c r="G104" s="95"/>
+      <c r="F104" s="101">
+        <f t="shared" si="14"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G104" s="101">
+        <v>10.52</v>
+      </c>
       <c r="H104" s="95"/>
       <c r="I104" s="95"/>
     </row>
@@ -17811,14 +17861,19 @@
       <c r="B105" s="95"/>
       <c r="C105" s="95"/>
       <c r="D105" s="99">
-        <f t="shared" ref="D105" si="14">+D104+1</f>
+        <f t="shared" ref="D105:D109" si="15">+D104+1</f>
         <v>6</v>
       </c>
       <c r="E105" s="127" t="s">
         <v>681</v>
       </c>
-      <c r="F105" s="95"/>
-      <c r="G105" s="95"/>
+      <c r="F105" s="101">
+        <f t="shared" si="14"/>
+        <v>10.52</v>
+      </c>
+      <c r="G105" s="101">
+        <v>12.51</v>
+      </c>
       <c r="H105" s="95"/>
       <c r="I105" s="95"/>
     </row>
@@ -17826,10 +17881,20 @@
       <c r="A106" s="95"/>
       <c r="B106" s="95"/>
       <c r="C106" s="95"/>
-      <c r="D106" s="95"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
-      <c r="G106" s="95"/>
+      <c r="D106" s="99">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="E106" s="128" t="s">
+        <v>684</v>
+      </c>
+      <c r="F106" s="101">
+        <f t="shared" si="14"/>
+        <v>12.51</v>
+      </c>
+      <c r="G106" s="95">
+        <v>24.23</v>
+      </c>
       <c r="H106" s="95"/>
       <c r="I106" s="95"/>
     </row>
@@ -17837,10 +17902,20 @@
       <c r="A107" s="95"/>
       <c r="B107" s="95"/>
       <c r="C107" s="95"/>
-      <c r="D107" s="95"/>
-      <c r="E107" s="95"/>
-      <c r="F107" s="95"/>
-      <c r="G107" s="95"/>
+      <c r="D107" s="99">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="E107" s="128" t="s">
+        <v>685</v>
+      </c>
+      <c r="F107" s="101">
+        <f t="shared" si="14"/>
+        <v>24.23</v>
+      </c>
+      <c r="G107" s="95">
+        <v>41.25</v>
+      </c>
       <c r="H107" s="95"/>
       <c r="I107" s="95"/>
     </row>
@@ -17848,10 +17923,20 @@
       <c r="A108" s="95"/>
       <c r="B108" s="95"/>
       <c r="C108" s="95"/>
-      <c r="D108" s="95"/>
-      <c r="E108" s="95"/>
-      <c r="F108" s="95"/>
-      <c r="G108" s="95"/>
+      <c r="D108" s="99">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="E108" s="128" t="s">
+        <v>686</v>
+      </c>
+      <c r="F108" s="101">
+        <f t="shared" si="14"/>
+        <v>41.25</v>
+      </c>
+      <c r="G108" s="95">
+        <v>53.49</v>
+      </c>
       <c r="H108" s="95"/>
       <c r="I108" s="95"/>
     </row>
@@ -17859,10 +17944,20 @@
       <c r="A109" s="95"/>
       <c r="B109" s="95"/>
       <c r="C109" s="95"/>
-      <c r="D109" s="95"/>
-      <c r="E109" s="95"/>
-      <c r="F109" s="95"/>
-      <c r="G109" s="95"/>
+      <c r="D109" s="99">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="E109" s="128" t="s">
+        <v>687</v>
+      </c>
+      <c r="F109" s="101">
+        <f t="shared" si="14"/>
+        <v>53.49</v>
+      </c>
+      <c r="G109" s="95">
+        <v>57.21</v>
+      </c>
       <c r="H109" s="95"/>
       <c r="I109" s="95"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="717">
   <si>
     <t>Date</t>
   </si>
@@ -2083,19 +2083,118 @@
   </si>
   <si>
     <t>5.6.4.1</t>
+  </si>
+  <si>
+    <t>5.6.4.2</t>
+  </si>
+  <si>
+    <t>5.6.5.1</t>
+  </si>
+  <si>
+    <t>5.6.6.1</t>
+  </si>
+  <si>
+    <t>5.6.7.1</t>
+  </si>
+  <si>
+    <t>5.6.8.1</t>
+  </si>
+  <si>
+    <t>1.01.36</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qCDb2EXiYGc</t>
+  </si>
+  <si>
+    <t>1.00.35</t>
+  </si>
+  <si>
+    <t>5.6.8.2</t>
+  </si>
+  <si>
+    <t>5.6.9.1</t>
+  </si>
+  <si>
+    <t>5.6.10.1</t>
+  </si>
+  <si>
+    <t>5.6.11.1</t>
+  </si>
+  <si>
+    <t>5.6.12.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1U2LD_xdS2c</t>
+  </si>
+  <si>
+    <t>5.6.13.1</t>
+  </si>
+  <si>
+    <t>5.6.14.1</t>
+  </si>
+  <si>
+    <t>5.6.15.1</t>
+  </si>
+  <si>
+    <t>5.6.16.1</t>
+  </si>
+  <si>
+    <t>5.6.17.1</t>
+  </si>
+  <si>
+    <t>5.6.18.1</t>
+  </si>
+  <si>
+    <t>5.6.19.1</t>
+  </si>
+  <si>
+    <t>5.6.20.1</t>
+  </si>
+  <si>
+    <t>5.6.21.1</t>
+  </si>
+  <si>
+    <t>5.6.22.1</t>
+  </si>
+  <si>
+    <t>5.6.23.1</t>
+  </si>
+  <si>
+    <t>5.7.1.1</t>
+  </si>
+  <si>
+    <t>5.7.2.1</t>
+  </si>
+  <si>
+    <t>5.7.3.1</t>
+  </si>
+  <si>
+    <t>5.7.4.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="97" x14ac:knownFonts="1">
+  <fonts count="99" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2712,77 +2811,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="93" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="94" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="95" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="96" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="93" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="95" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="94" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="96" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="88" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="88" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="95" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="95" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="97" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2790,18 +2891,18 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2815,20 +2916,20 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="94" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="96" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="95" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="97" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2842,19 +2943,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3163,9 +3267,9 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
+      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15712,8 +15816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17958,7 +18062,9 @@
       <c r="G109" s="95">
         <v>57.21</v>
       </c>
-      <c r="H109" s="95"/>
+      <c r="H109" s="129" t="s">
+        <v>687</v>
+      </c>
       <c r="I109" s="95"/>
     </row>
     <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -17973,24 +18079,50 @@
       <c r="I110" s="95"/>
     </row>
     <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A111" s="95"/>
-      <c r="B111" s="95"/>
-      <c r="C111" s="95"/>
-      <c r="D111" s="95"/>
-      <c r="E111" s="95"/>
-      <c r="F111" s="95"/>
-      <c r="G111" s="95"/>
+      <c r="A111" s="95">
+        <v>19</v>
+      </c>
+      <c r="B111" s="98">
+        <v>44122</v>
+      </c>
+      <c r="C111" s="129" t="s">
+        <v>693</v>
+      </c>
+      <c r="D111" s="99">
+        <v>1</v>
+      </c>
+      <c r="E111" s="129" t="s">
+        <v>688</v>
+      </c>
+      <c r="F111" s="95">
+        <v>4.03</v>
+      </c>
+      <c r="G111" s="95">
+        <v>15.53</v>
+      </c>
       <c r="H111" s="95"/>
-      <c r="I111" s="95"/>
+      <c r="I111" s="95" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="95"/>
       <c r="B112" s="95"/>
       <c r="C112" s="95"/>
-      <c r="D112" s="95"/>
-      <c r="E112" s="95"/>
-      <c r="F112" s="95"/>
-      <c r="G112" s="95"/>
+      <c r="D112" s="99">
+        <f>+D111+1</f>
+        <v>2</v>
+      </c>
+      <c r="E112" s="129" t="s">
+        <v>689</v>
+      </c>
+      <c r="F112" s="95">
+        <f>+G111</f>
+        <v>15.53</v>
+      </c>
+      <c r="G112" s="95">
+        <v>28.44</v>
+      </c>
       <c r="H112" s="95"/>
       <c r="I112" s="95"/>
     </row>
@@ -17998,10 +18130,20 @@
       <c r="A113" s="95"/>
       <c r="B113" s="95"/>
       <c r="C113" s="95"/>
-      <c r="D113" s="95"/>
-      <c r="E113" s="95"/>
-      <c r="F113" s="95"/>
-      <c r="G113" s="95"/>
+      <c r="D113" s="99">
+        <f>+D112+1</f>
+        <v>3</v>
+      </c>
+      <c r="E113" s="129" t="s">
+        <v>690</v>
+      </c>
+      <c r="F113" s="95">
+        <f t="shared" ref="F113:F115" si="16">+G112</f>
+        <v>28.44</v>
+      </c>
+      <c r="G113" s="95">
+        <v>42.27</v>
+      </c>
       <c r="H113" s="95"/>
       <c r="I113" s="95"/>
     </row>
@@ -18009,10 +18151,20 @@
       <c r="A114" s="95"/>
       <c r="B114" s="95"/>
       <c r="C114" s="95"/>
-      <c r="D114" s="95"/>
-      <c r="E114" s="95"/>
-      <c r="F114" s="95"/>
-      <c r="G114" s="95"/>
+      <c r="D114" s="99">
+        <f>+D113+1</f>
+        <v>4</v>
+      </c>
+      <c r="E114" s="129" t="s">
+        <v>691</v>
+      </c>
+      <c r="F114" s="95">
+        <f t="shared" si="16"/>
+        <v>42.27</v>
+      </c>
+      <c r="G114" s="95">
+        <v>57.16</v>
+      </c>
       <c r="H114" s="95"/>
       <c r="I114" s="95"/>
     </row>
@@ -18020,11 +18172,23 @@
       <c r="A115" s="95"/>
       <c r="B115" s="95"/>
       <c r="C115" s="95"/>
-      <c r="D115" s="95"/>
-      <c r="E115" s="95"/>
-      <c r="F115" s="95"/>
-      <c r="G115" s="95"/>
-      <c r="H115" s="95"/>
+      <c r="D115" s="99">
+        <f>+D114+1</f>
+        <v>5</v>
+      </c>
+      <c r="E115" s="129" t="s">
+        <v>692</v>
+      </c>
+      <c r="F115" s="95">
+        <f t="shared" si="16"/>
+        <v>57.16</v>
+      </c>
+      <c r="G115" s="130" t="s">
+        <v>695</v>
+      </c>
+      <c r="H115" s="129" t="s">
+        <v>692</v>
+      </c>
       <c r="I115" s="95"/>
     </row>
     <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -18039,24 +18203,50 @@
       <c r="I116" s="95"/>
     </row>
     <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A117" s="95"/>
-      <c r="B117" s="95"/>
-      <c r="C117" s="95"/>
-      <c r="D117" s="95"/>
-      <c r="E117" s="95"/>
-      <c r="F117" s="95"/>
-      <c r="G117" s="95"/>
+      <c r="A117" s="95">
+        <v>20</v>
+      </c>
+      <c r="B117" s="98">
+        <v>44123</v>
+      </c>
+      <c r="C117" s="129">
+        <v>57.31</v>
+      </c>
+      <c r="D117" s="99">
+        <v>1</v>
+      </c>
+      <c r="E117" s="129" t="s">
+        <v>696</v>
+      </c>
+      <c r="F117" s="95">
+        <v>1.04</v>
+      </c>
+      <c r="G117" s="95">
+        <v>15.51</v>
+      </c>
       <c r="H117" s="95"/>
-      <c r="I117" s="95"/>
+      <c r="I117" s="95" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="95"/>
       <c r="B118" s="95"/>
       <c r="C118" s="95"/>
-      <c r="D118" s="95"/>
-      <c r="E118" s="95"/>
-      <c r="F118" s="95"/>
-      <c r="G118" s="95"/>
+      <c r="D118" s="99">
+        <f>+D117+1</f>
+        <v>2</v>
+      </c>
+      <c r="E118" s="129" t="s">
+        <v>697</v>
+      </c>
+      <c r="F118" s="95">
+        <f>+G117</f>
+        <v>15.51</v>
+      </c>
+      <c r="G118" s="95">
+        <v>25.56</v>
+      </c>
       <c r="H118" s="95"/>
       <c r="I118" s="95"/>
     </row>
@@ -18064,10 +18254,20 @@
       <c r="A119" s="95"/>
       <c r="B119" s="95"/>
       <c r="C119" s="95"/>
-      <c r="D119" s="95"/>
-      <c r="E119" s="95"/>
-      <c r="F119" s="95"/>
-      <c r="G119" s="95"/>
+      <c r="D119" s="99">
+        <f>+D118+1</f>
+        <v>3</v>
+      </c>
+      <c r="E119" s="129" t="s">
+        <v>698</v>
+      </c>
+      <c r="F119" s="95">
+        <f t="shared" ref="F119:F130" si="17">+G118</f>
+        <v>25.56</v>
+      </c>
+      <c r="G119" s="95">
+        <v>35.32</v>
+      </c>
       <c r="H119" s="95"/>
       <c r="I119" s="95"/>
     </row>
@@ -18075,10 +18275,20 @@
       <c r="A120" s="95"/>
       <c r="B120" s="95"/>
       <c r="C120" s="95"/>
-      <c r="D120" s="95"/>
-      <c r="E120" s="95"/>
-      <c r="F120" s="95"/>
-      <c r="G120" s="95"/>
+      <c r="D120" s="99">
+        <f>+D119+1</f>
+        <v>4</v>
+      </c>
+      <c r="E120" s="129" t="s">
+        <v>699</v>
+      </c>
+      <c r="F120" s="95">
+        <f t="shared" si="17"/>
+        <v>35.32</v>
+      </c>
+      <c r="G120" s="95">
+        <v>37.53</v>
+      </c>
       <c r="H120" s="95"/>
       <c r="I120" s="95"/>
     </row>
@@ -18086,10 +18296,20 @@
       <c r="A121" s="95"/>
       <c r="B121" s="95"/>
       <c r="C121" s="95"/>
-      <c r="D121" s="95"/>
-      <c r="E121" s="95"/>
-      <c r="F121" s="95"/>
-      <c r="G121" s="95"/>
+      <c r="D121" s="99">
+        <f>+D120+1</f>
+        <v>5</v>
+      </c>
+      <c r="E121" s="129" t="s">
+        <v>700</v>
+      </c>
+      <c r="F121" s="95">
+        <f t="shared" si="17"/>
+        <v>37.53</v>
+      </c>
+      <c r="G121" s="95">
+        <v>40.15</v>
+      </c>
       <c r="H121" s="95"/>
       <c r="I121" s="95"/>
     </row>
@@ -18097,10 +18317,20 @@
       <c r="A122" s="95"/>
       <c r="B122" s="95"/>
       <c r="C122" s="95"/>
-      <c r="D122" s="95"/>
-      <c r="E122" s="95"/>
-      <c r="F122" s="95"/>
-      <c r="G122" s="95"/>
+      <c r="D122" s="99">
+        <f t="shared" ref="D122:D130" si="18">+D121+1</f>
+        <v>6</v>
+      </c>
+      <c r="E122" s="131" t="s">
+        <v>702</v>
+      </c>
+      <c r="F122" s="95">
+        <f t="shared" si="17"/>
+        <v>40.15</v>
+      </c>
+      <c r="G122" s="95">
+        <v>43.09</v>
+      </c>
       <c r="H122" s="95"/>
       <c r="I122" s="95"/>
     </row>
@@ -18108,10 +18338,20 @@
       <c r="A123" s="95"/>
       <c r="B123" s="95"/>
       <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="95"/>
-      <c r="F123" s="95"/>
-      <c r="G123" s="95"/>
+      <c r="D123" s="99">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="E123" s="131" t="s">
+        <v>703</v>
+      </c>
+      <c r="F123" s="95">
+        <f t="shared" si="17"/>
+        <v>43.09</v>
+      </c>
+      <c r="G123" s="95">
+        <v>45.56</v>
+      </c>
       <c r="H123" s="95"/>
       <c r="I123" s="95"/>
     </row>
@@ -18119,10 +18359,20 @@
       <c r="A124" s="95"/>
       <c r="B124" s="95"/>
       <c r="C124" s="95"/>
-      <c r="D124" s="95"/>
-      <c r="E124" s="95"/>
-      <c r="F124" s="95"/>
-      <c r="G124" s="95"/>
+      <c r="D124" s="99">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="E124" s="131" t="s">
+        <v>704</v>
+      </c>
+      <c r="F124" s="95">
+        <f t="shared" si="17"/>
+        <v>45.56</v>
+      </c>
+      <c r="G124" s="95">
+        <v>47.31</v>
+      </c>
       <c r="H124" s="95"/>
       <c r="I124" s="95"/>
     </row>
@@ -18130,10 +18380,20 @@
       <c r="A125" s="95"/>
       <c r="B125" s="95"/>
       <c r="C125" s="95"/>
-      <c r="D125" s="95"/>
-      <c r="E125" s="95"/>
-      <c r="F125" s="95"/>
-      <c r="G125" s="95"/>
+      <c r="D125" s="99">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="E125" s="131" t="s">
+        <v>705</v>
+      </c>
+      <c r="F125" s="95">
+        <f t="shared" si="17"/>
+        <v>47.31</v>
+      </c>
+      <c r="G125" s="95">
+        <v>49.15</v>
+      </c>
       <c r="H125" s="95"/>
       <c r="I125" s="95"/>
     </row>
@@ -18141,10 +18401,20 @@
       <c r="A126" s="95"/>
       <c r="B126" s="95"/>
       <c r="C126" s="95"/>
-      <c r="D126" s="95"/>
-      <c r="E126" s="95"/>
-      <c r="F126" s="95"/>
-      <c r="G126" s="95"/>
+      <c r="D126" s="99">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="E126" s="131" t="s">
+        <v>706</v>
+      </c>
+      <c r="F126" s="95">
+        <f t="shared" si="17"/>
+        <v>49.15</v>
+      </c>
+      <c r="G126" s="95">
+        <v>51.04</v>
+      </c>
       <c r="H126" s="95"/>
       <c r="I126" s="95"/>
     </row>
@@ -18152,10 +18422,20 @@
       <c r="A127" s="95"/>
       <c r="B127" s="95"/>
       <c r="C127" s="95"/>
-      <c r="D127" s="95"/>
-      <c r="E127" s="95"/>
-      <c r="F127" s="95"/>
-      <c r="G127" s="95"/>
+      <c r="D127" s="99">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="E127" s="131" t="s">
+        <v>707</v>
+      </c>
+      <c r="F127" s="95">
+        <f t="shared" si="17"/>
+        <v>51.04</v>
+      </c>
+      <c r="G127" s="95">
+        <v>52.33</v>
+      </c>
       <c r="H127" s="95"/>
       <c r="I127" s="95"/>
     </row>
@@ -18163,10 +18443,20 @@
       <c r="A128" s="95"/>
       <c r="B128" s="95"/>
       <c r="C128" s="95"/>
-      <c r="D128" s="95"/>
-      <c r="E128" s="95"/>
-      <c r="F128" s="95"/>
-      <c r="G128" s="95"/>
+      <c r="D128" s="99">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="E128" s="131" t="s">
+        <v>708</v>
+      </c>
+      <c r="F128" s="95">
+        <f t="shared" si="17"/>
+        <v>52.33</v>
+      </c>
+      <c r="G128" s="95">
+        <v>53.57</v>
+      </c>
       <c r="H128" s="95"/>
       <c r="I128" s="95"/>
     </row>
@@ -18174,10 +18464,20 @@
       <c r="A129" s="95"/>
       <c r="B129" s="95"/>
       <c r="C129" s="95"/>
-      <c r="D129" s="95"/>
-      <c r="E129" s="95"/>
-      <c r="F129" s="95"/>
-      <c r="G129" s="95"/>
+      <c r="D129" s="99">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="E129" s="131" t="s">
+        <v>709</v>
+      </c>
+      <c r="F129" s="95">
+        <f t="shared" si="17"/>
+        <v>53.57</v>
+      </c>
+      <c r="G129" s="95">
+        <v>55.55</v>
+      </c>
       <c r="H129" s="95"/>
       <c r="I129" s="95"/>
     </row>
@@ -18185,19 +18485,27 @@
       <c r="A130" s="95"/>
       <c r="B130" s="95"/>
       <c r="C130" s="95"/>
-      <c r="D130" s="95"/>
-      <c r="E130" s="95"/>
+      <c r="D130" s="99"/>
+      <c r="E130" s="131"/>
       <c r="F130" s="95"/>
-      <c r="G130" s="95"/>
+      <c r="G130" s="131"/>
       <c r="H130" s="95"/>
       <c r="I130" s="95"/>
     </row>
     <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A131" s="95"/>
-      <c r="B131" s="95"/>
+      <c r="A131" s="95">
+        <v>20</v>
+      </c>
+      <c r="B131" s="98">
+        <v>44124</v>
+      </c>
       <c r="C131" s="95"/>
-      <c r="D131" s="95"/>
-      <c r="E131" s="95"/>
+      <c r="D131" s="99">
+        <v>1</v>
+      </c>
+      <c r="E131" s="131" t="s">
+        <v>710</v>
+      </c>
       <c r="F131" s="95"/>
       <c r="G131" s="95"/>
       <c r="H131" s="95"/>
@@ -18207,8 +18515,13 @@
       <c r="A132" s="95"/>
       <c r="B132" s="95"/>
       <c r="C132" s="95"/>
-      <c r="D132" s="95"/>
-      <c r="E132" s="95"/>
+      <c r="D132" s="99">
+        <f>+D131+1</f>
+        <v>2</v>
+      </c>
+      <c r="E132" s="131" t="s">
+        <v>711</v>
+      </c>
       <c r="F132" s="95"/>
       <c r="G132" s="95"/>
       <c r="H132" s="95"/>
@@ -18218,8 +18531,13 @@
       <c r="A133" s="95"/>
       <c r="B133" s="95"/>
       <c r="C133" s="95"/>
-      <c r="D133" s="95"/>
-      <c r="E133" s="95"/>
+      <c r="D133" s="99">
+        <f>+D132+1</f>
+        <v>3</v>
+      </c>
+      <c r="E133" s="131" t="s">
+        <v>712</v>
+      </c>
       <c r="F133" s="95"/>
       <c r="G133" s="95"/>
       <c r="H133" s="95"/>
@@ -18229,8 +18547,13 @@
       <c r="A134" s="95"/>
       <c r="B134" s="95"/>
       <c r="C134" s="95"/>
-      <c r="D134" s="95"/>
-      <c r="E134" s="95"/>
+      <c r="D134" s="99">
+        <f t="shared" ref="D134:D137" si="19">+D133+1</f>
+        <v>4</v>
+      </c>
+      <c r="E134" s="131" t="s">
+        <v>713</v>
+      </c>
       <c r="F134" s="95"/>
       <c r="G134" s="95"/>
       <c r="H134" s="95"/>
@@ -18240,8 +18563,13 @@
       <c r="A135" s="95"/>
       <c r="B135" s="95"/>
       <c r="C135" s="95"/>
-      <c r="D135" s="95"/>
-      <c r="E135" s="95"/>
+      <c r="D135" s="99">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="E135" s="131" t="s">
+        <v>714</v>
+      </c>
       <c r="F135" s="95"/>
       <c r="G135" s="95"/>
       <c r="H135" s="95"/>
@@ -18251,8 +18579,13 @@
       <c r="A136" s="95"/>
       <c r="B136" s="95"/>
       <c r="C136" s="95"/>
-      <c r="D136" s="95"/>
-      <c r="E136" s="95"/>
+      <c r="D136" s="99">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="E136" s="131" t="s">
+        <v>715</v>
+      </c>
       <c r="F136" s="95"/>
       <c r="G136" s="95"/>
       <c r="H136" s="95"/>
@@ -18262,8 +18595,13 @@
       <c r="A137" s="95"/>
       <c r="B137" s="95"/>
       <c r="C137" s="95"/>
-      <c r="D137" s="95"/>
-      <c r="E137" s="95"/>
+      <c r="D137" s="99">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="E137" s="131" t="s">
+        <v>716</v>
+      </c>
       <c r="F137" s="95"/>
       <c r="G137" s="95"/>
       <c r="H137" s="95"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="726">
   <si>
     <t>Date</t>
   </si>
@@ -2170,19 +2170,52 @@
   </si>
   <si>
     <t>5.7.4.1</t>
+  </si>
+  <si>
+    <t>1.01.21</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TO2PL6VXzB8</t>
+  </si>
+  <si>
+    <t>1.00.21</t>
+  </si>
+  <si>
+    <t>5.7.4.2</t>
+  </si>
+  <si>
+    <t>5.7.4.3</t>
+  </si>
+  <si>
+    <t>5.7.5.1</t>
+  </si>
+  <si>
+    <t>5.7.61</t>
+  </si>
+  <si>
+    <t>5.7.7.1</t>
+  </si>
+  <si>
+    <t>5.7.8.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="99" x14ac:knownFonts="1">
+  <fonts count="100" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2811,77 +2844,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="95" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="96" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="97" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="95" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="96" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="97" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="88" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="88" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="97" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="97" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="98" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2890,17 +2924,17 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2915,19 +2949,19 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="96" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="97" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="97" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="98" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2942,24 +2976,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15816,8 +15853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18262,7 +18299,7 @@
         <v>698</v>
       </c>
       <c r="F119" s="95">
-        <f t="shared" ref="F119:F130" si="17">+G118</f>
+        <f t="shared" ref="F119:F129" si="17">+G118</f>
         <v>25.56</v>
       </c>
       <c r="G119" s="95">
@@ -18318,7 +18355,7 @@
       <c r="B122" s="95"/>
       <c r="C122" s="95"/>
       <c r="D122" s="99">
-        <f t="shared" ref="D122:D130" si="18">+D121+1</f>
+        <f t="shared" ref="D122:D129" si="18">+D121+1</f>
         <v>6</v>
       </c>
       <c r="E122" s="131" t="s">
@@ -18494,22 +18531,30 @@
     </row>
     <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="95">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B131" s="98">
         <v>44124</v>
       </c>
-      <c r="C131" s="95"/>
+      <c r="C131" s="132" t="s">
+        <v>717</v>
+      </c>
       <c r="D131" s="99">
         <v>1</v>
       </c>
       <c r="E131" s="131" t="s">
         <v>710</v>
       </c>
-      <c r="F131" s="95"/>
-      <c r="G131" s="95"/>
+      <c r="F131" s="95">
+        <v>2.42</v>
+      </c>
+      <c r="G131" s="95">
+        <v>6.38</v>
+      </c>
       <c r="H131" s="95"/>
-      <c r="I131" s="95"/>
+      <c r="I131" s="95" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="95"/>
@@ -18522,8 +18567,13 @@
       <c r="E132" s="131" t="s">
         <v>711</v>
       </c>
-      <c r="F132" s="95"/>
-      <c r="G132" s="95"/>
+      <c r="F132" s="101">
+        <f>+G131</f>
+        <v>6.38</v>
+      </c>
+      <c r="G132" s="101">
+        <v>8.4</v>
+      </c>
       <c r="H132" s="95"/>
       <c r="I132" s="95"/>
     </row>
@@ -18538,8 +18588,13 @@
       <c r="E133" s="131" t="s">
         <v>712</v>
       </c>
-      <c r="F133" s="95"/>
-      <c r="G133" s="95"/>
+      <c r="F133" s="101">
+        <f t="shared" ref="F133:F137" si="19">+G132</f>
+        <v>8.4</v>
+      </c>
+      <c r="G133" s="101">
+        <v>10.29</v>
+      </c>
       <c r="H133" s="95"/>
       <c r="I133" s="95"/>
     </row>
@@ -18548,14 +18603,19 @@
       <c r="B134" s="95"/>
       <c r="C134" s="95"/>
       <c r="D134" s="99">
-        <f t="shared" ref="D134:D137" si="19">+D133+1</f>
+        <f t="shared" ref="D134:D137" si="20">+D133+1</f>
         <v>4</v>
       </c>
       <c r="E134" s="131" t="s">
         <v>713</v>
       </c>
-      <c r="F134" s="95"/>
-      <c r="G134" s="95"/>
+      <c r="F134" s="101">
+        <f t="shared" si="19"/>
+        <v>10.29</v>
+      </c>
+      <c r="G134" s="101">
+        <v>21.24</v>
+      </c>
       <c r="H134" s="95"/>
       <c r="I134" s="95"/>
     </row>
@@ -18564,14 +18624,19 @@
       <c r="B135" s="95"/>
       <c r="C135" s="95"/>
       <c r="D135" s="99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="E135" s="131" t="s">
         <v>714</v>
       </c>
-      <c r="F135" s="95"/>
-      <c r="G135" s="95"/>
+      <c r="F135" s="101">
+        <f t="shared" si="19"/>
+        <v>21.24</v>
+      </c>
+      <c r="G135" s="101">
+        <v>41.07</v>
+      </c>
       <c r="H135" s="95"/>
       <c r="I135" s="95"/>
     </row>
@@ -18580,14 +18645,19 @@
       <c r="B136" s="95"/>
       <c r="C136" s="95"/>
       <c r="D136" s="99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="E136" s="131" t="s">
         <v>715</v>
       </c>
-      <c r="F136" s="95"/>
-      <c r="G136" s="95"/>
+      <c r="F136" s="101">
+        <f t="shared" si="19"/>
+        <v>41.07</v>
+      </c>
+      <c r="G136" s="101">
+        <v>54.04</v>
+      </c>
       <c r="H136" s="95"/>
       <c r="I136" s="95"/>
     </row>
@@ -18596,15 +18666,22 @@
       <c r="B137" s="95"/>
       <c r="C137" s="95"/>
       <c r="D137" s="99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="E137" s="131" t="s">
         <v>716</v>
       </c>
-      <c r="F137" s="95"/>
-      <c r="G137" s="95"/>
-      <c r="H137" s="95"/>
+      <c r="F137" s="101">
+        <f t="shared" si="19"/>
+        <v>54.04</v>
+      </c>
+      <c r="G137" s="133" t="s">
+        <v>719</v>
+      </c>
+      <c r="H137" s="132" t="s">
+        <v>720</v>
+      </c>
       <c r="I137" s="95"/>
     </row>
     <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -18619,11 +18696,19 @@
       <c r="I138" s="95"/>
     </row>
     <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139" s="95"/>
-      <c r="B139" s="95"/>
+      <c r="A139" s="95">
+        <v>22</v>
+      </c>
+      <c r="B139" s="98">
+        <v>44125</v>
+      </c>
       <c r="C139" s="95"/>
-      <c r="D139" s="95"/>
-      <c r="E139" s="95"/>
+      <c r="D139" s="99">
+        <v>1</v>
+      </c>
+      <c r="E139" s="132" t="s">
+        <v>721</v>
+      </c>
       <c r="F139" s="95"/>
       <c r="G139" s="95"/>
       <c r="H139" s="95"/>
@@ -18633,8 +18718,13 @@
       <c r="A140" s="95"/>
       <c r="B140" s="95"/>
       <c r="C140" s="95"/>
-      <c r="D140" s="95"/>
-      <c r="E140" s="95"/>
+      <c r="D140" s="99">
+        <f>+D139+1</f>
+        <v>2</v>
+      </c>
+      <c r="E140" s="132" t="s">
+        <v>722</v>
+      </c>
       <c r="F140" s="95"/>
       <c r="G140" s="95"/>
       <c r="H140" s="95"/>
@@ -18644,8 +18734,13 @@
       <c r="A141" s="95"/>
       <c r="B141" s="95"/>
       <c r="C141" s="95"/>
-      <c r="D141" s="95"/>
-      <c r="E141" s="95"/>
+      <c r="D141" s="99">
+        <f>+D140+1</f>
+        <v>3</v>
+      </c>
+      <c r="E141" s="132" t="s">
+        <v>723</v>
+      </c>
       <c r="F141" s="95"/>
       <c r="G141" s="95"/>
       <c r="H141" s="95"/>
@@ -18655,8 +18750,13 @@
       <c r="A142" s="95"/>
       <c r="B142" s="95"/>
       <c r="C142" s="95"/>
-      <c r="D142" s="95"/>
-      <c r="E142" s="95"/>
+      <c r="D142" s="99">
+        <f t="shared" ref="D142:D143" si="21">+D141+1</f>
+        <v>4</v>
+      </c>
+      <c r="E142" s="132" t="s">
+        <v>724</v>
+      </c>
       <c r="F142" s="95"/>
       <c r="G142" s="95"/>
       <c r="H142" s="95"/>
@@ -18666,8 +18766,13 @@
       <c r="A143" s="95"/>
       <c r="B143" s="95"/>
       <c r="C143" s="95"/>
-      <c r="D143" s="95"/>
-      <c r="E143" s="95"/>
+      <c r="D143" s="99">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="E143" s="132" t="s">
+        <v>725</v>
+      </c>
       <c r="F143" s="95"/>
       <c r="G143" s="95"/>
       <c r="H143" s="95"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Kandam3" sheetId="3" r:id="rId3"/>
     <sheet name="Kandam4" sheetId="4" r:id="rId4"/>
     <sheet name="Kandam5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Kandam6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="748">
   <si>
     <t>Date</t>
   </si>
@@ -2197,19 +2197,103 @@
   </si>
   <si>
     <t>5.7.8.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6oV4tR-bOu8</t>
+  </si>
+  <si>
+    <t>5.7.9.1</t>
+  </si>
+  <si>
+    <t>5.7.10.1</t>
+  </si>
+  <si>
+    <t>5.7.11.1</t>
+  </si>
+  <si>
+    <t>5.7.12.1</t>
+  </si>
+  <si>
+    <t>5.7.13.1</t>
+  </si>
+  <si>
+    <t>5.7.14.1</t>
+  </si>
+  <si>
+    <t>5.7.15.1</t>
+  </si>
+  <si>
+    <t>5.7.16.1</t>
+  </si>
+  <si>
+    <t>5.7.17.1</t>
+  </si>
+  <si>
+    <t>5.7.18.1</t>
+  </si>
+  <si>
+    <t>5.7.19.1</t>
+  </si>
+  <si>
+    <t>5.7.20.1</t>
+  </si>
+  <si>
+    <t>5.7.21.1</t>
+  </si>
+  <si>
+    <t>5.7.22.1</t>
+  </si>
+  <si>
+    <t>5.7.23.1</t>
+  </si>
+  <si>
+    <t>5.7.24.1</t>
+  </si>
+  <si>
+    <t>5.7.25.1</t>
+  </si>
+  <si>
+    <t>5.7.26.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nJJEA5vCDh0</t>
+  </si>
+  <si>
+    <t>6.1.1.1</t>
+  </si>
+  <si>
+    <t>6.1.2.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="100" x14ac:knownFonts="1">
+  <fonts count="103" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2844,96 +2928,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="97" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="100" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="97" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="100" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="101" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="98" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="98" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2946,21 +3033,21 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="97" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="100" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="98" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="101" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2973,30 +3060,31 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3304,9 +3392,9 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4015,7 +4103,6 @@
       <c r="G34" s="6">
         <v>51.52</v>
       </c>
-      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -4132,7 +4219,9 @@
       <c r="G39" s="6">
         <v>51.4</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="135" t="s">
+        <v>659</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -15853,8 +15942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18702,17 +18791,25 @@
       <c r="B139" s="98">
         <v>44125</v>
       </c>
-      <c r="C139" s="95"/>
+      <c r="C139" s="95">
+        <v>56.19</v>
+      </c>
       <c r="D139" s="99">
         <v>1</v>
       </c>
       <c r="E139" s="132" t="s">
         <v>721</v>
       </c>
-      <c r="F139" s="95"/>
-      <c r="G139" s="95"/>
+      <c r="F139" s="95">
+        <v>2.42</v>
+      </c>
+      <c r="G139" s="95">
+        <v>9.1199999999999992</v>
+      </c>
       <c r="H139" s="95"/>
-      <c r="I139" s="95"/>
+      <c r="I139" s="95" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="95"/>
@@ -18725,8 +18822,13 @@
       <c r="E140" s="132" t="s">
         <v>722</v>
       </c>
-      <c r="F140" s="95"/>
-      <c r="G140" s="95"/>
+      <c r="F140" s="101">
+        <f>+G139</f>
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="G140" s="101">
+        <v>24.3</v>
+      </c>
       <c r="H140" s="95"/>
       <c r="I140" s="95"/>
     </row>
@@ -18741,8 +18843,13 @@
       <c r="E141" s="132" t="s">
         <v>723</v>
       </c>
-      <c r="F141" s="95"/>
-      <c r="G141" s="95"/>
+      <c r="F141" s="101">
+        <f t="shared" ref="F141:F143" si="21">+G140</f>
+        <v>24.3</v>
+      </c>
+      <c r="G141" s="101">
+        <v>39.25</v>
+      </c>
       <c r="H141" s="95"/>
       <c r="I141" s="95"/>
     </row>
@@ -18751,14 +18858,19 @@
       <c r="B142" s="95"/>
       <c r="C142" s="95"/>
       <c r="D142" s="99">
-        <f t="shared" ref="D142:D143" si="21">+D141+1</f>
+        <f t="shared" ref="D142:D143" si="22">+D141+1</f>
         <v>4</v>
       </c>
       <c r="E142" s="132" t="s">
         <v>724</v>
       </c>
-      <c r="F142" s="95"/>
-      <c r="G142" s="95"/>
+      <c r="F142" s="101">
+        <f t="shared" si="21"/>
+        <v>39.25</v>
+      </c>
+      <c r="G142" s="101">
+        <v>47.32</v>
+      </c>
       <c r="H142" s="95"/>
       <c r="I142" s="95"/>
     </row>
@@ -18767,14 +18879,19 @@
       <c r="B143" s="95"/>
       <c r="C143" s="95"/>
       <c r="D143" s="99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="E143" s="132" t="s">
         <v>725</v>
       </c>
-      <c r="F143" s="95"/>
-      <c r="G143" s="95"/>
+      <c r="F143" s="101">
+        <f t="shared" si="21"/>
+        <v>47.32</v>
+      </c>
+      <c r="G143" s="101">
+        <v>55.42</v>
+      </c>
       <c r="H143" s="95"/>
       <c r="I143" s="95"/>
     </row>
@@ -18790,24 +18907,50 @@
       <c r="I144" s="95"/>
     </row>
     <row r="145" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A145" s="95"/>
-      <c r="B145" s="95"/>
-      <c r="C145" s="95"/>
-      <c r="D145" s="95"/>
-      <c r="E145" s="95"/>
-      <c r="F145" s="95"/>
-      <c r="G145" s="95"/>
+      <c r="A145" s="95">
+        <v>22</v>
+      </c>
+      <c r="B145" s="98">
+        <v>44126</v>
+      </c>
+      <c r="C145" s="95">
+        <v>59.26</v>
+      </c>
+      <c r="D145" s="99">
+        <v>1</v>
+      </c>
+      <c r="E145" s="134" t="s">
+        <v>727</v>
+      </c>
+      <c r="F145" s="101">
+        <v>5.2</v>
+      </c>
+      <c r="G145" s="101">
+        <v>18.28</v>
+      </c>
       <c r="H145" s="95"/>
-      <c r="I145" s="95"/>
+      <c r="I145" s="95" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="146" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="95"/>
       <c r="B146" s="95"/>
       <c r="C146" s="95"/>
-      <c r="D146" s="95"/>
-      <c r="E146" s="95"/>
-      <c r="F146" s="95"/>
-      <c r="G146" s="95"/>
+      <c r="D146" s="99">
+        <f>+D145+1</f>
+        <v>2</v>
+      </c>
+      <c r="E146" s="134" t="s">
+        <v>728</v>
+      </c>
+      <c r="F146" s="101">
+        <f>+G145</f>
+        <v>18.28</v>
+      </c>
+      <c r="G146" s="101">
+        <v>27.11</v>
+      </c>
       <c r="H146" s="95"/>
       <c r="I146" s="95"/>
     </row>
@@ -18815,10 +18958,20 @@
       <c r="A147" s="95"/>
       <c r="B147" s="95"/>
       <c r="C147" s="95"/>
-      <c r="D147" s="95"/>
-      <c r="E147" s="95"/>
-      <c r="F147" s="95"/>
-      <c r="G147" s="95"/>
+      <c r="D147" s="99">
+        <f>+D146+1</f>
+        <v>3</v>
+      </c>
+      <c r="E147" s="134" t="s">
+        <v>729</v>
+      </c>
+      <c r="F147" s="101">
+        <f t="shared" ref="F147:G162" si="23">+G146</f>
+        <v>27.11</v>
+      </c>
+      <c r="G147" s="101">
+        <v>29.12</v>
+      </c>
       <c r="H147" s="95"/>
       <c r="I147" s="95"/>
     </row>
@@ -18826,10 +18979,20 @@
       <c r="A148" s="95"/>
       <c r="B148" s="95"/>
       <c r="C148" s="95"/>
-      <c r="D148" s="95"/>
-      <c r="E148" s="95"/>
-      <c r="F148" s="95"/>
-      <c r="G148" s="95"/>
+      <c r="D148" s="99">
+        <f t="shared" ref="D148:D162" si="24">+D147+1</f>
+        <v>4</v>
+      </c>
+      <c r="E148" s="134" t="s">
+        <v>730</v>
+      </c>
+      <c r="F148" s="101">
+        <f t="shared" si="23"/>
+        <v>29.12</v>
+      </c>
+      <c r="G148" s="101">
+        <v>31.35</v>
+      </c>
       <c r="H148" s="95"/>
       <c r="I148" s="95"/>
     </row>
@@ -18837,10 +19000,20 @@
       <c r="A149" s="95"/>
       <c r="B149" s="95"/>
       <c r="C149" s="95"/>
-      <c r="D149" s="95"/>
-      <c r="E149" s="95"/>
-      <c r="F149" s="95"/>
-      <c r="G149" s="95"/>
+      <c r="D149" s="99">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="E149" s="134" t="s">
+        <v>731</v>
+      </c>
+      <c r="F149" s="101">
+        <f t="shared" si="23"/>
+        <v>31.35</v>
+      </c>
+      <c r="G149" s="101">
+        <v>33.43</v>
+      </c>
       <c r="H149" s="95"/>
       <c r="I149" s="95"/>
     </row>
@@ -18848,10 +19021,20 @@
       <c r="A150" s="95"/>
       <c r="B150" s="95"/>
       <c r="C150" s="95"/>
-      <c r="D150" s="95"/>
-      <c r="E150" s="95"/>
-      <c r="F150" s="95"/>
-      <c r="G150" s="95"/>
+      <c r="D150" s="99">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="E150" s="134" t="s">
+        <v>732</v>
+      </c>
+      <c r="F150" s="101">
+        <f t="shared" si="23"/>
+        <v>33.43</v>
+      </c>
+      <c r="G150" s="101">
+        <v>35.33</v>
+      </c>
       <c r="H150" s="95"/>
       <c r="I150" s="95"/>
     </row>
@@ -18859,10 +19042,20 @@
       <c r="A151" s="95"/>
       <c r="B151" s="95"/>
       <c r="C151" s="95"/>
-      <c r="D151" s="95"/>
-      <c r="E151" s="95"/>
-      <c r="F151" s="95"/>
-      <c r="G151" s="95"/>
+      <c r="D151" s="99">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="E151" s="134" t="s">
+        <v>733</v>
+      </c>
+      <c r="F151" s="101">
+        <f t="shared" si="23"/>
+        <v>35.33</v>
+      </c>
+      <c r="G151" s="101">
+        <v>38.1</v>
+      </c>
       <c r="H151" s="95"/>
       <c r="I151" s="95"/>
     </row>
@@ -18870,10 +19063,20 @@
       <c r="A152" s="95"/>
       <c r="B152" s="95"/>
       <c r="C152" s="95"/>
-      <c r="D152" s="95"/>
-      <c r="E152" s="95"/>
-      <c r="F152" s="95"/>
-      <c r="G152" s="95"/>
+      <c r="D152" s="99">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="E152" s="134" t="s">
+        <v>734</v>
+      </c>
+      <c r="F152" s="101">
+        <f t="shared" si="23"/>
+        <v>38.1</v>
+      </c>
+      <c r="G152" s="101">
+        <v>39.58</v>
+      </c>
       <c r="H152" s="95"/>
       <c r="I152" s="95"/>
     </row>
@@ -18881,10 +19084,20 @@
       <c r="A153" s="95"/>
       <c r="B153" s="95"/>
       <c r="C153" s="95"/>
-      <c r="D153" s="95"/>
-      <c r="E153" s="95"/>
-      <c r="F153" s="95"/>
-      <c r="G153" s="95"/>
+      <c r="D153" s="99">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="E153" s="134" t="s">
+        <v>735</v>
+      </c>
+      <c r="F153" s="101">
+        <f t="shared" si="23"/>
+        <v>39.58</v>
+      </c>
+      <c r="G153" s="101">
+        <v>41.53</v>
+      </c>
       <c r="H153" s="95"/>
       <c r="I153" s="95"/>
     </row>
@@ -18892,10 +19105,20 @@
       <c r="A154" s="95"/>
       <c r="B154" s="95"/>
       <c r="C154" s="95"/>
-      <c r="D154" s="95"/>
-      <c r="E154" s="95"/>
-      <c r="F154" s="95"/>
-      <c r="G154" s="95"/>
+      <c r="D154" s="99">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="E154" s="134" t="s">
+        <v>736</v>
+      </c>
+      <c r="F154" s="101">
+        <f t="shared" si="23"/>
+        <v>41.53</v>
+      </c>
+      <c r="G154" s="101">
+        <v>43.4</v>
+      </c>
       <c r="H154" s="95"/>
       <c r="I154" s="95"/>
     </row>
@@ -18903,10 +19126,20 @@
       <c r="A155" s="95"/>
       <c r="B155" s="95"/>
       <c r="C155" s="95"/>
-      <c r="D155" s="95"/>
-      <c r="E155" s="95"/>
-      <c r="F155" s="95"/>
-      <c r="G155" s="95"/>
+      <c r="D155" s="99">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="E155" s="136" t="s">
+        <v>737</v>
+      </c>
+      <c r="F155" s="101">
+        <f t="shared" si="23"/>
+        <v>43.4</v>
+      </c>
+      <c r="G155" s="101">
+        <v>45.38</v>
+      </c>
       <c r="H155" s="95"/>
       <c r="I155" s="95"/>
     </row>
@@ -18914,10 +19147,20 @@
       <c r="A156" s="95"/>
       <c r="B156" s="95"/>
       <c r="C156" s="95"/>
-      <c r="D156" s="95"/>
-      <c r="E156" s="95"/>
-      <c r="F156" s="95"/>
-      <c r="G156" s="95"/>
+      <c r="D156" s="99">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="E156" s="136" t="s">
+        <v>738</v>
+      </c>
+      <c r="F156" s="101">
+        <f t="shared" si="23"/>
+        <v>45.38</v>
+      </c>
+      <c r="G156" s="101">
+        <v>47.4</v>
+      </c>
       <c r="H156" s="95"/>
       <c r="I156" s="95"/>
     </row>
@@ -18925,10 +19168,20 @@
       <c r="A157" s="95"/>
       <c r="B157" s="95"/>
       <c r="C157" s="95"/>
-      <c r="D157" s="95"/>
-      <c r="E157" s="95"/>
-      <c r="F157" s="95"/>
-      <c r="G157" s="95"/>
+      <c r="D157" s="99">
+        <f t="shared" si="24"/>
+        <v>13</v>
+      </c>
+      <c r="E157" s="136" t="s">
+        <v>739</v>
+      </c>
+      <c r="F157" s="101">
+        <f t="shared" si="23"/>
+        <v>47.4</v>
+      </c>
+      <c r="G157" s="95">
+        <v>49.47</v>
+      </c>
       <c r="H157" s="95"/>
       <c r="I157" s="95"/>
     </row>
@@ -18936,10 +19189,20 @@
       <c r="A158" s="95"/>
       <c r="B158" s="95"/>
       <c r="C158" s="95"/>
-      <c r="D158" s="95"/>
-      <c r="E158" s="95"/>
-      <c r="F158" s="95"/>
-      <c r="G158" s="95"/>
+      <c r="D158" s="99">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="E158" s="136" t="s">
+        <v>740</v>
+      </c>
+      <c r="F158" s="101">
+        <f t="shared" si="23"/>
+        <v>49.47</v>
+      </c>
+      <c r="G158" s="101">
+        <v>51.45</v>
+      </c>
       <c r="H158" s="95"/>
       <c r="I158" s="95"/>
     </row>
@@ -18947,10 +19210,20 @@
       <c r="A159" s="95"/>
       <c r="B159" s="95"/>
       <c r="C159" s="95"/>
-      <c r="D159" s="95"/>
-      <c r="E159" s="95"/>
-      <c r="F159" s="95"/>
-      <c r="G159" s="95"/>
+      <c r="D159" s="99">
+        <f t="shared" si="24"/>
+        <v>15</v>
+      </c>
+      <c r="E159" s="136" t="s">
+        <v>741</v>
+      </c>
+      <c r="F159" s="101">
+        <f t="shared" si="23"/>
+        <v>51.45</v>
+      </c>
+      <c r="G159" s="95">
+        <v>53.48</v>
+      </c>
       <c r="H159" s="95"/>
       <c r="I159" s="95"/>
     </row>
@@ -18958,10 +19231,20 @@
       <c r="A160" s="95"/>
       <c r="B160" s="95"/>
       <c r="C160" s="95"/>
-      <c r="D160" s="95"/>
-      <c r="E160" s="95"/>
-      <c r="F160" s="95"/>
-      <c r="G160" s="95"/>
+      <c r="D160" s="99">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="E160" s="136" t="s">
+        <v>742</v>
+      </c>
+      <c r="F160" s="101">
+        <f t="shared" si="23"/>
+        <v>53.48</v>
+      </c>
+      <c r="G160" s="95">
+        <v>54.45</v>
+      </c>
       <c r="H160" s="95"/>
       <c r="I160" s="95"/>
     </row>
@@ -18969,10 +19252,20 @@
       <c r="A161" s="95"/>
       <c r="B161" s="95"/>
       <c r="C161" s="95"/>
-      <c r="D161" s="95"/>
-      <c r="E161" s="95"/>
-      <c r="F161" s="95"/>
-      <c r="G161" s="95"/>
+      <c r="D161" s="99">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="E161" s="136" t="s">
+        <v>743</v>
+      </c>
+      <c r="F161" s="101">
+        <f t="shared" si="23"/>
+        <v>54.45</v>
+      </c>
+      <c r="G161" s="95">
+        <v>56.15</v>
+      </c>
       <c r="H161" s="95"/>
       <c r="I161" s="95"/>
     </row>
@@ -18980,10 +19273,20 @@
       <c r="A162" s="95"/>
       <c r="B162" s="95"/>
       <c r="C162" s="95"/>
-      <c r="D162" s="95"/>
-      <c r="E162" s="95"/>
-      <c r="F162" s="95"/>
-      <c r="G162" s="95"/>
+      <c r="D162" s="99">
+        <f t="shared" si="24"/>
+        <v>18</v>
+      </c>
+      <c r="E162" s="136" t="s">
+        <v>744</v>
+      </c>
+      <c r="F162" s="101">
+        <f t="shared" si="23"/>
+        <v>56.15</v>
+      </c>
+      <c r="G162" s="95">
+        <v>58.49</v>
+      </c>
       <c r="H162" s="95"/>
       <c r="I162" s="95"/>
     </row>
@@ -19809,12 +20112,996 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="136">
+        <v>1</v>
+      </c>
+      <c r="B4" s="137">
+        <v>44127</v>
+      </c>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136" t="s">
+        <v>746</v>
+      </c>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136" t="s">
+        <v>747</v>
+      </c>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="136"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="136"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="136"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="136"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="136"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="136"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="136"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="136"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="136"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="136"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="136"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="136"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="136"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="136"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="136"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="136"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="136"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="136"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="136"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="136"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="136"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="136"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="136"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="136"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="136"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="136"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="136"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="136"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="136"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="136"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="136"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="136"/>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="136"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="136"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="136"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="136"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="136"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="136"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="136"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="136"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="136"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="136"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="136"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="136"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="136"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="136"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="136"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="136"/>
+      <c r="I54" s="136"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="136"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="136"/>
+      <c r="H55" s="136"/>
+      <c r="I55" s="136"/>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="136"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="136"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A58" s="136"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="136"/>
+      <c r="H58" s="136"/>
+      <c r="I58" s="136"/>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="136"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="136"/>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="136"/>
+      <c r="B60" s="136"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="136"/>
+      <c r="G60" s="136"/>
+      <c r="H60" s="136"/>
+      <c r="I60" s="136"/>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="136"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="136"/>
+      <c r="F61" s="136"/>
+      <c r="G61" s="136"/>
+      <c r="H61" s="136"/>
+      <c r="I61" s="136"/>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62" s="136"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="136"/>
+      <c r="G62" s="136"/>
+      <c r="H62" s="136"/>
+      <c r="I62" s="136"/>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" s="136"/>
+      <c r="B63" s="136"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="136"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="136"/>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="136"/>
+      <c r="B64" s="136"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="136"/>
+      <c r="F64" s="136"/>
+      <c r="G64" s="136"/>
+      <c r="H64" s="136"/>
+      <c r="I64" s="136"/>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="136"/>
+      <c r="B65" s="136"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="136"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="136"/>
+      <c r="G65" s="136"/>
+      <c r="H65" s="136"/>
+      <c r="I65" s="136"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="136"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="136"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="136"/>
+      <c r="G66" s="136"/>
+      <c r="H66" s="136"/>
+      <c r="I66" s="136"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="136"/>
+      <c r="B67" s="136"/>
+      <c r="C67" s="136"/>
+      <c r="D67" s="136"/>
+      <c r="E67" s="136"/>
+      <c r="F67" s="136"/>
+      <c r="G67" s="136"/>
+      <c r="H67" s="136"/>
+      <c r="I67" s="136"/>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="136"/>
+      <c r="B68" s="136"/>
+      <c r="C68" s="136"/>
+      <c r="D68" s="136"/>
+      <c r="E68" s="136"/>
+      <c r="F68" s="136"/>
+      <c r="G68" s="136"/>
+      <c r="H68" s="136"/>
+      <c r="I68" s="136"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="136"/>
+      <c r="B69" s="136"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="136"/>
+      <c r="E69" s="136"/>
+      <c r="F69" s="136"/>
+      <c r="G69" s="136"/>
+      <c r="H69" s="136"/>
+      <c r="I69" s="136"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="136"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="136"/>
+      <c r="D70" s="136"/>
+      <c r="E70" s="136"/>
+      <c r="F70" s="136"/>
+      <c r="G70" s="136"/>
+      <c r="H70" s="136"/>
+      <c r="I70" s="136"/>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="136"/>
+      <c r="B71" s="136"/>
+      <c r="C71" s="136"/>
+      <c r="D71" s="136"/>
+      <c r="E71" s="136"/>
+      <c r="F71" s="136"/>
+      <c r="G71" s="136"/>
+      <c r="H71" s="136"/>
+      <c r="I71" s="136"/>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72" s="136"/>
+      <c r="B72" s="136"/>
+      <c r="C72" s="136"/>
+      <c r="D72" s="136"/>
+      <c r="E72" s="136"/>
+      <c r="F72" s="136"/>
+      <c r="G72" s="136"/>
+      <c r="H72" s="136"/>
+      <c r="I72" s="136"/>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="136"/>
+      <c r="B73" s="136"/>
+      <c r="C73" s="136"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="136"/>
+      <c r="F73" s="136"/>
+      <c r="G73" s="136"/>
+      <c r="H73" s="136"/>
+      <c r="I73" s="136"/>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="136"/>
+      <c r="B74" s="136"/>
+      <c r="C74" s="136"/>
+      <c r="D74" s="136"/>
+      <c r="E74" s="136"/>
+      <c r="F74" s="136"/>
+      <c r="G74" s="136"/>
+      <c r="H74" s="136"/>
+      <c r="I74" s="136"/>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="136"/>
+      <c r="B75" s="136"/>
+      <c r="C75" s="136"/>
+      <c r="D75" s="136"/>
+      <c r="E75" s="136"/>
+      <c r="F75" s="136"/>
+      <c r="G75" s="136"/>
+      <c r="H75" s="136"/>
+      <c r="I75" s="136"/>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="136"/>
+      <c r="B76" s="136"/>
+      <c r="C76" s="136"/>
+      <c r="D76" s="136"/>
+      <c r="E76" s="136"/>
+      <c r="F76" s="136"/>
+      <c r="G76" s="136"/>
+      <c r="H76" s="136"/>
+      <c r="I76" s="136"/>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="136"/>
+      <c r="B77" s="136"/>
+      <c r="C77" s="136"/>
+      <c r="D77" s="136"/>
+      <c r="E77" s="136"/>
+      <c r="F77" s="136"/>
+      <c r="G77" s="136"/>
+      <c r="H77" s="136"/>
+      <c r="I77" s="136"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="136"/>
+      <c r="B78" s="136"/>
+      <c r="C78" s="136"/>
+      <c r="D78" s="136"/>
+      <c r="E78" s="136"/>
+      <c r="F78" s="136"/>
+      <c r="G78" s="136"/>
+      <c r="H78" s="136"/>
+      <c r="I78" s="136"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="136"/>
+      <c r="B79" s="136"/>
+      <c r="C79" s="136"/>
+      <c r="D79" s="136"/>
+      <c r="E79" s="136"/>
+      <c r="F79" s="136"/>
+      <c r="G79" s="136"/>
+      <c r="H79" s="136"/>
+      <c r="I79" s="136"/>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="136"/>
+      <c r="B80" s="136"/>
+      <c r="C80" s="136"/>
+      <c r="D80" s="136"/>
+      <c r="E80" s="136"/>
+      <c r="F80" s="136"/>
+      <c r="G80" s="136"/>
+      <c r="H80" s="136"/>
+      <c r="I80" s="136"/>
+    </row>
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A81" s="136"/>
+      <c r="B81" s="136"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="136"/>
+      <c r="E81" s="136"/>
+      <c r="F81" s="136"/>
+      <c r="G81" s="136"/>
+      <c r="H81" s="136"/>
+      <c r="I81" s="136"/>
+    </row>
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A82" s="136"/>
+      <c r="B82" s="136"/>
+      <c r="C82" s="136"/>
+      <c r="D82" s="136"/>
+      <c r="E82" s="136"/>
+      <c r="F82" s="136"/>
+      <c r="G82" s="136"/>
+      <c r="H82" s="136"/>
+      <c r="I82" s="136"/>
+    </row>
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="136"/>
+      <c r="B83" s="136"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="136"/>
+      <c r="G83" s="136"/>
+      <c r="H83" s="136"/>
+      <c r="I83" s="136"/>
+    </row>
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="136"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="136"/>
+      <c r="G84" s="136"/>
+      <c r="H84" s="136"/>
+      <c r="I84" s="136"/>
+    </row>
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85" s="136"/>
+      <c r="B85" s="136"/>
+      <c r="C85" s="136"/>
+      <c r="D85" s="136"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="136"/>
+      <c r="G85" s="136"/>
+      <c r="H85" s="136"/>
+      <c r="I85" s="136"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="757">
   <si>
     <t>Date</t>
   </si>
@@ -2263,19 +2263,58 @@
   </si>
   <si>
     <t>6.1.2.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iIs3nEGIVz4</t>
+  </si>
+  <si>
+    <t>6.1.3.1</t>
+  </si>
+  <si>
+    <t>6.1.3.2</t>
+  </si>
+  <si>
+    <t>6.1.4.1</t>
+  </si>
+  <si>
+    <t>6.1.5.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lxar3bTRTH4</t>
+  </si>
+  <si>
+    <t>6.1.4.8</t>
+  </si>
+  <si>
+    <t>6.1.4.7</t>
+  </si>
+  <si>
+    <t>6.1.6.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="103" x14ac:knownFonts="1">
+  <fonts count="105" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2928,77 +2967,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="100" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="102" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="100" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="102" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="94" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="91" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="94" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="101" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="101" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="103" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3006,18 +3047,18 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3031,20 +3072,20 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="100" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="102" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="101" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="103" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3058,33 +3099,34 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18966,7 +19008,7 @@
         <v>729</v>
       </c>
       <c r="F147" s="101">
-        <f t="shared" ref="F147:G162" si="23">+G146</f>
+        <f t="shared" ref="F147:F162" si="23">+G146</f>
         <v>27.11</v>
       </c>
       <c r="G147" s="101">
@@ -20115,7 +20157,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20197,26 +20239,44 @@
       <c r="B4" s="137">
         <v>44127</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
+      <c r="C4" s="136">
+        <v>53.14</v>
+      </c>
+      <c r="D4" s="136">
+        <v>1</v>
+      </c>
       <c r="E4" s="136" t="s">
         <v>746</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
+      <c r="F4" s="138">
+        <v>2.1</v>
+      </c>
+      <c r="G4" s="138">
+        <v>28.48</v>
+      </c>
       <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
+      <c r="I4" s="136" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="136"/>
       <c r="B5" s="136"/>
       <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
+      <c r="D5" s="136">
+        <f>+D4+1</f>
+        <v>2</v>
+      </c>
       <c r="E5" s="136" t="s">
         <v>747</v>
       </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
+      <c r="F5" s="138">
+        <f>+G4</f>
+        <v>28.48</v>
+      </c>
+      <c r="G5" s="138">
+        <v>49.26</v>
+      </c>
       <c r="H5" s="136"/>
       <c r="I5" s="136"/>
     </row>
@@ -20224,11 +20284,23 @@
       <c r="A6" s="136"/>
       <c r="B6" s="136"/>
       <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="D6" s="136">
+        <f>+D5+1</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="139" t="s">
+        <v>749</v>
+      </c>
+      <c r="F6" s="138">
+        <f>+G5</f>
+        <v>49.26</v>
+      </c>
+      <c r="G6" s="138">
+        <v>52.3</v>
+      </c>
+      <c r="H6" s="140" t="s">
+        <v>749</v>
+      </c>
       <c r="I6" s="136"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -20237,31 +20309,59 @@
       <c r="C7" s="136"/>
       <c r="D7" s="136"/>
       <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
       <c r="H7" s="136"/>
       <c r="I7" s="136"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
+      <c r="A8" s="136">
+        <v>2</v>
+      </c>
+      <c r="B8" s="137">
+        <v>44128</v>
+      </c>
+      <c r="C8" s="136">
+        <v>51.28</v>
+      </c>
+      <c r="D8" s="136">
+        <v>1</v>
+      </c>
+      <c r="E8" s="140" t="s">
+        <v>750</v>
+      </c>
+      <c r="F8" s="138">
+        <v>4.08</v>
+      </c>
+      <c r="G8" s="138">
+        <v>28</v>
+      </c>
       <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
+      <c r="I8" s="136" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="136"/>
       <c r="B9" s="136"/>
       <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
+      <c r="D9" s="136">
+        <f>+D8+1</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="140" t="s">
+        <v>751</v>
+      </c>
+      <c r="F9" s="138">
+        <f>+G8</f>
+        <v>28</v>
+      </c>
+      <c r="G9" s="136">
+        <v>49.5</v>
+      </c>
+      <c r="H9" s="140" t="s">
+        <v>755</v>
+      </c>
       <c r="I9" s="136"/>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -20269,18 +20369,25 @@
       <c r="B10" s="136"/>
       <c r="C10" s="136"/>
       <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
+      <c r="F10" s="138"/>
       <c r="G10" s="136"/>
       <c r="H10" s="136"/>
       <c r="I10" s="136"/>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
-      <c r="B11" s="136"/>
+      <c r="A11" s="136">
+        <v>2</v>
+      </c>
+      <c r="B11" s="137">
+        <v>44129</v>
+      </c>
       <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
+      <c r="D11" s="136">
+        <v>1</v>
+      </c>
+      <c r="E11" s="140" t="s">
+        <v>754</v>
+      </c>
       <c r="F11" s="136"/>
       <c r="G11" s="136"/>
       <c r="H11" s="136"/>
@@ -20290,8 +20397,13 @@
       <c r="A12" s="136"/>
       <c r="B12" s="136"/>
       <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
+      <c r="D12" s="136">
+        <f>+D11+1</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="140" t="s">
+        <v>752</v>
+      </c>
       <c r="F12" s="136"/>
       <c r="G12" s="136"/>
       <c r="H12" s="136"/>
@@ -20301,8 +20413,13 @@
       <c r="A13" s="136"/>
       <c r="B13" s="136"/>
       <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="136">
+        <f>+D12+1</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="140" t="s">
+        <v>756</v>
+      </c>
       <c r="F13" s="136"/>
       <c r="G13" s="136"/>
       <c r="H13" s="136"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="768">
   <si>
     <t>Date</t>
   </si>
@@ -2290,19 +2290,64 @@
   </si>
   <si>
     <t>6.1.6.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0IvG-_9x5f4</t>
+  </si>
+  <si>
+    <t>6.1.7.1</t>
+  </si>
+  <si>
+    <t>6.1.7.4</t>
+  </si>
+  <si>
+    <t>6.1.7.5</t>
+  </si>
+  <si>
+    <t>6.1.8.1</t>
+  </si>
+  <si>
+    <t>6.1.9.1</t>
+  </si>
+  <si>
+    <t>1.2.14.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z42CRhyYkaE</t>
+  </si>
+  <si>
+    <t>6.1.10.1</t>
+  </si>
+  <si>
+    <t>6.1.11.1</t>
+  </si>
+  <si>
+    <t>6.2.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="105" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2967,77 +3012,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="102" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="103" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="104" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="104" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="103" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="102" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="104" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="94" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="93" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="91" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="94" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="103" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="105" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="103" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="105" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="105" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3045,18 +3092,18 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3070,20 +3117,20 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="102" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="104" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="103" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="105" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3097,35 +3144,39 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3434,9 +3485,9 @@
   <dimension ref="A4:M275"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4251,8 +4302,8 @@
         <f>+D38+1</f>
         <v>4</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>46</v>
+      <c r="E39" s="142" t="s">
+        <v>763</v>
       </c>
       <c r="F39" s="6">
         <f>+G38</f>
@@ -4261,8 +4312,8 @@
       <c r="G39" s="6">
         <v>51.4</v>
       </c>
-      <c r="H39" s="135" t="s">
-        <v>659</v>
+      <c r="H39" s="143" t="s">
+        <v>46</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -19172,7 +19223,7 @@
         <f t="shared" si="24"/>
         <v>11</v>
       </c>
-      <c r="E155" s="136" t="s">
+      <c r="E155" s="135" t="s">
         <v>737</v>
       </c>
       <c r="F155" s="101">
@@ -19193,7 +19244,7 @@
         <f t="shared" si="24"/>
         <v>12</v>
       </c>
-      <c r="E156" s="136" t="s">
+      <c r="E156" s="135" t="s">
         <v>738</v>
       </c>
       <c r="F156" s="101">
@@ -19214,7 +19265,7 @@
         <f t="shared" si="24"/>
         <v>13</v>
       </c>
-      <c r="E157" s="136" t="s">
+      <c r="E157" s="135" t="s">
         <v>739</v>
       </c>
       <c r="F157" s="101">
@@ -19235,7 +19286,7 @@
         <f t="shared" si="24"/>
         <v>14</v>
       </c>
-      <c r="E158" s="136" t="s">
+      <c r="E158" s="135" t="s">
         <v>740</v>
       </c>
       <c r="F158" s="101">
@@ -19256,7 +19307,7 @@
         <f t="shared" si="24"/>
         <v>15</v>
       </c>
-      <c r="E159" s="136" t="s">
+      <c r="E159" s="135" t="s">
         <v>741</v>
       </c>
       <c r="F159" s="101">
@@ -19277,7 +19328,7 @@
         <f t="shared" si="24"/>
         <v>16</v>
       </c>
-      <c r="E160" s="136" t="s">
+      <c r="E160" s="135" t="s">
         <v>742</v>
       </c>
       <c r="F160" s="101">
@@ -19298,7 +19349,7 @@
         <f t="shared" si="24"/>
         <v>17</v>
       </c>
-      <c r="E161" s="136" t="s">
+      <c r="E161" s="135" t="s">
         <v>743</v>
       </c>
       <c r="F161" s="101">
@@ -19319,7 +19370,7 @@
         <f t="shared" si="24"/>
         <v>18</v>
       </c>
-      <c r="E162" s="136" t="s">
+      <c r="E162" s="135" t="s">
         <v>744</v>
       </c>
       <c r="F162" s="101">
@@ -20156,8 +20207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20222,1000 +20273,1092 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="136">
+      <c r="A4" s="135">
         <v>1</v>
       </c>
-      <c r="B4" s="137">
+      <c r="B4" s="136">
         <v>44127</v>
       </c>
-      <c r="C4" s="136">
+      <c r="C4" s="135">
         <v>53.14</v>
       </c>
-      <c r="D4" s="136">
+      <c r="D4" s="141">
         <v>1</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="135" t="s">
         <v>746</v>
       </c>
-      <c r="F4" s="138">
+      <c r="F4" s="137">
         <v>2.1</v>
       </c>
-      <c r="G4" s="138">
+      <c r="G4" s="137">
         <v>28.48</v>
       </c>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136" t="s">
+      <c r="H4" s="135"/>
+      <c r="I4" s="135" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136">
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="141">
         <f>+D4+1</f>
         <v>2</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="135" t="s">
         <v>747</v>
       </c>
-      <c r="F5" s="138">
+      <c r="F5" s="137">
         <f>+G4</f>
         <v>28.48</v>
       </c>
-      <c r="G5" s="138">
+      <c r="G5" s="137">
         <v>49.26</v>
       </c>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136">
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="141">
         <f>+D5+1</f>
         <v>3</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E6" s="138" t="s">
         <v>749</v>
       </c>
-      <c r="F6" s="138">
+      <c r="F6" s="137">
         <f>+G5</f>
         <v>49.26</v>
       </c>
-      <c r="G6" s="138">
+      <c r="G6" s="137">
         <v>52.3</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="139" t="s">
         <v>749</v>
       </c>
-      <c r="I6" s="136"/>
+      <c r="I6" s="135"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="136">
+      <c r="A8" s="135">
         <v>2</v>
       </c>
-      <c r="B8" s="137">
+      <c r="B8" s="136">
         <v>44128</v>
       </c>
-      <c r="C8" s="136">
+      <c r="C8" s="135">
         <v>51.28</v>
       </c>
-      <c r="D8" s="136">
+      <c r="D8" s="141">
         <v>1</v>
       </c>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="139" t="s">
         <v>750</v>
       </c>
-      <c r="F8" s="138">
+      <c r="F8" s="137">
         <v>4.08</v>
       </c>
-      <c r="G8" s="138">
+      <c r="G8" s="137">
         <v>28</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136" t="s">
+      <c r="H8" s="135"/>
+      <c r="I8" s="135" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136">
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="141">
         <f>+D8+1</f>
         <v>2</v>
       </c>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="139" t="s">
         <v>751</v>
       </c>
-      <c r="F9" s="138">
+      <c r="F9" s="137">
         <f>+G8</f>
         <v>28</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="135">
         <v>49.5</v>
       </c>
-      <c r="H9" s="140" t="s">
+      <c r="H9" s="139" t="s">
         <v>755</v>
       </c>
-      <c r="I9" s="136"/>
+      <c r="I9" s="135"/>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="141"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="136">
-        <v>2</v>
-      </c>
-      <c r="B11" s="137">
+      <c r="A11" s="135">
+        <v>3</v>
+      </c>
+      <c r="B11" s="136">
         <v>44129</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136">
+      <c r="C11" s="135">
+        <v>58.06</v>
+      </c>
+      <c r="D11" s="141">
         <v>1</v>
       </c>
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="139" t="s">
         <v>754</v>
       </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
+      <c r="F11" s="135">
+        <v>2.46</v>
+      </c>
+      <c r="G11" s="135">
+        <v>7.27</v>
+      </c>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136">
+      <c r="A12" s="135"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="141">
         <f>+D11+1</f>
         <v>2</v>
       </c>
-      <c r="E12" s="140" t="s">
+      <c r="E12" s="139" t="s">
         <v>752</v>
       </c>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
+      <c r="F12" s="135">
+        <f>+G11</f>
+        <v>7.27</v>
+      </c>
+      <c r="G12" s="135">
+        <v>24.39</v>
+      </c>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136">
+      <c r="A13" s="135"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="141">
         <f>+D12+1</f>
         <v>3</v>
       </c>
-      <c r="E13" s="140" t="s">
+      <c r="E13" s="139" t="s">
         <v>756</v>
       </c>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
+      <c r="F13" s="135">
+        <f>+G12</f>
+        <v>24.39</v>
+      </c>
+      <c r="G13" s="135">
+        <v>46.25</v>
+      </c>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="141">
+        <f>+D13+1</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="140" t="s">
+        <v>758</v>
+      </c>
+      <c r="F14" s="135">
+        <f>+G13</f>
+        <v>46.25</v>
+      </c>
+      <c r="G14" s="137">
+        <v>57.3</v>
+      </c>
+      <c r="H14" s="140" t="s">
+        <v>759</v>
+      </c>
+      <c r="I14" s="135"/>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
+      <c r="A16" s="135">
+        <v>4</v>
+      </c>
+      <c r="B16" s="136">
+        <v>44130</v>
+      </c>
+      <c r="C16" s="135">
+        <v>59.51</v>
+      </c>
+      <c r="D16" s="141">
+        <v>1</v>
+      </c>
+      <c r="E16" s="140" t="s">
+        <v>760</v>
+      </c>
+      <c r="F16" s="135">
+        <v>4.57</v>
+      </c>
+      <c r="G16" s="135">
+        <v>17.28</v>
+      </c>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="141">
+        <f>+D16+1</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="140" t="s">
+        <v>761</v>
+      </c>
+      <c r="F17" s="135">
+        <f>+G16</f>
+        <v>17.28</v>
+      </c>
+      <c r="G17" s="137">
+        <v>35.1</v>
+      </c>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="141">
+        <f>+D17+1</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="140" t="s">
+        <v>762</v>
+      </c>
+      <c r="F18" s="137">
+        <f>+G17</f>
+        <v>35.1</v>
+      </c>
+      <c r="G18" s="137">
+        <v>58.5</v>
+      </c>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="136"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
+      <c r="A20" s="135">
+        <v>5</v>
+      </c>
+      <c r="B20" s="136">
+        <v>44131</v>
+      </c>
+      <c r="C20" s="135"/>
+      <c r="D20" s="141">
+        <v>1</v>
+      </c>
+      <c r="E20" s="144" t="s">
+        <v>765</v>
+      </c>
+      <c r="F20" s="135"/>
+      <c r="G20" s="137">
+        <v>0</v>
+      </c>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="136"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="141">
+        <f>+D20+1</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="144" t="s">
+        <v>766</v>
+      </c>
+      <c r="F21" s="137">
+        <f>+G20</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="136"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="141">
+        <f>+D21+1</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="144" t="s">
+        <v>767</v>
+      </c>
+      <c r="F22" s="137">
+        <f>+G21</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="136"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="136"/>
-      <c r="B24" s="136"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="136"/>
-      <c r="B25" s="136"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="136"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="136"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="136"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
+      <c r="A28" s="135"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="136"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
     </row>
     <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="136"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="136"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="136"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="136"/>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="136"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="136"/>
-      <c r="B35" s="136"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="136"/>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="136"/>
-      <c r="B37" s="136"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="136"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="135"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="135"/>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="136"/>
-      <c r="B39" s="136"/>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="136"/>
+      <c r="A39" s="135"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="136"/>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
+      <c r="A40" s="135"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="136"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="136"/>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
+      <c r="A42" s="135"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="136"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
+      <c r="A43" s="135"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="136"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
+      <c r="A44" s="135"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="135"/>
+      <c r="H44" s="135"/>
+      <c r="I44" s="135"/>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="136"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="136"/>
-      <c r="B46" s="136"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="135"/>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="136"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="136"/>
+      <c r="A47" s="135"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="135"/>
+      <c r="I47" s="135"/>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="136"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
+      <c r="A48" s="135"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="135"/>
+      <c r="H48" s="135"/>
+      <c r="I48" s="135"/>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="136"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
+      <c r="A49" s="135"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="135"/>
+      <c r="H49" s="135"/>
+      <c r="I49" s="135"/>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="136"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
+      <c r="A50" s="135"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="135"/>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="136"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
+      <c r="A51" s="135"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="136"/>
-      <c r="B52" s="136"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
-      <c r="I52" s="136"/>
+      <c r="A52" s="135"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="135"/>
+      <c r="F52" s="135"/>
+      <c r="G52" s="135"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="135"/>
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="136"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="136"/>
+      <c r="A53" s="135"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="135"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="135"/>
     </row>
     <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="136"/>
-      <c r="B54" s="136"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="136"/>
-      <c r="I54" s="136"/>
+      <c r="A54" s="135"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="136"/>
-      <c r="B55" s="136"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
+      <c r="A55" s="135"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="135"/>
+      <c r="H55" s="135"/>
+      <c r="I55" s="135"/>
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="136"/>
-      <c r="B56" s="136"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
+      <c r="A56" s="135"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="135"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="135"/>
     </row>
     <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="136"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="136"/>
+      <c r="A57" s="135"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
     </row>
     <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="136"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="136"/>
-      <c r="G58" s="136"/>
-      <c r="H58" s="136"/>
-      <c r="I58" s="136"/>
+      <c r="A58" s="135"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="135"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="135"/>
+      <c r="I58" s="135"/>
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="136"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
+      <c r="A59" s="135"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="135"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="135"/>
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="136"/>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="136"/>
-      <c r="G60" s="136"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="136"/>
+      <c r="A60" s="135"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="135"/>
+      <c r="G60" s="135"/>
+      <c r="H60" s="135"/>
+      <c r="I60" s="135"/>
     </row>
     <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="136"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="136"/>
-      <c r="F61" s="136"/>
-      <c r="G61" s="136"/>
-      <c r="H61" s="136"/>
-      <c r="I61" s="136"/>
+      <c r="A61" s="135"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
+      <c r="G61" s="135"/>
+      <c r="H61" s="135"/>
+      <c r="I61" s="135"/>
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="136"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="136"/>
-      <c r="F62" s="136"/>
-      <c r="G62" s="136"/>
-      <c r="H62" s="136"/>
-      <c r="I62" s="136"/>
+      <c r="A62" s="135"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="135"/>
+      <c r="G62" s="135"/>
+      <c r="H62" s="135"/>
+      <c r="I62" s="135"/>
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="136"/>
-      <c r="B63" s="136"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="136"/>
-      <c r="F63" s="136"/>
-      <c r="G63" s="136"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="136"/>
+      <c r="A63" s="135"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="135"/>
+      <c r="F63" s="135"/>
+      <c r="G63" s="135"/>
+      <c r="H63" s="135"/>
+      <c r="I63" s="135"/>
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="136"/>
-      <c r="B64" s="136"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="136"/>
-      <c r="F64" s="136"/>
-      <c r="G64" s="136"/>
-      <c r="H64" s="136"/>
-      <c r="I64" s="136"/>
+      <c r="A64" s="135"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="135"/>
+      <c r="F64" s="135"/>
+      <c r="G64" s="135"/>
+      <c r="H64" s="135"/>
+      <c r="I64" s="135"/>
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="136"/>
-      <c r="B65" s="136"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
-      <c r="E65" s="136"/>
-      <c r="F65" s="136"/>
-      <c r="G65" s="136"/>
-      <c r="H65" s="136"/>
-      <c r="I65" s="136"/>
+      <c r="A65" s="135"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="135"/>
+      <c r="F65" s="135"/>
+      <c r="G65" s="135"/>
+      <c r="H65" s="135"/>
+      <c r="I65" s="135"/>
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="136"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="136"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="136"/>
-      <c r="F66" s="136"/>
-      <c r="G66" s="136"/>
-      <c r="H66" s="136"/>
-      <c r="I66" s="136"/>
+      <c r="A66" s="135"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="135"/>
+      <c r="F66" s="135"/>
+      <c r="G66" s="135"/>
+      <c r="H66" s="135"/>
+      <c r="I66" s="135"/>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="136"/>
-      <c r="B67" s="136"/>
-      <c r="C67" s="136"/>
-      <c r="D67" s="136"/>
-      <c r="E67" s="136"/>
-      <c r="F67" s="136"/>
-      <c r="G67" s="136"/>
-      <c r="H67" s="136"/>
-      <c r="I67" s="136"/>
+      <c r="A67" s="135"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="135"/>
+      <c r="F67" s="135"/>
+      <c r="G67" s="135"/>
+      <c r="H67" s="135"/>
+      <c r="I67" s="135"/>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="136"/>
-      <c r="B68" s="136"/>
-      <c r="C68" s="136"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="136"/>
-      <c r="F68" s="136"/>
-      <c r="G68" s="136"/>
-      <c r="H68" s="136"/>
-      <c r="I68" s="136"/>
+      <c r="A68" s="135"/>
+      <c r="B68" s="135"/>
+      <c r="C68" s="135"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="135"/>
+      <c r="F68" s="135"/>
+      <c r="G68" s="135"/>
+      <c r="H68" s="135"/>
+      <c r="I68" s="135"/>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="136"/>
-      <c r="B69" s="136"/>
-      <c r="C69" s="136"/>
-      <c r="D69" s="136"/>
-      <c r="E69" s="136"/>
-      <c r="F69" s="136"/>
-      <c r="G69" s="136"/>
-      <c r="H69" s="136"/>
-      <c r="I69" s="136"/>
+      <c r="A69" s="135"/>
+      <c r="B69" s="135"/>
+      <c r="C69" s="135"/>
+      <c r="D69" s="135"/>
+      <c r="E69" s="135"/>
+      <c r="F69" s="135"/>
+      <c r="G69" s="135"/>
+      <c r="H69" s="135"/>
+      <c r="I69" s="135"/>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="136"/>
-      <c r="B70" s="136"/>
-      <c r="C70" s="136"/>
-      <c r="D70" s="136"/>
-      <c r="E70" s="136"/>
-      <c r="F70" s="136"/>
-      <c r="G70" s="136"/>
-      <c r="H70" s="136"/>
-      <c r="I70" s="136"/>
+      <c r="A70" s="135"/>
+      <c r="B70" s="135"/>
+      <c r="C70" s="135"/>
+      <c r="D70" s="135"/>
+      <c r="E70" s="135"/>
+      <c r="F70" s="135"/>
+      <c r="G70" s="135"/>
+      <c r="H70" s="135"/>
+      <c r="I70" s="135"/>
     </row>
     <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="136"/>
-      <c r="B71" s="136"/>
-      <c r="C71" s="136"/>
-      <c r="D71" s="136"/>
-      <c r="E71" s="136"/>
-      <c r="F71" s="136"/>
-      <c r="G71" s="136"/>
-      <c r="H71" s="136"/>
-      <c r="I71" s="136"/>
+      <c r="A71" s="135"/>
+      <c r="B71" s="135"/>
+      <c r="C71" s="135"/>
+      <c r="D71" s="135"/>
+      <c r="E71" s="135"/>
+      <c r="F71" s="135"/>
+      <c r="G71" s="135"/>
+      <c r="H71" s="135"/>
+      <c r="I71" s="135"/>
     </row>
     <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="136"/>
-      <c r="B72" s="136"/>
-      <c r="C72" s="136"/>
-      <c r="D72" s="136"/>
-      <c r="E72" s="136"/>
-      <c r="F72" s="136"/>
-      <c r="G72" s="136"/>
-      <c r="H72" s="136"/>
-      <c r="I72" s="136"/>
+      <c r="A72" s="135"/>
+      <c r="B72" s="135"/>
+      <c r="C72" s="135"/>
+      <c r="D72" s="135"/>
+      <c r="E72" s="135"/>
+      <c r="F72" s="135"/>
+      <c r="G72" s="135"/>
+      <c r="H72" s="135"/>
+      <c r="I72" s="135"/>
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="136"/>
-      <c r="B73" s="136"/>
-      <c r="C73" s="136"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="136"/>
-      <c r="F73" s="136"/>
-      <c r="G73" s="136"/>
-      <c r="H73" s="136"/>
-      <c r="I73" s="136"/>
+      <c r="A73" s="135"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="135"/>
+      <c r="D73" s="135"/>
+      <c r="E73" s="135"/>
+      <c r="F73" s="135"/>
+      <c r="G73" s="135"/>
+      <c r="H73" s="135"/>
+      <c r="I73" s="135"/>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="136"/>
-      <c r="B74" s="136"/>
-      <c r="C74" s="136"/>
-      <c r="D74" s="136"/>
-      <c r="E74" s="136"/>
-      <c r="F74" s="136"/>
-      <c r="G74" s="136"/>
-      <c r="H74" s="136"/>
-      <c r="I74" s="136"/>
+      <c r="A74" s="135"/>
+      <c r="B74" s="135"/>
+      <c r="C74" s="135"/>
+      <c r="D74" s="135"/>
+      <c r="E74" s="135"/>
+      <c r="F74" s="135"/>
+      <c r="G74" s="135"/>
+      <c r="H74" s="135"/>
+      <c r="I74" s="135"/>
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="136"/>
-      <c r="B75" s="136"/>
-      <c r="C75" s="136"/>
-      <c r="D75" s="136"/>
-      <c r="E75" s="136"/>
-      <c r="F75" s="136"/>
-      <c r="G75" s="136"/>
-      <c r="H75" s="136"/>
-      <c r="I75" s="136"/>
+      <c r="A75" s="135"/>
+      <c r="B75" s="135"/>
+      <c r="C75" s="135"/>
+      <c r="D75" s="135"/>
+      <c r="E75" s="135"/>
+      <c r="F75" s="135"/>
+      <c r="G75" s="135"/>
+      <c r="H75" s="135"/>
+      <c r="I75" s="135"/>
     </row>
     <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="136"/>
-      <c r="B76" s="136"/>
-      <c r="C76" s="136"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="136"/>
-      <c r="F76" s="136"/>
-      <c r="G76" s="136"/>
-      <c r="H76" s="136"/>
-      <c r="I76" s="136"/>
+      <c r="A76" s="135"/>
+      <c r="B76" s="135"/>
+      <c r="C76" s="135"/>
+      <c r="D76" s="135"/>
+      <c r="E76" s="135"/>
+      <c r="F76" s="135"/>
+      <c r="G76" s="135"/>
+      <c r="H76" s="135"/>
+      <c r="I76" s="135"/>
     </row>
     <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="136"/>
-      <c r="B77" s="136"/>
-      <c r="C77" s="136"/>
-      <c r="D77" s="136"/>
-      <c r="E77" s="136"/>
-      <c r="F77" s="136"/>
-      <c r="G77" s="136"/>
-      <c r="H77" s="136"/>
-      <c r="I77" s="136"/>
+      <c r="A77" s="135"/>
+      <c r="B77" s="135"/>
+      <c r="C77" s="135"/>
+      <c r="D77" s="135"/>
+      <c r="E77" s="135"/>
+      <c r="F77" s="135"/>
+      <c r="G77" s="135"/>
+      <c r="H77" s="135"/>
+      <c r="I77" s="135"/>
     </row>
     <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="136"/>
-      <c r="B78" s="136"/>
-      <c r="C78" s="136"/>
-      <c r="D78" s="136"/>
-      <c r="E78" s="136"/>
-      <c r="F78" s="136"/>
-      <c r="G78" s="136"/>
-      <c r="H78" s="136"/>
-      <c r="I78" s="136"/>
+      <c r="A78" s="135"/>
+      <c r="B78" s="135"/>
+      <c r="C78" s="135"/>
+      <c r="D78" s="135"/>
+      <c r="E78" s="135"/>
+      <c r="F78" s="135"/>
+      <c r="G78" s="135"/>
+      <c r="H78" s="135"/>
+      <c r="I78" s="135"/>
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="136"/>
-      <c r="B79" s="136"/>
-      <c r="C79" s="136"/>
-      <c r="D79" s="136"/>
-      <c r="E79" s="136"/>
-      <c r="F79" s="136"/>
-      <c r="G79" s="136"/>
-      <c r="H79" s="136"/>
-      <c r="I79" s="136"/>
+      <c r="A79" s="135"/>
+      <c r="B79" s="135"/>
+      <c r="C79" s="135"/>
+      <c r="D79" s="135"/>
+      <c r="E79" s="135"/>
+      <c r="F79" s="135"/>
+      <c r="G79" s="135"/>
+      <c r="H79" s="135"/>
+      <c r="I79" s="135"/>
     </row>
     <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="136"/>
-      <c r="B80" s="136"/>
-      <c r="C80" s="136"/>
-      <c r="D80" s="136"/>
-      <c r="E80" s="136"/>
-      <c r="F80" s="136"/>
-      <c r="G80" s="136"/>
-      <c r="H80" s="136"/>
-      <c r="I80" s="136"/>
+      <c r="A80" s="135"/>
+      <c r="B80" s="135"/>
+      <c r="C80" s="135"/>
+      <c r="D80" s="135"/>
+      <c r="E80" s="135"/>
+      <c r="F80" s="135"/>
+      <c r="G80" s="135"/>
+      <c r="H80" s="135"/>
+      <c r="I80" s="135"/>
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="136"/>
-      <c r="B81" s="136"/>
-      <c r="C81" s="136"/>
-      <c r="D81" s="136"/>
-      <c r="E81" s="136"/>
-      <c r="F81" s="136"/>
-      <c r="G81" s="136"/>
-      <c r="H81" s="136"/>
-      <c r="I81" s="136"/>
+      <c r="A81" s="135"/>
+      <c r="B81" s="135"/>
+      <c r="C81" s="135"/>
+      <c r="D81" s="135"/>
+      <c r="E81" s="135"/>
+      <c r="F81" s="135"/>
+      <c r="G81" s="135"/>
+      <c r="H81" s="135"/>
+      <c r="I81" s="135"/>
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="136"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="136"/>
-      <c r="F82" s="136"/>
-      <c r="G82" s="136"/>
-      <c r="H82" s="136"/>
-      <c r="I82" s="136"/>
+      <c r="A82" s="135"/>
+      <c r="B82" s="135"/>
+      <c r="C82" s="135"/>
+      <c r="D82" s="135"/>
+      <c r="E82" s="135"/>
+      <c r="F82" s="135"/>
+      <c r="G82" s="135"/>
+      <c r="H82" s="135"/>
+      <c r="I82" s="135"/>
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="136"/>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136"/>
-      <c r="G83" s="136"/>
-      <c r="H83" s="136"/>
-      <c r="I83" s="136"/>
+      <c r="A83" s="135"/>
+      <c r="B83" s="135"/>
+      <c r="C83" s="135"/>
+      <c r="D83" s="135"/>
+      <c r="E83" s="135"/>
+      <c r="F83" s="135"/>
+      <c r="G83" s="135"/>
+      <c r="H83" s="135"/>
+      <c r="I83" s="135"/>
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="136"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="136"/>
-      <c r="F84" s="136"/>
-      <c r="G84" s="136"/>
-      <c r="H84" s="136"/>
-      <c r="I84" s="136"/>
+      <c r="A84" s="135"/>
+      <c r="B84" s="135"/>
+      <c r="C84" s="135"/>
+      <c r="D84" s="135"/>
+      <c r="E84" s="135"/>
+      <c r="F84" s="135"/>
+      <c r="G84" s="135"/>
+      <c r="H84" s="135"/>
+      <c r="I84" s="135"/>
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="136"/>
-      <c r="B85" s="136"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="136"/>
-      <c r="F85" s="136"/>
-      <c r="G85" s="136"/>
-      <c r="H85" s="136"/>
-      <c r="I85" s="136"/>
+      <c r="A85" s="135"/>
+      <c r="B85" s="135"/>
+      <c r="C85" s="135"/>
+      <c r="D85" s="135"/>
+      <c r="E85" s="135"/>
+      <c r="F85" s="135"/>
+      <c r="G85" s="135"/>
+      <c r="H85" s="135"/>
+      <c r="I85" s="135"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="770">
   <si>
     <t>Date</t>
   </si>
@@ -2323,19 +2323,31 @@
   </si>
   <si>
     <t>6.2.1.1</t>
+  </si>
+  <si>
+    <t>1.00.11</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mcXc1D39dNE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="108" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3012,77 +3024,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="103" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="104" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="104" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="105" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="105" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="103" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="104" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="104" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="105" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="97" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="94" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="93" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="97" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="105" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="106" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="105" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="106" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="106" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3091,17 +3104,17 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3116,19 +3129,19 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="104" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="105" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="105" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="106" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3143,40 +3156,40 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -20208,7 +20221,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20615,19 +20628,25 @@
       <c r="B20" s="136">
         <v>44131</v>
       </c>
-      <c r="C20" s="135"/>
+      <c r="C20" s="145" t="s">
+        <v>768</v>
+      </c>
       <c r="D20" s="141">
         <v>1</v>
       </c>
       <c r="E20" s="144" t="s">
         <v>765</v>
       </c>
-      <c r="F20" s="135"/>
+      <c r="F20" s="137">
+        <v>3.2</v>
+      </c>
       <c r="G20" s="137">
-        <v>0</v>
+        <v>19.18</v>
       </c>
       <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
+      <c r="I20" s="135" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="135"/>
@@ -20642,9 +20661,11 @@
       </c>
       <c r="F21" s="137">
         <f>+G20</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="135"/>
+        <v>19.18</v>
+      </c>
+      <c r="G21" s="135">
+        <v>37.549999999999997</v>
+      </c>
       <c r="H21" s="135"/>
       <c r="I21" s="135"/>
     </row>
@@ -20661,9 +20682,11 @@
       </c>
       <c r="F22" s="137">
         <f>+G21</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="135"/>
+        <v>37.549999999999997</v>
+      </c>
+      <c r="G22" s="135">
+        <v>59.35</v>
+      </c>
       <c r="H22" s="135"/>
       <c r="I22" s="135"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="783">
   <si>
     <t>Date</t>
   </si>
@@ -2329,19 +2329,70 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=mcXc1D39dNE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tu60APogjD0</t>
+  </si>
+  <si>
+    <t>6.2.2.1</t>
+  </si>
+  <si>
+    <t>6.2.3.1</t>
+  </si>
+  <si>
+    <t>6.2.4.1</t>
+  </si>
+  <si>
+    <t>6.2.4.4</t>
+  </si>
+  <si>
+    <t>6.2.4.5</t>
+  </si>
+  <si>
+    <t>6.2.5.1</t>
+  </si>
+  <si>
+    <t>6.2.6.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nL_68vtrFZY</t>
+  </si>
+  <si>
+    <t>6.2.7.1</t>
+  </si>
+  <si>
+    <t>6.2.8.1</t>
+  </si>
+  <si>
+    <t>6.2.8.4</t>
+  </si>
+  <si>
+    <t>6.2.8.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="108" x14ac:knownFonts="1">
+  <fonts count="110" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3024,77 +3075,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="104" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="105" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="106" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="107" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="107" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="104" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="106" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="105" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="107" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="97" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="94" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="97" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="88" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="106" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="108" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="106" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="108" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="108" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3102,18 +3155,18 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3127,20 +3180,20 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="105" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="107" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="106" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="108" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3154,41 +3207,41 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -3497,8 +3550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M275"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
@@ -20220,8 +20273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20702,24 +20755,50 @@
       <c r="I23" s="135"/>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="135"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
+      <c r="A24" s="135">
+        <v>6</v>
+      </c>
+      <c r="B24" s="136">
+        <v>44132</v>
+      </c>
+      <c r="C24" s="135">
+        <v>58.31</v>
+      </c>
+      <c r="D24" s="141">
+        <v>1</v>
+      </c>
+      <c r="E24" s="146" t="s">
+        <v>771</v>
+      </c>
+      <c r="F24" s="135">
+        <v>3.03</v>
+      </c>
+      <c r="G24" s="135">
+        <v>27.23</v>
+      </c>
       <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
+      <c r="I24" s="135" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="135"/>
       <c r="B25" s="135"/>
       <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
+      <c r="D25" s="141">
+        <f>+D24+1</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="146" t="s">
+        <v>772</v>
+      </c>
+      <c r="F25" s="135">
+        <f>+G24</f>
+        <v>27.23</v>
+      </c>
+      <c r="G25" s="135">
+        <v>45.43</v>
+      </c>
       <c r="H25" s="135"/>
       <c r="I25" s="135"/>
     </row>
@@ -20727,11 +20806,23 @@
       <c r="A26" s="135"/>
       <c r="B26" s="135"/>
       <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
+      <c r="D26" s="141">
+        <f>+D25+1</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="146" t="s">
+        <v>773</v>
+      </c>
+      <c r="F26" s="135">
+        <f>+G25</f>
+        <v>45.43</v>
+      </c>
+      <c r="G26" s="135">
+        <v>57.22</v>
+      </c>
+      <c r="H26" s="146" t="s">
+        <v>774</v>
+      </c>
       <c r="I26" s="135"/>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -20746,24 +20837,50 @@
       <c r="I27" s="135"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="135"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
+      <c r="A28" s="135">
+        <v>7</v>
+      </c>
+      <c r="B28" s="136">
+        <v>44133</v>
+      </c>
+      <c r="C28" s="135">
+        <v>59.15</v>
+      </c>
+      <c r="D28" s="141">
+        <v>1</v>
+      </c>
+      <c r="E28" s="146" t="s">
+        <v>775</v>
+      </c>
+      <c r="F28" s="135">
+        <v>4.29</v>
+      </c>
+      <c r="G28" s="135">
+        <v>9.0299999999999994</v>
+      </c>
       <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
+      <c r="I28" s="135" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="135"/>
       <c r="B29" s="135"/>
       <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
+      <c r="D29" s="141">
+        <f>+D28+1</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="146" t="s">
+        <v>776</v>
+      </c>
+      <c r="F29" s="135">
+        <f>+G28</f>
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="G29" s="135">
+        <v>23.21</v>
+      </c>
       <c r="H29" s="135"/>
       <c r="I29" s="135"/>
     </row>
@@ -20771,10 +20888,20 @@
       <c r="A30" s="135"/>
       <c r="B30" s="135"/>
       <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
+      <c r="D30" s="141">
+        <f>+D29+1</f>
+        <v>3</v>
+      </c>
+      <c r="E30" s="146" t="s">
+        <v>777</v>
+      </c>
+      <c r="F30" s="135">
+        <f t="shared" ref="F30:F31" si="0">+G29</f>
+        <v>23.21</v>
+      </c>
+      <c r="G30" s="135">
+        <v>37.33</v>
+      </c>
       <c r="H30" s="135"/>
       <c r="I30" s="135"/>
     </row>
@@ -20782,10 +20909,20 @@
       <c r="A31" s="135"/>
       <c r="B31" s="135"/>
       <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
+      <c r="D31" s="141">
+        <f>+D30+1</f>
+        <v>4</v>
+      </c>
+      <c r="E31" s="147" t="s">
+        <v>779</v>
+      </c>
+      <c r="F31" s="135">
+        <f t="shared" si="0"/>
+        <v>37.33</v>
+      </c>
+      <c r="G31" s="135">
+        <v>50.36</v>
+      </c>
       <c r="H31" s="135"/>
       <c r="I31" s="135"/>
     </row>
@@ -20793,18 +20930,30 @@
       <c r="A32" s="135"/>
       <c r="B32" s="135"/>
       <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
+      <c r="D32" s="141">
+        <f t="shared" ref="D32" si="1">+D31+1</f>
+        <v>5</v>
+      </c>
+      <c r="E32" s="147" t="s">
+        <v>780</v>
+      </c>
+      <c r="F32" s="135">
+        <f>+G31</f>
+        <v>50.36</v>
+      </c>
+      <c r="G32" s="135">
+        <v>58.39</v>
+      </c>
+      <c r="H32" s="147" t="s">
+        <v>782</v>
+      </c>
       <c r="I32" s="135"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="135"/>
       <c r="B33" s="135"/>
       <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="135"/>
       <c r="F33" s="135"/>
       <c r="G33" s="135"/>
@@ -20812,11 +20961,19 @@
       <c r="I33" s="135"/>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="135"/>
-      <c r="B34" s="135"/>
+      <c r="A34" s="135">
+        <v>8</v>
+      </c>
+      <c r="B34" s="136">
+        <v>44134</v>
+      </c>
       <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
+      <c r="D34" s="141">
+        <v>1</v>
+      </c>
+      <c r="E34" s="147" t="s">
+        <v>781</v>
+      </c>
       <c r="F34" s="135"/>
       <c r="G34" s="135"/>
       <c r="H34" s="135"/>
@@ -20826,9 +20983,15 @@
       <c r="A35" s="135"/>
       <c r="B35" s="135"/>
       <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
+      <c r="D35" s="141">
+        <f>+D34+1</f>
+        <v>2</v>
+      </c>
       <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
+      <c r="F35" s="135">
+        <f>+G34</f>
+        <v>0</v>
+      </c>
       <c r="G35" s="135"/>
       <c r="H35" s="135"/>
       <c r="I35" s="135"/>
@@ -20837,7 +21000,10 @@
       <c r="A36" s="135"/>
       <c r="B36" s="135"/>
       <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
+      <c r="D36" s="141">
+        <f>+D35+1</f>
+        <v>3</v>
+      </c>
       <c r="E36" s="135"/>
       <c r="F36" s="135"/>
       <c r="G36" s="135"/>
@@ -20848,7 +21014,10 @@
       <c r="A37" s="135"/>
       <c r="B37" s="135"/>
       <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
+      <c r="D37" s="141">
+        <f>+D36+1</f>
+        <v>4</v>
+      </c>
       <c r="E37" s="135"/>
       <c r="F37" s="135"/>
       <c r="G37" s="135"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Kandam1" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="Kandam6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="791">
   <si>
     <t>Date</t>
   </si>
@@ -2368,19 +2369,49 @@
   </si>
   <si>
     <t>6.2.8.3</t>
+  </si>
+  <si>
+    <t>H2/Archive</t>
+  </si>
+  <si>
+    <t>6.2.9.1</t>
+  </si>
+  <si>
+    <t>6.2.10.1</t>
+  </si>
+  <si>
+    <t>6.2.11.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PZ4gtPrQXAE</t>
+  </si>
+  <si>
+    <t>6.2.10.5</t>
+  </si>
+  <si>
+    <t>6.2.10.6</t>
+  </si>
+  <si>
+    <t>6.3.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="110" x14ac:knownFonts="1">
+  <fonts count="111" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3075,77 +3106,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="106" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="107" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="107" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="108" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="108" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="106" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="107" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="107" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="108" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="100" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="97" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="100" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="88" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="88" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="108" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="109" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="108" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="109" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="109" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3154,17 +3186,17 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3179,19 +3211,19 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="107" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="108" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="108" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="109" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3206,42 +3238,43 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -3550,10 +3583,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4368,7 +4401,7 @@
         <f>+D38+1</f>
         <v>4</v>
       </c>
-      <c r="E39" s="142" t="s">
+      <c r="E39" s="141" t="s">
         <v>763</v>
       </c>
       <c r="F39" s="6">
@@ -4378,7 +4411,7 @@
       <c r="G39" s="6">
         <v>51.4</v>
       </c>
-      <c r="H39" s="143" t="s">
+      <c r="H39" s="142" t="s">
         <v>46</v>
       </c>
       <c r="I39" s="1"/>
@@ -5847,8 +5880,8 @@
       <c r="G106" s="6">
         <v>47.51</v>
       </c>
-      <c r="H106" s="126" t="s">
-        <v>672</v>
+      <c r="H106" s="147" t="s">
+        <v>783</v>
       </c>
       <c r="I106" s="1"/>
     </row>
@@ -18068,7 +18101,7 @@
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="E96" s="127" t="s">
+      <c r="E96" s="126" t="s">
         <v>673</v>
       </c>
       <c r="F96" s="95">
@@ -18089,7 +18122,7 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="E97" s="127" t="s">
+      <c r="E97" s="126" t="s">
         <v>674</v>
       </c>
       <c r="F97" s="95">
@@ -18110,7 +18143,7 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="E98" s="127" t="s">
+      <c r="E98" s="126" t="s">
         <v>675</v>
       </c>
       <c r="F98" s="95">
@@ -18147,7 +18180,7 @@
       <c r="D100" s="99">
         <v>1</v>
       </c>
-      <c r="E100" s="127" t="s">
+      <c r="E100" s="126" t="s">
         <v>676</v>
       </c>
       <c r="F100" s="95">
@@ -18169,7 +18202,7 @@
         <f>+D100+1</f>
         <v>2</v>
       </c>
-      <c r="E101" s="127" t="s">
+      <c r="E101" s="126" t="s">
         <v>677</v>
       </c>
       <c r="F101" s="101">
@@ -18190,7 +18223,7 @@
         <f>+D101+1</f>
         <v>3</v>
       </c>
-      <c r="E102" s="127" t="s">
+      <c r="E102" s="126" t="s">
         <v>678</v>
       </c>
       <c r="F102" s="95">
@@ -18211,7 +18244,7 @@
         <f>+D102+1</f>
         <v>4</v>
       </c>
-      <c r="E103" s="127" t="s">
+      <c r="E103" s="126" t="s">
         <v>679</v>
       </c>
       <c r="F103" s="101">
@@ -18232,7 +18265,7 @@
         <f>+D103+1</f>
         <v>5</v>
       </c>
-      <c r="E104" s="127" t="s">
+      <c r="E104" s="126" t="s">
         <v>680</v>
       </c>
       <c r="F104" s="101">
@@ -18253,7 +18286,7 @@
         <f t="shared" ref="D105:D109" si="15">+D104+1</f>
         <v>6</v>
       </c>
-      <c r="E105" s="127" t="s">
+      <c r="E105" s="126" t="s">
         <v>681</v>
       </c>
       <c r="F105" s="101">
@@ -18274,7 +18307,7 @@
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="E106" s="128" t="s">
+      <c r="E106" s="127" t="s">
         <v>684</v>
       </c>
       <c r="F106" s="101">
@@ -18295,7 +18328,7 @@
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="E107" s="128" t="s">
+      <c r="E107" s="127" t="s">
         <v>685</v>
       </c>
       <c r="F107" s="101">
@@ -18316,7 +18349,7 @@
         <f t="shared" si="15"/>
         <v>9</v>
       </c>
-      <c r="E108" s="128" t="s">
+      <c r="E108" s="127" t="s">
         <v>686</v>
       </c>
       <c r="F108" s="101">
@@ -18337,7 +18370,7 @@
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="E109" s="128" t="s">
+      <c r="E109" s="127" t="s">
         <v>687</v>
       </c>
       <c r="F109" s="101">
@@ -18347,7 +18380,7 @@
       <c r="G109" s="95">
         <v>57.21</v>
       </c>
-      <c r="H109" s="129" t="s">
+      <c r="H109" s="128" t="s">
         <v>687</v>
       </c>
       <c r="I109" s="95"/>
@@ -18370,13 +18403,13 @@
       <c r="B111" s="98">
         <v>44122</v>
       </c>
-      <c r="C111" s="129" t="s">
+      <c r="C111" s="128" t="s">
         <v>693</v>
       </c>
       <c r="D111" s="99">
         <v>1</v>
       </c>
-      <c r="E111" s="129" t="s">
+      <c r="E111" s="128" t="s">
         <v>688</v>
       </c>
       <c r="F111" s="95">
@@ -18398,7 +18431,7 @@
         <f>+D111+1</f>
         <v>2</v>
       </c>
-      <c r="E112" s="129" t="s">
+      <c r="E112" s="128" t="s">
         <v>689</v>
       </c>
       <c r="F112" s="95">
@@ -18419,7 +18452,7 @@
         <f>+D112+1</f>
         <v>3</v>
       </c>
-      <c r="E113" s="129" t="s">
+      <c r="E113" s="128" t="s">
         <v>690</v>
       </c>
       <c r="F113" s="95">
@@ -18440,7 +18473,7 @@
         <f>+D113+1</f>
         <v>4</v>
       </c>
-      <c r="E114" s="129" t="s">
+      <c r="E114" s="128" t="s">
         <v>691</v>
       </c>
       <c r="F114" s="95">
@@ -18461,17 +18494,17 @@
         <f>+D114+1</f>
         <v>5</v>
       </c>
-      <c r="E115" s="129" t="s">
+      <c r="E115" s="128" t="s">
         <v>692</v>
       </c>
       <c r="F115" s="95">
         <f t="shared" si="16"/>
         <v>57.16</v>
       </c>
-      <c r="G115" s="130" t="s">
+      <c r="G115" s="129" t="s">
         <v>695</v>
       </c>
-      <c r="H115" s="129" t="s">
+      <c r="H115" s="128" t="s">
         <v>692</v>
       </c>
       <c r="I115" s="95"/>
@@ -18494,13 +18527,13 @@
       <c r="B117" s="98">
         <v>44123</v>
       </c>
-      <c r="C117" s="129">
+      <c r="C117" s="128">
         <v>57.31</v>
       </c>
       <c r="D117" s="99">
         <v>1</v>
       </c>
-      <c r="E117" s="129" t="s">
+      <c r="E117" s="128" t="s">
         <v>696</v>
       </c>
       <c r="F117" s="95">
@@ -18522,7 +18555,7 @@
         <f>+D117+1</f>
         <v>2</v>
       </c>
-      <c r="E118" s="129" t="s">
+      <c r="E118" s="128" t="s">
         <v>697</v>
       </c>
       <c r="F118" s="95">
@@ -18543,7 +18576,7 @@
         <f>+D118+1</f>
         <v>3</v>
       </c>
-      <c r="E119" s="129" t="s">
+      <c r="E119" s="128" t="s">
         <v>698</v>
       </c>
       <c r="F119" s="95">
@@ -18564,7 +18597,7 @@
         <f>+D119+1</f>
         <v>4</v>
       </c>
-      <c r="E120" s="129" t="s">
+      <c r="E120" s="128" t="s">
         <v>699</v>
       </c>
       <c r="F120" s="95">
@@ -18585,7 +18618,7 @@
         <f>+D120+1</f>
         <v>5</v>
       </c>
-      <c r="E121" s="129" t="s">
+      <c r="E121" s="128" t="s">
         <v>700</v>
       </c>
       <c r="F121" s="95">
@@ -18606,7 +18639,7 @@
         <f t="shared" ref="D122:D129" si="18">+D121+1</f>
         <v>6</v>
       </c>
-      <c r="E122" s="131" t="s">
+      <c r="E122" s="130" t="s">
         <v>702</v>
       </c>
       <c r="F122" s="95">
@@ -18627,7 +18660,7 @@
         <f t="shared" si="18"/>
         <v>7</v>
       </c>
-      <c r="E123" s="131" t="s">
+      <c r="E123" s="130" t="s">
         <v>703</v>
       </c>
       <c r="F123" s="95">
@@ -18648,7 +18681,7 @@
         <f t="shared" si="18"/>
         <v>8</v>
       </c>
-      <c r="E124" s="131" t="s">
+      <c r="E124" s="130" t="s">
         <v>704</v>
       </c>
       <c r="F124" s="95">
@@ -18669,7 +18702,7 @@
         <f t="shared" si="18"/>
         <v>9</v>
       </c>
-      <c r="E125" s="131" t="s">
+      <c r="E125" s="130" t="s">
         <v>705</v>
       </c>
       <c r="F125" s="95">
@@ -18690,7 +18723,7 @@
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="E126" s="131" t="s">
+      <c r="E126" s="130" t="s">
         <v>706</v>
       </c>
       <c r="F126" s="95">
@@ -18711,7 +18744,7 @@
         <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="E127" s="131" t="s">
+      <c r="E127" s="130" t="s">
         <v>707</v>
       </c>
       <c r="F127" s="95">
@@ -18732,7 +18765,7 @@
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="E128" s="131" t="s">
+      <c r="E128" s="130" t="s">
         <v>708</v>
       </c>
       <c r="F128" s="95">
@@ -18753,7 +18786,7 @@
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="E129" s="131" t="s">
+      <c r="E129" s="130" t="s">
         <v>709</v>
       </c>
       <c r="F129" s="95">
@@ -18771,9 +18804,9 @@
       <c r="B130" s="95"/>
       <c r="C130" s="95"/>
       <c r="D130" s="99"/>
-      <c r="E130" s="131"/>
+      <c r="E130" s="130"/>
       <c r="F130" s="95"/>
-      <c r="G130" s="131"/>
+      <c r="G130" s="130"/>
       <c r="H130" s="95"/>
       <c r="I130" s="95"/>
     </row>
@@ -18784,13 +18817,13 @@
       <c r="B131" s="98">
         <v>44124</v>
       </c>
-      <c r="C131" s="132" t="s">
+      <c r="C131" s="131" t="s">
         <v>717</v>
       </c>
       <c r="D131" s="99">
         <v>1</v>
       </c>
-      <c r="E131" s="131" t="s">
+      <c r="E131" s="130" t="s">
         <v>710</v>
       </c>
       <c r="F131" s="95">
@@ -18812,7 +18845,7 @@
         <f>+D131+1</f>
         <v>2</v>
       </c>
-      <c r="E132" s="131" t="s">
+      <c r="E132" s="130" t="s">
         <v>711</v>
       </c>
       <c r="F132" s="101">
@@ -18833,7 +18866,7 @@
         <f>+D132+1</f>
         <v>3</v>
       </c>
-      <c r="E133" s="131" t="s">
+      <c r="E133" s="130" t="s">
         <v>712</v>
       </c>
       <c r="F133" s="101">
@@ -18854,7 +18887,7 @@
         <f t="shared" ref="D134:D137" si="20">+D133+1</f>
         <v>4</v>
       </c>
-      <c r="E134" s="131" t="s">
+      <c r="E134" s="130" t="s">
         <v>713</v>
       </c>
       <c r="F134" s="101">
@@ -18875,7 +18908,7 @@
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="E135" s="131" t="s">
+      <c r="E135" s="130" t="s">
         <v>714</v>
       </c>
       <c r="F135" s="101">
@@ -18896,7 +18929,7 @@
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="E136" s="131" t="s">
+      <c r="E136" s="130" t="s">
         <v>715</v>
       </c>
       <c r="F136" s="101">
@@ -18917,17 +18950,17 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="E137" s="131" t="s">
+      <c r="E137" s="130" t="s">
         <v>716</v>
       </c>
       <c r="F137" s="101">
         <f t="shared" si="19"/>
         <v>54.04</v>
       </c>
-      <c r="G137" s="133" t="s">
+      <c r="G137" s="132" t="s">
         <v>719</v>
       </c>
-      <c r="H137" s="132" t="s">
+      <c r="H137" s="131" t="s">
         <v>720</v>
       </c>
       <c r="I137" s="95"/>
@@ -18956,7 +18989,7 @@
       <c r="D139" s="99">
         <v>1</v>
       </c>
-      <c r="E139" s="132" t="s">
+      <c r="E139" s="131" t="s">
         <v>721</v>
       </c>
       <c r="F139" s="95">
@@ -18978,7 +19011,7 @@
         <f>+D139+1</f>
         <v>2</v>
       </c>
-      <c r="E140" s="132" t="s">
+      <c r="E140" s="131" t="s">
         <v>722</v>
       </c>
       <c r="F140" s="101">
@@ -18999,7 +19032,7 @@
         <f>+D140+1</f>
         <v>3</v>
       </c>
-      <c r="E141" s="132" t="s">
+      <c r="E141" s="131" t="s">
         <v>723</v>
       </c>
       <c r="F141" s="101">
@@ -19020,7 +19053,7 @@
         <f t="shared" ref="D142:D143" si="22">+D141+1</f>
         <v>4</v>
       </c>
-      <c r="E142" s="132" t="s">
+      <c r="E142" s="131" t="s">
         <v>724</v>
       </c>
       <c r="F142" s="101">
@@ -19041,7 +19074,7 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="E143" s="132" t="s">
+      <c r="E143" s="131" t="s">
         <v>725</v>
       </c>
       <c r="F143" s="101">
@@ -19078,7 +19111,7 @@
       <c r="D145" s="99">
         <v>1</v>
       </c>
-      <c r="E145" s="134" t="s">
+      <c r="E145" s="133" t="s">
         <v>727</v>
       </c>
       <c r="F145" s="101">
@@ -19100,7 +19133,7 @@
         <f>+D145+1</f>
         <v>2</v>
       </c>
-      <c r="E146" s="134" t="s">
+      <c r="E146" s="133" t="s">
         <v>728</v>
       </c>
       <c r="F146" s="101">
@@ -19121,7 +19154,7 @@
         <f>+D146+1</f>
         <v>3</v>
       </c>
-      <c r="E147" s="134" t="s">
+      <c r="E147" s="133" t="s">
         <v>729</v>
       </c>
       <c r="F147" s="101">
@@ -19142,7 +19175,7 @@
         <f t="shared" ref="D148:D162" si="24">+D147+1</f>
         <v>4</v>
       </c>
-      <c r="E148" s="134" t="s">
+      <c r="E148" s="133" t="s">
         <v>730</v>
       </c>
       <c r="F148" s="101">
@@ -19163,7 +19196,7 @@
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="E149" s="134" t="s">
+      <c r="E149" s="133" t="s">
         <v>731</v>
       </c>
       <c r="F149" s="101">
@@ -19184,7 +19217,7 @@
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="E150" s="134" t="s">
+      <c r="E150" s="133" t="s">
         <v>732</v>
       </c>
       <c r="F150" s="101">
@@ -19205,7 +19238,7 @@
         <f t="shared" si="24"/>
         <v>7</v>
       </c>
-      <c r="E151" s="134" t="s">
+      <c r="E151" s="133" t="s">
         <v>733</v>
       </c>
       <c r="F151" s="101">
@@ -19226,7 +19259,7 @@
         <f t="shared" si="24"/>
         <v>8</v>
       </c>
-      <c r="E152" s="134" t="s">
+      <c r="E152" s="133" t="s">
         <v>734</v>
       </c>
       <c r="F152" s="101">
@@ -19247,7 +19280,7 @@
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
-      <c r="E153" s="134" t="s">
+      <c r="E153" s="133" t="s">
         <v>735</v>
       </c>
       <c r="F153" s="101">
@@ -19268,7 +19301,7 @@
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="E154" s="134" t="s">
+      <c r="E154" s="133" t="s">
         <v>736</v>
       </c>
       <c r="F154" s="101">
@@ -19289,7 +19322,7 @@
         <f t="shared" si="24"/>
         <v>11</v>
       </c>
-      <c r="E155" s="135" t="s">
+      <c r="E155" s="134" t="s">
         <v>737</v>
       </c>
       <c r="F155" s="101">
@@ -19310,7 +19343,7 @@
         <f t="shared" si="24"/>
         <v>12</v>
       </c>
-      <c r="E156" s="135" t="s">
+      <c r="E156" s="134" t="s">
         <v>738</v>
       </c>
       <c r="F156" s="101">
@@ -19331,7 +19364,7 @@
         <f t="shared" si="24"/>
         <v>13</v>
       </c>
-      <c r="E157" s="135" t="s">
+      <c r="E157" s="134" t="s">
         <v>739</v>
       </c>
       <c r="F157" s="101">
@@ -19352,7 +19385,7 @@
         <f t="shared" si="24"/>
         <v>14</v>
       </c>
-      <c r="E158" s="135" t="s">
+      <c r="E158" s="134" t="s">
         <v>740</v>
       </c>
       <c r="F158" s="101">
@@ -19373,7 +19406,7 @@
         <f t="shared" si="24"/>
         <v>15</v>
       </c>
-      <c r="E159" s="135" t="s">
+      <c r="E159" s="134" t="s">
         <v>741</v>
       </c>
       <c r="F159" s="101">
@@ -19394,7 +19427,7 @@
         <f t="shared" si="24"/>
         <v>16</v>
       </c>
-      <c r="E160" s="135" t="s">
+      <c r="E160" s="134" t="s">
         <v>742</v>
       </c>
       <c r="F160" s="101">
@@ -19415,7 +19448,7 @@
         <f t="shared" si="24"/>
         <v>17</v>
       </c>
-      <c r="E161" s="135" t="s">
+      <c r="E161" s="134" t="s">
         <v>743</v>
       </c>
       <c r="F161" s="101">
@@ -19436,7 +19469,7 @@
         <f t="shared" si="24"/>
         <v>18</v>
       </c>
-      <c r="E162" s="135" t="s">
+      <c r="E162" s="134" t="s">
         <v>744</v>
       </c>
       <c r="F162" s="101">
@@ -20273,8 +20306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20339,1218 +20372,1254 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="135">
+      <c r="A4" s="134">
         <v>1</v>
       </c>
-      <c r="B4" s="136">
+      <c r="B4" s="135">
         <v>44127</v>
       </c>
-      <c r="C4" s="135">
+      <c r="C4" s="134">
         <v>53.14</v>
       </c>
-      <c r="D4" s="141">
+      <c r="D4" s="140">
         <v>1</v>
       </c>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="134" t="s">
         <v>746</v>
       </c>
-      <c r="F4" s="137">
+      <c r="F4" s="136">
         <v>2.1</v>
       </c>
-      <c r="G4" s="137">
+      <c r="G4" s="136">
         <v>28.48</v>
       </c>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135" t="s">
+      <c r="H4" s="134"/>
+      <c r="I4" s="134" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="141">
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="140">
         <f>+D4+1</f>
         <v>2</v>
       </c>
-      <c r="E5" s="135" t="s">
+      <c r="E5" s="134" t="s">
         <v>747</v>
       </c>
-      <c r="F5" s="137">
+      <c r="F5" s="136">
         <f>+G4</f>
         <v>28.48</v>
       </c>
-      <c r="G5" s="137">
+      <c r="G5" s="136">
         <v>49.26</v>
       </c>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="141">
+      <c r="A6" s="134"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="140">
         <f>+D5+1</f>
         <v>3</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="137" t="s">
         <v>749</v>
       </c>
-      <c r="F6" s="137">
+      <c r="F6" s="136">
         <f>+G5</f>
         <v>49.26</v>
       </c>
-      <c r="G6" s="137">
+      <c r="G6" s="136">
         <v>52.3</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="138" t="s">
         <v>749</v>
       </c>
-      <c r="I6" s="135"/>
+      <c r="I6" s="134"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="135">
+      <c r="A8" s="134">
         <v>2</v>
       </c>
-      <c r="B8" s="136">
+      <c r="B8" s="135">
         <v>44128</v>
       </c>
-      <c r="C8" s="135">
+      <c r="C8" s="134">
         <v>51.28</v>
       </c>
-      <c r="D8" s="141">
+      <c r="D8" s="140">
         <v>1</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="138" t="s">
         <v>750</v>
       </c>
-      <c r="F8" s="137">
+      <c r="F8" s="136">
         <v>4.08</v>
       </c>
-      <c r="G8" s="137">
+      <c r="G8" s="136">
         <v>28</v>
       </c>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135" t="s">
+      <c r="H8" s="134"/>
+      <c r="I8" s="134" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="141">
+      <c r="A9" s="134"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="140">
         <f>+D8+1</f>
         <v>2</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="E9" s="138" t="s">
         <v>751</v>
       </c>
-      <c r="F9" s="137">
+      <c r="F9" s="136">
         <f>+G8</f>
         <v>28</v>
       </c>
-      <c r="G9" s="135">
+      <c r="G9" s="134">
         <v>49.5</v>
       </c>
-      <c r="H9" s="139" t="s">
+      <c r="H9" s="138" t="s">
         <v>755</v>
       </c>
-      <c r="I9" s="135"/>
+      <c r="I9" s="134"/>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="141"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="140"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="135">
+      <c r="A11" s="134">
         <v>3</v>
       </c>
-      <c r="B11" s="136">
+      <c r="B11" s="135">
         <v>44129</v>
       </c>
-      <c r="C11" s="135">
+      <c r="C11" s="134">
         <v>58.06</v>
       </c>
-      <c r="D11" s="141">
+      <c r="D11" s="140">
         <v>1</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="E11" s="138" t="s">
         <v>754</v>
       </c>
-      <c r="F11" s="135">
+      <c r="F11" s="134">
         <v>2.46</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="134">
         <v>7.27</v>
       </c>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135" t="s">
+      <c r="H11" s="134"/>
+      <c r="I11" s="134" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="135"/>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="141">
+      <c r="A12" s="134"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="140">
         <f>+D11+1</f>
         <v>2</v>
       </c>
-      <c r="E12" s="139" t="s">
+      <c r="E12" s="138" t="s">
         <v>752</v>
       </c>
-      <c r="F12" s="135">
+      <c r="F12" s="134">
         <f>+G11</f>
         <v>7.27</v>
       </c>
-      <c r="G12" s="135">
+      <c r="G12" s="134">
         <v>24.39</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="141">
+      <c r="A13" s="134"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="140">
         <f>+D12+1</f>
         <v>3</v>
       </c>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="138" t="s">
         <v>756</v>
       </c>
-      <c r="F13" s="135">
+      <c r="F13" s="134">
         <f>+G12</f>
         <v>24.39</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="134">
         <v>46.25</v>
       </c>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="141">
+      <c r="A14" s="134"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="140">
         <f>+D13+1</f>
         <v>4</v>
       </c>
-      <c r="E14" s="140" t="s">
+      <c r="E14" s="139" t="s">
         <v>758</v>
       </c>
-      <c r="F14" s="135">
+      <c r="F14" s="134">
         <f>+G13</f>
         <v>46.25</v>
       </c>
-      <c r="G14" s="137">
+      <c r="G14" s="136">
         <v>57.3</v>
       </c>
-      <c r="H14" s="140" t="s">
+      <c r="H14" s="139" t="s">
         <v>759</v>
       </c>
-      <c r="I14" s="135"/>
+      <c r="I14" s="134"/>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="135">
+      <c r="A16" s="134">
         <v>4</v>
       </c>
-      <c r="B16" s="136">
+      <c r="B16" s="135">
         <v>44130</v>
       </c>
-      <c r="C16" s="135">
+      <c r="C16" s="134">
         <v>59.51</v>
       </c>
-      <c r="D16" s="141">
+      <c r="D16" s="140">
         <v>1</v>
       </c>
-      <c r="E16" s="140" t="s">
+      <c r="E16" s="139" t="s">
         <v>760</v>
       </c>
-      <c r="F16" s="135">
+      <c r="F16" s="134">
         <v>4.57</v>
       </c>
-      <c r="G16" s="135">
+      <c r="G16" s="134">
         <v>17.28</v>
       </c>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135" t="s">
+      <c r="H16" s="134"/>
+      <c r="I16" s="134" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="135"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="141">
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="140">
         <f>+D16+1</f>
         <v>2</v>
       </c>
-      <c r="E17" s="140" t="s">
+      <c r="E17" s="139" t="s">
         <v>761</v>
       </c>
-      <c r="F17" s="135">
+      <c r="F17" s="134">
         <f>+G16</f>
         <v>17.28</v>
       </c>
-      <c r="G17" s="137">
+      <c r="G17" s="136">
         <v>35.1</v>
       </c>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="135"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="141">
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="140">
         <f>+D17+1</f>
         <v>3</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="139" t="s">
         <v>762</v>
       </c>
-      <c r="F18" s="137">
+      <c r="F18" s="136">
         <f>+G17</f>
         <v>35.1</v>
       </c>
-      <c r="G18" s="137">
+      <c r="G18" s="136">
         <v>58.5</v>
       </c>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="135"/>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="135">
+      <c r="A20" s="134">
         <v>5</v>
       </c>
-      <c r="B20" s="136">
+      <c r="B20" s="135">
         <v>44131</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="144" t="s">
         <v>768</v>
       </c>
-      <c r="D20" s="141">
+      <c r="D20" s="140">
         <v>1</v>
       </c>
-      <c r="E20" s="144" t="s">
+      <c r="E20" s="143" t="s">
         <v>765</v>
       </c>
-      <c r="F20" s="137">
+      <c r="F20" s="136">
         <v>3.2</v>
       </c>
-      <c r="G20" s="137">
+      <c r="G20" s="136">
         <v>19.18</v>
       </c>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135" t="s">
+      <c r="H20" s="134"/>
+      <c r="I20" s="134" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="135"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="141">
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="140">
         <f>+D20+1</f>
         <v>2</v>
       </c>
-      <c r="E21" s="144" t="s">
+      <c r="E21" s="143" t="s">
         <v>766</v>
       </c>
-      <c r="F21" s="137">
+      <c r="F21" s="136">
         <f>+G20</f>
         <v>19.18</v>
       </c>
-      <c r="G21" s="135">
+      <c r="G21" s="134">
         <v>37.549999999999997</v>
       </c>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="135"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="141">
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="140">
         <f>+D21+1</f>
         <v>3</v>
       </c>
-      <c r="E22" s="144" t="s">
+      <c r="E22" s="143" t="s">
         <v>767</v>
       </c>
-      <c r="F22" s="137">
+      <c r="F22" s="136">
         <f>+G21</f>
         <v>37.549999999999997</v>
       </c>
-      <c r="G22" s="135">
+      <c r="G22" s="134">
         <v>59.35</v>
       </c>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="135"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="135">
+      <c r="A24" s="134">
         <v>6</v>
       </c>
-      <c r="B24" s="136">
+      <c r="B24" s="135">
         <v>44132</v>
       </c>
-      <c r="C24" s="135">
+      <c r="C24" s="134">
         <v>58.31</v>
       </c>
-      <c r="D24" s="141">
+      <c r="D24" s="140">
         <v>1</v>
       </c>
-      <c r="E24" s="146" t="s">
+      <c r="E24" s="145" t="s">
         <v>771</v>
       </c>
-      <c r="F24" s="135">
+      <c r="F24" s="134">
         <v>3.03</v>
       </c>
-      <c r="G24" s="135">
+      <c r="G24" s="134">
         <v>27.23</v>
       </c>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135" t="s">
+      <c r="H24" s="134"/>
+      <c r="I24" s="134" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="135"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="141">
+      <c r="A25" s="134"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="140">
         <f>+D24+1</f>
         <v>2</v>
       </c>
-      <c r="E25" s="146" t="s">
+      <c r="E25" s="145" t="s">
         <v>772</v>
       </c>
-      <c r="F25" s="135">
+      <c r="F25" s="134">
         <f>+G24</f>
         <v>27.23</v>
       </c>
-      <c r="G25" s="135">
+      <c r="G25" s="134">
         <v>45.43</v>
       </c>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="141">
+      <c r="A26" s="134"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="140">
         <f>+D25+1</f>
         <v>3</v>
       </c>
-      <c r="E26" s="146" t="s">
+      <c r="E26" s="145" t="s">
         <v>773</v>
       </c>
-      <c r="F26" s="135">
+      <c r="F26" s="134">
         <f>+G25</f>
         <v>45.43</v>
       </c>
-      <c r="G26" s="135">
+      <c r="G26" s="134">
         <v>57.22</v>
       </c>
-      <c r="H26" s="146" t="s">
+      <c r="H26" s="145" t="s">
         <v>774</v>
       </c>
-      <c r="I26" s="135"/>
+      <c r="I26" s="134"/>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="135"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="135">
+      <c r="A28" s="134">
         <v>7</v>
       </c>
-      <c r="B28" s="136">
+      <c r="B28" s="135">
         <v>44133</v>
       </c>
-      <c r="C28" s="135">
+      <c r="C28" s="134">
         <v>59.15</v>
       </c>
-      <c r="D28" s="141">
+      <c r="D28" s="140">
         <v>1</v>
       </c>
-      <c r="E28" s="146" t="s">
+      <c r="E28" s="145" t="s">
         <v>775</v>
       </c>
-      <c r="F28" s="135">
+      <c r="F28" s="134">
         <v>4.29</v>
       </c>
-      <c r="G28" s="135">
+      <c r="G28" s="134">
         <v>9.0299999999999994</v>
       </c>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135" t="s">
+      <c r="H28" s="134"/>
+      <c r="I28" s="134" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="135"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="141">
+      <c r="A29" s="134"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="140">
         <f>+D28+1</f>
         <v>2</v>
       </c>
-      <c r="E29" s="146" t="s">
+      <c r="E29" s="145" t="s">
         <v>776</v>
       </c>
-      <c r="F29" s="135">
+      <c r="F29" s="134">
         <f>+G28</f>
         <v>9.0299999999999994</v>
       </c>
-      <c r="G29" s="135">
+      <c r="G29" s="134">
         <v>23.21</v>
       </c>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
     </row>
     <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="135"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="141">
+      <c r="A30" s="134"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="140">
         <f>+D29+1</f>
         <v>3</v>
       </c>
-      <c r="E30" s="146" t="s">
+      <c r="E30" s="145" t="s">
         <v>777</v>
       </c>
-      <c r="F30" s="135">
+      <c r="F30" s="134">
         <f t="shared" ref="F30:F31" si="0">+G29</f>
         <v>23.21</v>
       </c>
-      <c r="G30" s="135">
+      <c r="G30" s="134">
         <v>37.33</v>
       </c>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="135"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="141">
+      <c r="A31" s="134"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="140">
         <f>+D30+1</f>
         <v>4</v>
       </c>
-      <c r="E31" s="147" t="s">
+      <c r="E31" s="146" t="s">
         <v>779</v>
       </c>
-      <c r="F31" s="135">
+      <c r="F31" s="134">
         <f t="shared" si="0"/>
         <v>37.33</v>
       </c>
-      <c r="G31" s="135">
+      <c r="G31" s="134">
         <v>50.36</v>
       </c>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="135"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="141">
+      <c r="A32" s="134"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="140">
         <f t="shared" ref="D32" si="1">+D31+1</f>
         <v>5</v>
       </c>
-      <c r="E32" s="147" t="s">
+      <c r="E32" s="146" t="s">
         <v>780</v>
       </c>
-      <c r="F32" s="135">
+      <c r="F32" s="134">
         <f>+G31</f>
         <v>50.36</v>
       </c>
-      <c r="G32" s="135">
+      <c r="G32" s="134">
         <v>58.39</v>
       </c>
-      <c r="H32" s="147" t="s">
+      <c r="H32" s="146" t="s">
         <v>782</v>
       </c>
-      <c r="I32" s="135"/>
+      <c r="I32" s="134"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="135"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="135">
+      <c r="A34" s="134">
         <v>8</v>
       </c>
-      <c r="B34" s="136">
+      <c r="B34" s="135">
         <v>44134</v>
       </c>
-      <c r="C34" s="135"/>
-      <c r="D34" s="141">
+      <c r="C34" s="134">
+        <v>45.48</v>
+      </c>
+      <c r="D34" s="140">
         <v>1</v>
       </c>
-      <c r="E34" s="147" t="s">
+      <c r="E34" s="146" t="s">
         <v>781</v>
       </c>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
+      <c r="F34" s="134">
+        <v>4.16</v>
+      </c>
+      <c r="G34" s="134">
+        <v>13.19</v>
+      </c>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="135"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="141">
+      <c r="A35" s="134"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="140">
         <f>+D34+1</f>
         <v>2</v>
       </c>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135">
+      <c r="E35" s="148" t="s">
+        <v>784</v>
+      </c>
+      <c r="F35" s="134">
         <f>+G34</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
+        <v>13.19</v>
+      </c>
+      <c r="G35" s="134">
+        <v>28.55</v>
+      </c>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="135"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="141">
+      <c r="A36" s="134"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="140">
         <f>+D35+1</f>
         <v>3</v>
       </c>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
+      <c r="E36" s="148" t="s">
+        <v>785</v>
+      </c>
+      <c r="F36" s="134">
+        <f t="shared" ref="F36:F37" si="2">+G35</f>
+        <v>28.55</v>
+      </c>
+      <c r="G36" s="134">
+        <v>44.45</v>
+      </c>
+      <c r="H36" s="149" t="s">
+        <v>788</v>
+      </c>
+      <c r="I36" s="134"/>
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="135"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="141">
-        <f>+D36+1</f>
-        <v>4</v>
-      </c>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="135"/>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
+      <c r="A38" s="134">
+        <v>9</v>
+      </c>
+      <c r="B38" s="135">
+        <v>44135</v>
+      </c>
+      <c r="C38" s="134"/>
+      <c r="D38" s="140">
+        <v>1</v>
+      </c>
+      <c r="E38" s="149" t="s">
+        <v>789</v>
+      </c>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="135"/>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="135"/>
-      <c r="H39" s="135"/>
-      <c r="I39" s="135"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="140">
+        <f>+D38+1</f>
+        <v>2</v>
+      </c>
+      <c r="E39" s="149" t="s">
+        <v>786</v>
+      </c>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="135"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="140">
+        <f>+D39+1</f>
+        <v>3</v>
+      </c>
+      <c r="E40" s="149" t="s">
+        <v>790</v>
+      </c>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="135"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="135"/>
-      <c r="B42" s="135"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
+      <c r="A42" s="134"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="135"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="135"/>
-      <c r="B44" s="135"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="135"/>
-      <c r="H44" s="135"/>
-      <c r="I44" s="135"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="135"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="135"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="134"/>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="135"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
+      <c r="A47" s="134"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="134"/>
+      <c r="I47" s="134"/>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="135"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="135"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="135"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="135"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="135"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="135"/>
-      <c r="G49" s="135"/>
-      <c r="H49" s="135"/>
-      <c r="I49" s="135"/>
+      <c r="A49" s="134"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="135"/>
-      <c r="B50" s="135"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="135"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="135"/>
-      <c r="B51" s="135"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
+      <c r="A51" s="134"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="135"/>
-      <c r="B52" s="135"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="135"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
+      <c r="A52" s="134"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="134"/>
+      <c r="I52" s="134"/>
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="135"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
+      <c r="A53" s="134"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
     </row>
     <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="135"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="135"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="135"/>
-      <c r="B55" s="135"/>
-      <c r="C55" s="135"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="135"/>
-      <c r="G55" s="135"/>
-      <c r="H55" s="135"/>
-      <c r="I55" s="135"/>
+      <c r="A55" s="134"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
+      <c r="G55" s="134"/>
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="135"/>
-      <c r="B56" s="135"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
+      <c r="A56" s="134"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
     </row>
     <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="135"/>
-      <c r="B57" s="135"/>
-      <c r="C57" s="135"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="135"/>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="135"/>
+      <c r="A57" s="134"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
     </row>
     <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="135"/>
-      <c r="B58" s="135"/>
-      <c r="C58" s="135"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
+      <c r="A58" s="134"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="135"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="135"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
+      <c r="A59" s="134"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="135"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="135"/>
-      <c r="D60" s="135"/>
-      <c r="E60" s="135"/>
-      <c r="F60" s="135"/>
-      <c r="G60" s="135"/>
-      <c r="H60" s="135"/>
-      <c r="I60" s="135"/>
+      <c r="A60" s="134"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="134"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
     </row>
     <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="135"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="135"/>
-      <c r="G61" s="135"/>
-      <c r="H61" s="135"/>
-      <c r="I61" s="135"/>
+      <c r="A61" s="134"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="135"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
+      <c r="A62" s="134"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="135"/>
-      <c r="B63" s="135"/>
-      <c r="C63" s="135"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="135"/>
-      <c r="F63" s="135"/>
-      <c r="G63" s="135"/>
-      <c r="H63" s="135"/>
-      <c r="I63" s="135"/>
+      <c r="A63" s="134"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="135"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="135"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="135"/>
-      <c r="H64" s="135"/>
-      <c r="I64" s="135"/>
+      <c r="A64" s="134"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="135"/>
-      <c r="B65" s="135"/>
-      <c r="C65" s="135"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="135"/>
-      <c r="H65" s="135"/>
-      <c r="I65" s="135"/>
+      <c r="A65" s="134"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="135"/>
-      <c r="B66" s="135"/>
-      <c r="C66" s="135"/>
-      <c r="D66" s="135"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="135"/>
-      <c r="G66" s="135"/>
-      <c r="H66" s="135"/>
-      <c r="I66" s="135"/>
+      <c r="A66" s="134"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="134"/>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="135"/>
-      <c r="B67" s="135"/>
-      <c r="C67" s="135"/>
-      <c r="D67" s="135"/>
-      <c r="E67" s="135"/>
-      <c r="F67" s="135"/>
-      <c r="G67" s="135"/>
-      <c r="H67" s="135"/>
-      <c r="I67" s="135"/>
+      <c r="A67" s="134"/>
+      <c r="B67" s="134"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="134"/>
+      <c r="E67" s="134"/>
+      <c r="F67" s="134"/>
+      <c r="G67" s="134"/>
+      <c r="H67" s="134"/>
+      <c r="I67" s="134"/>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="135"/>
-      <c r="B68" s="135"/>
-      <c r="C68" s="135"/>
-      <c r="D68" s="135"/>
-      <c r="E68" s="135"/>
-      <c r="F68" s="135"/>
-      <c r="G68" s="135"/>
-      <c r="H68" s="135"/>
-      <c r="I68" s="135"/>
+      <c r="A68" s="134"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="134"/>
+      <c r="F68" s="134"/>
+      <c r="G68" s="134"/>
+      <c r="H68" s="134"/>
+      <c r="I68" s="134"/>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="135"/>
-      <c r="B69" s="135"/>
-      <c r="C69" s="135"/>
-      <c r="D69" s="135"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="135"/>
-      <c r="I69" s="135"/>
+      <c r="A69" s="134"/>
+      <c r="B69" s="134"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="134"/>
+      <c r="E69" s="134"/>
+      <c r="F69" s="134"/>
+      <c r="G69" s="134"/>
+      <c r="H69" s="134"/>
+      <c r="I69" s="134"/>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="135"/>
-      <c r="B70" s="135"/>
-      <c r="C70" s="135"/>
-      <c r="D70" s="135"/>
-      <c r="E70" s="135"/>
-      <c r="F70" s="135"/>
-      <c r="G70" s="135"/>
-      <c r="H70" s="135"/>
-      <c r="I70" s="135"/>
+      <c r="A70" s="134"/>
+      <c r="B70" s="134"/>
+      <c r="C70" s="134"/>
+      <c r="D70" s="134"/>
+      <c r="E70" s="134"/>
+      <c r="F70" s="134"/>
+      <c r="G70" s="134"/>
+      <c r="H70" s="134"/>
+      <c r="I70" s="134"/>
     </row>
     <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="135"/>
-      <c r="B71" s="135"/>
-      <c r="C71" s="135"/>
-      <c r="D71" s="135"/>
-      <c r="E71" s="135"/>
-      <c r="F71" s="135"/>
-      <c r="G71" s="135"/>
-      <c r="H71" s="135"/>
-      <c r="I71" s="135"/>
+      <c r="A71" s="134"/>
+      <c r="B71" s="134"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="134"/>
+      <c r="I71" s="134"/>
     </row>
     <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="135"/>
-      <c r="B72" s="135"/>
-      <c r="C72" s="135"/>
-      <c r="D72" s="135"/>
-      <c r="E72" s="135"/>
-      <c r="F72" s="135"/>
-      <c r="G72" s="135"/>
-      <c r="H72" s="135"/>
-      <c r="I72" s="135"/>
+      <c r="A72" s="134"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="134"/>
+      <c r="D72" s="134"/>
+      <c r="E72" s="134"/>
+      <c r="F72" s="134"/>
+      <c r="G72" s="134"/>
+      <c r="H72" s="134"/>
+      <c r="I72" s="134"/>
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="135"/>
-      <c r="B73" s="135"/>
-      <c r="C73" s="135"/>
-      <c r="D73" s="135"/>
-      <c r="E73" s="135"/>
-      <c r="F73" s="135"/>
-      <c r="G73" s="135"/>
-      <c r="H73" s="135"/>
-      <c r="I73" s="135"/>
+      <c r="A73" s="134"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="134"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="134"/>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="135"/>
-      <c r="B74" s="135"/>
-      <c r="C74" s="135"/>
-      <c r="D74" s="135"/>
-      <c r="E74" s="135"/>
-      <c r="F74" s="135"/>
-      <c r="G74" s="135"/>
-      <c r="H74" s="135"/>
-      <c r="I74" s="135"/>
+      <c r="A74" s="134"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="134"/>
+      <c r="H74" s="134"/>
+      <c r="I74" s="134"/>
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="135"/>
-      <c r="B75" s="135"/>
-      <c r="C75" s="135"/>
-      <c r="D75" s="135"/>
-      <c r="E75" s="135"/>
-      <c r="F75" s="135"/>
-      <c r="G75" s="135"/>
-      <c r="H75" s="135"/>
-      <c r="I75" s="135"/>
+      <c r="A75" s="134"/>
+      <c r="B75" s="134"/>
+      <c r="C75" s="134"/>
+      <c r="D75" s="134"/>
+      <c r="E75" s="134"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="134"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="134"/>
     </row>
     <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="135"/>
-      <c r="B76" s="135"/>
-      <c r="C76" s="135"/>
-      <c r="D76" s="135"/>
-      <c r="E76" s="135"/>
-      <c r="F76" s="135"/>
-      <c r="G76" s="135"/>
-      <c r="H76" s="135"/>
-      <c r="I76" s="135"/>
+      <c r="A76" s="134"/>
+      <c r="B76" s="134"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="134"/>
+      <c r="E76" s="134"/>
+      <c r="F76" s="134"/>
+      <c r="G76" s="134"/>
+      <c r="H76" s="134"/>
+      <c r="I76" s="134"/>
     </row>
     <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="135"/>
-      <c r="B77" s="135"/>
-      <c r="C77" s="135"/>
-      <c r="D77" s="135"/>
-      <c r="E77" s="135"/>
-      <c r="F77" s="135"/>
-      <c r="G77" s="135"/>
-      <c r="H77" s="135"/>
-      <c r="I77" s="135"/>
+      <c r="A77" s="134"/>
+      <c r="B77" s="134"/>
+      <c r="C77" s="134"/>
+      <c r="D77" s="134"/>
+      <c r="E77" s="134"/>
+      <c r="F77" s="134"/>
+      <c r="G77" s="134"/>
+      <c r="H77" s="134"/>
+      <c r="I77" s="134"/>
     </row>
     <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="135"/>
-      <c r="B78" s="135"/>
-      <c r="C78" s="135"/>
-      <c r="D78" s="135"/>
-      <c r="E78" s="135"/>
-      <c r="F78" s="135"/>
-      <c r="G78" s="135"/>
-      <c r="H78" s="135"/>
-      <c r="I78" s="135"/>
+      <c r="A78" s="134"/>
+      <c r="B78" s="134"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="134"/>
+      <c r="E78" s="134"/>
+      <c r="F78" s="134"/>
+      <c r="G78" s="134"/>
+      <c r="H78" s="134"/>
+      <c r="I78" s="134"/>
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="135"/>
-      <c r="B79" s="135"/>
-      <c r="C79" s="135"/>
-      <c r="D79" s="135"/>
-      <c r="E79" s="135"/>
-      <c r="F79" s="135"/>
-      <c r="G79" s="135"/>
-      <c r="H79" s="135"/>
-      <c r="I79" s="135"/>
+      <c r="A79" s="134"/>
+      <c r="B79" s="134"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="134"/>
+      <c r="E79" s="134"/>
+      <c r="F79" s="134"/>
+      <c r="G79" s="134"/>
+      <c r="H79" s="134"/>
+      <c r="I79" s="134"/>
     </row>
     <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="135"/>
-      <c r="B80" s="135"/>
-      <c r="C80" s="135"/>
-      <c r="D80" s="135"/>
-      <c r="E80" s="135"/>
-      <c r="F80" s="135"/>
-      <c r="G80" s="135"/>
-      <c r="H80" s="135"/>
-      <c r="I80" s="135"/>
+      <c r="A80" s="134"/>
+      <c r="B80" s="134"/>
+      <c r="C80" s="134"/>
+      <c r="D80" s="134"/>
+      <c r="E80" s="134"/>
+      <c r="F80" s="134"/>
+      <c r="G80" s="134"/>
+      <c r="H80" s="134"/>
+      <c r="I80" s="134"/>
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="135"/>
-      <c r="B81" s="135"/>
-      <c r="C81" s="135"/>
-      <c r="D81" s="135"/>
-      <c r="E81" s="135"/>
-      <c r="F81" s="135"/>
-      <c r="G81" s="135"/>
-      <c r="H81" s="135"/>
-      <c r="I81" s="135"/>
+      <c r="A81" s="134"/>
+      <c r="B81" s="134"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="134"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="134"/>
+      <c r="H81" s="134"/>
+      <c r="I81" s="134"/>
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="135"/>
-      <c r="B82" s="135"/>
-      <c r="C82" s="135"/>
-      <c r="D82" s="135"/>
-      <c r="E82" s="135"/>
-      <c r="F82" s="135"/>
-      <c r="G82" s="135"/>
-      <c r="H82" s="135"/>
-      <c r="I82" s="135"/>
+      <c r="A82" s="134"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="134"/>
+      <c r="F82" s="134"/>
+      <c r="G82" s="134"/>
+      <c r="H82" s="134"/>
+      <c r="I82" s="134"/>
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="135"/>
-      <c r="B83" s="135"/>
-      <c r="C83" s="135"/>
-      <c r="D83" s="135"/>
-      <c r="E83" s="135"/>
-      <c r="F83" s="135"/>
-      <c r="G83" s="135"/>
-      <c r="H83" s="135"/>
-      <c r="I83" s="135"/>
+      <c r="A83" s="134"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="134"/>
+      <c r="G83" s="134"/>
+      <c r="H83" s="134"/>
+      <c r="I83" s="134"/>
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="135"/>
-      <c r="B84" s="135"/>
-      <c r="C84" s="135"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="135"/>
-      <c r="F84" s="135"/>
-      <c r="G84" s="135"/>
-      <c r="H84" s="135"/>
-      <c r="I84" s="135"/>
+      <c r="A84" s="134"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="134"/>
+      <c r="F84" s="134"/>
+      <c r="G84" s="134"/>
+      <c r="H84" s="134"/>
+      <c r="I84" s="134"/>
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="135"/>
-      <c r="B85" s="135"/>
-      <c r="C85" s="135"/>
-      <c r="D85" s="135"/>
-      <c r="E85" s="135"/>
-      <c r="F85" s="135"/>
-      <c r="G85" s="135"/>
-      <c r="H85" s="135"/>
-      <c r="I85" s="135"/>
+      <c r="A85" s="134"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="134"/>
+      <c r="G85" s="134"/>
+      <c r="H85" s="134"/>
+      <c r="I85" s="134"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -15,12 +15,11 @@
     <sheet name="Kandam6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="793">
   <si>
     <t>Date</t>
   </si>
@@ -2393,19 +2392,31 @@
   </si>
   <si>
     <t>6.3.1.1</t>
+  </si>
+  <si>
+    <t>6.3.2.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bbQm9RvFTYw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="111" x14ac:knownFonts="1">
+  <fonts count="112" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3106,77 +3117,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="107" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="108" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="108" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="109" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="109" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="107" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="108" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="108" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="109" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="100" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="98" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="97" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="100" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="90" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="88" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="84" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="109" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="110" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="109" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="110" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="110" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3185,17 +3197,17 @@
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3210,19 +3222,19 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="108" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="109" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="109" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="110" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3237,44 +3249,44 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -20307,7 +20319,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21053,7 +21065,7 @@
         <v>785</v>
       </c>
       <c r="F36" s="134">
-        <f t="shared" ref="F36:F37" si="2">+G35</f>
+        <f t="shared" ref="F36" si="2">+G35</f>
         <v>28.55</v>
       </c>
       <c r="G36" s="134">
@@ -21082,17 +21094,25 @@
       <c r="B38" s="135">
         <v>44135</v>
       </c>
-      <c r="C38" s="134"/>
+      <c r="C38" s="150" t="s">
+        <v>605</v>
+      </c>
       <c r="D38" s="140">
         <v>1</v>
       </c>
       <c r="E38" s="149" t="s">
         <v>789</v>
       </c>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
+      <c r="F38" s="134">
+        <v>1.01</v>
+      </c>
+      <c r="G38" s="134">
+        <v>10.42</v>
+      </c>
       <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
+      <c r="I38" s="134" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="134"/>
@@ -21105,8 +21125,13 @@
       <c r="E39" s="149" t="s">
         <v>786</v>
       </c>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
+      <c r="F39" s="134">
+        <f>+G38</f>
+        <v>10.42</v>
+      </c>
+      <c r="G39" s="136">
+        <v>26.4</v>
+      </c>
       <c r="H39" s="134"/>
       <c r="I39" s="134"/>
     </row>
@@ -21121,8 +21146,13 @@
       <c r="E40" s="149" t="s">
         <v>790</v>
       </c>
-      <c r="F40" s="134"/>
-      <c r="G40" s="134"/>
+      <c r="F40" s="136">
+        <f>+G39</f>
+        <v>26.4</v>
+      </c>
+      <c r="G40" s="134">
+        <v>47.33</v>
+      </c>
       <c r="H40" s="134"/>
       <c r="I40" s="134"/>
     </row>
@@ -21130,10 +21160,20 @@
       <c r="A41" s="134"/>
       <c r="B41" s="134"/>
       <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="134"/>
-      <c r="G41" s="134"/>
+      <c r="D41" s="140">
+        <f>+D40+1</f>
+        <v>4</v>
+      </c>
+      <c r="E41" s="150" t="s">
+        <v>791</v>
+      </c>
+      <c r="F41" s="134">
+        <f>+G40</f>
+        <v>47.33</v>
+      </c>
+      <c r="G41" s="134">
+        <v>59.55</v>
+      </c>
       <c r="H41" s="134"/>
       <c r="I41" s="134"/>
     </row>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="804">
   <si>
     <t>Date</t>
   </si>
@@ -2398,19 +2398,58 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=bbQm9RvFTYw</t>
+  </si>
+  <si>
+    <t>1.00.06</t>
+  </si>
+  <si>
+    <t>6.3.2.4</t>
+  </si>
+  <si>
+    <t>6.3.2.5</t>
+  </si>
+  <si>
+    <t>6.3.3.1</t>
+  </si>
+  <si>
+    <t>6.3.4.1</t>
+  </si>
+  <si>
+    <t>6.3.4.8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-HSnXsFVpkk</t>
+  </si>
+  <si>
+    <t>6.3.4.9</t>
+  </si>
+  <si>
+    <t>6.3.5.1</t>
+  </si>
+  <si>
+    <t>6.3.6.1</t>
+  </si>
+  <si>
+    <t>6.3.7.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="112" x14ac:knownFonts="1">
+  <fonts count="113" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3117,77 +3156,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="108" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="109" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="109" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="110" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="110" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="108" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="109" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="109" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="110" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="102" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="98" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="102" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="91" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="90" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="90" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="86" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="80" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="110" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="111" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="110" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="111" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="111" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3196,17 +3236,17 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3221,19 +3261,19 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="109" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="110" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="110" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="111" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3248,44 +3288,44 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -20318,8 +20358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21174,7 +21214,9 @@
       <c r="G41" s="134">
         <v>59.55</v>
       </c>
-      <c r="H41" s="134"/>
+      <c r="H41" s="151" t="s">
+        <v>794</v>
+      </c>
       <c r="I41" s="134"/>
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -21189,24 +21231,50 @@
       <c r="I42" s="134"/>
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="134"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
+      <c r="A43" s="134">
+        <v>10</v>
+      </c>
+      <c r="B43" s="135">
+        <v>44136</v>
+      </c>
+      <c r="C43" s="151" t="s">
+        <v>793</v>
+      </c>
+      <c r="D43" s="140">
+        <v>1</v>
+      </c>
+      <c r="E43" s="151" t="s">
+        <v>795</v>
+      </c>
+      <c r="F43" s="134">
+        <v>3.12</v>
+      </c>
+      <c r="G43" s="134">
+        <v>10.16</v>
+      </c>
       <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
+      <c r="I43" s="134" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="134"/>
       <c r="B44" s="134"/>
       <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
-      <c r="G44" s="134"/>
+      <c r="D44" s="140">
+        <f>+D43+1</f>
+        <v>2</v>
+      </c>
+      <c r="E44" s="151" t="s">
+        <v>796</v>
+      </c>
+      <c r="F44" s="134">
+        <f>+G43</f>
+        <v>10.16</v>
+      </c>
+      <c r="G44" s="134">
+        <v>33.549999999999997</v>
+      </c>
       <c r="H44" s="134"/>
       <c r="I44" s="134"/>
     </row>
@@ -21214,18 +21282,30 @@
       <c r="A45" s="134"/>
       <c r="B45" s="134"/>
       <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
+      <c r="D45" s="140">
+        <f>+D44+1</f>
+        <v>3</v>
+      </c>
+      <c r="E45" s="151" t="s">
+        <v>797</v>
+      </c>
+      <c r="F45" s="134">
+        <f t="shared" ref="F45:F46" si="3">+G44</f>
+        <v>33.549999999999997</v>
+      </c>
+      <c r="G45" s="134">
+        <v>59.05</v>
+      </c>
+      <c r="H45" s="151" t="s">
+        <v>798</v>
+      </c>
       <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="134"/>
       <c r="B46" s="134"/>
       <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
+      <c r="D46" s="140"/>
       <c r="E46" s="134"/>
       <c r="F46" s="134"/>
       <c r="G46" s="134"/>
@@ -21233,11 +21313,19 @@
       <c r="I46" s="134"/>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="134"/>
-      <c r="B47" s="134"/>
+      <c r="A47" s="151">
+        <v>11</v>
+      </c>
+      <c r="B47" s="135">
+        <v>44137</v>
+      </c>
       <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
+      <c r="D47" s="140">
+        <v>1</v>
+      </c>
+      <c r="E47" s="151" t="s">
+        <v>800</v>
+      </c>
       <c r="F47" s="134"/>
       <c r="G47" s="134"/>
       <c r="H47" s="134"/>
@@ -21247,8 +21335,13 @@
       <c r="A48" s="134"/>
       <c r="B48" s="134"/>
       <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
+      <c r="D48" s="140">
+        <f>+D47+1</f>
+        <v>2</v>
+      </c>
+      <c r="E48" s="151" t="s">
+        <v>801</v>
+      </c>
       <c r="F48" s="134"/>
       <c r="G48" s="134"/>
       <c r="H48" s="134"/>
@@ -21258,8 +21351,13 @@
       <c r="A49" s="134"/>
       <c r="B49" s="134"/>
       <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
+      <c r="D49" s="140">
+        <f>+D48+1</f>
+        <v>3</v>
+      </c>
+      <c r="E49" s="151" t="s">
+        <v>802</v>
+      </c>
       <c r="F49" s="134"/>
       <c r="G49" s="134"/>
       <c r="H49" s="134"/>
@@ -21269,8 +21367,13 @@
       <c r="A50" s="134"/>
       <c r="B50" s="134"/>
       <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
+      <c r="D50" s="140">
+        <f>+D49+1</f>
+        <v>4</v>
+      </c>
+      <c r="E50" s="151" t="s">
+        <v>803</v>
+      </c>
       <c r="F50" s="134"/>
       <c r="G50" s="134"/>
       <c r="H50" s="134"/>

--- a/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
+++ b/TS Jatai Working/TTD JatA PaaraayaNam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="811">
   <si>
     <t>Date</t>
   </si>
@@ -2431,19 +2431,46 @@
   </si>
   <si>
     <t>6.3.7.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qpiYD5UnFa4</t>
+  </si>
+  <si>
+    <t>6.3.8.1</t>
+  </si>
+  <si>
+    <t>6.3.8.3</t>
+  </si>
+  <si>
+    <t>6.3.9.1</t>
+